--- a/gd/副本内容设计/第一、二章怪物分布.xlsx
+++ b/gd/副本内容设计/第一、二章怪物分布.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4004" uniqueCount="1286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="1288">
   <si>
     <t>红</t>
     <phoneticPr fontId="10" type="noConversion"/>
@@ -4397,10 +4397,6 @@
     <t>dazhaoxuanyao</t>
   </si>
   <si>
-    <t>bossxiaoxiang28Muling</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>木霊(Kodama)</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -5408,32 +5404,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>bossdajie1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ladong</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>拉冬(Ladon)</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -5519,10 +5489,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>啊！我的壳扎死我啦！</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>头（身体）</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -5540,10 +5506,6 @@
   </si>
   <si>
     <t>Against injury</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss技能4</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -5654,6 +5616,42 @@
   </si>
   <si>
     <t>Shell</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bossxiaoxiang28Muling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossdajie18Ladong5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点状态变化</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点3在boss使用技能3时切换为正常状态1（显示mesh）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>别摸我，我的壳可是会扎人的！</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss技能4（被动）</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -6176,6 +6174,15 @@
     <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6229,15 +6236,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -15361,11 +15359,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="92" t="s">
         <v>401</v>
       </c>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
     </row>
     <row r="2" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
@@ -16263,31 +16261,31 @@
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D16" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E17" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G17" s="28"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F18" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G18" s="28"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E19" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G19" s="28"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F20" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G20" s="28"/>
     </row>
@@ -16295,12 +16293,12 @@
       <c r="G21" s="28"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D22" s="107" t="s">
-        <v>1220</v>
-      </c>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="109"/>
+      <c r="D22" s="89" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="91"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="G23" s="28"/>
@@ -16407,7 +16405,7 @@
         <v>78</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -16415,7 +16413,7 @@
         <v>78</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -16439,7 +16437,7 @@
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="16" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>993</v>
@@ -16544,38 +16542,38 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D38" s="75" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E38" s="76" t="s">
         <v>1147</v>
       </c>
-      <c r="E38" s="76" t="s">
-        <v>1148</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H38" s="75" t="s">
+        <v>1146</v>
+      </c>
+      <c r="I38" s="76" t="s">
         <v>1147</v>
       </c>
-      <c r="I38" s="76" t="s">
-        <v>1148</v>
-      </c>
       <c r="J38" s="2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D39" s="76"/>
       <c r="E39" s="76" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H39" s="76"/>
       <c r="I39" s="76" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
@@ -16621,7 +16619,7 @@
         <v>78</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
@@ -16673,22 +16671,22 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D52" s="75" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E52" s="76" t="s">
         <v>1147</v>
       </c>
-      <c r="E52" s="76" t="s">
-        <v>1148</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D53" s="76"/>
       <c r="E53" s="76" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
@@ -16704,7 +16702,7 @@
         <v>69</v>
       </c>
       <c r="E55" s="73" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
@@ -16736,7 +16734,7 @@
         <v>78</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
@@ -16785,22 +16783,22 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D66" s="75" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E66" s="76" t="s">
         <v>1147</v>
       </c>
-      <c r="E66" s="76" t="s">
-        <v>1148</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D67" s="76"/>
       <c r="E67" s="76" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
@@ -16845,7 +16843,7 @@
         <v>78</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
@@ -16897,22 +16895,22 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D81" s="75" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E81" s="76" t="s">
         <v>1147</v>
       </c>
-      <c r="E81" s="76" t="s">
-        <v>1148</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D82" s="76"/>
       <c r="E82" s="76" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
@@ -16995,7 +16993,7 @@
         <v>78</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
@@ -17085,22 +17083,22 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H97" s="75" t="s">
+        <v>1146</v>
+      </c>
+      <c r="I97" s="76" t="s">
         <v>1147</v>
       </c>
-      <c r="I97" s="76" t="s">
-        <v>1148</v>
-      </c>
       <c r="J97" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="H98" s="76"/>
       <c r="I98" s="76" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.15">
@@ -17113,7 +17111,7 @@
         <v>69</v>
       </c>
       <c r="E101" s="79" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
@@ -17145,7 +17143,7 @@
         <v>78</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.15">
@@ -17157,7 +17155,7 @@
         <v>80</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.15">
@@ -17165,7 +17163,7 @@
         <v>82</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.15">
@@ -17200,22 +17198,22 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D112" s="75" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E112" s="76" t="s">
         <v>1147</v>
       </c>
-      <c r="E112" s="76" t="s">
-        <v>1148</v>
-      </c>
       <c r="F112" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D113" s="76"/>
       <c r="E113" s="76" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
@@ -17228,7 +17226,7 @@
         <v>117</v>
       </c>
       <c r="E116" s="73" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
@@ -17260,7 +17258,7 @@
         <v>78</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
@@ -17312,22 +17310,22 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D127" s="75" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E127" s="76" t="s">
         <v>1147</v>
       </c>
-      <c r="E127" s="76" t="s">
-        <v>1148</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D128" s="76"/>
       <c r="E128" s="76" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.15">
@@ -17402,13 +17400,13 @@
         <v>78</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H135" s="16" t="s">
         <v>78</v>
       </c>
       <c r="I135" s="8" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.15">
@@ -17493,38 +17491,38 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D142" s="75" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E142" s="76" t="s">
         <v>1147</v>
       </c>
-      <c r="E142" s="76" t="s">
-        <v>1148</v>
-      </c>
       <c r="F142" s="76" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H142" s="75" t="s">
+        <v>1146</v>
+      </c>
+      <c r="I142" s="76" t="s">
         <v>1147</v>
       </c>
-      <c r="I142" s="76" t="s">
-        <v>1148</v>
-      </c>
       <c r="J142" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D143" s="76"/>
       <c r="E143" s="76" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H143" s="76"/>
       <c r="I143" s="76" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.15">
@@ -17742,13 +17740,13 @@
         <v>78</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I167" s="16" t="s">
         <v>78</v>
       </c>
       <c r="J167" s="8" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.15">
@@ -17832,38 +17830,38 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D174" s="75" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E174" s="76" t="s">
         <v>1147</v>
       </c>
-      <c r="E174" s="76" t="s">
-        <v>1148</v>
-      </c>
       <c r="F174" s="76" t="s">
+        <v>1157</v>
+      </c>
+      <c r="I174" s="75" t="s">
+        <v>1146</v>
+      </c>
+      <c r="J174" s="76" t="s">
+        <v>1147</v>
+      </c>
+      <c r="K174" s="76" t="s">
         <v>1158</v>
-      </c>
-      <c r="I174" s="75" t="s">
-        <v>1147</v>
-      </c>
-      <c r="J174" s="76" t="s">
-        <v>1148</v>
-      </c>
-      <c r="K174" s="76" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D175" s="76"/>
       <c r="E175" s="76" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I175" s="76"/>
       <c r="J175" s="76" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="K175" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.15">
@@ -17911,7 +17909,7 @@
         <v>78</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.15">
@@ -17963,22 +17961,22 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D189" s="75" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E189" s="76" t="s">
         <v>1147</v>
       </c>
-      <c r="E189" s="76" t="s">
-        <v>1148</v>
-      </c>
       <c r="F189" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D190" s="76"/>
       <c r="E190" s="76" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="J190" s="76"/>
       <c r="K190" s="76"/>
@@ -18037,7 +18035,7 @@
         <v>78</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.15">
@@ -18091,23 +18089,23 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D204" s="75" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E204" s="76" t="s">
         <v>1147</v>
       </c>
-      <c r="E204" s="76" t="s">
-        <v>1148</v>
-      </c>
       <c r="F204" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G204" s="2"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D205" s="76"/>
       <c r="E205" s="76" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G205" s="2"/>
     </row>
@@ -18156,7 +18154,7 @@
         <v>78</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.15">
@@ -18205,25 +18203,25 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D219" s="75" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E219" s="76" t="s">
         <v>1147</v>
       </c>
-      <c r="E219" s="76" t="s">
-        <v>1148</v>
-      </c>
       <c r="F219" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D220" s="76"/>
       <c r="E220" s="76" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.15">
@@ -18301,13 +18299,13 @@
         <v>78</v>
       </c>
       <c r="E227" s="8" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H227" s="16" t="s">
         <v>78</v>
       </c>
       <c r="I227" s="8" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.15">
@@ -18377,7 +18375,7 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A233" s="78" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D233" s="16" t="s">
         <v>90</v>
@@ -18397,41 +18395,41 @@
         <v>494</v>
       </c>
       <c r="D234" s="75" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E234" s="76" t="s">
         <v>1147</v>
       </c>
-      <c r="E234" s="76" t="s">
-        <v>1148</v>
-      </c>
       <c r="F234" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G234" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="G234" s="1" t="s">
-        <v>1164</v>
-      </c>
       <c r="H234" s="75" t="s">
+        <v>1146</v>
+      </c>
+      <c r="I234" s="76" t="s">
         <v>1147</v>
       </c>
-      <c r="I234" s="76" t="s">
-        <v>1148</v>
-      </c>
       <c r="J234" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D235" s="76"/>
       <c r="E235" s="76" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H235" s="76"/>
       <c r="I235" s="76" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="J235" s="2" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.15">
@@ -18479,7 +18477,7 @@
         <v>78</v>
       </c>
       <c r="E243" s="8" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.15">
@@ -18531,22 +18529,22 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D250" s="75" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E250" s="76" t="s">
         <v>1147</v>
       </c>
-      <c r="E250" s="76" t="s">
-        <v>1148</v>
-      </c>
       <c r="F250" s="2" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D251" s="76"/>
       <c r="E251" s="76" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F251" s="76" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.15">
@@ -18594,7 +18592,7 @@
         <v>78</v>
       </c>
       <c r="E258" s="8" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.15">
@@ -18646,22 +18644,22 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D265" s="75" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E265" s="76" t="s">
         <v>1147</v>
       </c>
-      <c r="E265" s="76" t="s">
-        <v>1148</v>
-      </c>
       <c r="F265" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D266" s="76"/>
       <c r="E266" s="76" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.15">
@@ -18709,7 +18707,7 @@
         <v>78</v>
       </c>
       <c r="E273" s="8" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="274" spans="3:6" x14ac:dyDescent="0.15">
@@ -18759,19 +18757,19 @@
     </row>
     <row r="280" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D280" s="75" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E280" s="76" t="s">
         <v>1147</v>
       </c>
-      <c r="E280" s="76" t="s">
-        <v>1148</v>
-      </c>
       <c r="F280" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="281" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D281" s="76"/>
       <c r="E281" s="76" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>85</v>
@@ -18819,7 +18817,7 @@
         <v>78</v>
       </c>
       <c r="E289" s="8" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.15">
@@ -18871,22 +18869,22 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D296" s="75" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E296" s="76" t="s">
         <v>1147</v>
       </c>
-      <c r="E296" s="76" t="s">
-        <v>1148</v>
-      </c>
       <c r="F296" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D297" s="76"/>
       <c r="E297" s="76" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.15">
@@ -18931,7 +18929,7 @@
         <v>78</v>
       </c>
       <c r="E305" s="8" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.15">
@@ -18983,25 +18981,25 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D312" s="75" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E312" s="76" t="s">
         <v>1147</v>
       </c>
-      <c r="E312" s="76" t="s">
-        <v>1148</v>
-      </c>
       <c r="F312" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D313" s="76"/>
       <c r="E313" s="76" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
   </sheetData>
@@ -19015,8 +19013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U939"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C894" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H908" sqref="H908"/>
+    <sheetView tabSelected="1" topLeftCell="C879" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K937" sqref="K937"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -19170,7 +19168,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>541</v>
@@ -19212,10 +19210,10 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="82" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K19" s="82" t="s">
         <v>1179</v>
-      </c>
-      <c r="K19" s="82" t="s">
-        <v>1180</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -19299,7 +19297,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="79" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>540</v>
@@ -19364,10 +19362,10 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="82" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K30" s="82" t="s">
         <v>1181</v>
-      </c>
-      <c r="K30" s="82" t="s">
-        <v>1182</v>
       </c>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
@@ -19390,10 +19388,10 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="82" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K32" s="82" t="s">
         <v>1183</v>
-      </c>
-      <c r="K32" s="82" t="s">
-        <v>1184</v>
       </c>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
@@ -19401,10 +19399,10 @@
         <v>772</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.15">
@@ -19429,7 +19427,7 @@
         <v>92</v>
       </c>
       <c r="P33" s="72" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.15">
@@ -19451,10 +19449,10 @@
         <v>818</v>
       </c>
       <c r="O34" s="67" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="P34" s="70" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.15">
@@ -19482,10 +19480,10 @@
         <v>1064</v>
       </c>
       <c r="O35" s="69" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="P35" s="77" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.15">
@@ -19682,7 +19680,7 @@
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
       <c r="I60" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J60" s="8" t="s">
         <v>541</v>
@@ -19723,10 +19721,10 @@
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
       <c r="J63" s="82" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K63" s="82" t="s">
         <v>1179</v>
-      </c>
-      <c r="K63" s="82" t="s">
-        <v>1180</v>
       </c>
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
@@ -19806,10 +19804,10 @@
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J69" s="79" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
@@ -19871,10 +19869,10 @@
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
       <c r="J74" s="82" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="K74" s="82" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
@@ -19897,10 +19895,10 @@
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
       <c r="J76" s="82" t="s">
+        <v>1185</v>
+      </c>
+      <c r="K76" s="82" t="s">
         <v>1186</v>
-      </c>
-      <c r="K76" s="82" t="s">
-        <v>1187</v>
       </c>
       <c r="L76" s="8"/>
       <c r="M76" s="8"/>
@@ -19908,10 +19906,10 @@
         <v>772</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="77" spans="3:16" x14ac:dyDescent="0.15">
@@ -19933,10 +19931,10 @@
         <v>773</v>
       </c>
       <c r="O77" s="67" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="P77" s="67" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="78" spans="3:16" x14ac:dyDescent="0.15">
@@ -19958,10 +19956,10 @@
         <v>774</v>
       </c>
       <c r="O78" s="67" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="P78" s="69" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="79" spans="3:16" x14ac:dyDescent="0.15">
@@ -19983,10 +19981,10 @@
         <v>775</v>
       </c>
       <c r="O79" s="67" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="P79" s="69" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="80" spans="3:16" x14ac:dyDescent="0.15">
@@ -20010,13 +20008,13 @@
       </c>
       <c r="M80" s="8"/>
       <c r="N80" s="69" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="O80" s="67" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="81" spans="3:14" x14ac:dyDescent="0.15">
@@ -20237,7 +20235,7 @@
     <row r="109" spans="6:11" x14ac:dyDescent="0.15">
       <c r="H109" s="8"/>
       <c r="I109" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J109" s="8" t="s">
         <v>541</v>
@@ -20265,10 +20263,10 @@
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
       <c r="J112" s="82" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K112" s="82" t="s">
         <v>1179</v>
-      </c>
-      <c r="K112" s="82" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="113" spans="7:11" x14ac:dyDescent="0.15">
@@ -20325,7 +20323,7 @@
     <row r="118" spans="7:11" x14ac:dyDescent="0.15">
       <c r="H118" s="8"/>
       <c r="I118" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J118" s="79" t="s">
         <v>541</v>
@@ -20370,10 +20368,10 @@
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
       <c r="J123" s="82" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K123" s="82" t="s">
         <v>1181</v>
-      </c>
-      <c r="K123" s="82" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="124" spans="7:11" x14ac:dyDescent="0.15">
@@ -20388,10 +20386,10 @@
       <c r="H125" s="8"/>
       <c r="I125" s="8"/>
       <c r="J125" s="82" t="s">
+        <v>1187</v>
+      </c>
+      <c r="K125" s="82" t="s">
         <v>1188</v>
-      </c>
-      <c r="K125" s="82" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="126" spans="7:11" x14ac:dyDescent="0.15">
@@ -20448,7 +20446,7 @@
     <row r="131" spans="6:16" x14ac:dyDescent="0.15">
       <c r="H131" s="8"/>
       <c r="I131" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J131" s="79" t="s">
         <v>541</v>
@@ -20493,10 +20491,10 @@
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
       <c r="J136" s="82" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K136" s="82" t="s">
         <v>1181</v>
-      </c>
-      <c r="K136" s="82" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="137" spans="6:16" x14ac:dyDescent="0.15">
@@ -20511,10 +20509,10 @@
       <c r="H138" s="8"/>
       <c r="I138" s="8"/>
       <c r="J138" s="82" t="s">
+        <v>1187</v>
+      </c>
+      <c r="K138" s="82" t="s">
         <v>1188</v>
-      </c>
-      <c r="K138" s="82" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="139" spans="6:16" x14ac:dyDescent="0.15">
@@ -20522,10 +20520,10 @@
         <v>772</v>
       </c>
       <c r="O139" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="P139" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="140" spans="6:16" x14ac:dyDescent="0.15">
@@ -20544,10 +20542,10 @@
         <v>773</v>
       </c>
       <c r="O140" s="67" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="P140" s="67" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="141" spans="6:16" x14ac:dyDescent="0.15">
@@ -20611,10 +20609,10 @@
         <v>1063</v>
       </c>
       <c r="O143" s="69" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="P143" s="69" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="144" spans="6:16" x14ac:dyDescent="0.15">
@@ -20865,7 +20863,7 @@
       <c r="G176" s="8"/>
       <c r="H176" s="8"/>
       <c r="I176" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J176" s="8" t="s">
         <v>541</v>
@@ -20921,10 +20919,10 @@
       <c r="H179" s="8"/>
       <c r="I179" s="8"/>
       <c r="J179" s="82" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K179" s="82" t="s">
         <v>1179</v>
-      </c>
-      <c r="K179" s="82" t="s">
-        <v>1180</v>
       </c>
       <c r="L179" s="8"/>
       <c r="M179" s="8"/>
@@ -21034,7 +21032,7 @@
       <c r="G185" s="8"/>
       <c r="H185" s="8"/>
       <c r="I185" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J185" s="79" t="s">
         <v>541</v>
@@ -21124,10 +21122,10 @@
       <c r="H190" s="8"/>
       <c r="I190" s="8"/>
       <c r="J190" s="82" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K190" s="82" t="s">
         <v>1181</v>
-      </c>
-      <c r="K190" s="82" t="s">
-        <v>1182</v>
       </c>
       <c r="L190" s="8"/>
       <c r="M190" s="8"/>
@@ -21160,10 +21158,10 @@
       <c r="H192" s="8"/>
       <c r="I192" s="8"/>
       <c r="J192" s="82" t="s">
+        <v>1189</v>
+      </c>
+      <c r="K192" s="82" t="s">
         <v>1190</v>
-      </c>
-      <c r="K192" s="82" t="s">
-        <v>1191</v>
       </c>
       <c r="L192" s="8"/>
       <c r="M192" s="8"/>
@@ -21273,7 +21271,7 @@
       <c r="G198" s="8"/>
       <c r="H198" s="8"/>
       <c r="I198" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J198" s="79" t="s">
         <v>541</v>
@@ -21363,10 +21361,10 @@
       <c r="H203" s="8"/>
       <c r="I203" s="8"/>
       <c r="J203" s="82" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K203" s="82" t="s">
         <v>1181</v>
-      </c>
-      <c r="K203" s="82" t="s">
-        <v>1182</v>
       </c>
       <c r="L203" s="8"/>
       <c r="M203" s="8"/>
@@ -21399,10 +21397,10 @@
       <c r="H205" s="8"/>
       <c r="I205" s="8"/>
       <c r="J205" s="82" t="s">
+        <v>1191</v>
+      </c>
+      <c r="K205" s="82" t="s">
         <v>1192</v>
-      </c>
-      <c r="K205" s="82" t="s">
-        <v>1193</v>
       </c>
       <c r="L205" s="8"/>
       <c r="M205" s="8"/>
@@ -21512,7 +21510,7 @@
       <c r="G211" s="8"/>
       <c r="H211" s="8"/>
       <c r="I211" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J211" s="8" t="s">
         <v>956</v>
@@ -21602,10 +21600,10 @@
       <c r="H216" s="8"/>
       <c r="I216" s="8"/>
       <c r="J216" s="82" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K216" s="82" t="s">
         <v>1181</v>
-      </c>
-      <c r="K216" s="82" t="s">
-        <v>1182</v>
       </c>
       <c r="L216" s="8"/>
       <c r="M216" s="8"/>
@@ -21638,10 +21636,10 @@
       <c r="H218" s="8"/>
       <c r="I218" s="8"/>
       <c r="J218" s="82" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K218" s="82" t="s">
         <v>1183</v>
-      </c>
-      <c r="K218" s="82" t="s">
-        <v>1184</v>
       </c>
       <c r="L218" s="8"/>
       <c r="M218" s="8"/>
@@ -21679,10 +21677,10 @@
         <v>772</v>
       </c>
       <c r="O220" s="16" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="P220" s="16" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="Q220" s="16"/>
       <c r="R220" s="8"/>
@@ -21706,10 +21704,10 @@
         <v>882</v>
       </c>
       <c r="O221" s="68" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="P221" s="68" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="Q221" s="16"/>
       <c r="R221" s="8"/>
@@ -21719,7 +21717,7 @@
         <v>573</v>
       </c>
       <c r="G222" s="79" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H222" s="8" t="s">
         <v>1045</v>
@@ -21733,10 +21731,10 @@
         <v>818</v>
       </c>
       <c r="O222" s="68" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="P222" s="68" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="Q222" s="16"/>
       <c r="R222" s="8"/>
@@ -21760,10 +21758,10 @@
         <v>818</v>
       </c>
       <c r="O223" s="68" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="P223" s="68" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="Q223" s="16"/>
       <c r="R223" s="8"/>
@@ -21792,10 +21790,10 @@
         <v>1065</v>
       </c>
       <c r="O224" s="84" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="P224" s="68" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Q224" s="16"/>
       <c r="R224" s="8"/>
@@ -21822,10 +21820,10 @@
         <v>818</v>
       </c>
       <c r="O225" s="68" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="P225" s="68" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="Q225" s="16"/>
       <c r="R225" s="8"/>
@@ -22390,7 +22388,7 @@
       <c r="G263" s="8"/>
       <c r="H263" s="8"/>
       <c r="I263" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J263" s="8" t="s">
         <v>541</v>
@@ -22446,10 +22444,10 @@
       <c r="H266" s="8"/>
       <c r="I266" s="8"/>
       <c r="J266" s="82" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K266" s="82" t="s">
         <v>1179</v>
-      </c>
-      <c r="K266" s="82" t="s">
-        <v>1180</v>
       </c>
       <c r="L266" s="8"/>
       <c r="M266" s="8"/>
@@ -22565,7 +22563,7 @@
       <c r="G272" s="8"/>
       <c r="H272" s="8"/>
       <c r="I272" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J272" s="79" t="s">
         <v>541</v>
@@ -22655,10 +22653,10 @@
       <c r="H277" s="8"/>
       <c r="I277" s="8"/>
       <c r="J277" s="82" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K277" s="82" t="s">
         <v>1181</v>
-      </c>
-      <c r="K277" s="82" t="s">
-        <v>1182</v>
       </c>
       <c r="L277" s="8"/>
       <c r="M277" s="8"/>
@@ -22691,10 +22689,10 @@
       <c r="H279" s="8"/>
       <c r="I279" s="8"/>
       <c r="J279" s="82" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K279" s="82" t="s">
         <v>1194</v>
-      </c>
-      <c r="K279" s="82" t="s">
-        <v>1195</v>
       </c>
       <c r="L279" s="8"/>
       <c r="M279" s="8"/>
@@ -22747,10 +22745,10 @@
         <v>772</v>
       </c>
       <c r="O282" s="16" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="P282" s="16" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="Q282" s="8"/>
       <c r="R282" s="8"/>
@@ -22774,10 +22772,10 @@
         <v>773</v>
       </c>
       <c r="O283" s="68" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="P283" s="68" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="Q283" s="8"/>
       <c r="R283" s="8"/>
@@ -22801,10 +22799,10 @@
         <v>774</v>
       </c>
       <c r="O284" s="68" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="P284" s="68" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Q284" s="8"/>
       <c r="R284" s="8"/>
@@ -22830,10 +22828,10 @@
         <v>776</v>
       </c>
       <c r="O285" s="84" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="P285" s="68" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="Q285" s="8"/>
       <c r="R285" s="8"/>
@@ -22859,10 +22857,10 @@
         <v>776</v>
       </c>
       <c r="O286" s="68" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="P286" s="68" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="Q286" s="8"/>
       <c r="R286" s="8"/>
@@ -23093,7 +23091,7 @@
       <c r="G314" s="8"/>
       <c r="H314" s="8"/>
       <c r="I314" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J314" s="8" t="s">
         <v>541</v>
@@ -23152,10 +23150,10 @@
       <c r="H317" s="8"/>
       <c r="I317" s="8"/>
       <c r="J317" s="82" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K317" s="82" t="s">
         <v>1179</v>
-      </c>
-      <c r="K317" s="82" t="s">
-        <v>1180</v>
       </c>
       <c r="L317" s="8"/>
       <c r="M317" s="8"/>
@@ -23277,10 +23275,10 @@
       <c r="G323" s="8"/>
       <c r="H323" s="8"/>
       <c r="I323" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J323" s="79" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="K323" s="8"/>
       <c r="L323" s="8"/>
@@ -23372,10 +23370,10 @@
       <c r="H328" s="8"/>
       <c r="I328" s="8"/>
       <c r="J328" s="82" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K328" s="82" t="s">
         <v>1181</v>
-      </c>
-      <c r="K328" s="82" t="s">
-        <v>1182</v>
       </c>
       <c r="L328" s="8"/>
       <c r="M328" s="8"/>
@@ -23410,10 +23408,10 @@
       <c r="H330" s="8"/>
       <c r="I330" s="8"/>
       <c r="J330" s="82" t="s">
+        <v>1195</v>
+      </c>
+      <c r="K330" s="82" t="s">
         <v>1196</v>
-      </c>
-      <c r="K330" s="82" t="s">
-        <v>1197</v>
       </c>
       <c r="L330" s="8"/>
       <c r="M330" s="8"/>
@@ -23429,7 +23427,7 @@
       <c r="G331" s="8"/>
       <c r="H331" s="8"/>
       <c r="I331" s="82" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="J331" s="82"/>
       <c r="K331" s="82"/>
@@ -23487,10 +23485,10 @@
         <v>772</v>
       </c>
       <c r="O334" s="16" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="P334" s="16" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="Q334" s="8"/>
       <c r="R334" s="8"/>
@@ -23515,10 +23513,10 @@
         <v>819</v>
       </c>
       <c r="O335" s="68" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="P335" s="68" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="Q335" s="8"/>
       <c r="R335" s="8"/>
@@ -23543,10 +23541,10 @@
         <v>819</v>
       </c>
       <c r="O336" s="68" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="P336" s="68" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="Q336" s="8"/>
       <c r="R336" s="8"/>
@@ -23574,7 +23572,7 @@
         <v>342</v>
       </c>
       <c r="P337" s="68" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Q337" s="8"/>
       <c r="R337" s="8"/>
@@ -23601,10 +23599,10 @@
         <v>1066</v>
       </c>
       <c r="O338" s="84" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="P338" s="68" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="Q338" s="8"/>
       <c r="R338" s="8"/>
@@ -23631,10 +23629,10 @@
         <v>1066</v>
       </c>
       <c r="O339" s="8" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="P339" s="68" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="Q339" s="8"/>
       <c r="R339" s="8"/>
@@ -23797,7 +23795,7 @@
         <v>519</v>
       </c>
       <c r="G355" s="78" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="356" spans="5:20" x14ac:dyDescent="0.15">
@@ -23892,7 +23890,7 @@
       <c r="G368" s="8"/>
       <c r="H368" s="8"/>
       <c r="I368" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J368" s="8" t="s">
         <v>541</v>
@@ -23933,10 +23931,10 @@
       <c r="H371" s="8"/>
       <c r="I371" s="8"/>
       <c r="J371" s="82" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K371" s="82" t="s">
         <v>1179</v>
-      </c>
-      <c r="K371" s="82" t="s">
-        <v>1180</v>
       </c>
       <c r="L371" s="8"/>
       <c r="M371" s="8"/>
@@ -24016,7 +24014,7 @@
       <c r="G377" s="8"/>
       <c r="H377" s="8"/>
       <c r="I377" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J377" s="79" t="s">
         <v>541</v>
@@ -24081,10 +24079,10 @@
       <c r="H382" s="8"/>
       <c r="I382" s="8"/>
       <c r="J382" s="82" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K382" s="82" t="s">
         <v>1181</v>
-      </c>
-      <c r="K382" s="82" t="s">
-        <v>1182</v>
       </c>
       <c r="L382" s="8"/>
       <c r="M382" s="8"/>
@@ -24107,10 +24105,10 @@
       <c r="H384" s="8"/>
       <c r="I384" s="8"/>
       <c r="J384" s="82" t="s">
+        <v>1195</v>
+      </c>
+      <c r="K384" s="82" t="s">
         <v>1196</v>
-      </c>
-      <c r="K384" s="82" t="s">
-        <v>1197</v>
       </c>
       <c r="L384" s="8"/>
       <c r="M384" s="8"/>
@@ -24120,7 +24118,7 @@
       <c r="G385" s="8"/>
       <c r="H385" s="8"/>
       <c r="I385" s="82" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="J385" s="82"/>
       <c r="K385" s="8"/>
@@ -24140,10 +24138,10 @@
         <v>772</v>
       </c>
       <c r="O386" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="P386" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="387" spans="3:16" x14ac:dyDescent="0.15">
@@ -24165,10 +24163,10 @@
         <v>773</v>
       </c>
       <c r="O387" s="67" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="P387" s="69" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="388" spans="3:16" x14ac:dyDescent="0.15">
@@ -24186,10 +24184,10 @@
         <v>774</v>
       </c>
       <c r="O388" s="69" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="P388" s="67" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="389" spans="3:16" x14ac:dyDescent="0.15">
@@ -24211,7 +24209,7 @@
         <v>831</v>
       </c>
       <c r="O389" s="69" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="P389" s="67" t="s">
         <v>85</v>
@@ -24391,7 +24389,7 @@
     <row r="415" spans="6:19" x14ac:dyDescent="0.15">
       <c r="H415" s="8"/>
       <c r="I415" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J415" s="8" t="s">
         <v>541</v>
@@ -24441,10 +24439,10 @@
       <c r="H418" s="8"/>
       <c r="I418" s="8"/>
       <c r="J418" s="82" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K418" s="82" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="L418" s="8"/>
       <c r="M418" s="8"/>
@@ -24560,7 +24558,7 @@
       <c r="G424" s="8"/>
       <c r="H424" s="8"/>
       <c r="I424" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J424" s="8" t="s">
         <v>540</v>
@@ -24655,10 +24653,10 @@
       <c r="H429" s="8"/>
       <c r="I429" s="8"/>
       <c r="J429" s="82" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K429" s="82" t="s">
         <v>1181</v>
-      </c>
-      <c r="K429" s="82" t="s">
-        <v>1182</v>
       </c>
       <c r="L429" s="8"/>
       <c r="M429" s="8"/>
@@ -24693,10 +24691,10 @@
       <c r="H431" s="8"/>
       <c r="I431" s="8"/>
       <c r="J431" s="82" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K431" s="82" t="s">
         <v>1183</v>
-      </c>
-      <c r="K431" s="82" t="s">
-        <v>1184</v>
       </c>
       <c r="L431" s="8"/>
       <c r="M431" s="8"/>
@@ -24818,7 +24816,7 @@
       <c r="G437" s="8"/>
       <c r="H437" s="8"/>
       <c r="I437" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J437" s="79" t="s">
         <v>541</v>
@@ -24913,10 +24911,10 @@
       <c r="H442" s="8"/>
       <c r="I442" s="8"/>
       <c r="J442" s="82" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K442" s="82" t="s">
         <v>1181</v>
-      </c>
-      <c r="K442" s="82" t="s">
-        <v>1182</v>
       </c>
       <c r="L442" s="8"/>
       <c r="M442" s="8"/>
@@ -24951,10 +24949,10 @@
       <c r="H444" s="8"/>
       <c r="I444" s="8"/>
       <c r="J444" s="82" t="s">
+        <v>1195</v>
+      </c>
+      <c r="K444" s="82" t="s">
         <v>1196</v>
-      </c>
-      <c r="K444" s="82" t="s">
-        <v>1197</v>
       </c>
       <c r="L444" s="8"/>
       <c r="M444" s="8"/>
@@ -24970,7 +24968,7 @@
       <c r="G445" s="8"/>
       <c r="H445" s="8"/>
       <c r="I445" s="82" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="J445" s="82"/>
       <c r="K445" s="8"/>
@@ -24996,10 +24994,10 @@
         <v>772</v>
       </c>
       <c r="O446" s="16" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="P446" s="16" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="Q446" s="8"/>
       <c r="R446" s="8"/>
@@ -25027,10 +25025,10 @@
         <v>906</v>
       </c>
       <c r="O447" s="68" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="P447" s="68" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="Q447" s="8"/>
       <c r="R447" s="8"/>
@@ -25056,7 +25054,7 @@
         <v>905</v>
       </c>
       <c r="O448" s="68" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="P448" s="68" t="s">
         <v>85</v>
@@ -25087,7 +25085,7 @@
         <v>907</v>
       </c>
       <c r="O449" s="68" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="P449" s="68" t="s">
         <v>85</v>
@@ -25118,10 +25116,10 @@
         <v>1067</v>
       </c>
       <c r="O450" s="8" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="P450" s="68" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="Q450" s="8"/>
       <c r="R450" s="8"/>
@@ -25349,7 +25347,7 @@
       <c r="G478" s="8"/>
       <c r="H478" s="8"/>
       <c r="I478" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J478" s="8" t="s">
         <v>541</v>
@@ -25402,10 +25400,10 @@
       <c r="H481" s="8"/>
       <c r="I481" s="8"/>
       <c r="J481" s="82" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K481" s="82" t="s">
         <v>1179</v>
-      </c>
-      <c r="K481" s="82" t="s">
-        <v>1180</v>
       </c>
       <c r="L481" s="8"/>
       <c r="M481" s="8"/>
@@ -25511,7 +25509,7 @@
       <c r="G487" s="8"/>
       <c r="H487" s="8"/>
       <c r="I487" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J487" s="8" t="s">
         <v>540</v>
@@ -25596,10 +25594,10 @@
       <c r="H492" s="8"/>
       <c r="I492" s="8"/>
       <c r="J492" s="82" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K492" s="82" t="s">
         <v>1181</v>
-      </c>
-      <c r="K492" s="82" t="s">
-        <v>1182</v>
       </c>
       <c r="L492" s="8"/>
       <c r="M492" s="8"/>
@@ -25630,10 +25628,10 @@
       <c r="H494" s="8"/>
       <c r="I494" s="8"/>
       <c r="J494" s="82" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K494" s="82" t="s">
         <v>1183</v>
-      </c>
-      <c r="K494" s="82" t="s">
-        <v>1184</v>
       </c>
       <c r="L494" s="8"/>
       <c r="M494" s="8"/>
@@ -25737,7 +25735,7 @@
       <c r="G500" s="8"/>
       <c r="H500" s="8"/>
       <c r="I500" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J500" s="79" t="s">
         <v>541</v>
@@ -25822,10 +25820,10 @@
       <c r="H505" s="8"/>
       <c r="I505" s="8"/>
       <c r="J505" s="82" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K505" s="82" t="s">
         <v>1181</v>
-      </c>
-      <c r="K505" s="82" t="s">
-        <v>1182</v>
       </c>
       <c r="L505" s="8"/>
       <c r="M505" s="8"/>
@@ -25856,10 +25854,10 @@
       <c r="H507" s="8"/>
       <c r="I507" s="8"/>
       <c r="J507" s="82" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K507" s="82" t="s">
         <v>1199</v>
-      </c>
-      <c r="K507" s="82" t="s">
-        <v>1200</v>
       </c>
       <c r="L507" s="8"/>
       <c r="M507" s="8"/>
@@ -25895,10 +25893,10 @@
         <v>772</v>
       </c>
       <c r="O509" s="16" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="P509" s="16" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="Q509" s="8"/>
       <c r="R509" s="8"/>
@@ -25922,10 +25920,10 @@
         <v>773</v>
       </c>
       <c r="O510" s="68" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="P510" s="68" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Q510" s="8"/>
       <c r="R510" s="8"/>
@@ -25949,10 +25947,10 @@
         <v>774</v>
       </c>
       <c r="O511" s="68" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="P511" s="68" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="Q511" s="8"/>
       <c r="R511" s="8"/>
@@ -25976,7 +25974,7 @@
         <v>832</v>
       </c>
       <c r="O512" s="68" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="P512" s="68" t="s">
         <v>85</v>
@@ -26005,10 +26003,10 @@
         <v>1068</v>
       </c>
       <c r="O513" s="84" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="P513" s="68" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Q513" s="8"/>
       <c r="R513" s="8"/>
@@ -26188,7 +26186,7 @@
       <c r="G539" s="8"/>
       <c r="H539" s="8"/>
       <c r="I539" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J539" s="8" t="s">
         <v>541</v>
@@ -26226,10 +26224,10 @@
       <c r="H542" s="8"/>
       <c r="I542" s="8"/>
       <c r="J542" s="82" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K542" s="82" t="s">
         <v>1179</v>
-      </c>
-      <c r="K542" s="82" t="s">
-        <v>1180</v>
       </c>
       <c r="L542" s="8"/>
       <c r="M542" s="8"/>
@@ -26303,7 +26301,7 @@
       <c r="G548" s="8"/>
       <c r="H548" s="8"/>
       <c r="I548" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J548" s="8" t="s">
         <v>540</v>
@@ -26319,7 +26317,7 @@
         <v>954</v>
       </c>
       <c r="J549" s="79" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="K549" s="8"/>
       <c r="L549" s="8"/>
@@ -26351,7 +26349,7 @@
       <c r="G552" s="8"/>
       <c r="H552" s="8"/>
       <c r="I552" s="82" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="J552" s="2"/>
       <c r="K552" s="2"/>
@@ -26363,10 +26361,10 @@
       <c r="H553" s="8"/>
       <c r="I553" s="8"/>
       <c r="J553" s="82" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K553" s="82" t="s">
         <v>1181</v>
-      </c>
-      <c r="K553" s="82" t="s">
-        <v>1182</v>
       </c>
       <c r="L553" s="8"/>
       <c r="M553" s="8"/>
@@ -26387,10 +26385,10 @@
       <c r="H555" s="8"/>
       <c r="I555" s="8"/>
       <c r="J555" s="82" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K555" s="82" t="s">
         <v>1183</v>
-      </c>
-      <c r="K555" s="82" t="s">
-        <v>1184</v>
       </c>
       <c r="L555" s="8"/>
       <c r="M555" s="8"/>
@@ -26407,10 +26405,10 @@
         <v>772</v>
       </c>
       <c r="O556" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="P556" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="557" spans="6:16" x14ac:dyDescent="0.15">
@@ -26429,13 +26427,13 @@
       <c r="L557" s="8"/>
       <c r="M557" s="8"/>
       <c r="N557" s="67" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="O557" s="67" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="P557" s="67" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="558" spans="6:16" x14ac:dyDescent="0.15">
@@ -26454,13 +26452,13 @@
       <c r="L558" s="8"/>
       <c r="M558" s="8"/>
       <c r="N558" s="67" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="O558" s="67" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="P558" s="67" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="559" spans="6:16" x14ac:dyDescent="0.15">
@@ -26474,10 +26472,10 @@
         <v>670</v>
       </c>
       <c r="N559" s="67" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="O559" s="67" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="P559" s="67" t="s">
         <v>85</v>
@@ -26499,13 +26497,13 @@
         <v>653</v>
       </c>
       <c r="N560" s="78" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="O560" s="67" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="P560" s="69" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="561" spans="6:10" x14ac:dyDescent="0.15">
@@ -26661,7 +26659,7 @@
       <c r="G583" s="8"/>
       <c r="H583" s="8"/>
       <c r="I583" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J583" s="8" t="s">
         <v>541</v>
@@ -26717,10 +26715,10 @@
       <c r="H586" s="8"/>
       <c r="I586" s="8"/>
       <c r="J586" s="82" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K586" s="82" t="s">
         <v>1179</v>
-      </c>
-      <c r="K586" s="82" t="s">
-        <v>1180</v>
       </c>
       <c r="L586" s="8"/>
       <c r="M586" s="8"/>
@@ -26830,10 +26828,10 @@
       <c r="G592" s="8"/>
       <c r="H592" s="8"/>
       <c r="I592" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J592" s="79" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="K592" s="8"/>
       <c r="L592" s="8"/>
@@ -26902,7 +26900,7 @@
       <c r="G596" s="8"/>
       <c r="H596" s="8"/>
       <c r="I596" s="82" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="J596" s="2"/>
       <c r="K596" s="2"/>
@@ -26920,10 +26918,10 @@
       <c r="H597" s="8"/>
       <c r="I597" s="8"/>
       <c r="J597" s="82" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K597" s="82" t="s">
         <v>1181</v>
-      </c>
-      <c r="K597" s="82" t="s">
-        <v>1182</v>
       </c>
       <c r="L597" s="8"/>
       <c r="M597" s="8"/>
@@ -26956,10 +26954,10 @@
       <c r="H599" s="8"/>
       <c r="I599" s="8"/>
       <c r="J599" s="82" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="K599" s="82" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="L599" s="8"/>
       <c r="M599" s="8"/>
@@ -27075,7 +27073,7 @@
       <c r="G605" s="8"/>
       <c r="H605" s="8"/>
       <c r="I605" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J605" s="8" t="s">
         <v>540</v>
@@ -27165,10 +27163,10 @@
       <c r="H610" s="8"/>
       <c r="I610" s="8"/>
       <c r="J610" s="82" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K610" s="82" t="s">
         <v>1181</v>
-      </c>
-      <c r="K610" s="82" t="s">
-        <v>1182</v>
       </c>
       <c r="L610" s="8"/>
       <c r="M610" s="8"/>
@@ -27201,10 +27199,10 @@
       <c r="H612" s="8"/>
       <c r="I612" s="8"/>
       <c r="J612" s="82" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K612" s="82" t="s">
         <v>1183</v>
-      </c>
-      <c r="K612" s="82" t="s">
-        <v>1184</v>
       </c>
       <c r="L612" s="8"/>
       <c r="M612" s="8"/>
@@ -27299,10 +27297,10 @@
       <c r="G617" s="8"/>
       <c r="H617" s="8"/>
       <c r="I617" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J617" s="79" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="K617" s="8"/>
       <c r="L617" s="8"/>
@@ -27389,10 +27387,10 @@
       <c r="H622" s="8"/>
       <c r="I622" s="8"/>
       <c r="J622" s="82" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K622" s="82" t="s">
         <v>1181</v>
-      </c>
-      <c r="K622" s="82" t="s">
-        <v>1182</v>
       </c>
       <c r="L622" s="8"/>
       <c r="M622" s="8"/>
@@ -27425,10 +27423,10 @@
       <c r="H624" s="8"/>
       <c r="I624" s="8"/>
       <c r="J624" s="82" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K624" s="82" t="s">
         <v>1199</v>
-      </c>
-      <c r="K624" s="82" t="s">
-        <v>1200</v>
       </c>
       <c r="L624" s="8"/>
       <c r="M624" s="8"/>
@@ -27451,10 +27449,10 @@
         <v>772</v>
       </c>
       <c r="O625" s="16" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="P625" s="16" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="Q625" s="8"/>
       <c r="R625" s="8"/>
@@ -27481,10 +27479,10 @@
         <v>913</v>
       </c>
       <c r="O626" s="68" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="P626" s="68" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="Q626" s="8"/>
       <c r="R626" s="8"/>
@@ -27508,10 +27506,10 @@
         <v>818</v>
       </c>
       <c r="O627" s="68" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="P627" s="86" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="Q627" s="8"/>
       <c r="R627" s="8"/>
@@ -27537,10 +27535,10 @@
         <v>1068</v>
       </c>
       <c r="O628" s="84" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="P628" s="68" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="Q628" s="8"/>
       <c r="R628" s="8"/>
@@ -27566,10 +27564,10 @@
         <v>1068</v>
       </c>
       <c r="O629" s="68" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="P629" s="68" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="Q629" s="8"/>
       <c r="R629" s="8"/>
@@ -27823,7 +27821,7 @@
       <c r="G659" s="8"/>
       <c r="H659" s="8"/>
       <c r="I659" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J659" s="8" t="s">
         <v>541</v>
@@ -27873,10 +27871,10 @@
       <c r="H662" s="8"/>
       <c r="I662" s="8"/>
       <c r="J662" s="82" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K662" s="82" t="s">
         <v>1179</v>
-      </c>
-      <c r="K662" s="82" t="s">
-        <v>1180</v>
       </c>
       <c r="L662" s="8"/>
       <c r="M662" s="8"/>
@@ -27974,7 +27972,7 @@
       <c r="G668" s="8"/>
       <c r="H668" s="8"/>
       <c r="I668" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J668" s="8" t="s">
         <v>540</v>
@@ -28054,10 +28052,10 @@
       <c r="H673" s="8"/>
       <c r="I673" s="8"/>
       <c r="J673" s="82" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K673" s="82" t="s">
         <v>1181</v>
-      </c>
-      <c r="K673" s="82" t="s">
-        <v>1182</v>
       </c>
       <c r="L673" s="8"/>
       <c r="M673" s="8"/>
@@ -28086,10 +28084,10 @@
       <c r="H675" s="8"/>
       <c r="I675" s="8"/>
       <c r="J675" s="82" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K675" s="82" t="s">
         <v>1183</v>
-      </c>
-      <c r="K675" s="82" t="s">
-        <v>1184</v>
       </c>
       <c r="L675" s="8"/>
       <c r="M675" s="8"/>
@@ -28188,7 +28186,7 @@
       <c r="G681" s="8"/>
       <c r="H681" s="8"/>
       <c r="I681" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J681" s="79" t="s">
         <v>541</v>
@@ -28268,10 +28266,10 @@
       <c r="H686" s="8"/>
       <c r="I686" s="8"/>
       <c r="J686" s="82" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K686" s="82" t="s">
         <v>1181</v>
-      </c>
-      <c r="K686" s="82" t="s">
-        <v>1182</v>
       </c>
       <c r="L686" s="8"/>
       <c r="M686" s="8"/>
@@ -28300,10 +28298,10 @@
       <c r="H688" s="8"/>
       <c r="I688" s="8"/>
       <c r="J688" s="82" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="K688" s="65" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="L688" s="8"/>
       <c r="M688" s="8"/>
@@ -28316,7 +28314,7 @@
       <c r="G689" s="8"/>
       <c r="H689" s="8"/>
       <c r="I689" s="82" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="J689" s="82"/>
       <c r="K689" s="65"/>
@@ -28339,10 +28337,10 @@
         <v>772</v>
       </c>
       <c r="O690" s="16" t="s">
+        <v>1097</v>
+      </c>
+      <c r="P690" s="16" t="s">
         <v>1098</v>
-      </c>
-      <c r="P690" s="16" t="s">
-        <v>1099</v>
       </c>
       <c r="Q690" s="8"/>
     </row>
@@ -28365,10 +28363,10 @@
         <v>773</v>
       </c>
       <c r="O691" s="68" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="P691" s="68" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Q691" s="8"/>
     </row>
@@ -28391,10 +28389,10 @@
         <v>774</v>
       </c>
       <c r="O692" s="68" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="P692" s="84" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="Q692" s="8"/>
     </row>
@@ -28417,10 +28415,10 @@
         <v>778</v>
       </c>
       <c r="O693" s="68" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="P693" s="86" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="Q693" s="8"/>
     </row>
@@ -28445,10 +28443,10 @@
         <v>777</v>
       </c>
       <c r="O694" s="84" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="P694" s="68" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Q694" s="8"/>
     </row>
@@ -28473,10 +28471,10 @@
         <v>777</v>
       </c>
       <c r="O695" s="8" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="P695" s="68" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Q695" s="8"/>
     </row>
@@ -28693,7 +28691,7 @@
       <c r="G725" s="8"/>
       <c r="H725" s="8"/>
       <c r="I725" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J725" s="8" t="s">
         <v>541</v>
@@ -28746,10 +28744,10 @@
       <c r="H728" s="8"/>
       <c r="I728" s="8"/>
       <c r="J728" s="82" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K728" s="82" t="s">
         <v>1179</v>
-      </c>
-      <c r="K728" s="82" t="s">
-        <v>1180</v>
       </c>
       <c r="L728" s="8"/>
       <c r="M728" s="8"/>
@@ -28853,7 +28851,7 @@
       <c r="G734" s="8"/>
       <c r="H734" s="8"/>
       <c r="I734" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J734" s="8" t="s">
         <v>540</v>
@@ -28938,10 +28936,10 @@
       <c r="H739" s="8"/>
       <c r="I739" s="8"/>
       <c r="J739" s="82" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K739" s="82" t="s">
         <v>1181</v>
-      </c>
-      <c r="K739" s="82" t="s">
-        <v>1182</v>
       </c>
       <c r="L739" s="8"/>
       <c r="M739" s="8"/>
@@ -28972,10 +28970,10 @@
       <c r="H741" s="8"/>
       <c r="I741" s="8"/>
       <c r="J741" s="82" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K741" s="82" t="s">
         <v>1183</v>
-      </c>
-      <c r="K741" s="82" t="s">
-        <v>1184</v>
       </c>
       <c r="L741" s="8"/>
       <c r="M741" s="8"/>
@@ -29079,7 +29077,7 @@
       <c r="G747" s="8"/>
       <c r="H747" s="8"/>
       <c r="I747" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J747" s="8" t="s">
         <v>744</v>
@@ -29164,10 +29162,10 @@
       <c r="H752" s="8"/>
       <c r="I752" s="8"/>
       <c r="J752" s="82" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K752" s="82" t="s">
         <v>1181</v>
-      </c>
-      <c r="K752" s="82" t="s">
-        <v>1182</v>
       </c>
       <c r="L752" s="8"/>
       <c r="M752" s="8"/>
@@ -29198,10 +29196,10 @@
       <c r="H754" s="8"/>
       <c r="I754" s="8"/>
       <c r="J754" s="82" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="K754" s="82" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="L754" s="8"/>
       <c r="M754" s="8"/>
@@ -29237,10 +29235,10 @@
         <v>772</v>
       </c>
       <c r="O756" s="16" t="s">
+        <v>1097</v>
+      </c>
+      <c r="P756" s="16" t="s">
         <v>1098</v>
-      </c>
-      <c r="P756" s="16" t="s">
-        <v>1099</v>
       </c>
       <c r="Q756" s="8"/>
     </row>
@@ -29263,10 +29261,10 @@
         <v>773</v>
       </c>
       <c r="O757" s="68" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="P757" s="68" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="Q757" s="8"/>
     </row>
@@ -29289,10 +29287,10 @@
         <v>774</v>
       </c>
       <c r="O758" s="68" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="P758" s="68" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="Q758" s="8"/>
     </row>
@@ -29317,7 +29315,7 @@
       <c r="N759" s="86"/>
       <c r="O759" s="68"/>
       <c r="P759" s="68" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="Q759" s="8"/>
     </row>
@@ -29343,10 +29341,10 @@
         <v>777</v>
       </c>
       <c r="O760" s="84" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="P760" s="84" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="Q760" s="8"/>
     </row>
@@ -29503,7 +29501,7 @@
         <v>519</v>
       </c>
       <c r="G778" s="67" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="779" spans="6:8" x14ac:dyDescent="0.15">
@@ -29658,7 +29656,7 @@
       <c r="G791" s="8"/>
       <c r="H791" s="8"/>
       <c r="I791" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J791" s="8" t="s">
         <v>541</v>
@@ -29714,10 +29712,10 @@
       <c r="H794" s="8"/>
       <c r="I794" s="8"/>
       <c r="J794" s="82" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K794" s="82" t="s">
         <v>1179</v>
-      </c>
-      <c r="K794" s="82" t="s">
-        <v>1180</v>
       </c>
       <c r="L794" s="8"/>
       <c r="M794" s="8"/>
@@ -29827,7 +29825,7 @@
       <c r="G800" s="8"/>
       <c r="H800" s="8"/>
       <c r="I800" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J800" s="8" t="s">
         <v>540</v>
@@ -29917,10 +29915,10 @@
       <c r="H805" s="8"/>
       <c r="I805" s="8"/>
       <c r="J805" s="82" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K805" s="82" t="s">
         <v>1181</v>
-      </c>
-      <c r="K805" s="82" t="s">
-        <v>1182</v>
       </c>
       <c r="L805" s="8"/>
       <c r="M805" s="8"/>
@@ -29953,10 +29951,10 @@
       <c r="H807" s="8"/>
       <c r="I807" s="8"/>
       <c r="J807" s="82" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K807" s="82" t="s">
         <v>1183</v>
-      </c>
-      <c r="K807" s="82" t="s">
-        <v>1184</v>
       </c>
       <c r="L807" s="8"/>
       <c r="M807" s="8"/>
@@ -30072,10 +30070,10 @@
       <c r="G813" s="8"/>
       <c r="H813" s="8"/>
       <c r="I813" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J813" s="79" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="K813" s="8"/>
       <c r="L813" s="8"/>
@@ -30144,7 +30142,7 @@
       <c r="G817" s="8"/>
       <c r="H817" s="8"/>
       <c r="I817" s="79" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="J817" s="8"/>
       <c r="K817" s="8"/>
@@ -30162,10 +30160,10 @@
       <c r="H818" s="8"/>
       <c r="I818" s="8"/>
       <c r="J818" s="82" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K818" s="82" t="s">
         <v>1181</v>
-      </c>
-      <c r="K818" s="82" t="s">
-        <v>1182</v>
       </c>
       <c r="L818" s="8"/>
       <c r="M818" s="8"/>
@@ -30180,7 +30178,7 @@
       <c r="G819" s="8"/>
       <c r="H819" s="8"/>
       <c r="I819" s="82" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="J819" s="2"/>
       <c r="K819" s="2"/>
@@ -30198,10 +30196,10 @@
       <c r="H820" s="8"/>
       <c r="I820" s="8"/>
       <c r="J820" s="82" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="K820" s="82" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="L820" s="8"/>
       <c r="M820" s="8"/>
@@ -30239,10 +30237,10 @@
         <v>772</v>
       </c>
       <c r="O822" s="16" t="s">
+        <v>1097</v>
+      </c>
+      <c r="P822" s="16" t="s">
         <v>1098</v>
-      </c>
-      <c r="P822" s="16" t="s">
-        <v>1099</v>
       </c>
       <c r="Q822" s="8"/>
       <c r="R822" s="8"/>
@@ -30266,10 +30264,10 @@
         <v>824</v>
       </c>
       <c r="O823" s="68" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="P823" s="68" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Q823" s="8"/>
       <c r="R823" s="8"/>
@@ -30293,10 +30291,10 @@
         <v>819</v>
       </c>
       <c r="O824" s="68" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="P824" s="87" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="Q824" s="8"/>
       <c r="R824" s="8"/>
@@ -30320,7 +30318,7 @@
         <v>823</v>
       </c>
       <c r="O825" s="68" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="P825" s="68" t="s">
         <v>85</v>
@@ -30349,10 +30347,10 @@
         <v>328</v>
       </c>
       <c r="O826" s="84" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="P826" s="73" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="Q826" s="8"/>
       <c r="R826" s="8"/>
@@ -30465,7 +30463,7 @@
     </row>
     <row r="843" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F843" s="81" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="844" spans="1:8" x14ac:dyDescent="0.15">
@@ -30473,7 +30471,7 @@
         <v>519</v>
       </c>
       <c r="G844" s="78" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="845" spans="1:8" x14ac:dyDescent="0.15">
@@ -30508,7 +30506,7 @@
     <row r="849" spans="6:18" x14ac:dyDescent="0.15">
       <c r="F849" s="3"/>
       <c r="G849" s="78" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="851" spans="6:18" x14ac:dyDescent="0.15">
@@ -30628,7 +30626,7 @@
       <c r="G857" s="8"/>
       <c r="H857" s="8"/>
       <c r="I857" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J857" s="8" t="s">
         <v>541</v>
@@ -30687,7 +30685,7 @@
         <v>539</v>
       </c>
       <c r="K860" s="79" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="L860" s="8"/>
       <c r="M860" s="8"/>
@@ -30718,7 +30716,7 @@
         <v>534</v>
       </c>
       <c r="H862" s="79" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I862" s="8" t="s">
         <v>526</v>
@@ -30739,7 +30737,7 @@
       <c r="F863" s="8"/>
       <c r="G863" s="8"/>
       <c r="H863" s="8" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I863" s="8" t="s">
         <v>528</v>
@@ -30799,7 +30797,7 @@
       <c r="G866" s="8"/>
       <c r="H866" s="8"/>
       <c r="I866" s="79" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J866" s="8" t="s">
         <v>540</v>
@@ -30889,10 +30887,10 @@
       <c r="H871" s="8"/>
       <c r="I871" s="8"/>
       <c r="J871" s="79" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K871" s="79" t="s">
         <v>1181</v>
-      </c>
-      <c r="K871" s="79" t="s">
-        <v>1182</v>
       </c>
       <c r="L871" s="8"/>
       <c r="M871" s="8"/>
@@ -30925,10 +30923,10 @@
       <c r="H873" s="8"/>
       <c r="I873" s="8"/>
       <c r="J873" s="79" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K873" s="79" t="s">
         <v>1183</v>
-      </c>
-      <c r="K873" s="79" t="s">
-        <v>1184</v>
       </c>
       <c r="L873" s="8"/>
       <c r="M873" s="8"/>
@@ -30981,10 +30979,10 @@
         <v>772</v>
       </c>
       <c r="O876" s="16" t="s">
+        <v>1097</v>
+      </c>
+      <c r="P876" s="16" t="s">
         <v>1098</v>
-      </c>
-      <c r="P876" s="16" t="s">
-        <v>1099</v>
       </c>
       <c r="Q876" s="8"/>
       <c r="R876" s="8"/>
@@ -31005,7 +31003,7 @@
       <c r="L877" s="8"/>
       <c r="M877" s="8"/>
       <c r="N877" s="78" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="O877" s="67"/>
       <c r="P877" s="72"/>
@@ -31040,10 +31038,10 @@
         <v>550</v>
       </c>
       <c r="G879" s="8" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="H879" s="79" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="I879" s="8"/>
       <c r="J879" s="8"/>
@@ -31051,7 +31049,7 @@
       <c r="L879" s="8"/>
       <c r="M879" s="8"/>
       <c r="N879" s="78" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="O879" s="69"/>
       <c r="P879" s="77"/>
@@ -31126,7 +31124,7 @@
     </row>
     <row r="888" spans="6:18" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F888" s="81" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="889" spans="6:18" x14ac:dyDescent="0.15">
@@ -31134,7 +31132,7 @@
         <v>519</v>
       </c>
       <c r="G889" s="78" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="890" spans="6:18" x14ac:dyDescent="0.15">
@@ -31169,7 +31167,7 @@
     <row r="894" spans="6:18" x14ac:dyDescent="0.15">
       <c r="F894" s="3"/>
       <c r="G894" s="78" t="s">
-        <v>1260</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="896" spans="6:18" x14ac:dyDescent="0.15">
@@ -31210,7 +31208,7 @@
         <v>524</v>
       </c>
       <c r="H898" s="79" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="I898" s="8" t="s">
         <v>535</v>
@@ -31289,7 +31287,7 @@
       <c r="G902" s="8"/>
       <c r="H902" s="8"/>
       <c r="I902" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J902" s="8" t="s">
         <v>541</v>
@@ -31348,7 +31346,7 @@
         <v>539</v>
       </c>
       <c r="K905" s="82" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="L905" s="8"/>
       <c r="M905" s="8"/>
@@ -31379,7 +31377,7 @@
         <v>534</v>
       </c>
       <c r="H907" s="79" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="I907" s="8" t="s">
         <v>526</v>
@@ -31400,13 +31398,13 @@
       <c r="F908" s="8"/>
       <c r="G908" s="8"/>
       <c r="H908" s="79" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="I908" s="8" t="s">
         <v>528</v>
       </c>
       <c r="J908" s="79" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="K908" s="8"/>
       <c r="L908" s="8"/>
@@ -31425,7 +31423,7 @@
         <v>530</v>
       </c>
       <c r="J909" s="79" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="K909" s="8"/>
       <c r="L909" s="8"/>
@@ -31460,10 +31458,10 @@
       <c r="G911" s="8"/>
       <c r="H911" s="8"/>
       <c r="I911" s="79" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J911" s="79" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="K911" s="8"/>
       <c r="L911" s="8"/>
@@ -31516,10 +31514,10 @@
       <c r="H914" s="8"/>
       <c r="I914" s="8"/>
       <c r="J914" s="82" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K914" s="82" t="s">
         <v>1181</v>
-      </c>
-      <c r="K914" s="82" t="s">
-        <v>1182</v>
       </c>
       <c r="L914" s="8"/>
       <c r="M914" s="8"/>
@@ -31552,10 +31550,10 @@
       <c r="H916" s="8"/>
       <c r="I916" s="8"/>
       <c r="J916" s="82" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="K916" s="82" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="L916" s="8"/>
       <c r="M916" s="8"/>
@@ -31570,7 +31568,7 @@
       <c r="G917" s="8"/>
       <c r="H917" s="8"/>
       <c r="I917" s="82" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="J917" s="82"/>
       <c r="K917" s="8"/>
@@ -31634,10 +31632,10 @@
         <v>772</v>
       </c>
       <c r="O921" s="16" t="s">
+        <v>1097</v>
+      </c>
+      <c r="P921" s="16" t="s">
         <v>1098</v>
-      </c>
-      <c r="P921" s="16" t="s">
-        <v>1099</v>
       </c>
       <c r="Q921" s="8"/>
       <c r="R921" s="8"/>
@@ -31647,10 +31645,10 @@
         <v>545</v>
       </c>
       <c r="G922" s="79" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="H922" s="79" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="I922" s="8"/>
       <c r="J922" s="8"/>
@@ -31658,7 +31656,7 @@
       <c r="L922" s="8"/>
       <c r="M922" s="8"/>
       <c r="N922" s="78" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="O922" s="68"/>
       <c r="P922" s="68"/>
@@ -31670,10 +31668,10 @@
         <v>573</v>
       </c>
       <c r="G923" s="79" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="H923" s="79" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="I923" s="8"/>
       <c r="J923" s="8"/>
@@ -31681,7 +31679,7 @@
       <c r="L923" s="8"/>
       <c r="M923" s="8"/>
       <c r="N923" s="78" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="O923" s="68"/>
       <c r="P923" s="68"/>
@@ -31693,17 +31691,17 @@
         <v>550</v>
       </c>
       <c r="G924" s="78" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="H924" s="79" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="J924" s="8"/>
       <c r="K924" s="8"/>
       <c r="L924" s="8"/>
       <c r="M924" s="8"/>
       <c r="N924" s="78" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="O924" s="68"/>
       <c r="P924" s="68"/>
@@ -31712,13 +31710,13 @@
     </row>
     <row r="925" spans="6:18" x14ac:dyDescent="0.15">
       <c r="F925" s="16" t="s">
-        <v>1266</v>
+        <v>1287</v>
       </c>
       <c r="G925" s="79" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="H925" s="79" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="I925" s="79"/>
       <c r="J925" s="79"/>
@@ -31726,7 +31724,7 @@
       <c r="L925" s="79"/>
       <c r="M925" s="79"/>
       <c r="N925" s="78" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="O925" s="84"/>
       <c r="P925" s="68"/>
@@ -31738,10 +31736,10 @@
         <v>1041</v>
       </c>
       <c r="G926" s="79" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="H926" s="79" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="I926" s="79"/>
       <c r="J926" s="79"/>
@@ -31749,7 +31747,7 @@
       <c r="L926" s="79"/>
       <c r="M926" s="79"/>
       <c r="N926" s="78" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="O926" s="8"/>
       <c r="P926" s="68"/>
@@ -31817,7 +31815,7 @@
     <row r="931" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F931" s="16"/>
       <c r="G931" s="78" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="H931" s="79"/>
       <c r="I931"/>
@@ -31833,7 +31831,7 @@
     <row r="932" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F932" s="16"/>
       <c r="G932" s="79" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="H932" s="79"/>
       <c r="I932"/>
@@ -31849,7 +31847,7 @@
     <row r="933" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F933" s="3"/>
       <c r="G933" s="78" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="H933" s="79"/>
       <c r="I933"/>
@@ -31865,7 +31863,7 @@
     </row>
     <row r="935" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G935" s="78" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="H935" s="79"/>
       <c r="I935"/>
@@ -31948,8 +31946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T218"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -31963,7 +31961,7 @@
   <sheetData>
     <row r="1" spans="2:16" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="81" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.15">
@@ -31971,7 +31969,7 @@
         <v>519</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>1243</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
@@ -31987,7 +31985,7 @@
         <v>76</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.15">
@@ -31998,7 +31996,7 @@
     <row r="7" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C7" s="3"/>
       <c r="D7" s="78" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.15">
@@ -32065,7 +32063,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>541</v>
@@ -32100,10 +32098,10 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="82" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H19" s="82" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I19" s="8"/>
     </row>
@@ -32130,7 +32128,7 @@
         <v>534</v>
       </c>
       <c r="E23" s="79" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>526</v>
@@ -32148,7 +32146,7 @@
         <v>528</v>
       </c>
       <c r="G24" s="79" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -32181,7 +32179,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G27" s="79" t="s">
         <v>541</v>
@@ -32196,7 +32194,7 @@
         <v>954</v>
       </c>
       <c r="G28" s="79" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -32205,7 +32203,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="82" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -32216,10 +32214,10 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="82" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H30" s="82" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I30" s="8"/>
     </row>
@@ -32227,7 +32225,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="79" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -32236,7 +32234,7 @@
     <row r="32" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F32" s="8"/>
       <c r="G32" s="82" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H32" s="82"/>
       <c r="I32" s="8"/>
@@ -32246,7 +32244,7 @@
         <v>581</v>
       </c>
       <c r="E34" s="79" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>526</v>
@@ -32293,7 +32291,7 @@
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G38" s="79" t="s">
         <v>541</v>
@@ -32307,7 +32305,7 @@
         <v>954</v>
       </c>
       <c r="G39" s="79" t="s">
-        <v>1238</v>
+        <v>957</v>
       </c>
       <c r="H39" s="8"/>
     </row>
@@ -32315,7 +32313,7 @@
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="82" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -32325,10 +32323,10 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="82" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H41" s="82" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.15">
@@ -32343,10 +32341,10 @@
     <row r="43" spans="3:9" x14ac:dyDescent="0.15">
       <c r="F43" s="8"/>
       <c r="G43" s="82" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H43" s="82" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.15">
@@ -32354,10 +32352,10 @@
         <v>545</v>
       </c>
       <c r="D47" s="78" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E47" s="79" t="s">
         <v>1234</v>
-      </c>
-      <c r="E47" s="79" t="s">
-        <v>1235</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -32369,7 +32367,7 @@
         <v>977</v>
       </c>
       <c r="D48" s="78" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E48" s="79" t="s">
         <v>881</v>
@@ -32384,10 +32382,10 @@
         <v>550</v>
       </c>
       <c r="D49" s="78" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E49" s="79" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -32399,10 +32397,10 @@
         <v>975</v>
       </c>
       <c r="D50" s="78" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E50" s="79" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -32426,7 +32424,7 @@
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E55" s="78" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="G55" s="8"/>
     </row>
@@ -32444,7 +32442,7 @@
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E58" s="78" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="G58" s="8"/>
     </row>
@@ -32453,7 +32451,7 @@
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D60" s="78" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
@@ -32461,7 +32459,7 @@
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E61" s="78" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -32478,23 +32476,30 @@
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.15">
       <c r="E64" s="78" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C66" s="3"/>
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C66" s="3" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D67" s="78" t="s">
+        <v>1285</v>
+      </c>
     </row>
     <row r="91" spans="2:20" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B91" s="47" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="92" spans="2:20" x14ac:dyDescent="0.15">
       <c r="C92" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>1069</v>
+      <c r="D92" s="78" t="s">
+        <v>1282</v>
       </c>
     </row>
     <row r="93" spans="2:20" x14ac:dyDescent="0.15">
@@ -32606,7 +32611,7 @@
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G105" s="8" t="s">
         <v>541</v>
@@ -32666,10 +32671,10 @@
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="82" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H110" s="82" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
@@ -32684,7 +32689,7 @@
       <c r="J111" s="8"/>
     </row>
     <row r="112" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C112" s="90" t="s">
+      <c r="C112" s="93" t="s">
         <v>937</v>
       </c>
       <c r="D112" s="8" t="s">
@@ -32704,7 +32709,7 @@
       <c r="J112" s="8"/>
     </row>
     <row r="113" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C113" s="90"/>
+      <c r="C113" s="93"/>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8" t="s">
@@ -32718,7 +32723,7 @@
       <c r="J113" s="8"/>
     </row>
     <row r="114" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C114" s="90"/>
+      <c r="C114" s="93"/>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8" t="s">
@@ -32732,7 +32737,7 @@
       <c r="J114" s="8"/>
     </row>
     <row r="115" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C115" s="90"/>
+      <c r="C115" s="93"/>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8" t="s">
@@ -32746,11 +32751,11 @@
       <c r="J115" s="8"/>
     </row>
     <row r="116" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C116" s="90"/>
+      <c r="C116" s="93"/>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G116" s="8" t="s">
         <v>540</v>
@@ -32760,7 +32765,7 @@
       <c r="J116" s="8"/>
     </row>
     <row r="117" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C117" s="90"/>
+      <c r="C117" s="93"/>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8" t="s">
@@ -32772,7 +32777,7 @@
       <c r="J117" s="8"/>
     </row>
     <row r="118" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C118" s="90"/>
+      <c r="C118" s="93"/>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
@@ -32784,7 +32789,7 @@
       <c r="J118" s="8"/>
     </row>
     <row r="119" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C119" s="90"/>
+      <c r="C119" s="93"/>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8" t="s">
@@ -32798,7 +32803,7 @@
       <c r="J119" s="8"/>
     </row>
     <row r="120" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C120" s="90"/>
+      <c r="C120" s="93"/>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8" t="s">
@@ -32810,21 +32815,21 @@
       <c r="J120" s="8"/>
     </row>
     <row r="121" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C121" s="90"/>
+      <c r="C121" s="93"/>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="82" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H121" s="82" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
     </row>
     <row r="122" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C122" s="90"/>
+      <c r="C122" s="93"/>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
@@ -32834,7 +32839,7 @@
       <c r="J122" s="8"/>
     </row>
     <row r="123" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C123" s="90"/>
+      <c r="C123" s="93"/>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
@@ -32844,7 +32849,7 @@
       <c r="J123" s="8"/>
     </row>
     <row r="124" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C124" s="90"/>
+      <c r="C124" s="93"/>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
@@ -32854,7 +32859,7 @@
       <c r="J124" s="8"/>
     </row>
     <row r="125" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C125" s="90"/>
+      <c r="C125" s="93"/>
       <c r="D125" s="8" t="s">
         <v>981</v>
       </c>
@@ -32872,7 +32877,7 @@
       <c r="J125" s="8"/>
     </row>
     <row r="126" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C126" s="90"/>
+      <c r="C126" s="93"/>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8" t="s">
@@ -32886,7 +32891,7 @@
       <c r="J126" s="8"/>
     </row>
     <row r="127" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C127" s="90"/>
+      <c r="C127" s="93"/>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8" t="s">
@@ -32900,7 +32905,7 @@
       <c r="J127" s="8"/>
     </row>
     <row r="128" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C128" s="90"/>
+      <c r="C128" s="93"/>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8" t="s">
@@ -32914,11 +32919,11 @@
       <c r="J128" s="8"/>
     </row>
     <row r="129" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C129" s="90"/>
+      <c r="C129" s="93"/>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G129" s="8" t="s">
         <v>540</v>
@@ -32928,7 +32933,7 @@
       <c r="J129" s="8"/>
     </row>
     <row r="130" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C130" s="90"/>
+      <c r="C130" s="93"/>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8" t="s">
@@ -32940,7 +32945,7 @@
       <c r="J130" s="8"/>
     </row>
     <row r="131" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C131" s="90"/>
+      <c r="C131" s="93"/>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
@@ -32952,7 +32957,7 @@
       <c r="J131" s="8"/>
     </row>
     <row r="132" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C132" s="90"/>
+      <c r="C132" s="93"/>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8" t="s">
@@ -32966,7 +32971,7 @@
       <c r="J132" s="8"/>
     </row>
     <row r="133" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C133" s="90"/>
+      <c r="C133" s="93"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8" t="s">
@@ -32978,21 +32983,21 @@
       <c r="J133" s="8"/>
     </row>
     <row r="134" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C134" s="90"/>
+      <c r="C134" s="93"/>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="82" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H134" s="82" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
     </row>
     <row r="135" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C135" s="90"/>
+      <c r="C135" s="93"/>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
@@ -33002,7 +33007,7 @@
       <c r="J135" s="8"/>
     </row>
     <row r="136" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C136" s="90"/>
+      <c r="C136" s="93"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
@@ -33012,7 +33017,7 @@
       <c r="J136" s="8"/>
     </row>
     <row r="137" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C137" s="90"/>
+      <c r="C137" s="93"/>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
@@ -33022,7 +33027,7 @@
       <c r="J137" s="8"/>
     </row>
     <row r="138" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C138" s="90"/>
+      <c r="C138" s="93"/>
       <c r="D138" s="8" t="s">
         <v>982</v>
       </c>
@@ -33040,7 +33045,7 @@
       <c r="J138" s="8"/>
     </row>
     <row r="139" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C139" s="90"/>
+      <c r="C139" s="93"/>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8" t="s">
@@ -33054,7 +33059,7 @@
       <c r="J139" s="8"/>
     </row>
     <row r="140" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C140" s="90"/>
+      <c r="C140" s="93"/>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8" t="s">
@@ -33068,7 +33073,7 @@
       <c r="J140" s="8"/>
     </row>
     <row r="141" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C141" s="90"/>
+      <c r="C141" s="93"/>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8" t="s">
@@ -33082,11 +33087,11 @@
       <c r="J141" s="8"/>
     </row>
     <row r="142" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C142" s="90"/>
+      <c r="C142" s="93"/>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>540</v>
@@ -33096,7 +33101,7 @@
       <c r="J142" s="8"/>
     </row>
     <row r="143" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C143" s="90"/>
+      <c r="C143" s="93"/>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8" t="s">
@@ -33108,7 +33113,7 @@
       <c r="J143" s="8"/>
     </row>
     <row r="144" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C144" s="90"/>
+      <c r="C144" s="93"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
@@ -33120,7 +33125,7 @@
       <c r="J144" s="8"/>
     </row>
     <row r="145" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C145" s="90"/>
+      <c r="C145" s="93"/>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8" t="s">
@@ -33134,7 +33139,7 @@
       <c r="J145" s="8"/>
     </row>
     <row r="146" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C146" s="90"/>
+      <c r="C146" s="93"/>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8" t="s">
@@ -33146,15 +33151,15 @@
       <c r="J146" s="8"/>
     </row>
     <row r="147" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C147" s="90"/>
+      <c r="C147" s="93"/>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="82" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H147" s="82" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I147" s="8"/>
       <c r="J147" s="8"/>
@@ -33254,10 +33259,10 @@
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
       <c r="F155" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G155" s="79" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H155" s="8"/>
       <c r="I155" s="8"/>
@@ -33306,7 +33311,7 @@
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
       <c r="F159" s="82" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
@@ -33319,10 +33324,10 @@
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
       <c r="G160" s="82" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H160" s="82" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
@@ -33345,10 +33350,10 @@
       <c r="E162" s="8"/>
       <c r="F162" s="8"/>
       <c r="G162" s="82" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H162" s="82" t="s">
         <v>1199</v>
-      </c>
-      <c r="H162" s="82" t="s">
-        <v>1200</v>
       </c>
       <c r="I162" s="8"/>
       <c r="J162" s="8"/>
@@ -33428,7 +33433,7 @@
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
       <c r="F168" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G168" s="79" t="s">
         <v>541</v>
@@ -33480,7 +33485,7 @@
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
       <c r="F172" s="82" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
@@ -33493,10 +33498,10 @@
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
       <c r="G173" s="82" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H173" s="82" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I173" s="8"/>
       <c r="J173" s="8"/>
@@ -33519,10 +33524,10 @@
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
       <c r="G175" s="82" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H175" s="82" t="s">
         <v>1199</v>
-      </c>
-      <c r="H175" s="82" t="s">
-        <v>1200</v>
       </c>
       <c r="I175" s="8"/>
       <c r="J175" s="8"/>
@@ -33598,7 +33603,7 @@
       <c r="D181" s="8"/>
       <c r="E181" s="8"/>
       <c r="F181" s="8" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G181" s="79" t="s">
         <v>541</v>
@@ -33646,7 +33651,7 @@
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
       <c r="F185" s="82" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
@@ -33658,10 +33663,10 @@
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
       <c r="G186" s="82" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H186" s="82" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I186" s="8"/>
       <c r="J186" s="8"/>
@@ -33682,10 +33687,10 @@
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
       <c r="G188" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H188" s="2" t="s">
         <v>1199</v>
-      </c>
-      <c r="H188" s="2" t="s">
-        <v>1200</v>
       </c>
       <c r="I188" s="8"/>
       <c r="J188" s="8"/>
@@ -33720,7 +33725,7 @@
         <v>772</v>
       </c>
       <c r="L191" s="71" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="192" spans="3:12" x14ac:dyDescent="0.15">
@@ -33742,7 +33747,7 @@
         <v>941</v>
       </c>
       <c r="L192" s="71" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="193" spans="3:12" x14ac:dyDescent="0.15">
@@ -33764,7 +33769,7 @@
         <v>942</v>
       </c>
       <c r="L193" s="71" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="194" spans="3:12" x14ac:dyDescent="0.15">
@@ -33786,7 +33791,7 @@
         <v>941</v>
       </c>
       <c r="L194" s="71" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="195" spans="3:12" x14ac:dyDescent="0.15">
@@ -33808,7 +33813,7 @@
         <v>942</v>
       </c>
       <c r="L195" s="71" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="196" spans="3:12" x14ac:dyDescent="0.15">
@@ -34975,10 +34980,10 @@
       <c r="J1" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="K1" s="91" t="s">
+      <c r="K1" s="94" t="s">
         <v>285</v>
       </c>
-      <c r="L1" s="91"/>
+      <c r="L1" s="94"/>
       <c r="M1" s="3" t="s">
         <v>286</v>
       </c>
@@ -35005,34 +35010,34 @@
       </c>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="95" t="s">
         <v>339</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="93" t="s">
         <v>338</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="90" t="s">
+      <c r="E2" s="106"/>
+      <c r="F2" s="93" t="s">
         <v>337</v>
       </c>
-      <c r="G2" s="90" t="s">
+      <c r="G2" s="93" t="s">
         <v>334</v>
       </c>
-      <c r="H2" s="106"/>
-      <c r="I2" s="105" t="s">
+      <c r="H2" s="109"/>
+      <c r="I2" s="108" t="s">
         <v>342</v>
       </c>
-      <c r="J2" s="90"/>
+      <c r="J2" s="93"/>
       <c r="K2" s="27" t="s">
         <v>293</v>
       </c>
       <c r="L2" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="M2" s="104" t="s">
+      <c r="M2" s="107" t="s">
         <v>295</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -35049,22 +35054,22 @@
       </c>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="92"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="90"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="93"/>
       <c r="K3" s="27" t="s">
         <v>300</v>
       </c>
       <c r="L3" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="M3" s="104"/>
+      <c r="M3" s="107"/>
       <c r="N3" s="3" t="s">
         <v>80</v>
       </c>
@@ -35085,22 +35090,22 @@
       </c>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="92"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="90"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="93"/>
       <c r="K4" s="27" t="s">
         <v>306</v>
       </c>
       <c r="L4" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="M4" s="104"/>
+      <c r="M4" s="107"/>
       <c r="N4" s="3" t="s">
         <v>82</v>
       </c>
@@ -35121,18 +35126,18 @@
       </c>
     </row>
     <row r="5" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="92"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="90"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="93"/>
       <c r="K5" s="30"/>
       <c r="L5" s="28"/>
-      <c r="M5" s="104"/>
+      <c r="M5" s="107"/>
       <c r="N5" s="3" t="s">
         <v>309</v>
       </c>
@@ -35147,18 +35152,18 @@
       </c>
     </row>
     <row r="6" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="92"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="90"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="93"/>
       <c r="K6" s="30"/>
       <c r="L6" s="28"/>
-      <c r="M6" s="104"/>
+      <c r="M6" s="107"/>
       <c r="N6" s="3" t="s">
         <v>312</v>
       </c>
@@ -35173,18 +35178,18 @@
       </c>
     </row>
     <row r="7" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="92"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="90"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="93"/>
       <c r="K7" s="30"/>
       <c r="L7" s="28"/>
-      <c r="M7" s="104"/>
+      <c r="M7" s="107"/>
       <c r="N7" s="3" t="s">
         <v>315</v>
       </c>
@@ -35199,18 +35204,18 @@
       </c>
     </row>
     <row r="8" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="92"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="90"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="93"/>
       <c r="K8" s="30"/>
       <c r="L8" s="28"/>
-      <c r="M8" s="104"/>
+      <c r="M8" s="107"/>
       <c r="N8" s="3" t="s">
         <v>318</v>
       </c>
@@ -35225,18 +35230,18 @@
       </c>
     </row>
     <row r="9" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="92"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="90"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="93"/>
       <c r="K9" s="30"/>
       <c r="L9" s="28"/>
-      <c r="M9" s="104"/>
+      <c r="M9" s="107"/>
       <c r="N9" s="3" t="s">
         <v>321</v>
       </c>
@@ -35254,18 +35259,18 @@
       <c r="A10" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="90"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="93"/>
       <c r="K10" s="30"/>
       <c r="L10" s="28"/>
-      <c r="M10" s="104"/>
+      <c r="M10" s="107"/>
       <c r="N10" s="3" t="s">
         <v>323</v>
       </c>
@@ -35280,18 +35285,18 @@
       </c>
     </row>
     <row r="11" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="92"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="90"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="93"/>
       <c r="K11" s="30"/>
       <c r="L11" s="28"/>
-      <c r="M11" s="104"/>
+      <c r="M11" s="107"/>
       <c r="N11" s="3" t="s">
         <v>325</v>
       </c>
@@ -35306,15 +35311,15 @@
       </c>
     </row>
     <row r="12" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="92"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="90"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="93"/>
       <c r="K12" s="30"/>
       <c r="L12" s="28"/>
       <c r="M12" s="31" t="s">
@@ -35375,10 +35380,10 @@
       <c r="J14" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="K14" s="97" t="s">
+      <c r="K14" s="100" t="s">
         <v>285</v>
       </c>
-      <c r="L14" s="97"/>
+      <c r="L14" s="100"/>
       <c r="M14" s="44" t="s">
         <v>286</v>
       </c>
@@ -35405,24 +35410,24 @@
       </c>
     </row>
     <row r="15" spans="1:20" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="101" t="s">
         <v>340</v>
       </c>
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="102" t="s">
         <v>338</v>
       </c>
-      <c r="D15" s="99" t="s">
+      <c r="D15" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="100"/>
-      <c r="F15" s="99" t="s">
+      <c r="E15" s="103"/>
+      <c r="F15" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="99" t="s">
+      <c r="G15" s="102" t="s">
         <v>334</v>
       </c>
-      <c r="H15" s="102"/>
-      <c r="I15" s="98" t="s">
+      <c r="H15" s="105"/>
+      <c r="I15" s="101" t="s">
         <v>162</v>
       </c>
       <c r="J15" s="48"/>
@@ -35432,7 +35437,7 @@
       <c r="L15" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="M15" s="97" t="s">
+      <c r="M15" s="100" t="s">
         <v>295</v>
       </c>
       <c r="N15" s="44" t="s">
@@ -35455,14 +35460,14 @@
       </c>
     </row>
     <row r="16" spans="1:20" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="98"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="98"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="101"/>
       <c r="J16" s="48"/>
       <c r="K16" s="49" t="s">
         <v>300</v>
@@ -35470,7 +35475,7 @@
       <c r="L16" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="M16" s="97"/>
+      <c r="M16" s="100"/>
       <c r="N16" s="44" t="s">
         <v>82</v>
       </c>
@@ -35491,14 +35496,14 @@
       </c>
     </row>
     <row r="17" spans="2:20" s="47" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="98"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="98"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="101"/>
       <c r="J17" s="48"/>
       <c r="K17" s="49" t="s">
         <v>306</v>
@@ -35551,10 +35556,10 @@
       <c r="J19" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="K19" s="91" t="s">
+      <c r="K19" s="94" t="s">
         <v>285</v>
       </c>
-      <c r="L19" s="91"/>
+      <c r="L19" s="94"/>
       <c r="M19" s="16" t="s">
         <v>286</v>
       </c>
@@ -35581,24 +35586,24 @@
       </c>
     </row>
     <row r="20" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="95" t="s">
         <v>450</v>
       </c>
-      <c r="C20" s="93" t="s">
+      <c r="C20" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="93" t="s">
+      <c r="D20" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="94"/>
-      <c r="F20" s="93" t="s">
+      <c r="E20" s="97"/>
+      <c r="F20" s="96" t="s">
         <v>176</v>
       </c>
-      <c r="G20" s="93" t="s">
+      <c r="G20" s="96" t="s">
         <v>334</v>
       </c>
-      <c r="H20" s="96"/>
-      <c r="I20" s="92" t="s">
+      <c r="H20" s="99"/>
+      <c r="I20" s="95" t="s">
         <v>162</v>
       </c>
       <c r="J20" s="32"/>
@@ -35608,7 +35613,7 @@
       <c r="L20" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="M20" s="91" t="s">
+      <c r="M20" s="94" t="s">
         <v>295</v>
       </c>
       <c r="N20" s="16" t="s">
@@ -35632,14 +35637,14 @@
       </c>
     </row>
     <row r="21" spans="2:20" s="39" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="92"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="95"/>
       <c r="J21" s="32"/>
       <c r="K21" s="40" t="s">
         <v>300</v>
@@ -35647,7 +35652,7 @@
       <c r="L21" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="M21" s="91"/>
+      <c r="M21" s="94"/>
       <c r="N21" s="16" t="s">
         <v>82</v>
       </c>
@@ -35669,14 +35674,14 @@
       </c>
     </row>
     <row r="22" spans="2:20" s="39" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="92"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="95"/>
       <c r="J22" s="32"/>
       <c r="K22" s="40" t="s">
         <v>306</v>
@@ -35732,10 +35737,10 @@
       <c r="J24" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="K24" s="97" t="s">
+      <c r="K24" s="100" t="s">
         <v>285</v>
       </c>
-      <c r="L24" s="97"/>
+      <c r="L24" s="100"/>
       <c r="M24" s="44" t="s">
         <v>286</v>
       </c>
@@ -35762,24 +35767,24 @@
       </c>
     </row>
     <row r="25" spans="2:20" s="56" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="101" t="s">
         <v>835</v>
       </c>
-      <c r="C25" s="99" t="s">
+      <c r="C25" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="99" t="s">
+      <c r="D25" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="100"/>
-      <c r="F25" s="99" t="s">
+      <c r="E25" s="103"/>
+      <c r="F25" s="102" t="s">
         <v>336</v>
       </c>
-      <c r="G25" s="99" t="s">
+      <c r="G25" s="102" t="s">
         <v>334</v>
       </c>
-      <c r="H25" s="102"/>
-      <c r="I25" s="99" t="s">
+      <c r="H25" s="105"/>
+      <c r="I25" s="102" t="s">
         <v>343</v>
       </c>
       <c r="J25" s="48"/>
@@ -35789,7 +35794,7 @@
       <c r="L25" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="M25" s="97" t="s">
+      <c r="M25" s="100" t="s">
         <v>295</v>
       </c>
       <c r="N25" s="44" t="s">
@@ -35813,14 +35818,14 @@
       </c>
     </row>
     <row r="26" spans="2:20" s="56" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="98"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="99"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="102"/>
       <c r="J26" s="48"/>
       <c r="K26" s="49" t="s">
         <v>300</v>
@@ -35828,7 +35833,7 @@
       <c r="L26" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="M26" s="97"/>
+      <c r="M26" s="100"/>
       <c r="N26" s="44" t="s">
         <v>82</v>
       </c>
@@ -35850,14 +35855,14 @@
       </c>
     </row>
     <row r="27" spans="2:20" s="56" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="98"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="99"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="102"/>
       <c r="J27" s="48"/>
       <c r="K27" s="49" t="s">
         <v>306</v>
@@ -35913,10 +35918,10 @@
       <c r="J29" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="K29" s="91" t="s">
+      <c r="K29" s="94" t="s">
         <v>285</v>
       </c>
-      <c r="L29" s="91"/>
+      <c r="L29" s="94"/>
       <c r="M29" s="16" t="s">
         <v>286</v>
       </c>
@@ -35943,24 +35948,24 @@
       </c>
     </row>
     <row r="30" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B30" s="92" t="s">
+      <c r="B30" s="95" t="s">
         <v>345</v>
       </c>
-      <c r="C30" s="93" t="s">
+      <c r="C30" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="93" t="s">
+      <c r="D30" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="94"/>
-      <c r="F30" s="93" t="s">
+      <c r="E30" s="97"/>
+      <c r="F30" s="96" t="s">
         <v>344</v>
       </c>
-      <c r="G30" s="93" t="s">
+      <c r="G30" s="96" t="s">
         <v>334</v>
       </c>
-      <c r="H30" s="96"/>
-      <c r="I30" s="93" t="s">
+      <c r="H30" s="99"/>
+      <c r="I30" s="96" t="s">
         <v>343</v>
       </c>
       <c r="J30" s="32"/>
@@ -35970,7 +35975,7 @@
       <c r="L30" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="M30" s="91" t="s">
+      <c r="M30" s="94" t="s">
         <v>295</v>
       </c>
       <c r="N30" s="16" t="s">
@@ -35994,14 +35999,14 @@
       </c>
     </row>
     <row r="31" spans="2:20" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="92"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="93"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="96"/>
       <c r="J31" s="32"/>
       <c r="K31" s="40" t="s">
         <v>300</v>
@@ -36009,7 +36014,7 @@
       <c r="L31" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="M31" s="91"/>
+      <c r="M31" s="94"/>
       <c r="N31" s="16" t="s">
         <v>82</v>
       </c>
@@ -36031,14 +36036,14 @@
       </c>
     </row>
     <row r="32" spans="2:20" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="92"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="93"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="96"/>
       <c r="J32" s="32"/>
       <c r="K32" s="40" t="s">
         <v>306</v>
@@ -36094,10 +36099,10 @@
       <c r="J34" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="K34" s="97" t="s">
+      <c r="K34" s="100" t="s">
         <v>285</v>
       </c>
-      <c r="L34" s="97"/>
+      <c r="L34" s="100"/>
       <c r="M34" s="44" t="s">
         <v>346</v>
       </c>
@@ -36124,24 +36129,24 @@
       </c>
     </row>
     <row r="35" spans="2:20" s="56" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B35" s="98" t="s">
+      <c r="B35" s="101" t="s">
         <v>834</v>
       </c>
-      <c r="C35" s="99" t="s">
+      <c r="C35" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="99" t="s">
+      <c r="D35" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="100"/>
-      <c r="F35" s="99" t="s">
+      <c r="E35" s="103"/>
+      <c r="F35" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="99" t="s">
+      <c r="G35" s="102" t="s">
         <v>334</v>
       </c>
-      <c r="H35" s="102"/>
-      <c r="I35" s="99" t="s">
+      <c r="H35" s="105"/>
+      <c r="I35" s="102" t="s">
         <v>343</v>
       </c>
       <c r="J35" s="48"/>
@@ -36151,7 +36156,7 @@
       <c r="L35" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="M35" s="97" t="s">
+      <c r="M35" s="100" t="s">
         <v>295</v>
       </c>
       <c r="N35" s="44" t="s">
@@ -36175,14 +36180,14 @@
       </c>
     </row>
     <row r="36" spans="2:20" s="56" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="98"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="102"/>
-      <c r="I36" s="99"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="102"/>
       <c r="J36" s="48"/>
       <c r="K36" s="49" t="s">
         <v>300</v>
@@ -36190,7 +36195,7 @@
       <c r="L36" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="M36" s="97"/>
+      <c r="M36" s="100"/>
       <c r="N36" s="44" t="s">
         <v>82</v>
       </c>
@@ -36212,14 +36217,14 @@
       </c>
     </row>
     <row r="37" spans="2:20" s="56" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="98"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="102"/>
-      <c r="I37" s="99"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="102"/>
       <c r="J37" s="48"/>
       <c r="K37" s="49" t="s">
         <v>306</v>
@@ -36275,10 +36280,10 @@
       <c r="J39" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="K39" s="91" t="s">
+      <c r="K39" s="94" t="s">
         <v>285</v>
       </c>
-      <c r="L39" s="91"/>
+      <c r="L39" s="94"/>
       <c r="M39" s="16" t="s">
         <v>346</v>
       </c>
@@ -36305,24 +36310,24 @@
       </c>
     </row>
     <row r="40" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B40" s="92" t="s">
+      <c r="B40" s="95" t="s">
         <v>471</v>
       </c>
-      <c r="C40" s="93" t="s">
+      <c r="C40" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="93" t="s">
+      <c r="D40" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="94"/>
-      <c r="F40" s="93" t="s">
+      <c r="E40" s="97"/>
+      <c r="F40" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="G40" s="95" t="s">
+      <c r="G40" s="98" t="s">
         <v>402</v>
       </c>
-      <c r="H40" s="96"/>
-      <c r="I40" s="93" t="s">
+      <c r="H40" s="99"/>
+      <c r="I40" s="96" t="s">
         <v>343</v>
       </c>
       <c r="J40" s="32"/>
@@ -36332,7 +36337,7 @@
       <c r="L40" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="M40" s="91" t="s">
+      <c r="M40" s="94" t="s">
         <v>295</v>
       </c>
       <c r="N40" s="16" t="s">
@@ -36356,14 +36361,14 @@
       </c>
     </row>
     <row r="41" spans="2:20" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="92"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="93"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="96"/>
       <c r="J41" s="32"/>
       <c r="K41" s="40" t="s">
         <v>300</v>
@@ -36371,7 +36376,7 @@
       <c r="L41" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="M41" s="91"/>
+      <c r="M41" s="94"/>
       <c r="N41" s="16" t="s">
         <v>82</v>
       </c>
@@ -36393,14 +36398,14 @@
       </c>
     </row>
     <row r="42" spans="2:20" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="92"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="93"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="96"/>
       <c r="J42" s="32"/>
       <c r="K42" s="40" t="s">
         <v>306</v>
@@ -36456,10 +36461,10 @@
       <c r="J44" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="K44" s="91" t="s">
+      <c r="K44" s="94" t="s">
         <v>285</v>
       </c>
-      <c r="L44" s="91"/>
+      <c r="L44" s="94"/>
       <c r="M44" s="16" t="s">
         <v>346</v>
       </c>
@@ -36486,24 +36491,24 @@
       </c>
     </row>
     <row r="45" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B45" s="92" t="s">
+      <c r="B45" s="95" t="s">
         <v>474</v>
       </c>
-      <c r="C45" s="93" t="s">
+      <c r="C45" s="96" t="s">
         <v>349</v>
       </c>
-      <c r="D45" s="93" t="s">
+      <c r="D45" s="96" t="s">
         <v>349</v>
       </c>
-      <c r="E45" s="94"/>
-      <c r="F45" s="93" t="s">
+      <c r="E45" s="97"/>
+      <c r="F45" s="96" t="s">
         <v>350</v>
       </c>
-      <c r="G45" s="95" t="s">
+      <c r="G45" s="98" t="s">
         <v>334</v>
       </c>
-      <c r="H45" s="96"/>
-      <c r="I45" s="93" t="s">
+      <c r="H45" s="99"/>
+      <c r="I45" s="96" t="s">
         <v>343</v>
       </c>
       <c r="J45" s="32"/>
@@ -36513,7 +36518,7 @@
       <c r="L45" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="M45" s="91" t="s">
+      <c r="M45" s="94" t="s">
         <v>295</v>
       </c>
       <c r="N45" s="16" t="s">
@@ -36537,14 +36542,14 @@
       </c>
     </row>
     <row r="46" spans="2:20" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="92"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="93"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="95"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="93"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="96"/>
       <c r="J46" s="32"/>
       <c r="K46" s="40" t="s">
         <v>300</v>
@@ -36552,7 +36557,7 @@
       <c r="L46" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="M46" s="91"/>
+      <c r="M46" s="94"/>
       <c r="N46" s="16" t="s">
         <v>82</v>
       </c>
@@ -36574,14 +36579,14 @@
       </c>
     </row>
     <row r="47" spans="2:20" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="92"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="95"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="93"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="98"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="96"/>
       <c r="J47" s="32"/>
       <c r="K47" s="40" t="s">
         <v>306</v>
@@ -36637,10 +36642,10 @@
       <c r="J49" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="K49" s="91" t="s">
+      <c r="K49" s="94" t="s">
         <v>285</v>
       </c>
-      <c r="L49" s="91"/>
+      <c r="L49" s="94"/>
       <c r="M49" s="16" t="s">
         <v>346</v>
       </c>
@@ -36667,24 +36672,24 @@
       </c>
     </row>
     <row r="50" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B50" s="92" t="s">
+      <c r="B50" s="95" t="s">
         <v>353</v>
       </c>
-      <c r="C50" s="93" t="s">
+      <c r="C50" s="96" t="s">
         <v>352</v>
       </c>
-      <c r="D50" s="93" t="s">
+      <c r="D50" s="96" t="s">
         <v>352</v>
       </c>
-      <c r="E50" s="94"/>
-      <c r="F50" s="93" t="s">
+      <c r="E50" s="97"/>
+      <c r="F50" s="96" t="s">
         <v>336</v>
       </c>
-      <c r="G50" s="95" t="s">
+      <c r="G50" s="98" t="s">
         <v>402</v>
       </c>
-      <c r="H50" s="96"/>
-      <c r="I50" s="93" t="s">
+      <c r="H50" s="99"/>
+      <c r="I50" s="96" t="s">
         <v>343</v>
       </c>
       <c r="J50" s="32"/>
@@ -36694,7 +36699,7 @@
       <c r="L50" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="M50" s="91" t="s">
+      <c r="M50" s="94" t="s">
         <v>295</v>
       </c>
       <c r="N50" s="16" t="s">
@@ -36718,14 +36723,14 @@
       </c>
     </row>
     <row r="51" spans="2:20" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="92"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="94"/>
-      <c r="H51" s="96"/>
-      <c r="I51" s="93"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="96"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="97"/>
+      <c r="H51" s="99"/>
+      <c r="I51" s="96"/>
       <c r="J51" s="32"/>
       <c r="K51" s="40" t="s">
         <v>300</v>
@@ -36733,7 +36738,7 @@
       <c r="L51" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="M51" s="91"/>
+      <c r="M51" s="94"/>
       <c r="N51" s="16" t="s">
         <v>82</v>
       </c>
@@ -36755,14 +36760,14 @@
       </c>
     </row>
     <row r="52" spans="2:20" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="92"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="93"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="96"/>
-      <c r="I52" s="93"/>
+      <c r="B52" s="95"/>
+      <c r="C52" s="96"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="97"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="97"/>
+      <c r="H52" s="99"/>
+      <c r="I52" s="96"/>
       <c r="J52" s="32"/>
       <c r="K52" s="40" t="s">
         <v>306</v>
@@ -36818,10 +36823,10 @@
       <c r="J54" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="K54" s="91" t="s">
+      <c r="K54" s="94" t="s">
         <v>285</v>
       </c>
-      <c r="L54" s="91"/>
+      <c r="L54" s="94"/>
       <c r="M54" s="16" t="s">
         <v>346</v>
       </c>
@@ -36848,24 +36853,24 @@
       </c>
     </row>
     <row r="55" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="95" t="s">
         <v>506</v>
       </c>
-      <c r="C55" s="93" t="s">
+      <c r="C55" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="93" t="s">
+      <c r="D55" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="94"/>
-      <c r="F55" s="93" t="s">
+      <c r="E55" s="97"/>
+      <c r="F55" s="96" t="s">
         <v>356</v>
       </c>
-      <c r="G55" s="95" t="s">
+      <c r="G55" s="98" t="s">
         <v>359</v>
       </c>
-      <c r="H55" s="96"/>
-      <c r="I55" s="93" t="s">
+      <c r="H55" s="99"/>
+      <c r="I55" s="96" t="s">
         <v>343</v>
       </c>
       <c r="J55" s="32"/>
@@ -36875,7 +36880,7 @@
       <c r="L55" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="M55" s="91" t="s">
+      <c r="M55" s="94" t="s">
         <v>295</v>
       </c>
       <c r="N55" s="16" t="s">
@@ -36899,14 +36904,14 @@
       </c>
     </row>
     <row r="56" spans="2:20" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="92"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="93"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="93"/>
-      <c r="G56" s="95"/>
-      <c r="H56" s="96"/>
-      <c r="I56" s="93"/>
+      <c r="B56" s="95"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="97"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="98"/>
+      <c r="H56" s="99"/>
+      <c r="I56" s="96"/>
       <c r="J56" s="32"/>
       <c r="K56" s="40" t="s">
         <v>300</v>
@@ -36914,7 +36919,7 @@
       <c r="L56" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="M56" s="91"/>
+      <c r="M56" s="94"/>
       <c r="N56" s="16" t="s">
         <v>82</v>
       </c>
@@ -36936,14 +36941,14 @@
       </c>
     </row>
     <row r="57" spans="2:20" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="92"/>
-      <c r="C57" s="93"/>
-      <c r="D57" s="93"/>
-      <c r="E57" s="94"/>
-      <c r="F57" s="93"/>
-      <c r="G57" s="95"/>
-      <c r="H57" s="96"/>
-      <c r="I57" s="93"/>
+      <c r="B57" s="95"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="97"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="98"/>
+      <c r="H57" s="99"/>
+      <c r="I57" s="96"/>
       <c r="J57" s="32"/>
       <c r="K57" s="40" t="s">
         <v>306</v>
@@ -36999,10 +37004,10 @@
       <c r="J59" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="K59" s="91" t="s">
+      <c r="K59" s="94" t="s">
         <v>285</v>
       </c>
-      <c r="L59" s="91"/>
+      <c r="L59" s="94"/>
       <c r="M59" s="16" t="s">
         <v>346</v>
       </c>
@@ -37029,24 +37034,24 @@
       </c>
     </row>
     <row r="60" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B60" s="92" t="s">
+      <c r="B60" s="95" t="s">
         <v>357</v>
       </c>
-      <c r="C60" s="93" t="s">
+      <c r="C60" s="96" t="s">
         <v>358</v>
       </c>
-      <c r="D60" s="93" t="s">
+      <c r="D60" s="96" t="s">
         <v>358</v>
       </c>
-      <c r="E60" s="94"/>
-      <c r="F60" s="93" t="s">
+      <c r="E60" s="97"/>
+      <c r="F60" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="G60" s="95" t="s">
+      <c r="G60" s="98" t="s">
         <v>402</v>
       </c>
-      <c r="H60" s="96"/>
-      <c r="I60" s="93" t="s">
+      <c r="H60" s="99"/>
+      <c r="I60" s="96" t="s">
         <v>343</v>
       </c>
       <c r="J60" s="32"/>
@@ -37056,7 +37061,7 @@
       <c r="L60" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="M60" s="91" t="s">
+      <c r="M60" s="94" t="s">
         <v>295</v>
       </c>
       <c r="N60" s="16" t="s">
@@ -37080,14 +37085,14 @@
       </c>
     </row>
     <row r="61" spans="2:20" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="92"/>
-      <c r="C61" s="93"/>
-      <c r="D61" s="93"/>
-      <c r="E61" s="94"/>
-      <c r="F61" s="93"/>
-      <c r="G61" s="94"/>
-      <c r="H61" s="96"/>
-      <c r="I61" s="93"/>
+      <c r="B61" s="95"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="97"/>
+      <c r="F61" s="96"/>
+      <c r="G61" s="97"/>
+      <c r="H61" s="99"/>
+      <c r="I61" s="96"/>
       <c r="J61" s="32"/>
       <c r="K61" s="40" t="s">
         <v>300</v>
@@ -37095,7 +37100,7 @@
       <c r="L61" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="M61" s="91"/>
+      <c r="M61" s="94"/>
       <c r="N61" s="16" t="s">
         <v>82</v>
       </c>
@@ -37117,14 +37122,14 @@
       </c>
     </row>
     <row r="62" spans="2:20" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="92"/>
-      <c r="C62" s="93"/>
-      <c r="D62" s="93"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="93"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="96"/>
-      <c r="I62" s="93"/>
+      <c r="B62" s="95"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="97"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="97"/>
+      <c r="H62" s="99"/>
+      <c r="I62" s="96"/>
       <c r="J62" s="32"/>
       <c r="K62" s="40" t="s">
         <v>306</v>
@@ -37180,10 +37185,10 @@
       <c r="J64" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="K64" s="97" t="s">
+      <c r="K64" s="100" t="s">
         <v>285</v>
       </c>
-      <c r="L64" s="97"/>
+      <c r="L64" s="100"/>
       <c r="M64" s="44" t="s">
         <v>346</v>
       </c>
@@ -37210,24 +37215,24 @@
       </c>
     </row>
     <row r="65" spans="2:20" s="56" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B65" s="98" t="s">
+      <c r="B65" s="101" t="s">
         <v>360</v>
       </c>
-      <c r="C65" s="99" t="s">
+      <c r="C65" s="102" t="s">
         <v>358</v>
       </c>
-      <c r="D65" s="99" t="s">
+      <c r="D65" s="102" t="s">
         <v>358</v>
       </c>
-      <c r="E65" s="100"/>
-      <c r="F65" s="99" t="s">
+      <c r="E65" s="103"/>
+      <c r="F65" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="G65" s="101" t="s">
+      <c r="G65" s="104" t="s">
         <v>402</v>
       </c>
-      <c r="H65" s="102"/>
-      <c r="I65" s="99" t="s">
+      <c r="H65" s="105"/>
+      <c r="I65" s="102" t="s">
         <v>343</v>
       </c>
       <c r="J65" s="48"/>
@@ -37237,7 +37242,7 @@
       <c r="L65" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="M65" s="97" t="s">
+      <c r="M65" s="100" t="s">
         <v>295</v>
       </c>
       <c r="N65" s="44" t="s">
@@ -37261,14 +37266,14 @@
       </c>
     </row>
     <row r="66" spans="2:20" s="56" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="98"/>
-      <c r="C66" s="99"/>
-      <c r="D66" s="99"/>
-      <c r="E66" s="100"/>
-      <c r="F66" s="99"/>
-      <c r="G66" s="100"/>
-      <c r="H66" s="102"/>
-      <c r="I66" s="99"/>
+      <c r="B66" s="101"/>
+      <c r="C66" s="102"/>
+      <c r="D66" s="102"/>
+      <c r="E66" s="103"/>
+      <c r="F66" s="102"/>
+      <c r="G66" s="103"/>
+      <c r="H66" s="105"/>
+      <c r="I66" s="102"/>
       <c r="J66" s="48"/>
       <c r="K66" s="49" t="s">
         <v>300</v>
@@ -37276,7 +37281,7 @@
       <c r="L66" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="M66" s="97"/>
+      <c r="M66" s="100"/>
       <c r="N66" s="44" t="s">
         <v>82</v>
       </c>
@@ -37298,14 +37303,14 @@
       </c>
     </row>
     <row r="67" spans="2:20" s="56" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="98"/>
-      <c r="C67" s="99"/>
-      <c r="D67" s="99"/>
-      <c r="E67" s="100"/>
-      <c r="F67" s="99"/>
-      <c r="G67" s="100"/>
-      <c r="H67" s="102"/>
-      <c r="I67" s="99"/>
+      <c r="B67" s="101"/>
+      <c r="C67" s="102"/>
+      <c r="D67" s="102"/>
+      <c r="E67" s="103"/>
+      <c r="F67" s="102"/>
+      <c r="G67" s="103"/>
+      <c r="H67" s="105"/>
+      <c r="I67" s="102"/>
       <c r="J67" s="48"/>
       <c r="K67" s="49" t="s">
         <v>306</v>
@@ -37361,10 +37366,10 @@
       <c r="J69" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="K69" s="91" t="s">
+      <c r="K69" s="94" t="s">
         <v>285</v>
       </c>
-      <c r="L69" s="91"/>
+      <c r="L69" s="94"/>
       <c r="M69" s="16" t="s">
         <v>346</v>
       </c>
@@ -37391,24 +37396,24 @@
       </c>
     </row>
     <row r="70" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B70" s="92" t="s">
+      <c r="B70" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="C70" s="93" t="s">
+      <c r="C70" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="D70" s="93" t="s">
+      <c r="D70" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="E70" s="94"/>
-      <c r="F70" s="93" t="s">
+      <c r="E70" s="97"/>
+      <c r="F70" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="G70" s="95" t="s">
+      <c r="G70" s="98" t="s">
         <v>334</v>
       </c>
-      <c r="H70" s="96"/>
-      <c r="I70" s="93" t="s">
+      <c r="H70" s="99"/>
+      <c r="I70" s="96" t="s">
         <v>343</v>
       </c>
       <c r="J70" s="32"/>
@@ -37418,7 +37423,7 @@
       <c r="L70" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="M70" s="91" t="s">
+      <c r="M70" s="94" t="s">
         <v>295</v>
       </c>
       <c r="N70" s="16" t="s">
@@ -37442,14 +37447,14 @@
       </c>
     </row>
     <row r="71" spans="2:20" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="92"/>
-      <c r="C71" s="93"/>
-      <c r="D71" s="93"/>
-      <c r="E71" s="94"/>
-      <c r="F71" s="93"/>
-      <c r="G71" s="95"/>
-      <c r="H71" s="96"/>
-      <c r="I71" s="93"/>
+      <c r="B71" s="95"/>
+      <c r="C71" s="96"/>
+      <c r="D71" s="96"/>
+      <c r="E71" s="97"/>
+      <c r="F71" s="96"/>
+      <c r="G71" s="98"/>
+      <c r="H71" s="99"/>
+      <c r="I71" s="96"/>
       <c r="J71" s="32"/>
       <c r="K71" s="40" t="s">
         <v>300</v>
@@ -37457,7 +37462,7 @@
       <c r="L71" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="M71" s="91"/>
+      <c r="M71" s="94"/>
       <c r="N71" s="16" t="s">
         <v>82</v>
       </c>
@@ -37479,14 +37484,14 @@
       </c>
     </row>
     <row r="72" spans="2:20" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="92"/>
-      <c r="C72" s="93"/>
-      <c r="D72" s="93"/>
-      <c r="E72" s="94"/>
-      <c r="F72" s="93"/>
-      <c r="G72" s="95"/>
-      <c r="H72" s="96"/>
-      <c r="I72" s="93"/>
+      <c r="B72" s="95"/>
+      <c r="C72" s="96"/>
+      <c r="D72" s="96"/>
+      <c r="E72" s="97"/>
+      <c r="F72" s="96"/>
+      <c r="G72" s="98"/>
+      <c r="H72" s="99"/>
+      <c r="I72" s="96"/>
       <c r="J72" s="32"/>
       <c r="K72" s="40" t="s">
         <v>306</v>
@@ -37542,10 +37547,10 @@
       <c r="J74" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="K74" s="97" t="s">
+      <c r="K74" s="100" t="s">
         <v>285</v>
       </c>
-      <c r="L74" s="97"/>
+      <c r="L74" s="100"/>
       <c r="M74" s="44" t="s">
         <v>346</v>
       </c>
@@ -37572,24 +37577,24 @@
       </c>
     </row>
     <row r="75" spans="2:20" s="56" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B75" s="98" t="s">
+      <c r="B75" s="101" t="s">
         <v>362</v>
       </c>
-      <c r="C75" s="99" t="s">
+      <c r="C75" s="102" t="s">
         <v>154</v>
       </c>
-      <c r="D75" s="99" t="s">
+      <c r="D75" s="102" t="s">
         <v>154</v>
       </c>
-      <c r="E75" s="100"/>
-      <c r="F75" s="99" t="s">
+      <c r="E75" s="103"/>
+      <c r="F75" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="G75" s="101" t="s">
+      <c r="G75" s="104" t="s">
         <v>334</v>
       </c>
-      <c r="H75" s="102"/>
-      <c r="I75" s="99" t="s">
+      <c r="H75" s="105"/>
+      <c r="I75" s="102" t="s">
         <v>343</v>
       </c>
       <c r="J75" s="48"/>
@@ -37599,7 +37604,7 @@
       <c r="L75" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="M75" s="97" t="s">
+      <c r="M75" s="100" t="s">
         <v>295</v>
       </c>
       <c r="N75" s="44" t="s">
@@ -37623,14 +37628,14 @@
       </c>
     </row>
     <row r="76" spans="2:20" s="56" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="98"/>
-      <c r="C76" s="99"/>
-      <c r="D76" s="99"/>
-      <c r="E76" s="100"/>
-      <c r="F76" s="99"/>
-      <c r="G76" s="101"/>
-      <c r="H76" s="102"/>
-      <c r="I76" s="99"/>
+      <c r="B76" s="101"/>
+      <c r="C76" s="102"/>
+      <c r="D76" s="102"/>
+      <c r="E76" s="103"/>
+      <c r="F76" s="102"/>
+      <c r="G76" s="104"/>
+      <c r="H76" s="105"/>
+      <c r="I76" s="102"/>
       <c r="J76" s="48"/>
       <c r="K76" s="49" t="s">
         <v>300</v>
@@ -37638,7 +37643,7 @@
       <c r="L76" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="M76" s="97"/>
+      <c r="M76" s="100"/>
       <c r="N76" s="44" t="s">
         <v>82</v>
       </c>
@@ -37660,14 +37665,14 @@
       </c>
     </row>
     <row r="77" spans="2:20" s="56" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="98"/>
-      <c r="C77" s="99"/>
-      <c r="D77" s="99"/>
-      <c r="E77" s="100"/>
-      <c r="F77" s="99"/>
-      <c r="G77" s="101"/>
-      <c r="H77" s="102"/>
-      <c r="I77" s="99"/>
+      <c r="B77" s="101"/>
+      <c r="C77" s="102"/>
+      <c r="D77" s="102"/>
+      <c r="E77" s="103"/>
+      <c r="F77" s="102"/>
+      <c r="G77" s="104"/>
+      <c r="H77" s="105"/>
+      <c r="I77" s="102"/>
       <c r="J77" s="48"/>
       <c r="K77" s="49" t="s">
         <v>306</v>
@@ -37723,10 +37728,10 @@
       <c r="J79" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="K79" s="91" t="s">
+      <c r="K79" s="94" t="s">
         <v>285</v>
       </c>
-      <c r="L79" s="91"/>
+      <c r="L79" s="94"/>
       <c r="M79" s="16" t="s">
         <v>346</v>
       </c>
@@ -37753,24 +37758,24 @@
       </c>
     </row>
     <row r="80" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B80" s="92" t="s">
+      <c r="B80" s="95" t="s">
         <v>507</v>
       </c>
-      <c r="C80" s="93" t="s">
+      <c r="C80" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="D80" s="93" t="s">
+      <c r="D80" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="E80" s="94"/>
-      <c r="F80" s="93" t="s">
+      <c r="E80" s="97"/>
+      <c r="F80" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="G80" s="95" t="s">
+      <c r="G80" s="98" t="s">
         <v>403</v>
       </c>
-      <c r="H80" s="96"/>
-      <c r="I80" s="93" t="s">
+      <c r="H80" s="99"/>
+      <c r="I80" s="96" t="s">
         <v>343</v>
       </c>
       <c r="J80" s="32"/>
@@ -37780,7 +37785,7 @@
       <c r="L80" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="M80" s="91" t="s">
+      <c r="M80" s="94" t="s">
         <v>295</v>
       </c>
       <c r="N80" s="16" t="s">
@@ -37804,14 +37809,14 @@
       </c>
     </row>
     <row r="81" spans="2:20" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="92"/>
-      <c r="C81" s="93"/>
-      <c r="D81" s="93"/>
-      <c r="E81" s="94"/>
-      <c r="F81" s="93"/>
-      <c r="G81" s="95"/>
-      <c r="H81" s="96"/>
-      <c r="I81" s="93"/>
+      <c r="B81" s="95"/>
+      <c r="C81" s="96"/>
+      <c r="D81" s="96"/>
+      <c r="E81" s="97"/>
+      <c r="F81" s="96"/>
+      <c r="G81" s="98"/>
+      <c r="H81" s="99"/>
+      <c r="I81" s="96"/>
       <c r="J81" s="32"/>
       <c r="K81" s="40" t="s">
         <v>300</v>
@@ -37819,7 +37824,7 @@
       <c r="L81" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="M81" s="91"/>
+      <c r="M81" s="94"/>
       <c r="N81" s="16" t="s">
         <v>82</v>
       </c>
@@ -37841,14 +37846,14 @@
       </c>
     </row>
     <row r="82" spans="2:20" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="92"/>
-      <c r="C82" s="93"/>
-      <c r="D82" s="93"/>
-      <c r="E82" s="94"/>
-      <c r="F82" s="93"/>
-      <c r="G82" s="95"/>
-      <c r="H82" s="96"/>
-      <c r="I82" s="93"/>
+      <c r="B82" s="95"/>
+      <c r="C82" s="96"/>
+      <c r="D82" s="96"/>
+      <c r="E82" s="97"/>
+      <c r="F82" s="96"/>
+      <c r="G82" s="98"/>
+      <c r="H82" s="99"/>
+      <c r="I82" s="96"/>
       <c r="J82" s="32"/>
       <c r="K82" s="40" t="s">
         <v>306</v>
@@ -37904,10 +37909,10 @@
       <c r="J84" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="K84" s="91" t="s">
+      <c r="K84" s="94" t="s">
         <v>285</v>
       </c>
-      <c r="L84" s="91"/>
+      <c r="L84" s="94"/>
       <c r="M84" s="16" t="s">
         <v>346</v>
       </c>
@@ -37934,24 +37939,24 @@
       </c>
     </row>
     <row r="85" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B85" s="92" t="s">
+      <c r="B85" s="95" t="s">
         <v>508</v>
       </c>
-      <c r="C85" s="93" t="s">
+      <c r="C85" s="96" t="s">
         <v>134</v>
       </c>
-      <c r="D85" s="93" t="s">
+      <c r="D85" s="96" t="s">
         <v>134</v>
       </c>
-      <c r="E85" s="94"/>
-      <c r="F85" s="93" t="s">
+      <c r="E85" s="97"/>
+      <c r="F85" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="G85" s="95" t="s">
+      <c r="G85" s="98" t="s">
         <v>334</v>
       </c>
-      <c r="H85" s="96"/>
-      <c r="I85" s="93" t="s">
+      <c r="H85" s="99"/>
+      <c r="I85" s="96" t="s">
         <v>343</v>
       </c>
       <c r="J85" s="32"/>
@@ -37961,7 +37966,7 @@
       <c r="L85" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="M85" s="91" t="s">
+      <c r="M85" s="94" t="s">
         <v>295</v>
       </c>
       <c r="N85" s="16" t="s">
@@ -37985,14 +37990,14 @@
       </c>
     </row>
     <row r="86" spans="2:20" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="92"/>
-      <c r="C86" s="93"/>
-      <c r="D86" s="93"/>
-      <c r="E86" s="94"/>
-      <c r="F86" s="93"/>
-      <c r="G86" s="95"/>
-      <c r="H86" s="96"/>
-      <c r="I86" s="93"/>
+      <c r="B86" s="95"/>
+      <c r="C86" s="96"/>
+      <c r="D86" s="96"/>
+      <c r="E86" s="97"/>
+      <c r="F86" s="96"/>
+      <c r="G86" s="98"/>
+      <c r="H86" s="99"/>
+      <c r="I86" s="96"/>
       <c r="J86" s="32"/>
       <c r="K86" s="40" t="s">
         <v>300</v>
@@ -38000,7 +38005,7 @@
       <c r="L86" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="M86" s="91"/>
+      <c r="M86" s="94"/>
       <c r="N86" s="16" t="s">
         <v>82</v>
       </c>
@@ -38022,14 +38027,14 @@
       </c>
     </row>
     <row r="87" spans="2:20" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="92"/>
-      <c r="C87" s="93"/>
-      <c r="D87" s="93"/>
-      <c r="E87" s="94"/>
-      <c r="F87" s="93"/>
-      <c r="G87" s="95"/>
-      <c r="H87" s="96"/>
-      <c r="I87" s="93"/>
+      <c r="B87" s="95"/>
+      <c r="C87" s="96"/>
+      <c r="D87" s="96"/>
+      <c r="E87" s="97"/>
+      <c r="F87" s="96"/>
+      <c r="G87" s="98"/>
+      <c r="H87" s="99"/>
+      <c r="I87" s="96"/>
       <c r="J87" s="32"/>
       <c r="K87" s="40" t="s">
         <v>306</v>
@@ -38085,10 +38090,10 @@
       <c r="J89" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="K89" s="91" t="s">
+      <c r="K89" s="94" t="s">
         <v>285</v>
       </c>
-      <c r="L89" s="91"/>
+      <c r="L89" s="94"/>
       <c r="M89" s="16" t="s">
         <v>346</v>
       </c>
@@ -38115,24 +38120,24 @@
       </c>
     </row>
     <row r="90" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B90" s="92" t="s">
+      <c r="B90" s="95" t="s">
         <v>442</v>
       </c>
-      <c r="C90" s="93" t="s">
+      <c r="C90" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="D90" s="93" t="s">
+      <c r="D90" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="E90" s="94"/>
-      <c r="F90" s="93" t="s">
+      <c r="E90" s="97"/>
+      <c r="F90" s="96" t="s">
         <v>363</v>
       </c>
-      <c r="G90" s="95" t="s">
+      <c r="G90" s="98" t="s">
         <v>334</v>
       </c>
-      <c r="H90" s="96"/>
-      <c r="I90" s="93" t="s">
+      <c r="H90" s="99"/>
+      <c r="I90" s="96" t="s">
         <v>343</v>
       </c>
       <c r="J90" s="32"/>
@@ -38142,7 +38147,7 @@
       <c r="L90" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="M90" s="91" t="s">
+      <c r="M90" s="94" t="s">
         <v>295</v>
       </c>
       <c r="N90" s="16" t="s">
@@ -38166,14 +38171,14 @@
       </c>
     </row>
     <row r="91" spans="2:20" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="92"/>
-      <c r="C91" s="93"/>
-      <c r="D91" s="93"/>
-      <c r="E91" s="94"/>
-      <c r="F91" s="93"/>
-      <c r="G91" s="95"/>
-      <c r="H91" s="96"/>
-      <c r="I91" s="93"/>
+      <c r="B91" s="95"/>
+      <c r="C91" s="96"/>
+      <c r="D91" s="96"/>
+      <c r="E91" s="97"/>
+      <c r="F91" s="96"/>
+      <c r="G91" s="98"/>
+      <c r="H91" s="99"/>
+      <c r="I91" s="96"/>
       <c r="J91" s="32"/>
       <c r="K91" s="40" t="s">
         <v>300</v>
@@ -38181,7 +38186,7 @@
       <c r="L91" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="M91" s="91"/>
+      <c r="M91" s="94"/>
       <c r="N91" s="16" t="s">
         <v>82</v>
       </c>
@@ -38203,14 +38208,14 @@
       </c>
     </row>
     <row r="92" spans="2:20" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="92"/>
-      <c r="C92" s="93"/>
-      <c r="D92" s="93"/>
-      <c r="E92" s="94"/>
-      <c r="F92" s="93"/>
-      <c r="G92" s="95"/>
-      <c r="H92" s="96"/>
-      <c r="I92" s="93"/>
+      <c r="B92" s="95"/>
+      <c r="C92" s="96"/>
+      <c r="D92" s="96"/>
+      <c r="E92" s="97"/>
+      <c r="F92" s="96"/>
+      <c r="G92" s="98"/>
+      <c r="H92" s="99"/>
+      <c r="I92" s="96"/>
       <c r="J92" s="32"/>
       <c r="K92" s="40" t="s">
         <v>306</v>
@@ -38266,10 +38271,10 @@
       <c r="J94" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="K94" s="97" t="s">
+      <c r="K94" s="100" t="s">
         <v>285</v>
       </c>
-      <c r="L94" s="97"/>
+      <c r="L94" s="100"/>
       <c r="M94" s="44" t="s">
         <v>346</v>
       </c>
@@ -38296,24 +38301,24 @@
       </c>
     </row>
     <row r="95" spans="2:20" s="56" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B95" s="98" t="s">
+      <c r="B95" s="101" t="s">
         <v>837</v>
       </c>
-      <c r="C95" s="99" t="s">
+      <c r="C95" s="102" t="s">
         <v>441</v>
       </c>
-      <c r="D95" s="99" t="s">
+      <c r="D95" s="102" t="s">
         <v>441</v>
       </c>
-      <c r="E95" s="100"/>
-      <c r="F95" s="99" t="s">
+      <c r="E95" s="103"/>
+      <c r="F95" s="102" t="s">
         <v>354</v>
       </c>
-      <c r="G95" s="101" t="s">
+      <c r="G95" s="104" t="s">
         <v>334</v>
       </c>
-      <c r="H95" s="102"/>
-      <c r="I95" s="99" t="s">
+      <c r="H95" s="105"/>
+      <c r="I95" s="102" t="s">
         <v>343</v>
       </c>
       <c r="J95" s="48"/>
@@ -38323,7 +38328,7 @@
       <c r="L95" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="M95" s="97" t="s">
+      <c r="M95" s="100" t="s">
         <v>295</v>
       </c>
       <c r="N95" s="44" t="s">
@@ -38347,14 +38352,14 @@
       </c>
     </row>
     <row r="96" spans="2:20" s="56" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="98"/>
-      <c r="C96" s="99"/>
-      <c r="D96" s="99"/>
-      <c r="E96" s="100"/>
-      <c r="F96" s="99"/>
-      <c r="G96" s="101"/>
-      <c r="H96" s="102"/>
-      <c r="I96" s="99"/>
+      <c r="B96" s="101"/>
+      <c r="C96" s="102"/>
+      <c r="D96" s="102"/>
+      <c r="E96" s="103"/>
+      <c r="F96" s="102"/>
+      <c r="G96" s="104"/>
+      <c r="H96" s="105"/>
+      <c r="I96" s="102"/>
       <c r="J96" s="48"/>
       <c r="K96" s="49" t="s">
         <v>300</v>
@@ -38362,7 +38367,7 @@
       <c r="L96" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="M96" s="97"/>
+      <c r="M96" s="100"/>
       <c r="N96" s="44" t="s">
         <v>82</v>
       </c>
@@ -38384,14 +38389,14 @@
       </c>
     </row>
     <row r="97" spans="2:20" s="56" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="98"/>
-      <c r="C97" s="99"/>
-      <c r="D97" s="99"/>
-      <c r="E97" s="100"/>
-      <c r="F97" s="99"/>
-      <c r="G97" s="101"/>
-      <c r="H97" s="102"/>
-      <c r="I97" s="99"/>
+      <c r="B97" s="101"/>
+      <c r="C97" s="102"/>
+      <c r="D97" s="102"/>
+      <c r="E97" s="103"/>
+      <c r="F97" s="102"/>
+      <c r="G97" s="104"/>
+      <c r="H97" s="105"/>
+      <c r="I97" s="102"/>
       <c r="J97" s="48"/>
       <c r="K97" s="49" t="s">
         <v>306</v>
@@ -38447,10 +38452,10 @@
       <c r="J99" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="K99" s="91" t="s">
+      <c r="K99" s="94" t="s">
         <v>285</v>
       </c>
-      <c r="L99" s="91"/>
+      <c r="L99" s="94"/>
       <c r="M99" s="16" t="s">
         <v>346</v>
       </c>
@@ -38477,24 +38482,24 @@
       </c>
     </row>
     <row r="100" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B100" s="92" t="s">
+      <c r="B100" s="95" t="s">
         <v>509</v>
       </c>
-      <c r="C100" s="93" t="s">
+      <c r="C100" s="96" t="s">
         <v>184</v>
       </c>
-      <c r="D100" s="93" t="s">
+      <c r="D100" s="96" t="s">
         <v>184</v>
       </c>
-      <c r="E100" s="94"/>
-      <c r="F100" s="93" t="s">
+      <c r="E100" s="97"/>
+      <c r="F100" s="96" t="s">
         <v>363</v>
       </c>
-      <c r="G100" s="95" t="s">
+      <c r="G100" s="98" t="s">
         <v>334</v>
       </c>
-      <c r="H100" s="96"/>
-      <c r="I100" s="93" t="s">
+      <c r="H100" s="99"/>
+      <c r="I100" s="96" t="s">
         <v>343</v>
       </c>
       <c r="J100" s="32"/>
@@ -38504,7 +38509,7 @@
       <c r="L100" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="M100" s="91" t="s">
+      <c r="M100" s="94" t="s">
         <v>295</v>
       </c>
       <c r="N100" s="16" t="s">
@@ -38528,14 +38533,14 @@
       </c>
     </row>
     <row r="101" spans="2:20" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="92"/>
-      <c r="C101" s="93"/>
-      <c r="D101" s="93"/>
-      <c r="E101" s="94"/>
-      <c r="F101" s="93"/>
-      <c r="G101" s="95"/>
-      <c r="H101" s="96"/>
-      <c r="I101" s="93"/>
+      <c r="B101" s="95"/>
+      <c r="C101" s="96"/>
+      <c r="D101" s="96"/>
+      <c r="E101" s="97"/>
+      <c r="F101" s="96"/>
+      <c r="G101" s="98"/>
+      <c r="H101" s="99"/>
+      <c r="I101" s="96"/>
       <c r="J101" s="32"/>
       <c r="K101" s="40" t="s">
         <v>300</v>
@@ -38543,7 +38548,7 @@
       <c r="L101" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="M101" s="91"/>
+      <c r="M101" s="94"/>
       <c r="N101" s="16" t="s">
         <v>82</v>
       </c>
@@ -38565,14 +38570,14 @@
       </c>
     </row>
     <row r="102" spans="2:20" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="92"/>
-      <c r="C102" s="93"/>
-      <c r="D102" s="93"/>
-      <c r="E102" s="94"/>
-      <c r="F102" s="93"/>
-      <c r="G102" s="95"/>
-      <c r="H102" s="96"/>
-      <c r="I102" s="93"/>
+      <c r="B102" s="95"/>
+      <c r="C102" s="96"/>
+      <c r="D102" s="96"/>
+      <c r="E102" s="97"/>
+      <c r="F102" s="96"/>
+      <c r="G102" s="98"/>
+      <c r="H102" s="99"/>
+      <c r="I102" s="96"/>
       <c r="J102" s="32"/>
       <c r="K102" s="40" t="s">
         <v>306</v>
@@ -38628,10 +38633,10 @@
       <c r="J104" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="K104" s="91" t="s">
+      <c r="K104" s="94" t="s">
         <v>285</v>
       </c>
-      <c r="L104" s="91"/>
+      <c r="L104" s="94"/>
       <c r="M104" s="16" t="s">
         <v>346</v>
       </c>
@@ -38658,24 +38663,24 @@
       </c>
     </row>
     <row r="105" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B105" s="92" t="s">
+      <c r="B105" s="95" t="s">
         <v>499</v>
       </c>
-      <c r="C105" s="93" t="s">
+      <c r="C105" s="96" t="s">
         <v>189</v>
       </c>
-      <c r="D105" s="93" t="s">
+      <c r="D105" s="96" t="s">
         <v>189</v>
       </c>
-      <c r="E105" s="94"/>
-      <c r="F105" s="93" t="s">
+      <c r="E105" s="97"/>
+      <c r="F105" s="96" t="s">
         <v>180</v>
       </c>
-      <c r="G105" s="95" t="s">
+      <c r="G105" s="98" t="s">
         <v>334</v>
       </c>
-      <c r="H105" s="96"/>
-      <c r="I105" s="93" t="s">
+      <c r="H105" s="99"/>
+      <c r="I105" s="96" t="s">
         <v>343</v>
       </c>
       <c r="J105" s="32"/>
@@ -38685,7 +38690,7 @@
       <c r="L105" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="M105" s="91" t="s">
+      <c r="M105" s="94" t="s">
         <v>295</v>
       </c>
       <c r="N105" s="16" t="s">
@@ -38709,14 +38714,14 @@
       </c>
     </row>
     <row r="106" spans="2:20" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="92"/>
-      <c r="C106" s="93"/>
-      <c r="D106" s="93"/>
-      <c r="E106" s="94"/>
-      <c r="F106" s="93"/>
-      <c r="G106" s="95"/>
-      <c r="H106" s="96"/>
-      <c r="I106" s="93"/>
+      <c r="B106" s="95"/>
+      <c r="C106" s="96"/>
+      <c r="D106" s="96"/>
+      <c r="E106" s="97"/>
+      <c r="F106" s="96"/>
+      <c r="G106" s="98"/>
+      <c r="H106" s="99"/>
+      <c r="I106" s="96"/>
       <c r="J106" s="32"/>
       <c r="K106" s="40" t="s">
         <v>300</v>
@@ -38724,7 +38729,7 @@
       <c r="L106" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="M106" s="91"/>
+      <c r="M106" s="94"/>
       <c r="N106" s="16" t="s">
         <v>82</v>
       </c>
@@ -38746,14 +38751,14 @@
       </c>
     </row>
     <row r="107" spans="2:20" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="92"/>
-      <c r="C107" s="93"/>
-      <c r="D107" s="93"/>
-      <c r="E107" s="94"/>
-      <c r="F107" s="93"/>
-      <c r="G107" s="95"/>
-      <c r="H107" s="96"/>
-      <c r="I107" s="93"/>
+      <c r="B107" s="95"/>
+      <c r="C107" s="96"/>
+      <c r="D107" s="96"/>
+      <c r="E107" s="97"/>
+      <c r="F107" s="96"/>
+      <c r="G107" s="98"/>
+      <c r="H107" s="99"/>
+      <c r="I107" s="96"/>
       <c r="J107" s="32"/>
       <c r="K107" s="40" t="s">
         <v>306</v>
@@ -38809,10 +38814,10 @@
       <c r="J109" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="K109" s="91" t="s">
+      <c r="K109" s="94" t="s">
         <v>285</v>
       </c>
-      <c r="L109" s="91"/>
+      <c r="L109" s="94"/>
       <c r="M109" s="16" t="s">
         <v>346</v>
       </c>
@@ -38839,24 +38844,24 @@
       </c>
     </row>
     <row r="110" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B110" s="92" t="s">
+      <c r="B110" s="95" t="s">
         <v>500</v>
       </c>
-      <c r="C110" s="93" t="s">
+      <c r="C110" s="96" t="s">
         <v>364</v>
       </c>
-      <c r="D110" s="93" t="s">
+      <c r="D110" s="96" t="s">
         <v>364</v>
       </c>
-      <c r="E110" s="94"/>
-      <c r="F110" s="93" t="s">
+      <c r="E110" s="97"/>
+      <c r="F110" s="96" t="s">
         <v>363</v>
       </c>
-      <c r="G110" s="95" t="s">
+      <c r="G110" s="98" t="s">
         <v>334</v>
       </c>
-      <c r="H110" s="96"/>
-      <c r="I110" s="93" t="s">
+      <c r="H110" s="99"/>
+      <c r="I110" s="96" t="s">
         <v>343</v>
       </c>
       <c r="J110" s="32"/>
@@ -38866,7 +38871,7 @@
       <c r="L110" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="M110" s="91" t="s">
+      <c r="M110" s="94" t="s">
         <v>295</v>
       </c>
       <c r="N110" s="16" t="s">
@@ -38890,14 +38895,14 @@
       </c>
     </row>
     <row r="111" spans="2:20" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="92"/>
-      <c r="C111" s="93"/>
-      <c r="D111" s="93"/>
-      <c r="E111" s="94"/>
-      <c r="F111" s="93"/>
-      <c r="G111" s="95"/>
-      <c r="H111" s="96"/>
-      <c r="I111" s="93"/>
+      <c r="B111" s="95"/>
+      <c r="C111" s="96"/>
+      <c r="D111" s="96"/>
+      <c r="E111" s="97"/>
+      <c r="F111" s="96"/>
+      <c r="G111" s="98"/>
+      <c r="H111" s="99"/>
+      <c r="I111" s="96"/>
       <c r="J111" s="32"/>
       <c r="K111" s="40" t="s">
         <v>300</v>
@@ -38905,7 +38910,7 @@
       <c r="L111" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="M111" s="91"/>
+      <c r="M111" s="94"/>
       <c r="N111" s="16" t="s">
         <v>82</v>
       </c>
@@ -38927,14 +38932,14 @@
       </c>
     </row>
     <row r="112" spans="2:20" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="92"/>
-      <c r="C112" s="93"/>
-      <c r="D112" s="93"/>
-      <c r="E112" s="94"/>
-      <c r="F112" s="93"/>
-      <c r="G112" s="95"/>
-      <c r="H112" s="96"/>
-      <c r="I112" s="93"/>
+      <c r="B112" s="95"/>
+      <c r="C112" s="96"/>
+      <c r="D112" s="96"/>
+      <c r="E112" s="97"/>
+      <c r="F112" s="96"/>
+      <c r="G112" s="98"/>
+      <c r="H112" s="99"/>
+      <c r="I112" s="96"/>
       <c r="J112" s="32"/>
       <c r="K112" s="40" t="s">
         <v>306</v>
@@ -38990,10 +38995,10 @@
       <c r="J114" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="K114" s="91" t="s">
+      <c r="K114" s="94" t="s">
         <v>285</v>
       </c>
-      <c r="L114" s="91"/>
+      <c r="L114" s="94"/>
       <c r="M114" s="16" t="s">
         <v>346</v>
       </c>
@@ -39020,24 +39025,24 @@
       </c>
     </row>
     <row r="115" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B115" s="92" t="s">
+      <c r="B115" s="95" t="s">
         <v>510</v>
       </c>
-      <c r="C115" s="93" t="s">
+      <c r="C115" s="96" t="s">
         <v>365</v>
       </c>
-      <c r="D115" s="93" t="s">
+      <c r="D115" s="96" t="s">
         <v>365</v>
       </c>
-      <c r="E115" s="94"/>
-      <c r="F115" s="93" t="s">
+      <c r="E115" s="97"/>
+      <c r="F115" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="G115" s="95" t="s">
+      <c r="G115" s="98" t="s">
         <v>334</v>
       </c>
-      <c r="H115" s="96"/>
-      <c r="I115" s="93" t="s">
+      <c r="H115" s="99"/>
+      <c r="I115" s="96" t="s">
         <v>343</v>
       </c>
       <c r="J115" s="32"/>
@@ -39047,7 +39052,7 @@
       <c r="L115" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="M115" s="91" t="s">
+      <c r="M115" s="94" t="s">
         <v>295</v>
       </c>
       <c r="N115" s="16" t="s">
@@ -39071,14 +39076,14 @@
       </c>
     </row>
     <row r="116" spans="2:20" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="92"/>
-      <c r="C116" s="93"/>
-      <c r="D116" s="93"/>
-      <c r="E116" s="94"/>
-      <c r="F116" s="93"/>
-      <c r="G116" s="95"/>
-      <c r="H116" s="96"/>
-      <c r="I116" s="93"/>
+      <c r="B116" s="95"/>
+      <c r="C116" s="96"/>
+      <c r="D116" s="96"/>
+      <c r="E116" s="97"/>
+      <c r="F116" s="96"/>
+      <c r="G116" s="98"/>
+      <c r="H116" s="99"/>
+      <c r="I116" s="96"/>
       <c r="J116" s="32"/>
       <c r="K116" s="40" t="s">
         <v>300</v>
@@ -39086,7 +39091,7 @@
       <c r="L116" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="M116" s="91"/>
+      <c r="M116" s="94"/>
       <c r="N116" s="16" t="s">
         <v>82</v>
       </c>
@@ -39108,14 +39113,14 @@
       </c>
     </row>
     <row r="117" spans="2:20" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="92"/>
-      <c r="C117" s="93"/>
-      <c r="D117" s="93"/>
-      <c r="E117" s="94"/>
-      <c r="F117" s="93"/>
-      <c r="G117" s="95"/>
-      <c r="H117" s="96"/>
-      <c r="I117" s="93"/>
+      <c r="B117" s="95"/>
+      <c r="C117" s="96"/>
+      <c r="D117" s="96"/>
+      <c r="E117" s="97"/>
+      <c r="F117" s="96"/>
+      <c r="G117" s="98"/>
+      <c r="H117" s="99"/>
+      <c r="I117" s="96"/>
       <c r="J117" s="32"/>
       <c r="K117" s="40" t="s">
         <v>306</v>

--- a/gd/副本内容设计/第一、二章怪物分布.xlsx
+++ b/gd/副本内容设计/第一、二章怪物分布.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="布怪" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="1288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4003" uniqueCount="1288">
   <si>
     <t>红</t>
     <phoneticPr fontId="10" type="noConversion"/>
@@ -5105,10 +5105,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>Increases attack and healing effects</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Increases stun </t>
     </r>
@@ -5276,10 +5272,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>让黑龙头晕目眩</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>金苹果</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -5400,10 +5392,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>优先使用技能3，眩晕结束后由状态2变回状态1，重置弱点2血量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>拉冬(Ladon)</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -5652,6 +5640,18 @@
   </si>
   <si>
     <t>boss技能4（被动）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先使用技能3，眩晕结束后由状态2变回状态1，重置弱点2血量，弱点3变为冻结状态</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increases attack and healing effects</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>让拉冬头晕目眩</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -6192,7 +6192,37 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6204,38 +6234,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12664,13 +12664,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -12680,7 +12680,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8305800" y="19240500"/>
+          <a:off x="8305800" y="18821400"/>
           <a:ext cx="3752850" cy="5495924"/>
           <a:chOff x="807720" y="0"/>
           <a:chExt cx="5097780" cy="6961717"/>
@@ -16140,8 +16140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L313"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView topLeftCell="A301" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -16294,7 +16294,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D22" s="89" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
@@ -17111,7 +17111,7 @@
         <v>69</v>
       </c>
       <c r="E101" s="79" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.15">
@@ -19013,8 +19013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U939"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C879" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K937" sqref="K937"/>
+    <sheetView topLeftCell="C903" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I884" sqref="I884"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -19168,7 +19168,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>541</v>
@@ -19297,7 +19297,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="79" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>540</v>
@@ -19680,7 +19680,7 @@
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
       <c r="I60" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J60" s="8" t="s">
         <v>541</v>
@@ -19804,7 +19804,7 @@
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J69" s="79" t="s">
         <v>1169</v>
@@ -20235,7 +20235,7 @@
     <row r="109" spans="6:11" x14ac:dyDescent="0.15">
       <c r="H109" s="8"/>
       <c r="I109" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J109" s="8" t="s">
         <v>541</v>
@@ -20323,7 +20323,7 @@
     <row r="118" spans="7:11" x14ac:dyDescent="0.15">
       <c r="H118" s="8"/>
       <c r="I118" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J118" s="79" t="s">
         <v>541</v>
@@ -20446,7 +20446,7 @@
     <row r="131" spans="6:16" x14ac:dyDescent="0.15">
       <c r="H131" s="8"/>
       <c r="I131" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J131" s="79" t="s">
         <v>541</v>
@@ -20863,7 +20863,7 @@
       <c r="G176" s="8"/>
       <c r="H176" s="8"/>
       <c r="I176" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J176" s="8" t="s">
         <v>541</v>
@@ -21032,7 +21032,7 @@
       <c r="G185" s="8"/>
       <c r="H185" s="8"/>
       <c r="I185" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J185" s="79" t="s">
         <v>541</v>
@@ -21271,7 +21271,7 @@
       <c r="G198" s="8"/>
       <c r="H198" s="8"/>
       <c r="I198" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J198" s="79" t="s">
         <v>541</v>
@@ -21510,7 +21510,7 @@
       <c r="G211" s="8"/>
       <c r="H211" s="8"/>
       <c r="I211" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J211" s="8" t="s">
         <v>956</v>
@@ -22388,7 +22388,7 @@
       <c r="G263" s="8"/>
       <c r="H263" s="8"/>
       <c r="I263" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J263" s="8" t="s">
         <v>541</v>
@@ -22563,7 +22563,7 @@
       <c r="G272" s="8"/>
       <c r="H272" s="8"/>
       <c r="I272" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J272" s="79" t="s">
         <v>541</v>
@@ -23091,7 +23091,7 @@
       <c r="G314" s="8"/>
       <c r="H314" s="8"/>
       <c r="I314" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J314" s="8" t="s">
         <v>541</v>
@@ -23275,7 +23275,7 @@
       <c r="G323" s="8"/>
       <c r="H323" s="8"/>
       <c r="I323" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J323" s="79" t="s">
         <v>1170</v>
@@ -23427,7 +23427,7 @@
       <c r="G331" s="8"/>
       <c r="H331" s="8"/>
       <c r="I331" s="82" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="J331" s="82"/>
       <c r="K331" s="82"/>
@@ -23795,7 +23795,7 @@
         <v>519</v>
       </c>
       <c r="G355" s="78" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="356" spans="5:20" x14ac:dyDescent="0.15">
@@ -23890,7 +23890,7 @@
       <c r="G368" s="8"/>
       <c r="H368" s="8"/>
       <c r="I368" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J368" s="8" t="s">
         <v>541</v>
@@ -24014,7 +24014,7 @@
       <c r="G377" s="8"/>
       <c r="H377" s="8"/>
       <c r="I377" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J377" s="79" t="s">
         <v>541</v>
@@ -24118,7 +24118,7 @@
       <c r="G385" s="8"/>
       <c r="H385" s="8"/>
       <c r="I385" s="82" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="J385" s="82"/>
       <c r="K385" s="8"/>
@@ -24389,7 +24389,7 @@
     <row r="415" spans="6:19" x14ac:dyDescent="0.15">
       <c r="H415" s="8"/>
       <c r="I415" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J415" s="8" t="s">
         <v>541</v>
@@ -24558,7 +24558,7 @@
       <c r="G424" s="8"/>
       <c r="H424" s="8"/>
       <c r="I424" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J424" s="8" t="s">
         <v>540</v>
@@ -24816,7 +24816,7 @@
       <c r="G437" s="8"/>
       <c r="H437" s="8"/>
       <c r="I437" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J437" s="79" t="s">
         <v>541</v>
@@ -24968,7 +24968,7 @@
       <c r="G445" s="8"/>
       <c r="H445" s="8"/>
       <c r="I445" s="82" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="J445" s="82"/>
       <c r="K445" s="8"/>
@@ -25347,7 +25347,7 @@
       <c r="G478" s="8"/>
       <c r="H478" s="8"/>
       <c r="I478" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J478" s="8" t="s">
         <v>541</v>
@@ -25509,7 +25509,7 @@
       <c r="G487" s="8"/>
       <c r="H487" s="8"/>
       <c r="I487" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J487" s="8" t="s">
         <v>540</v>
@@ -25735,7 +25735,7 @@
       <c r="G500" s="8"/>
       <c r="H500" s="8"/>
       <c r="I500" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J500" s="79" t="s">
         <v>541</v>
@@ -26186,7 +26186,7 @@
       <c r="G539" s="8"/>
       <c r="H539" s="8"/>
       <c r="I539" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J539" s="8" t="s">
         <v>541</v>
@@ -26301,7 +26301,7 @@
       <c r="G548" s="8"/>
       <c r="H548" s="8"/>
       <c r="I548" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J548" s="8" t="s">
         <v>540</v>
@@ -26659,7 +26659,7 @@
       <c r="G583" s="8"/>
       <c r="H583" s="8"/>
       <c r="I583" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J583" s="8" t="s">
         <v>541</v>
@@ -26828,7 +26828,7 @@
       <c r="G592" s="8"/>
       <c r="H592" s="8"/>
       <c r="I592" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J592" s="79" t="s">
         <v>1171</v>
@@ -26957,7 +26957,7 @@
         <v>1202</v>
       </c>
       <c r="K599" s="82" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="L599" s="8"/>
       <c r="M599" s="8"/>
@@ -27073,7 +27073,7 @@
       <c r="G605" s="8"/>
       <c r="H605" s="8"/>
       <c r="I605" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J605" s="8" t="s">
         <v>540</v>
@@ -27297,7 +27297,7 @@
       <c r="G617" s="8"/>
       <c r="H617" s="8"/>
       <c r="I617" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J617" s="79" t="s">
         <v>1172</v>
@@ -27821,7 +27821,7 @@
       <c r="G659" s="8"/>
       <c r="H659" s="8"/>
       <c r="I659" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J659" s="8" t="s">
         <v>541</v>
@@ -27972,7 +27972,7 @@
       <c r="G668" s="8"/>
       <c r="H668" s="8"/>
       <c r="I668" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J668" s="8" t="s">
         <v>540</v>
@@ -28186,7 +28186,7 @@
       <c r="G681" s="8"/>
       <c r="H681" s="8"/>
       <c r="I681" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J681" s="79" t="s">
         <v>541</v>
@@ -28298,10 +28298,10 @@
       <c r="H688" s="8"/>
       <c r="I688" s="8"/>
       <c r="J688" s="82" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="K688" s="65" t="s">
-        <v>1204</v>
+        <v>1286</v>
       </c>
       <c r="L688" s="8"/>
       <c r="M688" s="8"/>
@@ -28314,7 +28314,7 @@
       <c r="G689" s="8"/>
       <c r="H689" s="8"/>
       <c r="I689" s="82" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="J689" s="82"/>
       <c r="K689" s="65"/>
@@ -28691,7 +28691,7 @@
       <c r="G725" s="8"/>
       <c r="H725" s="8"/>
       <c r="I725" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J725" s="8" t="s">
         <v>541</v>
@@ -28851,7 +28851,7 @@
       <c r="G734" s="8"/>
       <c r="H734" s="8"/>
       <c r="I734" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J734" s="8" t="s">
         <v>540</v>
@@ -29077,7 +29077,7 @@
       <c r="G747" s="8"/>
       <c r="H747" s="8"/>
       <c r="I747" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J747" s="8" t="s">
         <v>744</v>
@@ -29199,7 +29199,7 @@
         <v>1203</v>
       </c>
       <c r="K754" s="82" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="L754" s="8"/>
       <c r="M754" s="8"/>
@@ -29656,7 +29656,7 @@
       <c r="G791" s="8"/>
       <c r="H791" s="8"/>
       <c r="I791" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J791" s="8" t="s">
         <v>541</v>
@@ -29825,7 +29825,7 @@
       <c r="G800" s="8"/>
       <c r="H800" s="8"/>
       <c r="I800" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J800" s="8" t="s">
         <v>540</v>
@@ -30070,7 +30070,7 @@
       <c r="G813" s="8"/>
       <c r="H813" s="8"/>
       <c r="I813" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J813" s="79" t="s">
         <v>1173</v>
@@ -30142,7 +30142,7 @@
       <c r="G817" s="8"/>
       <c r="H817" s="8"/>
       <c r="I817" s="79" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="J817" s="8"/>
       <c r="K817" s="8"/>
@@ -30178,7 +30178,7 @@
       <c r="G819" s="8"/>
       <c r="H819" s="8"/>
       <c r="I819" s="82" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="J819" s="2"/>
       <c r="K819" s="2"/>
@@ -30196,10 +30196,10 @@
       <c r="H820" s="8"/>
       <c r="I820" s="8"/>
       <c r="J820" s="82" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="K820" s="82" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="L820" s="8"/>
       <c r="M820" s="8"/>
@@ -30463,7 +30463,7 @@
     </row>
     <row r="843" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F843" s="81" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="844" spans="1:8" x14ac:dyDescent="0.15">
@@ -30471,7 +30471,7 @@
         <v>519</v>
       </c>
       <c r="G844" s="78" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="845" spans="1:8" x14ac:dyDescent="0.15">
@@ -30506,7 +30506,7 @@
     <row r="849" spans="6:18" x14ac:dyDescent="0.15">
       <c r="F849" s="3"/>
       <c r="G849" s="78" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="851" spans="6:18" x14ac:dyDescent="0.15">
@@ -30626,7 +30626,7 @@
       <c r="G857" s="8"/>
       <c r="H857" s="8"/>
       <c r="I857" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J857" s="8" t="s">
         <v>541</v>
@@ -30716,7 +30716,7 @@
         <v>534</v>
       </c>
       <c r="H862" s="79" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="I862" s="8" t="s">
         <v>526</v>
@@ -30737,7 +30737,7 @@
       <c r="F863" s="8"/>
       <c r="G863" s="8"/>
       <c r="H863" s="8" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="I863" s="8" t="s">
         <v>528</v>
@@ -30797,7 +30797,7 @@
       <c r="G866" s="8"/>
       <c r="H866" s="8"/>
       <c r="I866" s="79" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J866" s="8" t="s">
         <v>540</v>
@@ -31003,7 +31003,7 @@
       <c r="L877" s="8"/>
       <c r="M877" s="8"/>
       <c r="N877" s="78" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="O877" s="67"/>
       <c r="P877" s="72"/>
@@ -31038,10 +31038,10 @@
         <v>550</v>
       </c>
       <c r="G879" s="8" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="H879" s="79" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="I879" s="8"/>
       <c r="J879" s="8"/>
@@ -31049,7 +31049,7 @@
       <c r="L879" s="8"/>
       <c r="M879" s="8"/>
       <c r="N879" s="78" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="O879" s="69"/>
       <c r="P879" s="77"/>
@@ -31124,7 +31124,7 @@
     </row>
     <row r="888" spans="6:18" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F888" s="81" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="889" spans="6:18" x14ac:dyDescent="0.15">
@@ -31132,7 +31132,7 @@
         <v>519</v>
       </c>
       <c r="G889" s="78" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="890" spans="6:18" x14ac:dyDescent="0.15">
@@ -31167,7 +31167,7 @@
     <row r="894" spans="6:18" x14ac:dyDescent="0.15">
       <c r="F894" s="3"/>
       <c r="G894" s="78" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="896" spans="6:18" x14ac:dyDescent="0.15">
@@ -31208,7 +31208,7 @@
         <v>524</v>
       </c>
       <c r="H898" s="79" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="I898" s="8" t="s">
         <v>535</v>
@@ -31287,7 +31287,7 @@
       <c r="G902" s="8"/>
       <c r="H902" s="8"/>
       <c r="I902" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J902" s="8" t="s">
         <v>541</v>
@@ -31377,7 +31377,7 @@
         <v>534</v>
       </c>
       <c r="H907" s="79" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="I907" s="8" t="s">
         <v>526</v>
@@ -31398,13 +31398,13 @@
       <c r="F908" s="8"/>
       <c r="G908" s="8"/>
       <c r="H908" s="79" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="I908" s="8" t="s">
         <v>528</v>
       </c>
       <c r="J908" s="79" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="K908" s="8"/>
       <c r="L908" s="8"/>
@@ -31423,7 +31423,7 @@
         <v>530</v>
       </c>
       <c r="J909" s="79" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="K909" s="8"/>
       <c r="L909" s="8"/>
@@ -31458,10 +31458,10 @@
       <c r="G911" s="8"/>
       <c r="H911" s="8"/>
       <c r="I911" s="79" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J911" s="79" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="K911" s="8"/>
       <c r="L911" s="8"/>
@@ -31550,10 +31550,10 @@
       <c r="H916" s="8"/>
       <c r="I916" s="8"/>
       <c r="J916" s="82" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="K916" s="82" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="L916" s="8"/>
       <c r="M916" s="8"/>
@@ -31568,7 +31568,7 @@
       <c r="G917" s="8"/>
       <c r="H917" s="8"/>
       <c r="I917" s="82" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="J917" s="82"/>
       <c r="K917" s="8"/>
@@ -31645,10 +31645,10 @@
         <v>545</v>
       </c>
       <c r="G922" s="79" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="H922" s="79" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="I922" s="8"/>
       <c r="J922" s="8"/>
@@ -31656,7 +31656,7 @@
       <c r="L922" s="8"/>
       <c r="M922" s="8"/>
       <c r="N922" s="78" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="O922" s="68"/>
       <c r="P922" s="68"/>
@@ -31668,10 +31668,10 @@
         <v>573</v>
       </c>
       <c r="G923" s="79" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="H923" s="79" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="I923" s="8"/>
       <c r="J923" s="8"/>
@@ -31679,7 +31679,7 @@
       <c r="L923" s="8"/>
       <c r="M923" s="8"/>
       <c r="N923" s="78" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="O923" s="68"/>
       <c r="P923" s="68"/>
@@ -31691,17 +31691,17 @@
         <v>550</v>
       </c>
       <c r="G924" s="78" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="H924" s="79" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="J924" s="8"/>
       <c r="K924" s="8"/>
       <c r="L924" s="8"/>
       <c r="M924" s="8"/>
       <c r="N924" s="78" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="O924" s="68"/>
       <c r="P924" s="68"/>
@@ -31710,13 +31710,13 @@
     </row>
     <row r="925" spans="6:18" x14ac:dyDescent="0.15">
       <c r="F925" s="16" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="G925" s="79" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="H925" s="79" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="I925" s="79"/>
       <c r="J925" s="79"/>
@@ -31724,7 +31724,7 @@
       <c r="L925" s="79"/>
       <c r="M925" s="79"/>
       <c r="N925" s="78" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="O925" s="84"/>
       <c r="P925" s="68"/>
@@ -31736,10 +31736,10 @@
         <v>1041</v>
       </c>
       <c r="G926" s="79" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="H926" s="79" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="I926" s="79"/>
       <c r="J926" s="79"/>
@@ -31747,7 +31747,7 @@
       <c r="L926" s="79"/>
       <c r="M926" s="79"/>
       <c r="N926" s="78" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="O926" s="8"/>
       <c r="P926" s="68"/>
@@ -31815,7 +31815,7 @@
     <row r="931" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F931" s="16"/>
       <c r="G931" s="78" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="H931" s="79"/>
       <c r="I931"/>
@@ -31831,7 +31831,7 @@
     <row r="932" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F932" s="16"/>
       <c r="G932" s="79" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="H932" s="79"/>
       <c r="I932"/>
@@ -31847,7 +31847,7 @@
     <row r="933" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F933" s="3"/>
       <c r="G933" s="78" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="H933" s="79"/>
       <c r="I933"/>
@@ -31863,7 +31863,7 @@
     </row>
     <row r="935" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G935" s="78" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="H935" s="79"/>
       <c r="I935"/>
@@ -31944,10 +31944,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T218"/>
+  <dimension ref="B1:T216"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -31961,7 +31961,7 @@
   <sheetData>
     <row r="1" spans="2:16" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B1" s="81" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.15">
@@ -31969,7 +31969,7 @@
         <v>519</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
@@ -31985,7 +31985,7 @@
         <v>76</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.15">
@@ -31996,7 +31996,7 @@
     <row r="7" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C7" s="3"/>
       <c r="D7" s="78" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.15">
@@ -32063,7 +32063,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>541</v>
@@ -32098,7 +32098,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="82" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H19" s="82" t="s">
         <v>1179</v>
@@ -32128,7 +32128,7 @@
         <v>534</v>
       </c>
       <c r="E23" s="79" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>526</v>
@@ -32146,7 +32146,7 @@
         <v>528</v>
       </c>
       <c r="G24" s="79" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -32179,7 +32179,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G27" s="79" t="s">
         <v>541</v>
@@ -32194,7 +32194,7 @@
         <v>954</v>
       </c>
       <c r="G28" s="79" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -32203,7 +32203,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="82" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -32214,7 +32214,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="82" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H30" s="82" t="s">
         <v>1181</v>
@@ -32225,7 +32225,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="79" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -32234,7 +32234,7 @@
     <row r="32" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F32" s="8"/>
       <c r="G32" s="82" t="s">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="H32" s="82"/>
       <c r="I32" s="8"/>
@@ -32244,7 +32244,7 @@
         <v>581</v>
       </c>
       <c r="E34" s="79" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>526</v>
@@ -32291,7 +32291,7 @@
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G38" s="79" t="s">
         <v>541</v>
@@ -32312,50 +32312,60 @@
     <row r="40" spans="3:9" x14ac:dyDescent="0.15">
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="82" t="s">
-        <v>1224</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="F40" s="79" t="s">
+        <v>953</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="82" t="s">
-        <v>1225</v>
+        <v>1210</v>
       </c>
       <c r="H41" s="82" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="79" t="s">
-        <v>953</v>
-      </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="F43" s="8"/>
-      <c r="G43" s="82" t="s">
-        <v>1211</v>
-      </c>
-      <c r="H43" s="82" t="s">
         <v>1183</v>
       </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C45" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D45" s="78" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E45" s="79" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C46" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="D46" s="78" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E46" s="79" t="s">
+        <v>881</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C47" s="3" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="D47" s="78" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E47" s="79" t="s">
         <v>1233</v>
-      </c>
-      <c r="E47" s="79" t="s">
-        <v>1234</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -32364,205 +32374,201 @@
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C48" s="3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D48" s="78" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="E48" s="79" t="s">
-        <v>881</v>
+        <v>1234</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C49" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="D49" s="78" t="s">
-        <v>1230</v>
-      </c>
-      <c r="E49" s="79" t="s">
-        <v>1235</v>
-      </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C50" s="3" t="s">
-        <v>975</v>
-      </c>
-      <c r="D50" s="78" t="s">
-        <v>1229</v>
-      </c>
-      <c r="E50" s="79" t="s">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C51" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D51" s="78"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D52" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E53" s="78" t="s">
         <v>1236</v>
       </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-    </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C53" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="D53" s="78"/>
-    </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D54" s="1" t="s">
-        <v>640</v>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E54" s="1" t="s">
+        <v>554</v>
       </c>
       <c r="G54" s="8"/>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E55" s="78" t="s">
+        <v>570</v>
+      </c>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E56" s="78" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D58" s="78" t="s">
         <v>1238</v>
       </c>
-      <c r="G55" s="8"/>
-    </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="E56" s="1" t="s">
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E59" s="78" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E60" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="G56" s="8"/>
-    </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="E57" s="78" t="s">
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E61" s="78" t="s">
         <v>570</v>
       </c>
-      <c r="G57" s="8"/>
-    </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="E58" s="78" t="s">
-        <v>1239</v>
-      </c>
-      <c r="G58" s="8"/>
-    </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="G59" s="8"/>
-    </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D60" s="78" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-    </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="E61" s="78" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-    </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="E62" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="E63" s="78" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="E64" s="78" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C66" s="3" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D67" s="78" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="91" spans="2:20" s="47" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="47" t="s">
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E62" s="78" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C64" s="3" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D65" s="78" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="89" spans="2:20" s="47" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="47" t="s">
         <v>1069</v>
       </c>
     </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C90" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D90" s="78" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C91" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
     <row r="92" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C92" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="D92" s="78" t="s">
-        <v>1282</v>
+      <c r="C92" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="R92" s="3"/>
+      <c r="T92" s="3" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="93" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C93" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>964</v>
+      <c r="R93" s="3"/>
+      <c r="T93" s="3" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="94" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C94" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="R94" s="3"/>
-      <c r="T94" s="3" t="s">
-        <v>779</v>
+      <c r="C94" s="3" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="95" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="R95" s="3"/>
-      <c r="T95" s="3" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C96" s="3" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C97" s="3"/>
-      <c r="D97" s="1" t="s">
+      <c r="C95" s="3"/>
+      <c r="D95" s="1" t="s">
         <v>972</v>
       </c>
     </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C98" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+    </row>
+    <row r="99" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D99" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+    </row>
     <row r="100" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C100" s="3" t="s">
-        <v>523</v>
-      </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
+      <c r="F100" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>529</v>
+      </c>
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
     </row>
     <row r="101" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D101" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>542</v>
-      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
       <c r="F101" s="8" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
@@ -32572,10 +32578,10 @@
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>529</v>
+        <v>532</v>
+      </c>
+      <c r="G102" s="88">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
@@ -32585,10 +32591,10 @@
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8" t="s">
-        <v>538</v>
+        <v>1217</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
@@ -32598,11 +32604,9 @@
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="G104" s="88">
-        <v>1.0000000000000001E-5</v>
-      </c>
+        <v>781</v>
+      </c>
+      <c r="G104" s="8"/>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
@@ -32610,11 +32614,9 @@
     <row r="105" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
-      <c r="F105" s="8" t="s">
-        <v>1218</v>
-      </c>
+      <c r="F105" s="8"/>
       <c r="G105" s="8" t="s">
-        <v>541</v>
+        <v>960</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
@@ -32624,9 +32626,11 @@
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="G106" s="8"/>
+        <v>954</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>955</v>
+      </c>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
@@ -32634,10 +32638,10 @@
     <row r="107" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8" t="s">
-        <v>960</v>
-      </c>
+      <c r="F107" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="G107" s="8"/>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
@@ -32645,64 +32649,68 @@
     <row r="108" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
-      <c r="F108" s="8" t="s">
-        <v>954</v>
-      </c>
-      <c r="G108" s="8" t="s">
-        <v>955</v>
-      </c>
-      <c r="H108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="82" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H108" s="82" t="s">
+        <v>1179</v>
+      </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
     </row>
     <row r="109" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
-      <c r="F109" s="8" t="s">
-        <v>953</v>
-      </c>
+      <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
     </row>
     <row r="110" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="82" t="s">
-        <v>1209</v>
-      </c>
-      <c r="H110" s="82" t="s">
-        <v>1179</v>
-      </c>
+      <c r="C110" s="93" t="s">
+        <v>937</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="H110" s="8"/>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
     </row>
     <row r="111" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C111" s="93"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
+      <c r="F111" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>529</v>
+      </c>
       <c r="H111" s="8"/>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
     </row>
     <row r="112" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C112" s="93" t="s">
-        <v>937</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>966</v>
-      </c>
+      <c r="C112" s="93"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
       <c r="F112" s="8" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
@@ -32713,10 +32721,10 @@
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>529</v>
+        <v>532</v>
+      </c>
+      <c r="G113" s="63">
+        <v>1</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="8"/>
@@ -32727,10 +32735,10 @@
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8" t="s">
-        <v>530</v>
+        <v>1217</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="H114" s="8"/>
       <c r="I114" s="8"/>
@@ -32741,11 +32749,9 @@
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="G115" s="63">
-        <v>1</v>
-      </c>
+        <v>781</v>
+      </c>
+      <c r="G115" s="8"/>
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
@@ -32754,11 +32760,9 @@
       <c r="C116" s="93"/>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
-      <c r="F116" s="8" t="s">
-        <v>1218</v>
-      </c>
+      <c r="F116" s="8"/>
       <c r="G116" s="8" t="s">
-        <v>540</v>
+        <v>783</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="8"/>
@@ -32769,9 +32773,11 @@
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="G117" s="8"/>
+        <v>954</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>957</v>
+      </c>
       <c r="H117" s="8"/>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
@@ -32780,10 +32786,10 @@
       <c r="C118" s="93"/>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8" t="s">
-        <v>783</v>
-      </c>
+      <c r="F118" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="G118" s="8"/>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
@@ -32792,13 +32798,13 @@
       <c r="C119" s="93"/>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
-      <c r="F119" s="8" t="s">
-        <v>954</v>
-      </c>
-      <c r="G119" s="8" t="s">
-        <v>957</v>
-      </c>
-      <c r="H119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="82" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H119" s="82" t="s">
+        <v>1183</v>
+      </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
     </row>
@@ -32806,9 +32812,7 @@
       <c r="C120" s="93"/>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
-      <c r="F120" s="8" t="s">
-        <v>953</v>
-      </c>
+      <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
@@ -32819,12 +32823,8 @@
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
-      <c r="G121" s="82" t="s">
-        <v>1210</v>
-      </c>
-      <c r="H121" s="82" t="s">
-        <v>1183</v>
-      </c>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
     </row>
@@ -32840,10 +32840,18 @@
     </row>
     <row r="123" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C123" s="93"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
+      <c r="D123" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>967</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>527</v>
+      </c>
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
@@ -32852,25 +32860,25 @@
       <c r="C124" s="93"/>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
+      <c r="F124" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>529</v>
+      </c>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
     </row>
     <row r="125" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C125" s="93"/>
-      <c r="D125" s="8" t="s">
-        <v>981</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>967</v>
-      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
       <c r="F125" s="8" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="H125" s="8"/>
       <c r="I125" s="8"/>
@@ -32881,10 +32889,10 @@
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="G126" s="8" t="s">
-        <v>529</v>
+        <v>532</v>
+      </c>
+      <c r="G126" s="63">
+        <v>1</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="8"/>
@@ -32895,10 +32903,10 @@
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8" t="s">
-        <v>530</v>
+        <v>1217</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="H127" s="8"/>
       <c r="I127" s="8"/>
@@ -32909,11 +32917,9 @@
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="G128" s="63">
-        <v>1</v>
-      </c>
+        <v>781</v>
+      </c>
+      <c r="G128" s="8"/>
       <c r="H128" s="8"/>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
@@ -32922,11 +32928,9 @@
       <c r="C129" s="93"/>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
-      <c r="F129" s="8" t="s">
-        <v>1218</v>
-      </c>
+      <c r="F129" s="8"/>
       <c r="G129" s="8" t="s">
-        <v>540</v>
+        <v>783</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
@@ -32937,9 +32941,11 @@
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="G130" s="8"/>
+        <v>954</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>957</v>
+      </c>
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
@@ -32948,10 +32954,10 @@
       <c r="C131" s="93"/>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8" t="s">
-        <v>783</v>
-      </c>
+      <c r="F131" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="G131" s="8"/>
       <c r="H131" s="8"/>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
@@ -32960,13 +32966,13 @@
       <c r="C132" s="93"/>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
-      <c r="F132" s="8" t="s">
-        <v>954</v>
-      </c>
-      <c r="G132" s="8" t="s">
-        <v>957</v>
-      </c>
-      <c r="H132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="82" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H132" s="82" t="s">
+        <v>1183</v>
+      </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
     </row>
@@ -32974,9 +32980,7 @@
       <c r="C133" s="93"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
-      <c r="F133" s="8" t="s">
-        <v>953</v>
-      </c>
+      <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
       <c r="I133" s="8"/>
@@ -32987,12 +32991,8 @@
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
-      <c r="G134" s="82" t="s">
-        <v>1211</v>
-      </c>
-      <c r="H134" s="82" t="s">
-        <v>1183</v>
-      </c>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
     </row>
@@ -33008,10 +33008,18 @@
     </row>
     <row r="136" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C136" s="93"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
+      <c r="D136" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>968</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>527</v>
+      </c>
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
@@ -33020,25 +33028,25 @@
       <c r="C137" s="93"/>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
+      <c r="F137" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>529</v>
+      </c>
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
     </row>
     <row r="138" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C138" s="93"/>
-      <c r="D138" s="8" t="s">
-        <v>982</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>968</v>
-      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
       <c r="F138" s="8" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="H138" s="8"/>
       <c r="I138" s="8"/>
@@ -33049,10 +33057,10 @@
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="G139" s="8" t="s">
-        <v>529</v>
+        <v>532</v>
+      </c>
+      <c r="G139" s="63">
+        <v>1</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
@@ -33063,10 +33071,10 @@
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8" t="s">
-        <v>530</v>
+        <v>1217</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
@@ -33077,11 +33085,9 @@
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="G141" s="63">
-        <v>1</v>
-      </c>
+        <v>781</v>
+      </c>
+      <c r="G141" s="8"/>
       <c r="H141" s="8"/>
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
@@ -33090,11 +33096,9 @@
       <c r="C142" s="93"/>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
-      <c r="F142" s="8" t="s">
-        <v>1218</v>
-      </c>
+      <c r="F142" s="8"/>
       <c r="G142" s="8" t="s">
-        <v>540</v>
+        <v>783</v>
       </c>
       <c r="H142" s="8"/>
       <c r="I142" s="8"/>
@@ -33105,9 +33109,11 @@
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="G143" s="8"/>
+        <v>954</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>957</v>
+      </c>
       <c r="H143" s="8"/>
       <c r="I143" s="8"/>
       <c r="J143" s="8"/>
@@ -33116,10 +33122,10 @@
       <c r="C144" s="93"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="8" t="s">
-        <v>783</v>
-      </c>
+      <c r="F144" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="G144" s="8"/>
       <c r="H144" s="8"/>
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
@@ -33128,39 +33134,33 @@
       <c r="C145" s="93"/>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
-      <c r="F145" s="8" t="s">
-        <v>954</v>
-      </c>
-      <c r="G145" s="8" t="s">
-        <v>957</v>
-      </c>
-      <c r="H145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="82" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H145" s="82" t="s">
+        <v>1183</v>
+      </c>
       <c r="I145" s="8"/>
       <c r="J145" s="8"/>
     </row>
     <row r="146" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C146" s="93"/>
+      <c r="C146" s="66"/>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
-      <c r="F146" s="8" t="s">
-        <v>953</v>
-      </c>
+      <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
       <c r="I146" s="8"/>
       <c r="J146" s="8"/>
     </row>
     <row r="147" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C147" s="93"/>
+      <c r="C147" s="66"/>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
-      <c r="G147" s="82" t="s">
-        <v>1212</v>
-      </c>
-      <c r="H147" s="82" t="s">
-        <v>1183</v>
-      </c>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
       <c r="I147" s="8"/>
       <c r="J147" s="8"/>
     </row>
@@ -33176,10 +33176,18 @@
     </row>
     <row r="149" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C149" s="66"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
+      <c r="D149" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G149" s="8" t="s">
+        <v>527</v>
+      </c>
       <c r="H149" s="8"/>
       <c r="I149" s="8"/>
       <c r="J149" s="8"/>
@@ -33188,25 +33196,25 @@
       <c r="C150" s="66"/>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
+      <c r="F150" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="G150" s="8" t="s">
+        <v>529</v>
+      </c>
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
       <c r="J150" s="8"/>
     </row>
     <row r="151" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C151" s="66"/>
-      <c r="D151" s="8" t="s">
-        <v>940</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>969</v>
-      </c>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
       <c r="F151" s="8" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>527</v>
+        <v>938</v>
       </c>
       <c r="H151" s="8"/>
       <c r="I151" s="8"/>
@@ -33217,10 +33225,10 @@
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
       <c r="F152" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="G152" s="8" t="s">
-        <v>529</v>
+        <v>532</v>
+      </c>
+      <c r="G152" s="63">
+        <v>1</v>
       </c>
       <c r="H152" s="8"/>
       <c r="I152" s="8"/>
@@ -33231,10 +33239,10 @@
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
       <c r="F153" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="G153" s="8" t="s">
-        <v>938</v>
+        <v>1217</v>
+      </c>
+      <c r="G153" s="79" t="s">
+        <v>1174</v>
       </c>
       <c r="H153" s="8"/>
       <c r="I153" s="8"/>
@@ -33245,11 +33253,9 @@
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
       <c r="F154" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="G154" s="63">
-        <v>1</v>
-      </c>
+        <v>781</v>
+      </c>
+      <c r="G154" s="8"/>
       <c r="H154" s="8"/>
       <c r="I154" s="8"/>
       <c r="J154" s="8"/>
@@ -33258,11 +33264,9 @@
       <c r="C155" s="66"/>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
-      <c r="F155" s="8" t="s">
-        <v>1218</v>
-      </c>
-      <c r="G155" s="79" t="s">
-        <v>1174</v>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8" t="s">
+        <v>939</v>
       </c>
       <c r="H155" s="8"/>
       <c r="I155" s="8"/>
@@ -33273,9 +33277,11 @@
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
       <c r="F156" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="G156" s="8"/>
+        <v>954</v>
+      </c>
+      <c r="G156" s="8" t="s">
+        <v>965</v>
+      </c>
       <c r="H156" s="8"/>
       <c r="I156" s="8"/>
       <c r="J156" s="8"/>
@@ -33284,11 +33290,11 @@
       <c r="C157" s="66"/>
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
-      <c r="F157" s="8"/>
-      <c r="G157" s="8" t="s">
-        <v>939</v>
-      </c>
-      <c r="H157" s="8"/>
+      <c r="F157" s="82" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
       <c r="I157" s="8"/>
       <c r="J157" s="8"/>
     </row>
@@ -33296,13 +33302,13 @@
       <c r="C158" s="66"/>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
-      <c r="F158" s="8" t="s">
-        <v>954</v>
-      </c>
-      <c r="G158" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="H158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="82" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H158" s="82" t="s">
+        <v>1181</v>
+      </c>
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
     </row>
@@ -33310,11 +33316,11 @@
       <c r="C159" s="66"/>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
-      <c r="F159" s="82" t="s">
-        <v>1201</v>
-      </c>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
+      <c r="F159" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
       <c r="I159" s="8"/>
       <c r="J159" s="8"/>
     </row>
@@ -33324,10 +33330,10 @@
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
       <c r="G160" s="82" t="s">
-        <v>1213</v>
+        <v>1198</v>
       </c>
       <c r="H160" s="82" t="s">
-        <v>1181</v>
+        <v>1199</v>
       </c>
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
@@ -33336,9 +33342,7 @@
       <c r="C161" s="66"/>
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
-      <c r="F161" s="8" t="s">
-        <v>953</v>
-      </c>
+      <c r="F161" s="8"/>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="I161" s="8"/>
@@ -33346,15 +33350,19 @@
     </row>
     <row r="162" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C162" s="66"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="82" t="s">
-        <v>1198</v>
-      </c>
-      <c r="H162" s="82" t="s">
-        <v>1199</v>
-      </c>
+      <c r="D162" s="8" t="s">
+        <v>983</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>970</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G162" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="H162" s="8"/>
       <c r="I162" s="8"/>
       <c r="J162" s="8"/>
     </row>
@@ -33362,25 +33370,25 @@
       <c r="C163" s="66"/>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="8"/>
+      <c r="F163" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="G163" s="8" t="s">
+        <v>529</v>
+      </c>
       <c r="H163" s="8"/>
       <c r="I163" s="8"/>
       <c r="J163" s="8"/>
     </row>
     <row r="164" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C164" s="66"/>
-      <c r="D164" s="8" t="s">
-        <v>983</v>
-      </c>
-      <c r="E164" s="8" t="s">
-        <v>970</v>
-      </c>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
       <c r="F164" s="8" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>527</v>
+        <v>938</v>
       </c>
       <c r="H164" s="8"/>
       <c r="I164" s="8"/>
@@ -33391,10 +33399,10 @@
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
       <c r="F165" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="G165" s="8" t="s">
-        <v>529</v>
+        <v>532</v>
+      </c>
+      <c r="G165" s="63">
+        <v>1</v>
       </c>
       <c r="H165" s="8"/>
       <c r="I165" s="8"/>
@@ -33405,10 +33413,10 @@
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
       <c r="F166" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="G166" s="8" t="s">
-        <v>938</v>
+        <v>1217</v>
+      </c>
+      <c r="G166" s="79" t="s">
+        <v>541</v>
       </c>
       <c r="H166" s="8"/>
       <c r="I166" s="8"/>
@@ -33419,11 +33427,9 @@
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
       <c r="F167" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="G167" s="63">
-        <v>1</v>
-      </c>
+        <v>781</v>
+      </c>
+      <c r="G167" s="8"/>
       <c r="H167" s="8"/>
       <c r="I167" s="8"/>
       <c r="J167" s="8"/>
@@ -33432,11 +33438,9 @@
       <c r="C168" s="66"/>
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
-      <c r="F168" s="8" t="s">
-        <v>1218</v>
-      </c>
-      <c r="G168" s="79" t="s">
-        <v>541</v>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8" t="s">
+        <v>939</v>
       </c>
       <c r="H168" s="8"/>
       <c r="I168" s="8"/>
@@ -33447,9 +33451,11 @@
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
       <c r="F169" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="G169" s="8"/>
+        <v>954</v>
+      </c>
+      <c r="G169" s="8" t="s">
+        <v>965</v>
+      </c>
       <c r="H169" s="8"/>
       <c r="I169" s="8"/>
       <c r="J169" s="8"/>
@@ -33458,11 +33464,11 @@
       <c r="C170" s="66"/>
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
-      <c r="F170" s="8"/>
-      <c r="G170" s="8" t="s">
-        <v>939</v>
-      </c>
-      <c r="H170" s="8"/>
+      <c r="F170" s="82" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
       <c r="I170" s="8"/>
       <c r="J170" s="8"/>
     </row>
@@ -33470,13 +33476,13 @@
       <c r="C171" s="66"/>
       <c r="D171" s="8"/>
       <c r="E171" s="8"/>
-      <c r="F171" s="8" t="s">
-        <v>954</v>
-      </c>
-      <c r="G171" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="H171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="82" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H171" s="82" t="s">
+        <v>1181</v>
+      </c>
       <c r="I171" s="8"/>
       <c r="J171" s="8"/>
     </row>
@@ -33484,11 +33490,11 @@
       <c r="C172" s="66"/>
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
-      <c r="F172" s="82" t="s">
-        <v>1201</v>
-      </c>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
+      <c r="F172" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="G172" s="8"/>
+      <c r="H172" s="8"/>
       <c r="I172" s="8"/>
       <c r="J172" s="8"/>
     </row>
@@ -33498,10 +33504,10 @@
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
       <c r="G173" s="82" t="s">
-        <v>1213</v>
+        <v>1198</v>
       </c>
       <c r="H173" s="82" t="s">
-        <v>1181</v>
+        <v>1199</v>
       </c>
       <c r="I173" s="8"/>
       <c r="J173" s="8"/>
@@ -33510,9 +33516,7 @@
       <c r="C174" s="66"/>
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
-      <c r="F174" s="8" t="s">
-        <v>953</v>
-      </c>
+      <c r="F174" s="8"/>
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
       <c r="I174" s="8"/>
@@ -33520,41 +33524,43 @@
     </row>
     <row r="175" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C175" s="66"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
-      <c r="F175" s="8"/>
-      <c r="G175" s="82" t="s">
-        <v>1198</v>
-      </c>
-      <c r="H175" s="82" t="s">
-        <v>1199</v>
-      </c>
+      <c r="D175" s="8" t="s">
+        <v>984</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>971</v>
+      </c>
+      <c r="F175" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G175" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="H175" s="8"/>
       <c r="I175" s="8"/>
       <c r="J175" s="8"/>
     </row>
     <row r="176" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C176" s="66"/>
       <c r="D176" s="8"/>
       <c r="E176" s="8"/>
-      <c r="F176" s="8"/>
-      <c r="G176" s="8"/>
+      <c r="F176" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="G176" s="8" t="s">
+        <v>529</v>
+      </c>
       <c r="H176" s="8"/>
       <c r="I176" s="8"/>
       <c r="J176" s="8"/>
     </row>
     <row r="177" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C177" s="66"/>
-      <c r="D177" s="8" t="s">
-        <v>984</v>
-      </c>
-      <c r="E177" s="8" t="s">
-        <v>971</v>
-      </c>
+      <c r="D177" s="8"/>
+      <c r="E177" s="8"/>
       <c r="F177" s="8" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>527</v>
+        <v>938</v>
       </c>
       <c r="H177" s="8"/>
       <c r="I177" s="8"/>
@@ -33564,10 +33570,10 @@
       <c r="D178" s="8"/>
       <c r="E178" s="8"/>
       <c r="F178" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="G178" s="8" t="s">
-        <v>529</v>
+        <v>532</v>
+      </c>
+      <c r="G178" s="63">
+        <v>1</v>
       </c>
       <c r="H178" s="8"/>
       <c r="I178" s="8"/>
@@ -33577,10 +33583,10 @@
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
       <c r="F179" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="G179" s="8" t="s">
-        <v>938</v>
+        <v>1217</v>
+      </c>
+      <c r="G179" s="79" t="s">
+        <v>541</v>
       </c>
       <c r="H179" s="8"/>
       <c r="I179" s="8"/>
@@ -33590,11 +33596,9 @@
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
       <c r="F180" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="G180" s="63">
-        <v>1</v>
-      </c>
+        <v>781</v>
+      </c>
+      <c r="G180" s="8"/>
       <c r="H180" s="8"/>
       <c r="I180" s="8"/>
       <c r="J180" s="8"/>
@@ -33602,11 +33606,9 @@
     <row r="181" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D181" s="8"/>
       <c r="E181" s="8"/>
-      <c r="F181" s="8" t="s">
-        <v>1218</v>
-      </c>
-      <c r="G181" s="79" t="s">
-        <v>541</v>
+      <c r="F181" s="8"/>
+      <c r="G181" s="8" t="s">
+        <v>939</v>
       </c>
       <c r="H181" s="8"/>
       <c r="I181" s="8"/>
@@ -33616,9 +33618,11 @@
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
       <c r="F182" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="G182" s="8"/>
+        <v>954</v>
+      </c>
+      <c r="G182" s="8" t="s">
+        <v>965</v>
+      </c>
       <c r="H182" s="8"/>
       <c r="I182" s="8"/>
       <c r="J182" s="8"/>
@@ -33626,35 +33630,35 @@
     <row r="183" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
-      <c r="F183" s="8"/>
-      <c r="G183" s="8" t="s">
-        <v>939</v>
-      </c>
-      <c r="H183" s="8"/>
+      <c r="F183" s="82" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
       <c r="I183" s="8"/>
       <c r="J183" s="8"/>
     </row>
     <row r="184" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
-      <c r="F184" s="8" t="s">
-        <v>954</v>
-      </c>
-      <c r="G184" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="H184" s="8"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="82" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H184" s="82" t="s">
+        <v>1181</v>
+      </c>
       <c r="I184" s="8"/>
       <c r="J184" s="8"/>
     </row>
     <row r="185" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
-      <c r="F185" s="82" t="s">
-        <v>1201</v>
-      </c>
-      <c r="G185" s="2"/>
-      <c r="H185" s="2"/>
+      <c r="F185" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="G185" s="8"/>
+      <c r="H185" s="8"/>
       <c r="I185" s="8"/>
       <c r="J185" s="8"/>
     </row>
@@ -33662,11 +33666,11 @@
       <c r="D186" s="8"/>
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
-      <c r="G186" s="82" t="s">
-        <v>1213</v>
-      </c>
-      <c r="H186" s="82" t="s">
-        <v>1181</v>
+      <c r="G186" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>1199</v>
       </c>
       <c r="I186" s="8"/>
       <c r="J186" s="8"/>
@@ -33674,9 +33678,7 @@
     <row r="187" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D187" s="8"/>
       <c r="E187" s="8"/>
-      <c r="F187" s="8" t="s">
-        <v>953</v>
-      </c>
+      <c r="F187" s="8"/>
       <c r="G187" s="8"/>
       <c r="H187" s="8"/>
       <c r="I187" s="8"/>
@@ -33686,12 +33688,8 @@
       <c r="D188" s="8"/>
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
-      <c r="G188" s="2" t="s">
-        <v>1198</v>
-      </c>
-      <c r="H188" s="2" t="s">
-        <v>1199</v>
-      </c>
+      <c r="G188" s="8"/>
+      <c r="H188" s="8"/>
       <c r="I188" s="8"/>
       <c r="J188" s="8"/>
     </row>
@@ -33703,40 +33701,66 @@
       <c r="H189" s="8"/>
       <c r="I189" s="8"/>
       <c r="J189" s="8"/>
+      <c r="K189" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="L189" s="71" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="190" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="D190" s="8"/>
-      <c r="E190" s="8"/>
+      <c r="C190" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>976</v>
+      </c>
+      <c r="E190" s="8" t="s">
+        <v>944</v>
+      </c>
       <c r="F190" s="8"/>
       <c r="G190" s="8"/>
       <c r="H190" s="8"/>
       <c r="I190" s="8"/>
       <c r="J190" s="8"/>
+      <c r="K190" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="L190" s="71" t="s">
+        <v>1136</v>
+      </c>
     </row>
     <row r="191" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="D191" s="8"/>
-      <c r="E191" s="8"/>
+      <c r="C191" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>973</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>946</v>
+      </c>
       <c r="F191" s="8"/>
       <c r="G191" s="8"/>
       <c r="H191" s="8"/>
       <c r="I191" s="8"/>
       <c r="J191" s="8"/>
-      <c r="K191" s="3" t="s">
-        <v>772</v>
+      <c r="K191" s="1" t="s">
+        <v>942</v>
       </c>
       <c r="L191" s="71" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="192" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C192" s="3" t="s">
-        <v>545</v>
+        <v>978</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>976</v>
+        <v>943</v>
       </c>
       <c r="E192" s="8" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="F192" s="8"/>
       <c r="G192" s="8"/>
@@ -33747,18 +33771,18 @@
         <v>941</v>
       </c>
       <c r="L192" s="71" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="193" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C193" s="3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>946</v>
+        <v>980</v>
       </c>
       <c r="F193" s="8"/>
       <c r="G193" s="8"/>
@@ -33769,55 +33793,34 @@
         <v>942</v>
       </c>
       <c r="L193" s="71" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="194" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C194" s="3" t="s">
-        <v>978</v>
-      </c>
-      <c r="D194" s="8" t="s">
-        <v>943</v>
-      </c>
-      <c r="E194" s="8" t="s">
-        <v>945</v>
-      </c>
+      <c r="D194" s="8"/>
+      <c r="E194" s="8"/>
       <c r="F194" s="8"/>
       <c r="G194" s="8"/>
       <c r="H194" s="8"/>
       <c r="I194" s="8"/>
       <c r="J194" s="8"/>
-      <c r="K194" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="L194" s="71" t="s">
-        <v>1138</v>
-      </c>
     </row>
     <row r="195" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C195" s="3" t="s">
-        <v>975</v>
-      </c>
-      <c r="D195" s="8" t="s">
-        <v>974</v>
-      </c>
-      <c r="E195" s="8" t="s">
-        <v>980</v>
-      </c>
+        <v>950</v>
+      </c>
+      <c r="D195" s="8"/>
+      <c r="E195" s="8"/>
       <c r="F195" s="8"/>
       <c r="G195" s="8"/>
       <c r="H195" s="8"/>
       <c r="I195" s="8"/>
       <c r="J195" s="8"/>
-      <c r="K195" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="L195" s="71" t="s">
-        <v>1139</v>
-      </c>
     </row>
     <row r="196" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="D196" s="8"/>
+      <c r="D196" s="8" t="s">
+        <v>961</v>
+      </c>
       <c r="E196" s="8"/>
       <c r="F196" s="8"/>
       <c r="G196" s="8"/>
@@ -33826,11 +33829,10 @@
       <c r="J196" s="8"/>
     </row>
     <row r="197" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C197" s="3" t="s">
-        <v>950</v>
-      </c>
       <c r="D197" s="8"/>
-      <c r="E197" s="8"/>
+      <c r="E197" s="8" t="s">
+        <v>947</v>
+      </c>
       <c r="F197" s="8"/>
       <c r="G197" s="8"/>
       <c r="H197" s="8"/>
@@ -33838,11 +33840,11 @@
       <c r="J197" s="8"/>
     </row>
     <row r="198" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="D198" s="8" t="s">
-        <v>961</v>
-      </c>
+      <c r="D198" s="8"/>
       <c r="E198" s="8"/>
-      <c r="F198" s="8"/>
+      <c r="F198" s="8" t="s">
+        <v>985</v>
+      </c>
       <c r="G198" s="8"/>
       <c r="H198" s="8"/>
       <c r="I198" s="8"/>
@@ -33850,10 +33852,10 @@
     </row>
     <row r="199" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D199" s="8"/>
-      <c r="E199" s="8" t="s">
-        <v>947</v>
-      </c>
-      <c r="F199" s="8"/>
+      <c r="E199" s="8"/>
+      <c r="F199" s="8" t="s">
+        <v>986</v>
+      </c>
       <c r="G199" s="8"/>
       <c r="H199" s="8"/>
       <c r="I199" s="8"/>
@@ -33863,7 +33865,7 @@
       <c r="D200" s="8"/>
       <c r="E200" s="8"/>
       <c r="F200" s="8" t="s">
-        <v>985</v>
+        <v>962</v>
       </c>
       <c r="G200" s="8"/>
       <c r="H200" s="8"/>
@@ -33872,10 +33874,10 @@
     </row>
     <row r="201" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D201" s="8"/>
-      <c r="E201" s="8"/>
-      <c r="F201" s="8" t="s">
-        <v>986</v>
-      </c>
+      <c r="E201" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="F201" s="8"/>
       <c r="G201" s="8"/>
       <c r="H201" s="8"/>
       <c r="I201" s="8"/>
@@ -33885,7 +33887,7 @@
       <c r="D202" s="8"/>
       <c r="E202" s="8"/>
       <c r="F202" s="8" t="s">
-        <v>962</v>
+        <v>988</v>
       </c>
       <c r="G202" s="8"/>
       <c r="H202" s="8"/>
@@ -33894,10 +33896,10 @@
     </row>
     <row r="203" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D203" s="8"/>
-      <c r="E203" s="8" t="s">
-        <v>948</v>
-      </c>
-      <c r="F203" s="8"/>
+      <c r="E203" s="8"/>
+      <c r="F203" s="8" t="s">
+        <v>989</v>
+      </c>
       <c r="G203" s="8"/>
       <c r="H203" s="8"/>
       <c r="I203" s="8"/>
@@ -33907,7 +33909,7 @@
       <c r="D204" s="8"/>
       <c r="E204" s="8"/>
       <c r="F204" s="8" t="s">
-        <v>988</v>
+        <v>962</v>
       </c>
       <c r="G204" s="8"/>
       <c r="H204" s="8"/>
@@ -33916,10 +33918,10 @@
     </row>
     <row r="205" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D205" s="8"/>
-      <c r="E205" s="8"/>
-      <c r="F205" s="8" t="s">
-        <v>989</v>
-      </c>
+      <c r="E205" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="F205" s="8"/>
       <c r="G205" s="8"/>
       <c r="H205" s="8"/>
       <c r="I205" s="8"/>
@@ -33929,7 +33931,7 @@
       <c r="D206" s="8"/>
       <c r="E206" s="8"/>
       <c r="F206" s="8" t="s">
-        <v>962</v>
+        <v>987</v>
       </c>
       <c r="G206" s="8"/>
       <c r="H206" s="8"/>
@@ -33938,10 +33940,10 @@
     </row>
     <row r="207" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D207" s="8"/>
-      <c r="E207" s="8" t="s">
-        <v>949</v>
-      </c>
-      <c r="F207" s="8"/>
+      <c r="E207" s="8"/>
+      <c r="F207" s="8" t="s">
+        <v>990</v>
+      </c>
       <c r="G207" s="8"/>
       <c r="H207" s="8"/>
       <c r="I207" s="8"/>
@@ -33951,7 +33953,7 @@
       <c r="D208" s="8"/>
       <c r="E208" s="8"/>
       <c r="F208" s="8" t="s">
-        <v>987</v>
+        <v>963</v>
       </c>
       <c r="G208" s="8"/>
       <c r="H208" s="8"/>
@@ -33959,32 +33961,32 @@
       <c r="J208" s="8"/>
     </row>
     <row r="209" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C209" s="3" t="s">
+        <v>547</v>
+      </c>
       <c r="D209" s="8"/>
       <c r="E209" s="8"/>
-      <c r="F209" s="8" t="s">
-        <v>990</v>
-      </c>
+      <c r="F209" s="8"/>
       <c r="G209" s="8"/>
       <c r="H209" s="8"/>
       <c r="I209" s="8"/>
       <c r="J209" s="8"/>
     </row>
     <row r="210" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D210" s="8"/>
+      <c r="D210" s="8" t="s">
+        <v>569</v>
+      </c>
       <c r="E210" s="8"/>
-      <c r="F210" s="8" t="s">
-        <v>963</v>
-      </c>
+      <c r="F210" s="8"/>
       <c r="G210" s="8"/>
       <c r="H210" s="8"/>
       <c r="I210" s="8"/>
       <c r="J210" s="8"/>
     </row>
     <row r="211" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C211" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="D211" s="8"/>
+      <c r="D211" s="8" t="s">
+        <v>554</v>
+      </c>
       <c r="E211" s="8"/>
       <c r="F211" s="8"/>
       <c r="G211" s="8"/>
@@ -33994,7 +33996,7 @@
     </row>
     <row r="212" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D212" s="8" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="E212" s="8"/>
       <c r="F212" s="8"/>
@@ -34005,7 +34007,7 @@
     </row>
     <row r="213" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D213" s="8" t="s">
-        <v>554</v>
+        <v>688</v>
       </c>
       <c r="E213" s="8"/>
       <c r="F213" s="8"/>
@@ -34016,7 +34018,7 @@
     </row>
     <row r="214" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D214" s="8" t="s">
-        <v>555</v>
+        <v>979</v>
       </c>
       <c r="E214" s="8"/>
       <c r="F214" s="8"/>
@@ -34026,9 +34028,7 @@
       <c r="J214" s="8"/>
     </row>
     <row r="215" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D215" s="8" t="s">
-        <v>688</v>
-      </c>
+      <c r="D215" s="8"/>
       <c r="E215" s="8"/>
       <c r="F215" s="8"/>
       <c r="G215" s="8"/>
@@ -34037,9 +34037,7 @@
       <c r="J215" s="8"/>
     </row>
     <row r="216" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D216" s="8" t="s">
-        <v>979</v>
-      </c>
+      <c r="D216" s="8"/>
       <c r="E216" s="8"/>
       <c r="F216" s="8"/>
       <c r="G216" s="8"/>
@@ -34047,27 +34045,9 @@
       <c r="I216" s="8"/>
       <c r="J216" s="8"/>
     </row>
-    <row r="217" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D217" s="8"/>
-      <c r="E217" s="8"/>
-      <c r="F217" s="8"/>
-      <c r="G217" s="8"/>
-      <c r="H217" s="8"/>
-      <c r="I217" s="8"/>
-      <c r="J217" s="8"/>
-    </row>
-    <row r="218" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D218" s="8"/>
-      <c r="E218" s="8"/>
-      <c r="F218" s="8"/>
-      <c r="G218" s="8"/>
-      <c r="H218" s="8"/>
-      <c r="I218" s="8"/>
-      <c r="J218" s="8"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C112:C147"/>
+    <mergeCell ref="C110:C145"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35010,7 +34990,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="96" t="s">
         <v>339</v>
       </c>
       <c r="C2" s="93" t="s">
@@ -35019,15 +34999,15 @@
       <c r="D2" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="106"/>
+      <c r="E2" s="95"/>
       <c r="F2" s="93" t="s">
         <v>337</v>
       </c>
       <c r="G2" s="93" t="s">
         <v>334</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="108" t="s">
+      <c r="H2" s="100"/>
+      <c r="I2" s="99" t="s">
         <v>342</v>
       </c>
       <c r="J2" s="93"/>
@@ -35037,7 +35017,7 @@
       <c r="L2" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="M2" s="107" t="s">
+      <c r="M2" s="98" t="s">
         <v>295</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -35054,14 +35034,14 @@
       </c>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="95"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="93"/>
       <c r="D3" s="93"/>
-      <c r="E3" s="106"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="93"/>
       <c r="G3" s="93"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="108"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="99"/>
       <c r="J3" s="93"/>
       <c r="K3" s="27" t="s">
         <v>300</v>
@@ -35069,7 +35049,7 @@
       <c r="L3" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="M3" s="107"/>
+      <c r="M3" s="98"/>
       <c r="N3" s="3" t="s">
         <v>80</v>
       </c>
@@ -35090,14 +35070,14 @@
       </c>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="95"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="93"/>
       <c r="D4" s="93"/>
-      <c r="E4" s="106"/>
+      <c r="E4" s="95"/>
       <c r="F4" s="93"/>
       <c r="G4" s="93"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="108"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="99"/>
       <c r="J4" s="93"/>
       <c r="K4" s="27" t="s">
         <v>306</v>
@@ -35105,7 +35085,7 @@
       <c r="L4" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="M4" s="107"/>
+      <c r="M4" s="98"/>
       <c r="N4" s="3" t="s">
         <v>82</v>
       </c>
@@ -35126,18 +35106,18 @@
       </c>
     </row>
     <row r="5" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="95"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="93"/>
       <c r="D5" s="93"/>
-      <c r="E5" s="106"/>
+      <c r="E5" s="95"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="108"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="99"/>
       <c r="J5" s="93"/>
       <c r="K5" s="30"/>
       <c r="L5" s="28"/>
-      <c r="M5" s="107"/>
+      <c r="M5" s="98"/>
       <c r="N5" s="3" t="s">
         <v>309</v>
       </c>
@@ -35152,18 +35132,18 @@
       </c>
     </row>
     <row r="6" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="95"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="93"/>
       <c r="D6" s="93"/>
-      <c r="E6" s="106"/>
+      <c r="E6" s="95"/>
       <c r="F6" s="93"/>
       <c r="G6" s="93"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="108"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="99"/>
       <c r="J6" s="93"/>
       <c r="K6" s="30"/>
       <c r="L6" s="28"/>
-      <c r="M6" s="107"/>
+      <c r="M6" s="98"/>
       <c r="N6" s="3" t="s">
         <v>312</v>
       </c>
@@ -35178,18 +35158,18 @@
       </c>
     </row>
     <row r="7" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="95"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="93"/>
       <c r="D7" s="93"/>
-      <c r="E7" s="106"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="93"/>
       <c r="G7" s="93"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="108"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="99"/>
       <c r="J7" s="93"/>
       <c r="K7" s="30"/>
       <c r="L7" s="28"/>
-      <c r="M7" s="107"/>
+      <c r="M7" s="98"/>
       <c r="N7" s="3" t="s">
         <v>315</v>
       </c>
@@ -35204,18 +35184,18 @@
       </c>
     </row>
     <row r="8" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="95"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="93"/>
       <c r="D8" s="93"/>
-      <c r="E8" s="106"/>
+      <c r="E8" s="95"/>
       <c r="F8" s="93"/>
       <c r="G8" s="93"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="108"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="99"/>
       <c r="J8" s="93"/>
       <c r="K8" s="30"/>
       <c r="L8" s="28"/>
-      <c r="M8" s="107"/>
+      <c r="M8" s="98"/>
       <c r="N8" s="3" t="s">
         <v>318</v>
       </c>
@@ -35230,18 +35210,18 @@
       </c>
     </row>
     <row r="9" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="95"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="93"/>
       <c r="D9" s="93"/>
-      <c r="E9" s="106"/>
+      <c r="E9" s="95"/>
       <c r="F9" s="93"/>
       <c r="G9" s="93"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="108"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="99"/>
       <c r="J9" s="93"/>
       <c r="K9" s="30"/>
       <c r="L9" s="28"/>
-      <c r="M9" s="107"/>
+      <c r="M9" s="98"/>
       <c r="N9" s="3" t="s">
         <v>321</v>
       </c>
@@ -35259,18 +35239,18 @@
       <c r="A10" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B10" s="95"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="93"/>
       <c r="D10" s="93"/>
-      <c r="E10" s="106"/>
+      <c r="E10" s="95"/>
       <c r="F10" s="93"/>
       <c r="G10" s="93"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="108"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="99"/>
       <c r="J10" s="93"/>
       <c r="K10" s="30"/>
       <c r="L10" s="28"/>
-      <c r="M10" s="107"/>
+      <c r="M10" s="98"/>
       <c r="N10" s="3" t="s">
         <v>323</v>
       </c>
@@ -35285,18 +35265,18 @@
       </c>
     </row>
     <row r="11" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="95"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="93"/>
       <c r="D11" s="93"/>
-      <c r="E11" s="106"/>
+      <c r="E11" s="95"/>
       <c r="F11" s="93"/>
       <c r="G11" s="93"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="108"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="99"/>
       <c r="J11" s="93"/>
       <c r="K11" s="30"/>
       <c r="L11" s="28"/>
-      <c r="M11" s="107"/>
+      <c r="M11" s="98"/>
       <c r="N11" s="3" t="s">
         <v>325</v>
       </c>
@@ -35311,14 +35291,14 @@
       </c>
     </row>
     <row r="12" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="95"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="93"/>
       <c r="D12" s="93"/>
-      <c r="E12" s="106"/>
+      <c r="E12" s="95"/>
       <c r="F12" s="93"/>
       <c r="G12" s="93"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="108"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="99"/>
       <c r="J12" s="93"/>
       <c r="K12" s="30"/>
       <c r="L12" s="28"/>
@@ -35380,10 +35360,10 @@
       <c r="J14" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="K14" s="100" t="s">
+      <c r="K14" s="97" t="s">
         <v>285</v>
       </c>
-      <c r="L14" s="100"/>
+      <c r="L14" s="97"/>
       <c r="M14" s="44" t="s">
         <v>286</v>
       </c>
@@ -35410,24 +35390,24 @@
       </c>
     </row>
     <row r="15" spans="1:20" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="102" t="s">
         <v>340</v>
       </c>
-      <c r="C15" s="102" t="s">
+      <c r="C15" s="101" t="s">
         <v>338</v>
       </c>
-      <c r="D15" s="102" t="s">
+      <c r="D15" s="101" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="103"/>
-      <c r="F15" s="102" t="s">
+      <c r="F15" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="102" t="s">
+      <c r="G15" s="101" t="s">
         <v>334</v>
       </c>
-      <c r="H15" s="105"/>
-      <c r="I15" s="101" t="s">
+      <c r="H15" s="104"/>
+      <c r="I15" s="102" t="s">
         <v>162</v>
       </c>
       <c r="J15" s="48"/>
@@ -35437,7 +35417,7 @@
       <c r="L15" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="M15" s="100" t="s">
+      <c r="M15" s="97" t="s">
         <v>295</v>
       </c>
       <c r="N15" s="44" t="s">
@@ -35460,14 +35440,14 @@
       </c>
     </row>
     <row r="16" spans="1:20" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="101"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="103"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="102"/>
       <c r="J16" s="48"/>
       <c r="K16" s="49" t="s">
         <v>300</v>
@@ -35475,7 +35455,7 @@
       <c r="L16" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="M16" s="100"/>
+      <c r="M16" s="97"/>
       <c r="N16" s="44" t="s">
         <v>82</v>
       </c>
@@ -35496,14 +35476,14 @@
       </c>
     </row>
     <row r="17" spans="2:20" s="47" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="101"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="103"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="102"/>
       <c r="J17" s="48"/>
       <c r="K17" s="49" t="s">
         <v>306</v>
@@ -35586,24 +35566,24 @@
       </c>
     </row>
     <row r="20" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="96" t="s">
         <v>450</v>
       </c>
-      <c r="C20" s="96" t="s">
+      <c r="C20" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="96" t="s">
+      <c r="D20" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="97"/>
-      <c r="F20" s="96" t="s">
+      <c r="E20" s="107"/>
+      <c r="F20" s="106" t="s">
         <v>176</v>
       </c>
-      <c r="G20" s="96" t="s">
+      <c r="G20" s="106" t="s">
         <v>334</v>
       </c>
-      <c r="H20" s="99"/>
-      <c r="I20" s="95" t="s">
+      <c r="H20" s="105"/>
+      <c r="I20" s="96" t="s">
         <v>162</v>
       </c>
       <c r="J20" s="32"/>
@@ -35637,14 +35617,14 @@
       </c>
     </row>
     <row r="21" spans="2:20" s="39" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="95"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="96"/>
       <c r="J21" s="32"/>
       <c r="K21" s="40" t="s">
         <v>300</v>
@@ -35674,14 +35654,14 @@
       </c>
     </row>
     <row r="22" spans="2:20" s="39" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="95"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="95"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="96"/>
       <c r="J22" s="32"/>
       <c r="K22" s="40" t="s">
         <v>306</v>
@@ -35737,10 +35717,10 @@
       <c r="J24" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="K24" s="100" t="s">
+      <c r="K24" s="97" t="s">
         <v>285</v>
       </c>
-      <c r="L24" s="100"/>
+      <c r="L24" s="97"/>
       <c r="M24" s="44" t="s">
         <v>286</v>
       </c>
@@ -35767,24 +35747,24 @@
       </c>
     </row>
     <row r="25" spans="2:20" s="56" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="102" t="s">
         <v>835</v>
       </c>
-      <c r="C25" s="102" t="s">
+      <c r="C25" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="102" t="s">
+      <c r="D25" s="101" t="s">
         <v>91</v>
       </c>
       <c r="E25" s="103"/>
-      <c r="F25" s="102" t="s">
+      <c r="F25" s="101" t="s">
         <v>336</v>
       </c>
-      <c r="G25" s="102" t="s">
+      <c r="G25" s="101" t="s">
         <v>334</v>
       </c>
-      <c r="H25" s="105"/>
-      <c r="I25" s="102" t="s">
+      <c r="H25" s="104"/>
+      <c r="I25" s="101" t="s">
         <v>343</v>
       </c>
       <c r="J25" s="48"/>
@@ -35794,7 +35774,7 @@
       <c r="L25" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="M25" s="100" t="s">
+      <c r="M25" s="97" t="s">
         <v>295</v>
       </c>
       <c r="N25" s="44" t="s">
@@ -35818,14 +35798,14 @@
       </c>
     </row>
     <row r="26" spans="2:20" s="56" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="101"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
       <c r="E26" s="103"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="102"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="101"/>
       <c r="J26" s="48"/>
       <c r="K26" s="49" t="s">
         <v>300</v>
@@ -35833,7 +35813,7 @@
       <c r="L26" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="M26" s="100"/>
+      <c r="M26" s="97"/>
       <c r="N26" s="44" t="s">
         <v>82</v>
       </c>
@@ -35855,14 +35835,14 @@
       </c>
     </row>
     <row r="27" spans="2:20" s="56" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="101"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
       <c r="E27" s="103"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="102"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="101"/>
       <c r="J27" s="48"/>
       <c r="K27" s="49" t="s">
         <v>306</v>
@@ -35948,24 +35928,24 @@
       </c>
     </row>
     <row r="30" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B30" s="95" t="s">
+      <c r="B30" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="C30" s="96" t="s">
+      <c r="C30" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="96" t="s">
+      <c r="D30" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="97"/>
-      <c r="F30" s="96" t="s">
+      <c r="E30" s="107"/>
+      <c r="F30" s="106" t="s">
         <v>344</v>
       </c>
-      <c r="G30" s="96" t="s">
+      <c r="G30" s="106" t="s">
         <v>334</v>
       </c>
-      <c r="H30" s="99"/>
-      <c r="I30" s="96" t="s">
+      <c r="H30" s="105"/>
+      <c r="I30" s="106" t="s">
         <v>343</v>
       </c>
       <c r="J30" s="32"/>
@@ -35999,14 +35979,14 @@
       </c>
     </row>
     <row r="31" spans="2:20" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="95"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="96"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="106"/>
       <c r="J31" s="32"/>
       <c r="K31" s="40" t="s">
         <v>300</v>
@@ -36036,14 +36016,14 @@
       </c>
     </row>
     <row r="32" spans="2:20" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="95"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="96"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="106"/>
       <c r="J32" s="32"/>
       <c r="K32" s="40" t="s">
         <v>306</v>
@@ -36099,10 +36079,10 @@
       <c r="J34" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="K34" s="100" t="s">
+      <c r="K34" s="97" t="s">
         <v>285</v>
       </c>
-      <c r="L34" s="100"/>
+      <c r="L34" s="97"/>
       <c r="M34" s="44" t="s">
         <v>346</v>
       </c>
@@ -36129,24 +36109,24 @@
       </c>
     </row>
     <row r="35" spans="2:20" s="56" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B35" s="101" t="s">
+      <c r="B35" s="102" t="s">
         <v>834</v>
       </c>
-      <c r="C35" s="102" t="s">
+      <c r="C35" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="102" t="s">
+      <c r="D35" s="101" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="103"/>
-      <c r="F35" s="102" t="s">
+      <c r="F35" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="102" t="s">
+      <c r="G35" s="101" t="s">
         <v>334</v>
       </c>
-      <c r="H35" s="105"/>
-      <c r="I35" s="102" t="s">
+      <c r="H35" s="104"/>
+      <c r="I35" s="101" t="s">
         <v>343</v>
       </c>
       <c r="J35" s="48"/>
@@ -36156,7 +36136,7 @@
       <c r="L35" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="M35" s="100" t="s">
+      <c r="M35" s="97" t="s">
         <v>295</v>
       </c>
       <c r="N35" s="44" t="s">
@@ -36180,14 +36160,14 @@
       </c>
     </row>
     <row r="36" spans="2:20" s="56" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="101"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="102"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
       <c r="E36" s="103"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="102"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="102"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="101"/>
       <c r="J36" s="48"/>
       <c r="K36" s="49" t="s">
         <v>300</v>
@@ -36195,7 +36175,7 @@
       <c r="L36" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="M36" s="100"/>
+      <c r="M36" s="97"/>
       <c r="N36" s="44" t="s">
         <v>82</v>
       </c>
@@ -36217,14 +36197,14 @@
       </c>
     </row>
     <row r="37" spans="2:20" s="56" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="101"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="102"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
       <c r="E37" s="103"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="102"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="101"/>
       <c r="J37" s="48"/>
       <c r="K37" s="49" t="s">
         <v>306</v>
@@ -36310,24 +36290,24 @@
       </c>
     </row>
     <row r="40" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B40" s="95" t="s">
+      <c r="B40" s="96" t="s">
         <v>471</v>
       </c>
-      <c r="C40" s="96" t="s">
+      <c r="C40" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="96" t="s">
+      <c r="D40" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="97"/>
-      <c r="F40" s="96" t="s">
+      <c r="E40" s="107"/>
+      <c r="F40" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="G40" s="98" t="s">
+      <c r="G40" s="108" t="s">
         <v>402</v>
       </c>
-      <c r="H40" s="99"/>
-      <c r="I40" s="96" t="s">
+      <c r="H40" s="105"/>
+      <c r="I40" s="106" t="s">
         <v>343</v>
       </c>
       <c r="J40" s="32"/>
@@ -36361,14 +36341,14 @@
       </c>
     </row>
     <row r="41" spans="2:20" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="95"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="96"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="106"/>
       <c r="J41" s="32"/>
       <c r="K41" s="40" t="s">
         <v>300</v>
@@ -36398,14 +36378,14 @@
       </c>
     </row>
     <row r="42" spans="2:20" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="95"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="96"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="106"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="106"/>
       <c r="J42" s="32"/>
       <c r="K42" s="40" t="s">
         <v>306</v>
@@ -36491,24 +36471,24 @@
       </c>
     </row>
     <row r="45" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B45" s="95" t="s">
+      <c r="B45" s="96" t="s">
         <v>474</v>
       </c>
-      <c r="C45" s="96" t="s">
+      <c r="C45" s="106" t="s">
         <v>349</v>
       </c>
-      <c r="D45" s="96" t="s">
+      <c r="D45" s="106" t="s">
         <v>349</v>
       </c>
-      <c r="E45" s="97"/>
-      <c r="F45" s="96" t="s">
+      <c r="E45" s="107"/>
+      <c r="F45" s="106" t="s">
         <v>350</v>
       </c>
-      <c r="G45" s="98" t="s">
+      <c r="G45" s="108" t="s">
         <v>334</v>
       </c>
-      <c r="H45" s="99"/>
-      <c r="I45" s="96" t="s">
+      <c r="H45" s="105"/>
+      <c r="I45" s="106" t="s">
         <v>343</v>
       </c>
       <c r="J45" s="32"/>
@@ -36542,14 +36522,14 @@
       </c>
     </row>
     <row r="46" spans="2:20" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="95"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="97"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="98"/>
-      <c r="H46" s="99"/>
-      <c r="I46" s="96"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="106"/>
       <c r="J46" s="32"/>
       <c r="K46" s="40" t="s">
         <v>300</v>
@@ -36579,14 +36559,14 @@
       </c>
     </row>
     <row r="47" spans="2:20" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="95"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="97"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="98"/>
-      <c r="H47" s="99"/>
-      <c r="I47" s="96"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="106"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="106"/>
       <c r="J47" s="32"/>
       <c r="K47" s="40" t="s">
         <v>306</v>
@@ -36672,24 +36652,24 @@
       </c>
     </row>
     <row r="50" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B50" s="95" t="s">
+      <c r="B50" s="96" t="s">
         <v>353</v>
       </c>
-      <c r="C50" s="96" t="s">
+      <c r="C50" s="106" t="s">
         <v>352</v>
       </c>
-      <c r="D50" s="96" t="s">
+      <c r="D50" s="106" t="s">
         <v>352</v>
       </c>
-      <c r="E50" s="97"/>
-      <c r="F50" s="96" t="s">
+      <c r="E50" s="107"/>
+      <c r="F50" s="106" t="s">
         <v>336</v>
       </c>
-      <c r="G50" s="98" t="s">
+      <c r="G50" s="108" t="s">
         <v>402</v>
       </c>
-      <c r="H50" s="99"/>
-      <c r="I50" s="96" t="s">
+      <c r="H50" s="105"/>
+      <c r="I50" s="106" t="s">
         <v>343</v>
       </c>
       <c r="J50" s="32"/>
@@ -36723,14 +36703,14 @@
       </c>
     </row>
     <row r="51" spans="2:20" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="95"/>
-      <c r="C51" s="96"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="97"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="97"/>
-      <c r="H51" s="99"/>
-      <c r="I51" s="96"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="106"/>
+      <c r="G51" s="107"/>
+      <c r="H51" s="105"/>
+      <c r="I51" s="106"/>
       <c r="J51" s="32"/>
       <c r="K51" s="40" t="s">
         <v>300</v>
@@ -36760,14 +36740,14 @@
       </c>
     </row>
     <row r="52" spans="2:20" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="95"/>
-      <c r="C52" s="96"/>
-      <c r="D52" s="96"/>
-      <c r="E52" s="97"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="97"/>
-      <c r="H52" s="99"/>
-      <c r="I52" s="96"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="107"/>
+      <c r="F52" s="106"/>
+      <c r="G52" s="107"/>
+      <c r="H52" s="105"/>
+      <c r="I52" s="106"/>
       <c r="J52" s="32"/>
       <c r="K52" s="40" t="s">
         <v>306</v>
@@ -36853,24 +36833,24 @@
       </c>
     </row>
     <row r="55" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B55" s="95" t="s">
+      <c r="B55" s="96" t="s">
         <v>506</v>
       </c>
-      <c r="C55" s="96" t="s">
+      <c r="C55" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="96" t="s">
+      <c r="D55" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="97"/>
-      <c r="F55" s="96" t="s">
+      <c r="E55" s="107"/>
+      <c r="F55" s="106" t="s">
         <v>356</v>
       </c>
-      <c r="G55" s="98" t="s">
+      <c r="G55" s="108" t="s">
         <v>359</v>
       </c>
-      <c r="H55" s="99"/>
-      <c r="I55" s="96" t="s">
+      <c r="H55" s="105"/>
+      <c r="I55" s="106" t="s">
         <v>343</v>
       </c>
       <c r="J55" s="32"/>
@@ -36904,14 +36884,14 @@
       </c>
     </row>
     <row r="56" spans="2:20" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="95"/>
-      <c r="C56" s="96"/>
-      <c r="D56" s="96"/>
-      <c r="E56" s="97"/>
-      <c r="F56" s="96"/>
-      <c r="G56" s="98"/>
-      <c r="H56" s="99"/>
-      <c r="I56" s="96"/>
+      <c r="B56" s="96"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="107"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="108"/>
+      <c r="H56" s="105"/>
+      <c r="I56" s="106"/>
       <c r="J56" s="32"/>
       <c r="K56" s="40" t="s">
         <v>300</v>
@@ -36941,14 +36921,14 @@
       </c>
     </row>
     <row r="57" spans="2:20" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="95"/>
-      <c r="C57" s="96"/>
-      <c r="D57" s="96"/>
-      <c r="E57" s="97"/>
-      <c r="F57" s="96"/>
-      <c r="G57" s="98"/>
-      <c r="H57" s="99"/>
-      <c r="I57" s="96"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="106"/>
+      <c r="G57" s="108"/>
+      <c r="H57" s="105"/>
+      <c r="I57" s="106"/>
       <c r="J57" s="32"/>
       <c r="K57" s="40" t="s">
         <v>306</v>
@@ -37034,24 +37014,24 @@
       </c>
     </row>
     <row r="60" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B60" s="95" t="s">
+      <c r="B60" s="96" t="s">
         <v>357</v>
       </c>
-      <c r="C60" s="96" t="s">
+      <c r="C60" s="106" t="s">
         <v>358</v>
       </c>
-      <c r="D60" s="96" t="s">
+      <c r="D60" s="106" t="s">
         <v>358</v>
       </c>
-      <c r="E60" s="97"/>
-      <c r="F60" s="96" t="s">
+      <c r="E60" s="107"/>
+      <c r="F60" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="G60" s="98" t="s">
+      <c r="G60" s="108" t="s">
         <v>402</v>
       </c>
-      <c r="H60" s="99"/>
-      <c r="I60" s="96" t="s">
+      <c r="H60" s="105"/>
+      <c r="I60" s="106" t="s">
         <v>343</v>
       </c>
       <c r="J60" s="32"/>
@@ -37085,14 +37065,14 @@
       </c>
     </row>
     <row r="61" spans="2:20" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="95"/>
-      <c r="C61" s="96"/>
-      <c r="D61" s="96"/>
-      <c r="E61" s="97"/>
-      <c r="F61" s="96"/>
-      <c r="G61" s="97"/>
-      <c r="H61" s="99"/>
-      <c r="I61" s="96"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="106"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="106"/>
+      <c r="G61" s="107"/>
+      <c r="H61" s="105"/>
+      <c r="I61" s="106"/>
       <c r="J61" s="32"/>
       <c r="K61" s="40" t="s">
         <v>300</v>
@@ -37122,14 +37102,14 @@
       </c>
     </row>
     <row r="62" spans="2:20" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="95"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="96"/>
-      <c r="E62" s="97"/>
-      <c r="F62" s="96"/>
-      <c r="G62" s="97"/>
-      <c r="H62" s="99"/>
-      <c r="I62" s="96"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="106"/>
+      <c r="D62" s="106"/>
+      <c r="E62" s="107"/>
+      <c r="F62" s="106"/>
+      <c r="G62" s="107"/>
+      <c r="H62" s="105"/>
+      <c r="I62" s="106"/>
       <c r="J62" s="32"/>
       <c r="K62" s="40" t="s">
         <v>306</v>
@@ -37185,10 +37165,10 @@
       <c r="J64" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="K64" s="100" t="s">
+      <c r="K64" s="97" t="s">
         <v>285</v>
       </c>
-      <c r="L64" s="100"/>
+      <c r="L64" s="97"/>
       <c r="M64" s="44" t="s">
         <v>346</v>
       </c>
@@ -37215,24 +37195,24 @@
       </c>
     </row>
     <row r="65" spans="2:20" s="56" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B65" s="101" t="s">
+      <c r="B65" s="102" t="s">
         <v>360</v>
       </c>
-      <c r="C65" s="102" t="s">
+      <c r="C65" s="101" t="s">
         <v>358</v>
       </c>
-      <c r="D65" s="102" t="s">
+      <c r="D65" s="101" t="s">
         <v>358</v>
       </c>
       <c r="E65" s="103"/>
-      <c r="F65" s="102" t="s">
+      <c r="F65" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="G65" s="104" t="s">
+      <c r="G65" s="109" t="s">
         <v>402</v>
       </c>
-      <c r="H65" s="105"/>
-      <c r="I65" s="102" t="s">
+      <c r="H65" s="104"/>
+      <c r="I65" s="101" t="s">
         <v>343</v>
       </c>
       <c r="J65" s="48"/>
@@ -37242,7 +37222,7 @@
       <c r="L65" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="M65" s="100" t="s">
+      <c r="M65" s="97" t="s">
         <v>295</v>
       </c>
       <c r="N65" s="44" t="s">
@@ -37266,14 +37246,14 @@
       </c>
     </row>
     <row r="66" spans="2:20" s="56" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="101"/>
-      <c r="C66" s="102"/>
-      <c r="D66" s="102"/>
+      <c r="B66" s="102"/>
+      <c r="C66" s="101"/>
+      <c r="D66" s="101"/>
       <c r="E66" s="103"/>
-      <c r="F66" s="102"/>
+      <c r="F66" s="101"/>
       <c r="G66" s="103"/>
-      <c r="H66" s="105"/>
-      <c r="I66" s="102"/>
+      <c r="H66" s="104"/>
+      <c r="I66" s="101"/>
       <c r="J66" s="48"/>
       <c r="K66" s="49" t="s">
         <v>300</v>
@@ -37281,7 +37261,7 @@
       <c r="L66" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="M66" s="100"/>
+      <c r="M66" s="97"/>
       <c r="N66" s="44" t="s">
         <v>82</v>
       </c>
@@ -37303,14 +37283,14 @@
       </c>
     </row>
     <row r="67" spans="2:20" s="56" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="101"/>
-      <c r="C67" s="102"/>
-      <c r="D67" s="102"/>
+      <c r="B67" s="102"/>
+      <c r="C67" s="101"/>
+      <c r="D67" s="101"/>
       <c r="E67" s="103"/>
-      <c r="F67" s="102"/>
+      <c r="F67" s="101"/>
       <c r="G67" s="103"/>
-      <c r="H67" s="105"/>
-      <c r="I67" s="102"/>
+      <c r="H67" s="104"/>
+      <c r="I67" s="101"/>
       <c r="J67" s="48"/>
       <c r="K67" s="49" t="s">
         <v>306</v>
@@ -37396,24 +37376,24 @@
       </c>
     </row>
     <row r="70" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B70" s="95" t="s">
+      <c r="B70" s="96" t="s">
         <v>361</v>
       </c>
-      <c r="C70" s="96" t="s">
+      <c r="C70" s="106" t="s">
         <v>154</v>
       </c>
-      <c r="D70" s="96" t="s">
+      <c r="D70" s="106" t="s">
         <v>154</v>
       </c>
-      <c r="E70" s="97"/>
-      <c r="F70" s="96" t="s">
+      <c r="E70" s="107"/>
+      <c r="F70" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="G70" s="98" t="s">
+      <c r="G70" s="108" t="s">
         <v>334</v>
       </c>
-      <c r="H70" s="99"/>
-      <c r="I70" s="96" t="s">
+      <c r="H70" s="105"/>
+      <c r="I70" s="106" t="s">
         <v>343</v>
       </c>
       <c r="J70" s="32"/>
@@ -37447,14 +37427,14 @@
       </c>
     </row>
     <row r="71" spans="2:20" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="95"/>
-      <c r="C71" s="96"/>
-      <c r="D71" s="96"/>
-      <c r="E71" s="97"/>
-      <c r="F71" s="96"/>
-      <c r="G71" s="98"/>
-      <c r="H71" s="99"/>
-      <c r="I71" s="96"/>
+      <c r="B71" s="96"/>
+      <c r="C71" s="106"/>
+      <c r="D71" s="106"/>
+      <c r="E71" s="107"/>
+      <c r="F71" s="106"/>
+      <c r="G71" s="108"/>
+      <c r="H71" s="105"/>
+      <c r="I71" s="106"/>
       <c r="J71" s="32"/>
       <c r="K71" s="40" t="s">
         <v>300</v>
@@ -37484,14 +37464,14 @@
       </c>
     </row>
     <row r="72" spans="2:20" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="95"/>
-      <c r="C72" s="96"/>
-      <c r="D72" s="96"/>
-      <c r="E72" s="97"/>
-      <c r="F72" s="96"/>
-      <c r="G72" s="98"/>
-      <c r="H72" s="99"/>
-      <c r="I72" s="96"/>
+      <c r="B72" s="96"/>
+      <c r="C72" s="106"/>
+      <c r="D72" s="106"/>
+      <c r="E72" s="107"/>
+      <c r="F72" s="106"/>
+      <c r="G72" s="108"/>
+      <c r="H72" s="105"/>
+      <c r="I72" s="106"/>
       <c r="J72" s="32"/>
       <c r="K72" s="40" t="s">
         <v>306</v>
@@ -37547,10 +37527,10 @@
       <c r="J74" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="K74" s="100" t="s">
+      <c r="K74" s="97" t="s">
         <v>285</v>
       </c>
-      <c r="L74" s="100"/>
+      <c r="L74" s="97"/>
       <c r="M74" s="44" t="s">
         <v>346</v>
       </c>
@@ -37577,24 +37557,24 @@
       </c>
     </row>
     <row r="75" spans="2:20" s="56" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B75" s="101" t="s">
+      <c r="B75" s="102" t="s">
         <v>362</v>
       </c>
-      <c r="C75" s="102" t="s">
+      <c r="C75" s="101" t="s">
         <v>154</v>
       </c>
-      <c r="D75" s="102" t="s">
+      <c r="D75" s="101" t="s">
         <v>154</v>
       </c>
       <c r="E75" s="103"/>
-      <c r="F75" s="102" t="s">
+      <c r="F75" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="G75" s="104" t="s">
+      <c r="G75" s="109" t="s">
         <v>334</v>
       </c>
-      <c r="H75" s="105"/>
-      <c r="I75" s="102" t="s">
+      <c r="H75" s="104"/>
+      <c r="I75" s="101" t="s">
         <v>343</v>
       </c>
       <c r="J75" s="48"/>
@@ -37604,7 +37584,7 @@
       <c r="L75" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="M75" s="100" t="s">
+      <c r="M75" s="97" t="s">
         <v>295</v>
       </c>
       <c r="N75" s="44" t="s">
@@ -37628,14 +37608,14 @@
       </c>
     </row>
     <row r="76" spans="2:20" s="56" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="101"/>
-      <c r="C76" s="102"/>
-      <c r="D76" s="102"/>
+      <c r="B76" s="102"/>
+      <c r="C76" s="101"/>
+      <c r="D76" s="101"/>
       <c r="E76" s="103"/>
-      <c r="F76" s="102"/>
-      <c r="G76" s="104"/>
-      <c r="H76" s="105"/>
-      <c r="I76" s="102"/>
+      <c r="F76" s="101"/>
+      <c r="G76" s="109"/>
+      <c r="H76" s="104"/>
+      <c r="I76" s="101"/>
       <c r="J76" s="48"/>
       <c r="K76" s="49" t="s">
         <v>300</v>
@@ -37643,7 +37623,7 @@
       <c r="L76" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="M76" s="100"/>
+      <c r="M76" s="97"/>
       <c r="N76" s="44" t="s">
         <v>82</v>
       </c>
@@ -37665,14 +37645,14 @@
       </c>
     </row>
     <row r="77" spans="2:20" s="56" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="101"/>
-      <c r="C77" s="102"/>
-      <c r="D77" s="102"/>
+      <c r="B77" s="102"/>
+      <c r="C77" s="101"/>
+      <c r="D77" s="101"/>
       <c r="E77" s="103"/>
-      <c r="F77" s="102"/>
-      <c r="G77" s="104"/>
-      <c r="H77" s="105"/>
-      <c r="I77" s="102"/>
+      <c r="F77" s="101"/>
+      <c r="G77" s="109"/>
+      <c r="H77" s="104"/>
+      <c r="I77" s="101"/>
       <c r="J77" s="48"/>
       <c r="K77" s="49" t="s">
         <v>306</v>
@@ -37758,24 +37738,24 @@
       </c>
     </row>
     <row r="80" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B80" s="95" t="s">
+      <c r="B80" s="96" t="s">
         <v>507</v>
       </c>
-      <c r="C80" s="96" t="s">
+      <c r="C80" s="106" t="s">
         <v>129</v>
       </c>
-      <c r="D80" s="96" t="s">
+      <c r="D80" s="106" t="s">
         <v>129</v>
       </c>
-      <c r="E80" s="97"/>
-      <c r="F80" s="96" t="s">
+      <c r="E80" s="107"/>
+      <c r="F80" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="G80" s="98" t="s">
+      <c r="G80" s="108" t="s">
         <v>403</v>
       </c>
-      <c r="H80" s="99"/>
-      <c r="I80" s="96" t="s">
+      <c r="H80" s="105"/>
+      <c r="I80" s="106" t="s">
         <v>343</v>
       </c>
       <c r="J80" s="32"/>
@@ -37809,14 +37789,14 @@
       </c>
     </row>
     <row r="81" spans="2:20" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="95"/>
-      <c r="C81" s="96"/>
-      <c r="D81" s="96"/>
-      <c r="E81" s="97"/>
-      <c r="F81" s="96"/>
-      <c r="G81" s="98"/>
-      <c r="H81" s="99"/>
-      <c r="I81" s="96"/>
+      <c r="B81" s="96"/>
+      <c r="C81" s="106"/>
+      <c r="D81" s="106"/>
+      <c r="E81" s="107"/>
+      <c r="F81" s="106"/>
+      <c r="G81" s="108"/>
+      <c r="H81" s="105"/>
+      <c r="I81" s="106"/>
       <c r="J81" s="32"/>
       <c r="K81" s="40" t="s">
         <v>300</v>
@@ -37846,14 +37826,14 @@
       </c>
     </row>
     <row r="82" spans="2:20" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="95"/>
-      <c r="C82" s="96"/>
-      <c r="D82" s="96"/>
-      <c r="E82" s="97"/>
-      <c r="F82" s="96"/>
-      <c r="G82" s="98"/>
-      <c r="H82" s="99"/>
-      <c r="I82" s="96"/>
+      <c r="B82" s="96"/>
+      <c r="C82" s="106"/>
+      <c r="D82" s="106"/>
+      <c r="E82" s="107"/>
+      <c r="F82" s="106"/>
+      <c r="G82" s="108"/>
+      <c r="H82" s="105"/>
+      <c r="I82" s="106"/>
       <c r="J82" s="32"/>
       <c r="K82" s="40" t="s">
         <v>306</v>
@@ -37939,24 +37919,24 @@
       </c>
     </row>
     <row r="85" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B85" s="95" t="s">
+      <c r="B85" s="96" t="s">
         <v>508</v>
       </c>
-      <c r="C85" s="96" t="s">
+      <c r="C85" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="D85" s="96" t="s">
+      <c r="D85" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="E85" s="97"/>
-      <c r="F85" s="96" t="s">
+      <c r="E85" s="107"/>
+      <c r="F85" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="G85" s="98" t="s">
+      <c r="G85" s="108" t="s">
         <v>334</v>
       </c>
-      <c r="H85" s="99"/>
-      <c r="I85" s="96" t="s">
+      <c r="H85" s="105"/>
+      <c r="I85" s="106" t="s">
         <v>343</v>
       </c>
       <c r="J85" s="32"/>
@@ -37990,14 +37970,14 @@
       </c>
     </row>
     <row r="86" spans="2:20" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="95"/>
-      <c r="C86" s="96"/>
-      <c r="D86" s="96"/>
-      <c r="E86" s="97"/>
-      <c r="F86" s="96"/>
-      <c r="G86" s="98"/>
-      <c r="H86" s="99"/>
-      <c r="I86" s="96"/>
+      <c r="B86" s="96"/>
+      <c r="C86" s="106"/>
+      <c r="D86" s="106"/>
+      <c r="E86" s="107"/>
+      <c r="F86" s="106"/>
+      <c r="G86" s="108"/>
+      <c r="H86" s="105"/>
+      <c r="I86" s="106"/>
       <c r="J86" s="32"/>
       <c r="K86" s="40" t="s">
         <v>300</v>
@@ -38027,14 +38007,14 @@
       </c>
     </row>
     <row r="87" spans="2:20" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="95"/>
-      <c r="C87" s="96"/>
-      <c r="D87" s="96"/>
-      <c r="E87" s="97"/>
-      <c r="F87" s="96"/>
-      <c r="G87" s="98"/>
-      <c r="H87" s="99"/>
-      <c r="I87" s="96"/>
+      <c r="B87" s="96"/>
+      <c r="C87" s="106"/>
+      <c r="D87" s="106"/>
+      <c r="E87" s="107"/>
+      <c r="F87" s="106"/>
+      <c r="G87" s="108"/>
+      <c r="H87" s="105"/>
+      <c r="I87" s="106"/>
       <c r="J87" s="32"/>
       <c r="K87" s="40" t="s">
         <v>306</v>
@@ -38120,24 +38100,24 @@
       </c>
     </row>
     <row r="90" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B90" s="95" t="s">
+      <c r="B90" s="96" t="s">
         <v>442</v>
       </c>
-      <c r="C90" s="96" t="s">
+      <c r="C90" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="D90" s="96" t="s">
+      <c r="D90" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="E90" s="97"/>
-      <c r="F90" s="96" t="s">
+      <c r="E90" s="107"/>
+      <c r="F90" s="106" t="s">
         <v>363</v>
       </c>
-      <c r="G90" s="98" t="s">
+      <c r="G90" s="108" t="s">
         <v>334</v>
       </c>
-      <c r="H90" s="99"/>
-      <c r="I90" s="96" t="s">
+      <c r="H90" s="105"/>
+      <c r="I90" s="106" t="s">
         <v>343</v>
       </c>
       <c r="J90" s="32"/>
@@ -38171,14 +38151,14 @@
       </c>
     </row>
     <row r="91" spans="2:20" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="95"/>
-      <c r="C91" s="96"/>
-      <c r="D91" s="96"/>
-      <c r="E91" s="97"/>
-      <c r="F91" s="96"/>
-      <c r="G91" s="98"/>
-      <c r="H91" s="99"/>
-      <c r="I91" s="96"/>
+      <c r="B91" s="96"/>
+      <c r="C91" s="106"/>
+      <c r="D91" s="106"/>
+      <c r="E91" s="107"/>
+      <c r="F91" s="106"/>
+      <c r="G91" s="108"/>
+      <c r="H91" s="105"/>
+      <c r="I91" s="106"/>
       <c r="J91" s="32"/>
       <c r="K91" s="40" t="s">
         <v>300</v>
@@ -38208,14 +38188,14 @@
       </c>
     </row>
     <row r="92" spans="2:20" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="95"/>
-      <c r="C92" s="96"/>
-      <c r="D92" s="96"/>
-      <c r="E92" s="97"/>
-      <c r="F92" s="96"/>
-      <c r="G92" s="98"/>
-      <c r="H92" s="99"/>
-      <c r="I92" s="96"/>
+      <c r="B92" s="96"/>
+      <c r="C92" s="106"/>
+      <c r="D92" s="106"/>
+      <c r="E92" s="107"/>
+      <c r="F92" s="106"/>
+      <c r="G92" s="108"/>
+      <c r="H92" s="105"/>
+      <c r="I92" s="106"/>
       <c r="J92" s="32"/>
       <c r="K92" s="40" t="s">
         <v>306</v>
@@ -38271,10 +38251,10 @@
       <c r="J94" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="K94" s="100" t="s">
+      <c r="K94" s="97" t="s">
         <v>285</v>
       </c>
-      <c r="L94" s="100"/>
+      <c r="L94" s="97"/>
       <c r="M94" s="44" t="s">
         <v>346</v>
       </c>
@@ -38301,24 +38281,24 @@
       </c>
     </row>
     <row r="95" spans="2:20" s="56" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B95" s="101" t="s">
+      <c r="B95" s="102" t="s">
         <v>837</v>
       </c>
-      <c r="C95" s="102" t="s">
+      <c r="C95" s="101" t="s">
         <v>441</v>
       </c>
-      <c r="D95" s="102" t="s">
+      <c r="D95" s="101" t="s">
         <v>441</v>
       </c>
       <c r="E95" s="103"/>
-      <c r="F95" s="102" t="s">
+      <c r="F95" s="101" t="s">
         <v>354</v>
       </c>
-      <c r="G95" s="104" t="s">
+      <c r="G95" s="109" t="s">
         <v>334</v>
       </c>
-      <c r="H95" s="105"/>
-      <c r="I95" s="102" t="s">
+      <c r="H95" s="104"/>
+      <c r="I95" s="101" t="s">
         <v>343</v>
       </c>
       <c r="J95" s="48"/>
@@ -38328,7 +38308,7 @@
       <c r="L95" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="M95" s="100" t="s">
+      <c r="M95" s="97" t="s">
         <v>295</v>
       </c>
       <c r="N95" s="44" t="s">
@@ -38352,14 +38332,14 @@
       </c>
     </row>
     <row r="96" spans="2:20" s="56" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="101"/>
-      <c r="C96" s="102"/>
-      <c r="D96" s="102"/>
+      <c r="B96" s="102"/>
+      <c r="C96" s="101"/>
+      <c r="D96" s="101"/>
       <c r="E96" s="103"/>
-      <c r="F96" s="102"/>
-      <c r="G96" s="104"/>
-      <c r="H96" s="105"/>
-      <c r="I96" s="102"/>
+      <c r="F96" s="101"/>
+      <c r="G96" s="109"/>
+      <c r="H96" s="104"/>
+      <c r="I96" s="101"/>
       <c r="J96" s="48"/>
       <c r="K96" s="49" t="s">
         <v>300</v>
@@ -38367,7 +38347,7 @@
       <c r="L96" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="M96" s="100"/>
+      <c r="M96" s="97"/>
       <c r="N96" s="44" t="s">
         <v>82</v>
       </c>
@@ -38389,14 +38369,14 @@
       </c>
     </row>
     <row r="97" spans="2:20" s="56" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="101"/>
-      <c r="C97" s="102"/>
-      <c r="D97" s="102"/>
+      <c r="B97" s="102"/>
+      <c r="C97" s="101"/>
+      <c r="D97" s="101"/>
       <c r="E97" s="103"/>
-      <c r="F97" s="102"/>
-      <c r="G97" s="104"/>
-      <c r="H97" s="105"/>
-      <c r="I97" s="102"/>
+      <c r="F97" s="101"/>
+      <c r="G97" s="109"/>
+      <c r="H97" s="104"/>
+      <c r="I97" s="101"/>
       <c r="J97" s="48"/>
       <c r="K97" s="49" t="s">
         <v>306</v>
@@ -38482,24 +38462,24 @@
       </c>
     </row>
     <row r="100" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B100" s="95" t="s">
+      <c r="B100" s="96" t="s">
         <v>509</v>
       </c>
-      <c r="C100" s="96" t="s">
+      <c r="C100" s="106" t="s">
         <v>184</v>
       </c>
-      <c r="D100" s="96" t="s">
+      <c r="D100" s="106" t="s">
         <v>184</v>
       </c>
-      <c r="E100" s="97"/>
-      <c r="F100" s="96" t="s">
+      <c r="E100" s="107"/>
+      <c r="F100" s="106" t="s">
         <v>363</v>
       </c>
-      <c r="G100" s="98" t="s">
+      <c r="G100" s="108" t="s">
         <v>334</v>
       </c>
-      <c r="H100" s="99"/>
-      <c r="I100" s="96" t="s">
+      <c r="H100" s="105"/>
+      <c r="I100" s="106" t="s">
         <v>343</v>
       </c>
       <c r="J100" s="32"/>
@@ -38533,14 +38513,14 @@
       </c>
     </row>
     <row r="101" spans="2:20" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="95"/>
-      <c r="C101" s="96"/>
-      <c r="D101" s="96"/>
-      <c r="E101" s="97"/>
-      <c r="F101" s="96"/>
-      <c r="G101" s="98"/>
-      <c r="H101" s="99"/>
-      <c r="I101" s="96"/>
+      <c r="B101" s="96"/>
+      <c r="C101" s="106"/>
+      <c r="D101" s="106"/>
+      <c r="E101" s="107"/>
+      <c r="F101" s="106"/>
+      <c r="G101" s="108"/>
+      <c r="H101" s="105"/>
+      <c r="I101" s="106"/>
       <c r="J101" s="32"/>
       <c r="K101" s="40" t="s">
         <v>300</v>
@@ -38570,14 +38550,14 @@
       </c>
     </row>
     <row r="102" spans="2:20" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="95"/>
-      <c r="C102" s="96"/>
-      <c r="D102" s="96"/>
-      <c r="E102" s="97"/>
-      <c r="F102" s="96"/>
-      <c r="G102" s="98"/>
-      <c r="H102" s="99"/>
-      <c r="I102" s="96"/>
+      <c r="B102" s="96"/>
+      <c r="C102" s="106"/>
+      <c r="D102" s="106"/>
+      <c r="E102" s="107"/>
+      <c r="F102" s="106"/>
+      <c r="G102" s="108"/>
+      <c r="H102" s="105"/>
+      <c r="I102" s="106"/>
       <c r="J102" s="32"/>
       <c r="K102" s="40" t="s">
         <v>306</v>
@@ -38663,24 +38643,24 @@
       </c>
     </row>
     <row r="105" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B105" s="95" t="s">
+      <c r="B105" s="96" t="s">
         <v>499</v>
       </c>
-      <c r="C105" s="96" t="s">
+      <c r="C105" s="106" t="s">
         <v>189</v>
       </c>
-      <c r="D105" s="96" t="s">
+      <c r="D105" s="106" t="s">
         <v>189</v>
       </c>
-      <c r="E105" s="97"/>
-      <c r="F105" s="96" t="s">
+      <c r="E105" s="107"/>
+      <c r="F105" s="106" t="s">
         <v>180</v>
       </c>
-      <c r="G105" s="98" t="s">
+      <c r="G105" s="108" t="s">
         <v>334</v>
       </c>
-      <c r="H105" s="99"/>
-      <c r="I105" s="96" t="s">
+      <c r="H105" s="105"/>
+      <c r="I105" s="106" t="s">
         <v>343</v>
       </c>
       <c r="J105" s="32"/>
@@ -38714,14 +38694,14 @@
       </c>
     </row>
     <row r="106" spans="2:20" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="95"/>
-      <c r="C106" s="96"/>
-      <c r="D106" s="96"/>
-      <c r="E106" s="97"/>
-      <c r="F106" s="96"/>
-      <c r="G106" s="98"/>
-      <c r="H106" s="99"/>
-      <c r="I106" s="96"/>
+      <c r="B106" s="96"/>
+      <c r="C106" s="106"/>
+      <c r="D106" s="106"/>
+      <c r="E106" s="107"/>
+      <c r="F106" s="106"/>
+      <c r="G106" s="108"/>
+      <c r="H106" s="105"/>
+      <c r="I106" s="106"/>
       <c r="J106" s="32"/>
       <c r="K106" s="40" t="s">
         <v>300</v>
@@ -38751,14 +38731,14 @@
       </c>
     </row>
     <row r="107" spans="2:20" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="95"/>
-      <c r="C107" s="96"/>
-      <c r="D107" s="96"/>
-      <c r="E107" s="97"/>
-      <c r="F107" s="96"/>
-      <c r="G107" s="98"/>
-      <c r="H107" s="99"/>
-      <c r="I107" s="96"/>
+      <c r="B107" s="96"/>
+      <c r="C107" s="106"/>
+      <c r="D107" s="106"/>
+      <c r="E107" s="107"/>
+      <c r="F107" s="106"/>
+      <c r="G107" s="108"/>
+      <c r="H107" s="105"/>
+      <c r="I107" s="106"/>
       <c r="J107" s="32"/>
       <c r="K107" s="40" t="s">
         <v>306</v>
@@ -38844,24 +38824,24 @@
       </c>
     </row>
     <row r="110" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B110" s="95" t="s">
+      <c r="B110" s="96" t="s">
         <v>500</v>
       </c>
-      <c r="C110" s="96" t="s">
+      <c r="C110" s="106" t="s">
         <v>364</v>
       </c>
-      <c r="D110" s="96" t="s">
+      <c r="D110" s="106" t="s">
         <v>364</v>
       </c>
-      <c r="E110" s="97"/>
-      <c r="F110" s="96" t="s">
+      <c r="E110" s="107"/>
+      <c r="F110" s="106" t="s">
         <v>363</v>
       </c>
-      <c r="G110" s="98" t="s">
+      <c r="G110" s="108" t="s">
         <v>334</v>
       </c>
-      <c r="H110" s="99"/>
-      <c r="I110" s="96" t="s">
+      <c r="H110" s="105"/>
+      <c r="I110" s="106" t="s">
         <v>343</v>
       </c>
       <c r="J110" s="32"/>
@@ -38895,14 +38875,14 @@
       </c>
     </row>
     <row r="111" spans="2:20" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="95"/>
-      <c r="C111" s="96"/>
-      <c r="D111" s="96"/>
-      <c r="E111" s="97"/>
-      <c r="F111" s="96"/>
-      <c r="G111" s="98"/>
-      <c r="H111" s="99"/>
-      <c r="I111" s="96"/>
+      <c r="B111" s="96"/>
+      <c r="C111" s="106"/>
+      <c r="D111" s="106"/>
+      <c r="E111" s="107"/>
+      <c r="F111" s="106"/>
+      <c r="G111" s="108"/>
+      <c r="H111" s="105"/>
+      <c r="I111" s="106"/>
       <c r="J111" s="32"/>
       <c r="K111" s="40" t="s">
         <v>300</v>
@@ -38932,14 +38912,14 @@
       </c>
     </row>
     <row r="112" spans="2:20" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="95"/>
-      <c r="C112" s="96"/>
-      <c r="D112" s="96"/>
-      <c r="E112" s="97"/>
-      <c r="F112" s="96"/>
-      <c r="G112" s="98"/>
-      <c r="H112" s="99"/>
-      <c r="I112" s="96"/>
+      <c r="B112" s="96"/>
+      <c r="C112" s="106"/>
+      <c r="D112" s="106"/>
+      <c r="E112" s="107"/>
+      <c r="F112" s="106"/>
+      <c r="G112" s="108"/>
+      <c r="H112" s="105"/>
+      <c r="I112" s="106"/>
       <c r="J112" s="32"/>
       <c r="K112" s="40" t="s">
         <v>306</v>
@@ -39025,24 +39005,24 @@
       </c>
     </row>
     <row r="115" spans="2:20" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B115" s="95" t="s">
+      <c r="B115" s="96" t="s">
         <v>510</v>
       </c>
-      <c r="C115" s="96" t="s">
+      <c r="C115" s="106" t="s">
         <v>365</v>
       </c>
-      <c r="D115" s="96" t="s">
+      <c r="D115" s="106" t="s">
         <v>365</v>
       </c>
-      <c r="E115" s="97"/>
-      <c r="F115" s="96" t="s">
+      <c r="E115" s="107"/>
+      <c r="F115" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="G115" s="98" t="s">
+      <c r="G115" s="108" t="s">
         <v>334</v>
       </c>
-      <c r="H115" s="99"/>
-      <c r="I115" s="96" t="s">
+      <c r="H115" s="105"/>
+      <c r="I115" s="106" t="s">
         <v>343</v>
       </c>
       <c r="J115" s="32"/>
@@ -39076,14 +39056,14 @@
       </c>
     </row>
     <row r="116" spans="2:20" s="39" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="95"/>
-      <c r="C116" s="96"/>
-      <c r="D116" s="96"/>
-      <c r="E116" s="97"/>
-      <c r="F116" s="96"/>
-      <c r="G116" s="98"/>
-      <c r="H116" s="99"/>
-      <c r="I116" s="96"/>
+      <c r="B116" s="96"/>
+      <c r="C116" s="106"/>
+      <c r="D116" s="106"/>
+      <c r="E116" s="107"/>
+      <c r="F116" s="106"/>
+      <c r="G116" s="108"/>
+      <c r="H116" s="105"/>
+      <c r="I116" s="106"/>
       <c r="J116" s="32"/>
       <c r="K116" s="40" t="s">
         <v>300</v>
@@ -39113,14 +39093,14 @@
       </c>
     </row>
     <row r="117" spans="2:20" s="39" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="95"/>
-      <c r="C117" s="96"/>
-      <c r="D117" s="96"/>
-      <c r="E117" s="97"/>
-      <c r="F117" s="96"/>
-      <c r="G117" s="98"/>
-      <c r="H117" s="99"/>
-      <c r="I117" s="96"/>
+      <c r="B117" s="96"/>
+      <c r="C117" s="106"/>
+      <c r="D117" s="106"/>
+      <c r="E117" s="107"/>
+      <c r="F117" s="106"/>
+      <c r="G117" s="108"/>
+      <c r="H117" s="105"/>
+      <c r="I117" s="106"/>
       <c r="J117" s="32"/>
       <c r="K117" s="40" t="s">
         <v>306</v>
@@ -39272,96 +39252,113 @@
     <row r="179" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="221">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="F2:F12"/>
-    <mergeCell ref="E2:E12"/>
-    <mergeCell ref="D2:D12"/>
-    <mergeCell ref="C2:C12"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M2:M11"/>
-    <mergeCell ref="J2:J12"/>
-    <mergeCell ref="I2:I12"/>
-    <mergeCell ref="H2:H12"/>
-    <mergeCell ref="G2:G12"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="M105:M106"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="F110:F112"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="H115:H117"/>
+    <mergeCell ref="I115:I117"/>
+    <mergeCell ref="M115:M116"/>
+    <mergeCell ref="H110:H112"/>
+    <mergeCell ref="I110:I112"/>
+    <mergeCell ref="M110:M111"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="C115:C117"/>
+    <mergeCell ref="D115:D117"/>
+    <mergeCell ref="E115:E117"/>
+    <mergeCell ref="F115:F117"/>
+    <mergeCell ref="G115:G117"/>
+    <mergeCell ref="K104:L104"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="F105:F107"/>
+    <mergeCell ref="G105:G107"/>
+    <mergeCell ref="H105:H107"/>
+    <mergeCell ref="I105:I107"/>
+    <mergeCell ref="M90:M91"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="F100:F102"/>
+    <mergeCell ref="G100:G102"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="I100:I102"/>
+    <mergeCell ref="M100:M101"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="H90:H92"/>
+    <mergeCell ref="I90:I92"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="G80:G82"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="M65:M66"/>
     <mergeCell ref="M50:M51"/>
     <mergeCell ref="K94:L94"/>
     <mergeCell ref="B95:B97"/>
@@ -39386,113 +39383,96 @@
     <mergeCell ref="K59:L59"/>
     <mergeCell ref="B60:B62"/>
     <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="F70:F72"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="H70:H72"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="G80:G82"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="H90:H92"/>
-    <mergeCell ref="I90:I92"/>
-    <mergeCell ref="M90:M91"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="F100:F102"/>
-    <mergeCell ref="G100:G102"/>
-    <mergeCell ref="H100:H102"/>
-    <mergeCell ref="I100:I102"/>
-    <mergeCell ref="M100:M101"/>
-    <mergeCell ref="K104:L104"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="F105:F107"/>
-    <mergeCell ref="G105:G107"/>
-    <mergeCell ref="H105:H107"/>
-    <mergeCell ref="I105:I107"/>
-    <mergeCell ref="M105:M106"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="F110:F112"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="H115:H117"/>
-    <mergeCell ref="I115:I117"/>
-    <mergeCell ref="M115:M116"/>
-    <mergeCell ref="H110:H112"/>
-    <mergeCell ref="I110:I112"/>
-    <mergeCell ref="M110:M111"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="C115:C117"/>
-    <mergeCell ref="D115:D117"/>
-    <mergeCell ref="E115:E117"/>
-    <mergeCell ref="F115:F117"/>
-    <mergeCell ref="G115:G117"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="F2:F12"/>
+    <mergeCell ref="E2:E12"/>
+    <mergeCell ref="D2:D12"/>
+    <mergeCell ref="C2:C12"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M2:M11"/>
+    <mergeCell ref="J2:J12"/>
+    <mergeCell ref="I2:I12"/>
+    <mergeCell ref="H2:H12"/>
+    <mergeCell ref="G2:G12"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gd/副本内容设计/第一、二章怪物分布.xlsx
+++ b/gd/副本内容设计/第一、二章怪物分布.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4003" uniqueCount="1288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4092" uniqueCount="1320">
   <si>
     <t>红</t>
     <phoneticPr fontId="10" type="noConversion"/>
@@ -5607,6 +5607,182 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>bossdajie18Ladong5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点状态变化</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点3在boss使用技能3时切换为正常状态1（显示mesh）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>别摸我，我的壳可是会扎人的！</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss技能4（被动）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先使用技能3，眩晕结束后由状态2变回状态1，重置弱点2血量，弱点3变为冻结状态</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increases attack and healing effects</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>让拉冬头晕目眩</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中特效</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicFireColumnp</t>
+  </si>
+  <si>
+    <t>attackFireCut</t>
+  </si>
+  <si>
+    <t>attackPlantCut</t>
+  </si>
+  <si>
+    <t>magicPlantColumnp</t>
+  </si>
+  <si>
+    <t>magicCureSlight</t>
+  </si>
+  <si>
+    <t>attackEarthCut</t>
+  </si>
+  <si>
+    <r>
+      <t>bd_wulijianmian，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bd_mofajianmian</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackWaterCut</t>
+  </si>
+  <si>
+    <t>magicEarthColumnp</t>
+  </si>
+  <si>
+    <t>commonDebuffAttack</t>
+  </si>
+  <si>
+    <t>commonDebuffMagic</t>
+  </si>
+  <si>
+    <t>attackPlantStab</t>
+  </si>
+  <si>
+    <t>attackPlantStab</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicWaterColumnp</t>
+  </si>
+  <si>
+    <t>commonBuffMagic</t>
+  </si>
+  <si>
+    <r>
+      <t>magicFireBallp，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>magicFireBall</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>——</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>commonBuffDefense</t>
+  </si>
+  <si>
+    <t>attackPlantSmash</t>
+  </si>
+  <si>
+    <t>attackPlantSmash</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>commonBuffSpeed</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>——</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>fashu_dazhao_shui_qungong，fashu_dazhao_shui_zhu</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>magicEarthBallp，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>magicEarthBall</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>commonDebuffDefense</t>
+  </si>
+  <si>
+    <t>attackWaterStab</t>
+  </si>
+  <si>
+    <t>bd_niepan</t>
+  </si>
+  <si>
+    <t>attackPlantSlight</t>
+  </si>
+  <si>
+    <t>commonDebuff</t>
+  </si>
+  <si>
+    <t>commonBuffDefense</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中特效</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>bossxiaoxiang28Muling</t>
     </r>
@@ -5620,38 +5796,6 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossdajie18Ladong5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点状态变化</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点3在boss使用技能3时切换为正常状态1（显示mesh）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>别摸我，我的壳可是会扎人的！</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss技能4（被动）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先使用技能3，眩晕结束后由状态2变回状态1，重置弱点2血量，弱点3变为冻结状态</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increases attack and healing effects</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>让拉冬头晕目眩</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -16140,8 +16284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L313"/>
   <sheetViews>
-    <sheetView topLeftCell="A301" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -19013,8 +19157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U939"/>
   <sheetViews>
-    <sheetView topLeftCell="C903" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I884" sqref="I884"/>
+    <sheetView topLeftCell="C867" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C906" sqref="C906:C907"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -19177,7 +19321,7 @@
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C17" s="10"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -19192,7 +19336,7 @@
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -19204,7 +19348,7 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -19218,7 +19362,7 @@
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -19228,7 +19372,7 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F21" s="8"/>
       <c r="G21" s="8" t="s">
         <v>534</v>
@@ -19246,7 +19390,7 @@
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -19260,7 +19404,7 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -19274,7 +19418,7 @@
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C24" s="1" t="s">
         <v>869</v>
       </c>
@@ -19291,7 +19435,7 @@
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C25" s="10"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -19306,7 +19450,7 @@
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -19318,7 +19462,7 @@
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -19330,7 +19474,7 @@
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -19344,7 +19488,7 @@
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -19356,7 +19500,7 @@
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -19370,7 +19514,7 @@
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
     </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -19382,7 +19526,7 @@
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
     </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -19404,8 +19548,11 @@
       <c r="P32" s="3" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="Q32" s="3" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.15">
       <c r="F33" s="16" t="s">
         <v>545</v>
       </c>
@@ -19429,8 +19576,11 @@
       <c r="P33" s="72" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="Q33" s="1" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.15">
       <c r="F34" s="16" t="s">
         <v>546</v>
       </c>
@@ -19454,8 +19604,11 @@
       <c r="P34" s="70" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="Q34" s="1" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>870</v>
       </c>
@@ -19485,8 +19638,11 @@
       <c r="P35" s="77" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="Q35" s="1" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C36" s="1" t="s">
         <v>872</v>
       </c>
@@ -19499,7 +19655,7 @@
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C37" s="2" t="s">
         <v>878</v>
       </c>
@@ -19510,7 +19666,7 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C38" s="8"/>
       <c r="G38" s="1" t="s">
         <v>556</v>
@@ -19519,7 +19675,7 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.15">
       <c r="G39" s="1" t="s">
         <v>554</v>
       </c>
@@ -19527,7 +19683,7 @@
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B40" s="61"/>
       <c r="G40" s="1" t="s">
         <v>555</v>
@@ -19536,7 +19692,7 @@
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="2:16" ht="33" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:17" ht="33" x14ac:dyDescent="0.15">
       <c r="B41" s="61" t="s">
         <v>873</v>
       </c>
@@ -19547,7 +19703,7 @@
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B42" s="61" t="s">
         <v>874</v>
       </c>
@@ -19555,28 +19711,28 @@
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B43" s="61"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.15">
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.15">
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="2:16" s="47" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:17" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E46" s="47" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.15">
       <c r="F47" s="3" t="s">
         <v>519</v>
       </c>
@@ -19584,7 +19740,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.15">
       <c r="F48" s="16" t="s">
         <v>70</v>
       </c>
@@ -19739,7 +19895,7 @@
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
     </row>
-    <row r="65" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F65" s="8"/>
       <c r="G65" s="8" t="s">
         <v>534</v>
@@ -19757,7 +19913,7 @@
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
     </row>
-    <row r="66" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -19771,7 +19927,7 @@
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
     </row>
-    <row r="67" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
@@ -19785,7 +19941,7 @@
       <c r="L67" s="8"/>
       <c r="M67" s="8"/>
     </row>
-    <row r="68" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
@@ -19799,7 +19955,7 @@
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
     </row>
-    <row r="69" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="69" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
@@ -19813,7 +19969,7 @@
       <c r="L69" s="8"/>
       <c r="M69" s="8"/>
     </row>
-    <row r="70" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="70" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
@@ -19827,7 +19983,7 @@
       <c r="L70" s="8"/>
       <c r="M70" s="8"/>
     </row>
-    <row r="71" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="71" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
@@ -19839,7 +19995,7 @@
       <c r="L71" s="8"/>
       <c r="M71" s="8"/>
     </row>
-    <row r="72" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="72" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
@@ -19851,7 +20007,7 @@
       <c r="L72" s="8"/>
       <c r="M72" s="8"/>
     </row>
-    <row r="73" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="73" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
@@ -19863,7 +20019,7 @@
       <c r="L73" s="8"/>
       <c r="M73" s="8"/>
     </row>
-    <row r="74" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="74" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
@@ -19877,7 +20033,7 @@
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
     </row>
-    <row r="75" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="75" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
@@ -19889,7 +20045,7 @@
       <c r="L75" s="8"/>
       <c r="M75" s="8"/>
     </row>
-    <row r="76" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="76" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
@@ -19911,8 +20067,11 @@
       <c r="P76" s="3" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="77" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="Q76" s="3" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="77" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F77" s="16" t="s">
         <v>830</v>
       </c>
@@ -19936,8 +20095,11 @@
       <c r="P77" s="67" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="78" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="Q77" s="1" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="78" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F78" s="16" t="s">
         <v>573</v>
       </c>
@@ -19961,8 +20123,11 @@
       <c r="P78" s="69" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="79" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="Q78" s="1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="79" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F79" s="16" t="s">
         <v>574</v>
       </c>
@@ -19986,8 +20151,11 @@
       <c r="P79" s="69" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="80" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="Q79" s="1" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="80" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C80" s="1" t="s">
         <v>875</v>
       </c>
@@ -20015,6 +20183,9 @@
       </c>
       <c r="P80" s="1" t="s">
         <v>1102</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>1292</v>
       </c>
     </row>
     <row r="81" spans="3:14" x14ac:dyDescent="0.15">
@@ -20423,7 +20594,7 @@
       </c>
       <c r="K128" s="8"/>
     </row>
-    <row r="129" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="129" spans="6:17" x14ac:dyDescent="0.15">
       <c r="H129" s="8"/>
       <c r="I129" s="8" t="s">
         <v>538</v>
@@ -20433,7 +20604,7 @@
       </c>
       <c r="K129" s="8"/>
     </row>
-    <row r="130" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="130" spans="6:17" x14ac:dyDescent="0.15">
       <c r="H130" s="8"/>
       <c r="I130" s="8" t="s">
         <v>532</v>
@@ -20443,7 +20614,7 @@
       </c>
       <c r="K130" s="8"/>
     </row>
-    <row r="131" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="131" spans="6:17" x14ac:dyDescent="0.15">
       <c r="H131" s="8"/>
       <c r="I131" s="8" t="s">
         <v>1217</v>
@@ -20453,7 +20624,7 @@
       </c>
       <c r="K131" s="8"/>
     </row>
-    <row r="132" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="132" spans="6:17" x14ac:dyDescent="0.15">
       <c r="H132" s="8"/>
       <c r="I132" s="8" t="s">
         <v>954</v>
@@ -20463,7 +20634,7 @@
       </c>
       <c r="K132" s="8"/>
     </row>
-    <row r="133" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="133" spans="6:17" x14ac:dyDescent="0.15">
       <c r="H133" s="8"/>
       <c r="I133" s="8" t="s">
         <v>781</v>
@@ -20471,7 +20642,7 @@
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
     </row>
-    <row r="134" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="134" spans="6:17" x14ac:dyDescent="0.15">
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
       <c r="J134" s="8" t="s">
@@ -20479,7 +20650,7 @@
       </c>
       <c r="K134" s="8"/>
     </row>
-    <row r="135" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="135" spans="6:17" x14ac:dyDescent="0.15">
       <c r="H135" s="8"/>
       <c r="I135" s="8" t="s">
         <v>952</v>
@@ -20487,7 +20658,7 @@
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
     </row>
-    <row r="136" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="136" spans="6:17" x14ac:dyDescent="0.15">
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
       <c r="J136" s="82" t="s">
@@ -20497,7 +20668,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="137" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="137" spans="6:17" x14ac:dyDescent="0.15">
       <c r="H137" s="8"/>
       <c r="I137" s="8" t="s">
         <v>953</v>
@@ -20505,7 +20676,7 @@
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
     </row>
-    <row r="138" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="138" spans="6:17" x14ac:dyDescent="0.15">
       <c r="H138" s="8"/>
       <c r="I138" s="8"/>
       <c r="J138" s="82" t="s">
@@ -20515,7 +20686,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="139" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="139" spans="6:17" x14ac:dyDescent="0.15">
       <c r="N139" s="3" t="s">
         <v>772</v>
       </c>
@@ -20525,8 +20696,11 @@
       <c r="P139" s="3" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="140" spans="6:16" x14ac:dyDescent="0.15">
+      <c r="Q139" s="3" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="140" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F140" s="3" t="s">
         <v>545</v>
       </c>
@@ -20547,8 +20721,11 @@
       <c r="P140" s="67" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="141" spans="6:16" x14ac:dyDescent="0.15">
+      <c r="Q140" s="1" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="141" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F141" s="16" t="s">
         <v>573</v>
       </c>
@@ -20568,8 +20745,11 @@
       <c r="P141" s="67" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="142" spans="6:16" x14ac:dyDescent="0.15">
+      <c r="Q141" s="78" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="142" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F142" s="16" t="s">
         <v>590</v>
       </c>
@@ -20589,8 +20769,11 @@
       <c r="P142" s="67" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="143" spans="6:16" x14ac:dyDescent="0.15">
+      <c r="Q142" s="78" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="143" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F143" s="3" t="s">
         <v>591</v>
       </c>
@@ -20614,8 +20797,11 @@
       <c r="P143" s="69" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="144" spans="6:16" x14ac:dyDescent="0.15">
+      <c r="Q143" s="1" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="144" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F144" s="3" t="s">
         <v>1056</v>
       </c>
@@ -21682,7 +21868,9 @@
       <c r="P220" s="16" t="s">
         <v>1104</v>
       </c>
-      <c r="Q220" s="16"/>
+      <c r="Q220" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="R220" s="8"/>
     </row>
     <row r="221" spans="2:18" x14ac:dyDescent="0.15">
@@ -21709,7 +21897,9 @@
       <c r="P221" s="68" t="s">
         <v>1107</v>
       </c>
-      <c r="Q221" s="16"/>
+      <c r="Q221" s="79" t="s">
+        <v>1296</v>
+      </c>
       <c r="R221" s="8"/>
     </row>
     <row r="222" spans="2:18" x14ac:dyDescent="0.15">
@@ -21736,7 +21926,9 @@
       <c r="P222" s="68" t="s">
         <v>1131</v>
       </c>
-      <c r="Q222" s="16"/>
+      <c r="Q222" s="79" t="s">
+        <v>1297</v>
+      </c>
       <c r="R222" s="8"/>
     </row>
     <row r="223" spans="2:18" x14ac:dyDescent="0.15">
@@ -21763,7 +21955,9 @@
       <c r="P223" s="68" t="s">
         <v>1131</v>
       </c>
-      <c r="Q223" s="16"/>
+      <c r="Q223" s="79" t="s">
+        <v>1297</v>
+      </c>
       <c r="R223" s="8"/>
     </row>
     <row r="224" spans="2:18" x14ac:dyDescent="0.15">
@@ -21795,7 +21989,9 @@
       <c r="P224" s="68" t="s">
         <v>1100</v>
       </c>
-      <c r="Q224" s="16"/>
+      <c r="Q224" s="79" t="s">
+        <v>1293</v>
+      </c>
       <c r="R224" s="8"/>
     </row>
     <row r="225" spans="2:18" x14ac:dyDescent="0.15">
@@ -21825,7 +22021,9 @@
       <c r="P225" s="68" t="s">
         <v>1131</v>
       </c>
-      <c r="Q225" s="16"/>
+      <c r="Q225" s="79" t="s">
+        <v>1298</v>
+      </c>
       <c r="R225" s="8"/>
     </row>
     <row r="226" spans="2:18" x14ac:dyDescent="0.15">
@@ -22750,7 +22948,9 @@
       <c r="P282" s="16" t="s">
         <v>1104</v>
       </c>
-      <c r="Q282" s="8"/>
+      <c r="Q282" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="R282" s="8"/>
     </row>
     <row r="283" spans="6:18" x14ac:dyDescent="0.15">
@@ -22777,7 +22977,9 @@
       <c r="P283" s="68" t="s">
         <v>1089</v>
       </c>
-      <c r="Q283" s="8"/>
+      <c r="Q283" s="79" t="s">
+        <v>1300</v>
+      </c>
       <c r="R283" s="8"/>
     </row>
     <row r="284" spans="6:18" x14ac:dyDescent="0.15">
@@ -22804,7 +23006,9 @@
       <c r="P284" s="68" t="s">
         <v>1100</v>
       </c>
-      <c r="Q284" s="8"/>
+      <c r="Q284" s="79" t="s">
+        <v>1300</v>
+      </c>
       <c r="R284" s="8"/>
     </row>
     <row r="285" spans="6:18" x14ac:dyDescent="0.15">
@@ -22833,7 +23037,9 @@
       <c r="P285" s="68" t="s">
         <v>1089</v>
       </c>
-      <c r="Q285" s="8"/>
+      <c r="Q285" s="8" t="s">
+        <v>1299</v>
+      </c>
       <c r="R285" s="8"/>
     </row>
     <row r="286" spans="6:18" x14ac:dyDescent="0.15">
@@ -22862,7 +23068,9 @@
       <c r="P286" s="68" t="s">
         <v>1089</v>
       </c>
-      <c r="Q286" s="8"/>
+      <c r="Q286" s="8" t="s">
+        <v>1299</v>
+      </c>
       <c r="R286" s="8"/>
     </row>
     <row r="287" spans="6:18" x14ac:dyDescent="0.15">
@@ -23490,7 +23698,9 @@
       <c r="P334" s="16" t="s">
         <v>1104</v>
       </c>
-      <c r="Q334" s="8"/>
+      <c r="Q334" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="R334" s="8"/>
       <c r="S334" s="8"/>
     </row>
@@ -23518,7 +23728,9 @@
       <c r="P335" s="68" t="s">
         <v>1109</v>
       </c>
-      <c r="Q335" s="8"/>
+      <c r="Q335" s="8" t="s">
+        <v>1301</v>
+      </c>
       <c r="R335" s="8"/>
       <c r="S335" s="8"/>
     </row>
@@ -23546,7 +23758,9 @@
       <c r="P336" s="68" t="s">
         <v>1109</v>
       </c>
-      <c r="Q336" s="8"/>
+      <c r="Q336" s="8" t="s">
+        <v>1301</v>
+      </c>
       <c r="R336" s="8"/>
       <c r="S336" s="8"/>
     </row>
@@ -23574,7 +23788,9 @@
       <c r="P337" s="68" t="s">
         <v>1100</v>
       </c>
-      <c r="Q337" s="8"/>
+      <c r="Q337" s="8" t="s">
+        <v>1295</v>
+      </c>
       <c r="R337" s="8"/>
       <c r="S337" s="8"/>
     </row>
@@ -23604,7 +23820,9 @@
       <c r="P338" s="68" t="s">
         <v>1109</v>
       </c>
-      <c r="Q338" s="8"/>
+      <c r="Q338" s="8" t="s">
+        <v>1301</v>
+      </c>
       <c r="R338" s="8"/>
       <c r="S338" s="8"/>
     </row>
@@ -23634,7 +23852,9 @@
       <c r="P339" s="68" t="s">
         <v>1109</v>
       </c>
-      <c r="Q339" s="8"/>
+      <c r="Q339" s="8" t="s">
+        <v>1301</v>
+      </c>
       <c r="R339" s="8"/>
       <c r="S339" s="8"/>
     </row>
@@ -24113,7 +24333,7 @@
       <c r="L384" s="8"/>
       <c r="M384" s="8"/>
     </row>
-    <row r="385" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="385" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F385" s="8"/>
       <c r="G385" s="8"/>
       <c r="H385" s="8"/>
@@ -24125,7 +24345,7 @@
       <c r="L385" s="8"/>
       <c r="M385" s="8"/>
     </row>
-    <row r="386" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="386" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F386" s="8"/>
       <c r="G386" s="8"/>
       <c r="H386" s="8"/>
@@ -24143,8 +24363,11 @@
       <c r="P386" s="3" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="387" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="Q386" s="3" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="387" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F387" s="16" t="s">
         <v>545</v>
       </c>
@@ -24168,8 +24391,11 @@
       <c r="P387" s="69" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="388" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="Q387" s="1" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="388" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F388" s="16" t="s">
         <v>573</v>
       </c>
@@ -24189,8 +24415,11 @@
       <c r="P388" s="67" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="389" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="Q388" s="1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="389" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F389" s="16" t="s">
         <v>590</v>
       </c>
@@ -24214,54 +24443,57 @@
       <c r="P389" s="67" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="390" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="Q389" s="1" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="390" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F390" s="3"/>
       <c r="J390" s="8"/>
     </row>
-    <row r="391" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="391" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F391" s="3" t="s">
         <v>547</v>
       </c>
       <c r="J391" s="8"/>
     </row>
-    <row r="392" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="392" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F392" s="3"/>
       <c r="G392" s="1" t="s">
         <v>640</v>
       </c>
       <c r="J392" s="8"/>
     </row>
-    <row r="393" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="393" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F393" s="3"/>
       <c r="H393" s="1" t="s">
         <v>641</v>
       </c>
       <c r="J393" s="8"/>
     </row>
-    <row r="394" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="394" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F394" s="3"/>
       <c r="H394" s="1" t="s">
         <v>642</v>
       </c>
       <c r="J394" s="8"/>
     </row>
-    <row r="395" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="395" spans="3:17" x14ac:dyDescent="0.15">
       <c r="H395" s="1" t="s">
         <v>555</v>
       </c>
       <c r="J395" s="8"/>
     </row>
-    <row r="396" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="396" spans="3:17" x14ac:dyDescent="0.15">
       <c r="H396" s="1" t="s">
         <v>557</v>
       </c>
       <c r="J396" s="8"/>
     </row>
-    <row r="397" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="397" spans="3:17" x14ac:dyDescent="0.15">
       <c r="J397" s="8"/>
     </row>
-    <row r="398" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="398" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C398" s="1" t="s">
         <v>893</v>
       </c>
@@ -24273,7 +24505,7 @@
       <c r="I398" s="8"/>
       <c r="J398" s="8"/>
     </row>
-    <row r="399" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="399" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C399" s="2" t="s">
         <v>894</v>
       </c>
@@ -24283,7 +24515,7 @@
       <c r="I399" s="8"/>
       <c r="J399" s="8"/>
     </row>
-    <row r="400" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="400" spans="3:17" x14ac:dyDescent="0.15">
       <c r="H400" s="1" t="s">
         <v>643</v>
       </c>
@@ -24999,7 +25231,9 @@
       <c r="P446" s="16" t="s">
         <v>1104</v>
       </c>
-      <c r="Q446" s="8"/>
+      <c r="Q446" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="R446" s="8"/>
       <c r="S446" s="8"/>
     </row>
@@ -25030,7 +25264,9 @@
       <c r="P447" s="68" t="s">
         <v>1112</v>
       </c>
-      <c r="Q447" s="8"/>
+      <c r="Q447" s="79" t="s">
+        <v>1303</v>
+      </c>
       <c r="R447" s="8"/>
       <c r="S447" s="8"/>
     </row>
@@ -25059,7 +25295,9 @@
       <c r="P448" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="Q448" s="8"/>
+      <c r="Q448" s="8" t="s">
+        <v>1302</v>
+      </c>
       <c r="R448" s="8"/>
       <c r="S448" s="8"/>
     </row>
@@ -25090,7 +25328,9 @@
       <c r="P449" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="Q449" s="8"/>
+      <c r="Q449" s="79" t="s">
+        <v>1304</v>
+      </c>
       <c r="R449" s="8"/>
       <c r="S449" s="8"/>
     </row>
@@ -25121,7 +25361,9 @@
       <c r="P450" s="68" t="s">
         <v>1112</v>
       </c>
-      <c r="Q450" s="8"/>
+      <c r="Q450" s="8" t="s">
+        <v>1288</v>
+      </c>
       <c r="R450" s="8"/>
       <c r="S450" s="8"/>
     </row>
@@ -25898,7 +26140,9 @@
       <c r="P509" s="16" t="s">
         <v>1104</v>
       </c>
-      <c r="Q509" s="8"/>
+      <c r="Q509" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="R509" s="8"/>
     </row>
     <row r="510" spans="6:18" x14ac:dyDescent="0.15">
@@ -25925,7 +26169,9 @@
       <c r="P510" s="68" t="s">
         <v>1100</v>
       </c>
-      <c r="Q510" s="8"/>
+      <c r="Q510" s="8" t="s">
+        <v>1290</v>
+      </c>
       <c r="R510" s="8"/>
     </row>
     <row r="511" spans="6:18" x14ac:dyDescent="0.15">
@@ -25952,7 +26198,9 @@
       <c r="P511" s="68" t="s">
         <v>1089</v>
       </c>
-      <c r="Q511" s="8"/>
+      <c r="Q511" s="8" t="s">
+        <v>1299</v>
+      </c>
       <c r="R511" s="8"/>
     </row>
     <row r="512" spans="6:18" x14ac:dyDescent="0.15">
@@ -25979,7 +26227,9 @@
       <c r="P512" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="Q512" s="8"/>
+      <c r="Q512" s="8" t="s">
+        <v>1305</v>
+      </c>
       <c r="R512" s="8"/>
     </row>
     <row r="513" spans="2:18" x14ac:dyDescent="0.15">
@@ -26008,7 +26258,9 @@
       <c r="P513" s="68" t="s">
         <v>1100</v>
       </c>
-      <c r="Q513" s="8"/>
+      <c r="Q513" s="8" t="s">
+        <v>1290</v>
+      </c>
       <c r="R513" s="8"/>
     </row>
     <row r="514" spans="2:18" x14ac:dyDescent="0.15">
@@ -26258,7 +26510,7 @@
       <c r="L544" s="8"/>
       <c r="M544" s="8"/>
     </row>
-    <row r="545" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="545" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G545" s="8"/>
       <c r="H545" s="8"/>
       <c r="I545" s="8" t="s">
@@ -26271,7 +26523,7 @@
       <c r="L545" s="8"/>
       <c r="M545" s="8"/>
     </row>
-    <row r="546" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="546" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G546" s="8"/>
       <c r="H546" s="8"/>
       <c r="I546" s="8" t="s">
@@ -26284,7 +26536,7 @@
       <c r="L546" s="8"/>
       <c r="M546" s="8"/>
     </row>
-    <row r="547" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="547" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G547" s="8"/>
       <c r="H547" s="8"/>
       <c r="I547" s="8" t="s">
@@ -26297,7 +26549,7 @@
       <c r="L547" s="8"/>
       <c r="M547" s="8"/>
     </row>
-    <row r="548" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="548" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G548" s="8"/>
       <c r="H548" s="8"/>
       <c r="I548" s="8" t="s">
@@ -26310,7 +26562,7 @@
       <c r="L548" s="8"/>
       <c r="M548" s="8"/>
     </row>
-    <row r="549" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="549" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G549" s="8"/>
       <c r="H549" s="8"/>
       <c r="I549" s="8" t="s">
@@ -26323,7 +26575,7 @@
       <c r="L549" s="8"/>
       <c r="M549" s="8"/>
     </row>
-    <row r="550" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="550" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G550" s="8"/>
       <c r="H550" s="8"/>
       <c r="I550" s="8" t="s">
@@ -26334,7 +26586,7 @@
       <c r="L550" s="8"/>
       <c r="M550" s="8"/>
     </row>
-    <row r="551" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="551" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G551" s="8"/>
       <c r="H551" s="8"/>
       <c r="I551" s="8"/>
@@ -26345,7 +26597,7 @@
       <c r="L551" s="8"/>
       <c r="M551" s="8"/>
     </row>
-    <row r="552" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="552" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G552" s="8"/>
       <c r="H552" s="8"/>
       <c r="I552" s="82" t="s">
@@ -26356,7 +26608,7 @@
       <c r="L552" s="8"/>
       <c r="M552" s="8"/>
     </row>
-    <row r="553" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="553" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G553" s="8"/>
       <c r="H553" s="8"/>
       <c r="I553" s="8"/>
@@ -26369,7 +26621,7 @@
       <c r="L553" s="8"/>
       <c r="M553" s="8"/>
     </row>
-    <row r="554" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="554" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G554" s="8"/>
       <c r="H554" s="8"/>
       <c r="I554" s="8" t="s">
@@ -26380,7 +26632,7 @@
       <c r="L554" s="8"/>
       <c r="M554" s="8"/>
     </row>
-    <row r="555" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="555" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G555" s="8"/>
       <c r="H555" s="8"/>
       <c r="I555" s="8"/>
@@ -26393,7 +26645,7 @@
       <c r="L555" s="8"/>
       <c r="M555" s="8"/>
     </row>
-    <row r="556" spans="6:16" x14ac:dyDescent="0.15">
+    <row r="556" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G556" s="8"/>
       <c r="H556" s="8"/>
       <c r="I556" s="8"/>
@@ -26410,8 +26662,11 @@
       <c r="P556" s="3" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="557" spans="6:16" x14ac:dyDescent="0.15">
+      <c r="Q556" s="3" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="557" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F557" s="3" t="s">
         <v>545</v>
       </c>
@@ -26435,8 +26690,11 @@
       <c r="P557" s="67" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="558" spans="6:16" x14ac:dyDescent="0.15">
+      <c r="Q557" s="1" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="558" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F558" s="16" t="s">
         <v>573</v>
       </c>
@@ -26460,8 +26718,11 @@
       <c r="P558" s="67" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="559" spans="6:16" x14ac:dyDescent="0.15">
+      <c r="Q558" s="78" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="559" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F559" s="16" t="s">
         <v>590</v>
       </c>
@@ -26480,8 +26741,11 @@
       <c r="P559" s="67" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="560" spans="6:16" x14ac:dyDescent="0.15">
+      <c r="Q559" s="78" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="560" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F560" s="16" t="s">
         <v>674</v>
       </c>
@@ -26504,6 +26768,9 @@
       </c>
       <c r="P560" s="69" t="s">
         <v>1117</v>
+      </c>
+      <c r="Q560" s="1" t="s">
+        <v>1299</v>
       </c>
     </row>
     <row r="561" spans="6:10" x14ac:dyDescent="0.15">
@@ -27454,7 +27721,9 @@
       <c r="P625" s="16" t="s">
         <v>1104</v>
       </c>
-      <c r="Q625" s="8"/>
+      <c r="Q625" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="R625" s="8"/>
     </row>
     <row r="626" spans="3:18" x14ac:dyDescent="0.15">
@@ -27484,7 +27753,9 @@
       <c r="P626" s="68" t="s">
         <v>1109</v>
       </c>
-      <c r="Q626" s="8"/>
+      <c r="Q626" s="8" t="s">
+        <v>1301</v>
+      </c>
       <c r="R626" s="8"/>
     </row>
     <row r="627" spans="3:18" x14ac:dyDescent="0.15">
@@ -27511,7 +27782,9 @@
       <c r="P627" s="86" t="s">
         <v>1130</v>
       </c>
-      <c r="Q627" s="8"/>
+      <c r="Q627" s="79" t="s">
+        <v>1309</v>
+      </c>
       <c r="R627" s="8"/>
     </row>
     <row r="628" spans="3:18" x14ac:dyDescent="0.15">
@@ -27540,7 +27813,9 @@
       <c r="P628" s="68" t="s">
         <v>1109</v>
       </c>
-      <c r="Q628" s="8"/>
+      <c r="Q628" s="79" t="s">
+        <v>1310</v>
+      </c>
       <c r="R628" s="8"/>
     </row>
     <row r="629" spans="3:18" x14ac:dyDescent="0.15">
@@ -27569,7 +27844,9 @@
       <c r="P629" s="68" t="s">
         <v>1109</v>
       </c>
-      <c r="Q629" s="8"/>
+      <c r="Q629" s="79" t="s">
+        <v>1310</v>
+      </c>
       <c r="R629" s="8"/>
     </row>
     <row r="630" spans="3:18" x14ac:dyDescent="0.15">
@@ -28301,7 +28578,7 @@
         <v>1206</v>
       </c>
       <c r="K688" s="65" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="L688" s="8"/>
       <c r="M688" s="8"/>
@@ -28342,7 +28619,9 @@
       <c r="P690" s="16" t="s">
         <v>1098</v>
       </c>
-      <c r="Q690" s="8"/>
+      <c r="Q690" s="3" t="s">
+        <v>1287</v>
+      </c>
     </row>
     <row r="691" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F691" s="3" t="s">
@@ -28368,7 +28647,9 @@
       <c r="P691" s="68" t="s">
         <v>1100</v>
       </c>
-      <c r="Q691" s="8"/>
+      <c r="Q691" s="8" t="s">
+        <v>1293</v>
+      </c>
     </row>
     <row r="692" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F692" s="16" t="s">
@@ -28394,7 +28675,9 @@
       <c r="P692" s="84" t="s">
         <v>1125</v>
       </c>
-      <c r="Q692" s="8"/>
+      <c r="Q692" s="79" t="s">
+        <v>1311</v>
+      </c>
     </row>
     <row r="693" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F693" s="16" t="s">
@@ -28420,7 +28703,9 @@
       <c r="P693" s="86" t="s">
         <v>1131</v>
       </c>
-      <c r="Q693" s="8"/>
+      <c r="Q693" s="8" t="s">
+        <v>1312</v>
+      </c>
     </row>
     <row r="694" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F694" s="16" t="s">
@@ -28448,7 +28733,9 @@
       <c r="P694" s="68" t="s">
         <v>1100</v>
       </c>
-      <c r="Q694" s="8"/>
+      <c r="Q694" s="8" t="s">
+        <v>1293</v>
+      </c>
     </row>
     <row r="695" spans="6:17" x14ac:dyDescent="0.15">
       <c r="F695" s="16" t="s">
@@ -28476,7 +28763,9 @@
       <c r="P695" s="68" t="s">
         <v>1100</v>
       </c>
-      <c r="Q695" s="8"/>
+      <c r="Q695" s="8" t="s">
+        <v>1293</v>
+      </c>
     </row>
     <row r="696" spans="6:17" x14ac:dyDescent="0.15">
       <c r="G696" s="8"/>
@@ -29240,7 +29529,9 @@
       <c r="P756" s="16" t="s">
         <v>1098</v>
       </c>
-      <c r="Q756" s="8"/>
+      <c r="Q756" s="3" t="s">
+        <v>1287</v>
+      </c>
     </row>
     <row r="757" spans="1:17" x14ac:dyDescent="0.15">
       <c r="F757" s="16" t="s">
@@ -29266,7 +29557,9 @@
       <c r="P757" s="68" t="s">
         <v>1089</v>
       </c>
-      <c r="Q757" s="8"/>
+      <c r="Q757" s="8" t="s">
+        <v>1313</v>
+      </c>
     </row>
     <row r="758" spans="1:17" x14ac:dyDescent="0.15">
       <c r="F758" s="16" t="s">
@@ -29292,7 +29585,9 @@
       <c r="P758" s="68" t="s">
         <v>1133</v>
       </c>
-      <c r="Q758" s="8"/>
+      <c r="Q758" s="8" t="s">
+        <v>1301</v>
+      </c>
     </row>
     <row r="759" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A759" s="61" t="s">
@@ -29317,7 +29612,9 @@
       <c r="P759" s="68" t="s">
         <v>1140</v>
       </c>
-      <c r="Q759" s="8"/>
+      <c r="Q759" s="8" t="s">
+        <v>1314</v>
+      </c>
     </row>
     <row r="760" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C760" s="1" t="s">
@@ -29346,7 +29643,9 @@
       <c r="P760" s="84" t="s">
         <v>1127</v>
       </c>
-      <c r="Q760" s="8"/>
+      <c r="Q760" s="8" t="s">
+        <v>1292</v>
+      </c>
     </row>
     <row r="761" spans="1:17" x14ac:dyDescent="0.15">
       <c r="F761" s="16" t="s">
@@ -29366,7 +29665,9 @@
       <c r="N761" s="8"/>
       <c r="O761" s="8"/>
       <c r="P761" s="8"/>
-      <c r="Q761" s="8"/>
+      <c r="Q761" s="79" t="s">
+        <v>1309</v>
+      </c>
     </row>
     <row r="762" spans="1:17" x14ac:dyDescent="0.15">
       <c r="F762" s="8"/>
@@ -30242,7 +30543,9 @@
       <c r="P822" s="16" t="s">
         <v>1098</v>
       </c>
-      <c r="Q822" s="8"/>
+      <c r="Q822" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="R822" s="8"/>
     </row>
     <row r="823" spans="6:18" x14ac:dyDescent="0.15">
@@ -30269,7 +30572,9 @@
       <c r="P823" s="68" t="s">
         <v>1100</v>
       </c>
-      <c r="Q823" s="8"/>
+      <c r="Q823" s="8" t="s">
+        <v>1315</v>
+      </c>
       <c r="R823" s="8"/>
     </row>
     <row r="824" spans="6:18" x14ac:dyDescent="0.15">
@@ -30296,7 +30601,9 @@
       <c r="P824" s="87" t="s">
         <v>1134</v>
       </c>
-      <c r="Q824" s="8"/>
+      <c r="Q824" s="8" t="s">
+        <v>1316</v>
+      </c>
       <c r="R824" s="8"/>
     </row>
     <row r="825" spans="6:18" x14ac:dyDescent="0.15">
@@ -30323,7 +30630,9 @@
       <c r="P825" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="Q825" s="8"/>
+      <c r="Q825" s="8" t="s">
+        <v>1302</v>
+      </c>
       <c r="R825" s="8"/>
     </row>
     <row r="826" spans="6:18" x14ac:dyDescent="0.15">
@@ -30352,7 +30661,9 @@
       <c r="P826" s="73" t="s">
         <v>1141</v>
       </c>
-      <c r="Q826" s="8"/>
+      <c r="Q826" s="8" t="s">
+        <v>1290</v>
+      </c>
       <c r="R826" s="8"/>
     </row>
     <row r="827" spans="6:18" x14ac:dyDescent="0.15">
@@ -30984,7 +31295,9 @@
       <c r="P876" s="16" t="s">
         <v>1098</v>
       </c>
-      <c r="Q876" s="8"/>
+      <c r="Q876" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="R876" s="8"/>
     </row>
     <row r="877" spans="6:18" x14ac:dyDescent="0.15">
@@ -31007,7 +31320,9 @@
       </c>
       <c r="O877" s="67"/>
       <c r="P877" s="72"/>
-      <c r="Q877" s="8"/>
+      <c r="Q877" s="1" t="s">
+        <v>1288</v>
+      </c>
       <c r="R877" s="8"/>
     </row>
     <row r="878" spans="6:18" x14ac:dyDescent="0.15">
@@ -31030,7 +31345,9 @@
       </c>
       <c r="O878" s="67"/>
       <c r="P878" s="70"/>
-      <c r="Q878" s="8"/>
+      <c r="Q878" s="1" t="s">
+        <v>1289</v>
+      </c>
       <c r="R878" s="8"/>
     </row>
     <row r="879" spans="6:18" x14ac:dyDescent="0.15">
@@ -31053,7 +31370,9 @@
       </c>
       <c r="O879" s="69"/>
       <c r="P879" s="77"/>
-      <c r="Q879" s="8"/>
+      <c r="Q879" s="1" t="s">
+        <v>1288</v>
+      </c>
       <c r="R879" s="8"/>
     </row>
     <row r="880" spans="6:18" x14ac:dyDescent="0.15">
@@ -31167,7 +31486,7 @@
     <row r="894" spans="6:18" x14ac:dyDescent="0.15">
       <c r="F894" s="3"/>
       <c r="G894" s="78" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="896" spans="6:18" x14ac:dyDescent="0.15">
@@ -31637,7 +31956,9 @@
       <c r="P921" s="16" t="s">
         <v>1098</v>
       </c>
-      <c r="Q921" s="8"/>
+      <c r="Q921" s="3" t="s">
+        <v>1287</v>
+      </c>
       <c r="R921" s="8"/>
     </row>
     <row r="922" spans="6:18" x14ac:dyDescent="0.15">
@@ -31660,7 +31981,9 @@
       </c>
       <c r="O922" s="68"/>
       <c r="P922" s="68"/>
-      <c r="Q922" s="8"/>
+      <c r="Q922" s="1" t="s">
+        <v>1289</v>
+      </c>
       <c r="R922" s="8"/>
     </row>
     <row r="923" spans="6:18" x14ac:dyDescent="0.15">
@@ -31683,7 +32006,9 @@
       </c>
       <c r="O923" s="68"/>
       <c r="P923" s="68"/>
-      <c r="Q923" s="8"/>
+      <c r="Q923" s="79" t="s">
+        <v>1317</v>
+      </c>
       <c r="R923" s="8"/>
     </row>
     <row r="924" spans="6:18" x14ac:dyDescent="0.15">
@@ -31705,12 +32030,14 @@
       </c>
       <c r="O924" s="68"/>
       <c r="P924" s="68"/>
-      <c r="Q924" s="8"/>
+      <c r="Q924" s="1" t="s">
+        <v>1289</v>
+      </c>
       <c r="R924" s="8"/>
     </row>
     <row r="925" spans="6:18" x14ac:dyDescent="0.15">
       <c r="F925" s="16" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="G925" s="79" t="s">
         <v>1260</v>
@@ -31728,7 +32055,9 @@
       </c>
       <c r="O925" s="84"/>
       <c r="P925" s="68"/>
-      <c r="Q925" s="8"/>
+      <c r="Q925" s="1" t="s">
+        <v>1289</v>
+      </c>
       <c r="R925" s="8"/>
     </row>
     <row r="926" spans="6:18" x14ac:dyDescent="0.15">
@@ -31751,7 +32080,9 @@
       </c>
       <c r="O926" s="8"/>
       <c r="P926" s="68"/>
-      <c r="Q926" s="8"/>
+      <c r="Q926" s="78" t="s">
+        <v>1261</v>
+      </c>
       <c r="R926" s="8"/>
     </row>
     <row r="927" spans="6:18" x14ac:dyDescent="0.15">
@@ -31946,8 +32277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T216"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I192" sqref="I192:I193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -31969,7 +32300,7 @@
         <v>519</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
@@ -32234,12 +32565,12 @@
     <row r="32" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F32" s="8"/>
       <c r="G32" s="82" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H32" s="82"/>
       <c r="I32" s="8"/>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D34" s="79" t="s">
         <v>581</v>
       </c>
@@ -32254,7 +32585,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8" t="s">
@@ -32265,7 +32596,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8" t="s">
@@ -32276,7 +32607,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8" t="s">
@@ -32287,7 +32618,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8" t="s">
@@ -32298,7 +32629,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
@@ -32309,7 +32640,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="79" t="s">
@@ -32318,7 +32649,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:10" x14ac:dyDescent="0.15">
       <c r="F41" s="8"/>
       <c r="G41" s="82" t="s">
         <v>1210</v>
@@ -32327,7 +32658,12 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="J44" s="3" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C45" s="3" t="s">
         <v>545</v>
       </c>
@@ -32341,8 +32677,11 @@
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="J45" s="1" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C46" s="3" t="s">
         <v>977</v>
       </c>
@@ -32357,7 +32696,7 @@
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C47" s="3" t="s">
         <v>550</v>
       </c>
@@ -32372,7 +32711,7 @@
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C48" s="3" t="s">
         <v>975</v>
       </c>
@@ -32439,7 +32778,7 @@
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E59" s="78" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -32461,12 +32800,12 @@
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C64" s="3" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D65" s="78" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="89" spans="2:20" s="47" customFormat="1" x14ac:dyDescent="0.15">
@@ -32479,7 +32818,7 @@
         <v>519</v>
       </c>
       <c r="D90" s="78" t="s">
-        <v>1279</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="91" spans="2:20" x14ac:dyDescent="0.15">
@@ -33553,7 +33892,7 @@
       <c r="I176" s="8"/>
       <c r="J176" s="8"/>
     </row>
-    <row r="177" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="177" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
       <c r="F177" s="8" t="s">
@@ -33566,7 +33905,7 @@
       <c r="I177" s="8"/>
       <c r="J177" s="8"/>
     </row>
-    <row r="178" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="178" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D178" s="8"/>
       <c r="E178" s="8"/>
       <c r="F178" s="8" t="s">
@@ -33579,7 +33918,7 @@
       <c r="I178" s="8"/>
       <c r="J178" s="8"/>
     </row>
-    <row r="179" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="179" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
       <c r="F179" s="8" t="s">
@@ -33592,7 +33931,7 @@
       <c r="I179" s="8"/>
       <c r="J179" s="8"/>
     </row>
-    <row r="180" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="180" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
       <c r="F180" s="8" t="s">
@@ -33603,7 +33942,7 @@
       <c r="I180" s="8"/>
       <c r="J180" s="8"/>
     </row>
-    <row r="181" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="181" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D181" s="8"/>
       <c r="E181" s="8"/>
       <c r="F181" s="8"/>
@@ -33614,7 +33953,7 @@
       <c r="I181" s="8"/>
       <c r="J181" s="8"/>
     </row>
-    <row r="182" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="182" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
       <c r="F182" s="8" t="s">
@@ -33627,7 +33966,7 @@
       <c r="I182" s="8"/>
       <c r="J182" s="8"/>
     </row>
-    <row r="183" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="183" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
       <c r="F183" s="82" t="s">
@@ -33638,7 +33977,7 @@
       <c r="I183" s="8"/>
       <c r="J183" s="8"/>
     </row>
-    <row r="184" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="184" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
@@ -33651,7 +33990,7 @@
       <c r="I184" s="8"/>
       <c r="J184" s="8"/>
     </row>
-    <row r="185" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="185" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
       <c r="F185" s="8" t="s">
@@ -33662,7 +34001,7 @@
       <c r="I185" s="8"/>
       <c r="J185" s="8"/>
     </row>
-    <row r="186" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="186" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D186" s="8"/>
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
@@ -33675,7 +34014,7 @@
       <c r="I186" s="8"/>
       <c r="J186" s="8"/>
     </row>
-    <row r="187" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="187" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D187" s="8"/>
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
@@ -33684,7 +34023,7 @@
       <c r="I187" s="8"/>
       <c r="J187" s="8"/>
     </row>
-    <row r="188" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="188" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D188" s="8"/>
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
@@ -33693,7 +34032,7 @@
       <c r="I188" s="8"/>
       <c r="J188" s="8"/>
     </row>
-    <row r="189" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="189" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D189" s="8"/>
       <c r="E189" s="8"/>
       <c r="F189" s="8"/>
@@ -33707,8 +34046,11 @@
       <c r="L189" s="71" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="190" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="M189" s="78" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="190" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C190" s="3" t="s">
         <v>545</v>
       </c>
@@ -33729,8 +34071,11 @@
       <c r="L190" s="71" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="191" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="M190" s="1" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="191" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C191" s="3" t="s">
         <v>977</v>
       </c>
@@ -33751,8 +34096,11 @@
       <c r="L191" s="71" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="192" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="M191" s="1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="192" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C192" s="3" t="s">
         <v>978</v>
       </c>
@@ -33773,8 +34121,11 @@
       <c r="L192" s="71" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="193" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="M192" s="1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="193" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C193" s="3" t="s">
         <v>975</v>
       </c>
@@ -33795,8 +34146,11 @@
       <c r="L193" s="71" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="194" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="M193" s="1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="194" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D194" s="8"/>
       <c r="E194" s="8"/>
       <c r="F194" s="8"/>
@@ -33805,7 +34159,7 @@
       <c r="I194" s="8"/>
       <c r="J194" s="8"/>
     </row>
-    <row r="195" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="195" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C195" s="3" t="s">
         <v>950</v>
       </c>
@@ -33817,7 +34171,7 @@
       <c r="I195" s="8"/>
       <c r="J195" s="8"/>
     </row>
-    <row r="196" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="196" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D196" s="8" t="s">
         <v>961</v>
       </c>
@@ -33828,7 +34182,7 @@
       <c r="I196" s="8"/>
       <c r="J196" s="8"/>
     </row>
-    <row r="197" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="197" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D197" s="8"/>
       <c r="E197" s="8" t="s">
         <v>947</v>
@@ -33839,7 +34193,7 @@
       <c r="I197" s="8"/>
       <c r="J197" s="8"/>
     </row>
-    <row r="198" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="198" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D198" s="8"/>
       <c r="E198" s="8"/>
       <c r="F198" s="8" t="s">
@@ -33850,7 +34204,7 @@
       <c r="I198" s="8"/>
       <c r="J198" s="8"/>
     </row>
-    <row r="199" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="199" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D199" s="8"/>
       <c r="E199" s="8"/>
       <c r="F199" s="8" t="s">
@@ -33861,7 +34215,7 @@
       <c r="I199" s="8"/>
       <c r="J199" s="8"/>
     </row>
-    <row r="200" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="200" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D200" s="8"/>
       <c r="E200" s="8"/>
       <c r="F200" s="8" t="s">
@@ -33872,7 +34226,7 @@
       <c r="I200" s="8"/>
       <c r="J200" s="8"/>
     </row>
-    <row r="201" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="201" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D201" s="8"/>
       <c r="E201" s="8" t="s">
         <v>948</v>
@@ -33883,7 +34237,7 @@
       <c r="I201" s="8"/>
       <c r="J201" s="8"/>
     </row>
-    <row r="202" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="202" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D202" s="8"/>
       <c r="E202" s="8"/>
       <c r="F202" s="8" t="s">
@@ -33894,7 +34248,7 @@
       <c r="I202" s="8"/>
       <c r="J202" s="8"/>
     </row>
-    <row r="203" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="203" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D203" s="8"/>
       <c r="E203" s="8"/>
       <c r="F203" s="8" t="s">
@@ -33905,7 +34259,7 @@
       <c r="I203" s="8"/>
       <c r="J203" s="8"/>
     </row>
-    <row r="204" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="204" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D204" s="8"/>
       <c r="E204" s="8"/>
       <c r="F204" s="8" t="s">
@@ -33916,7 +34270,7 @@
       <c r="I204" s="8"/>
       <c r="J204" s="8"/>
     </row>
-    <row r="205" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="205" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D205" s="8"/>
       <c r="E205" s="8" t="s">
         <v>949</v>
@@ -33927,7 +34281,7 @@
       <c r="I205" s="8"/>
       <c r="J205" s="8"/>
     </row>
-    <row r="206" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="206" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D206" s="8"/>
       <c r="E206" s="8"/>
       <c r="F206" s="8" t="s">
@@ -33938,7 +34292,7 @@
       <c r="I206" s="8"/>
       <c r="J206" s="8"/>
     </row>
-    <row r="207" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="207" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D207" s="8"/>
       <c r="E207" s="8"/>
       <c r="F207" s="8" t="s">
@@ -33949,7 +34303,7 @@
       <c r="I207" s="8"/>
       <c r="J207" s="8"/>
     </row>
-    <row r="208" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="208" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D208" s="8"/>
       <c r="E208" s="8"/>
       <c r="F208" s="8" t="s">

--- a/gd/副本内容设计/第一、二章怪物分布.xlsx
+++ b/gd/副本内容设计/第一、二章怪物分布.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4190" uniqueCount="1355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4190" uniqueCount="1356">
   <si>
     <t>红</t>
     <phoneticPr fontId="10" type="noConversion"/>
@@ -5635,9 +5635,6 @@
   <si>
     <t>冻结（显示mesh）</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss使用技能3时</t>
   </si>
   <si>
     <t>弱点4切换为冻结（不显示mesh）</t>
@@ -6042,6 +6039,26 @@
   </si>
   <si>
     <t>复用chuchang动作，新命名bossbuff</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>boss拥有眩晕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>buff时</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackFireCut(理解为气浪切割与小怪法攻命中不同)</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -6605,6 +6622,9 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6614,37 +6634,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6656,11 +6646,38 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7403,44 +7420,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>466505</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>56802</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10772775" y="3933825"/>
-          <a:ext cx="1761905" cy="2780952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
@@ -7475,7 +7454,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -7761,7 +7740,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -8033,7 +8012,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -8389,8 +8368,8 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>537</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -8402,7 +8381,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="18621374" y="109232700"/>
-          <a:ext cx="4210051" cy="3467100"/>
+          <a:ext cx="3333751" cy="3467100"/>
           <a:chOff x="714374" y="33185100"/>
           <a:chExt cx="2875711" cy="4257676"/>
         </a:xfrm>
@@ -8415,7 +8394,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -8687,7 +8666,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -8820,7 +8799,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -9202,7 +9181,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
           <a:srcRect/>
           <a:stretch>
             <a:fillRect/>
@@ -9606,7 +9585,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
@@ -9975,7 +9954,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -10370,7 +10349,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
@@ -10765,7 +10744,7 @@
               </xdr:cNvPicPr>
             </xdr:nvPicPr>
             <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
               <a:stretch>
                 <a:fillRect/>
               </a:stretch>
@@ -11083,7 +11062,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
@@ -11588,7 +11567,7 @@
               </xdr:cNvPicPr>
             </xdr:nvPicPr>
             <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
               <a:stretch>
                 <a:fillRect/>
               </a:stretch>
@@ -11990,7 +11969,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12278,7 +12257,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -15972,7 +15951,7 @@
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:C15"/>
+      <selection activeCell="C4" sqref="C4:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -15990,11 +15969,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="101" t="s">
         <v>373</v>
       </c>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
     </row>
     <row r="2" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
@@ -16020,19 +15999,19 @@
         <v>36</v>
       </c>
       <c r="C4" s="91" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
       </c>
       <c r="F4" s="92" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G4" s="12">
         <v>3</v>
       </c>
       <c r="H4" s="91" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>53</v>
@@ -16043,13 +16022,13 @@
         <v>37</v>
       </c>
       <c r="C5" s="92" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E5" s="12">
         <v>3</v>
       </c>
       <c r="F5" s="92" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G5" s="12">
         <v>1</v>
@@ -16066,19 +16045,19 @@
         <v>38</v>
       </c>
       <c r="C6" s="92" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E6" s="12">
         <v>1</v>
       </c>
       <c r="F6" s="91" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="G6" s="12">
         <v>1</v>
       </c>
       <c r="H6" s="91" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="7" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
@@ -16086,19 +16065,19 @@
         <v>39</v>
       </c>
       <c r="C7" s="91" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E7" s="12">
         <v>1</v>
       </c>
       <c r="F7" s="92" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G7" s="12">
         <v>1</v>
       </c>
       <c r="H7" s="92" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="8" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
@@ -16106,19 +16085,19 @@
         <v>40</v>
       </c>
       <c r="C8" s="92" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E8" s="12">
         <v>1</v>
       </c>
       <c r="F8" s="92" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="G8" s="12">
         <v>1</v>
       </c>
       <c r="H8" s="92" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>222</v>
@@ -16129,19 +16108,19 @@
         <v>41</v>
       </c>
       <c r="C9" s="92" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E9" s="12">
         <v>2</v>
       </c>
       <c r="F9" s="92" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="G9" s="12">
         <v>1</v>
       </c>
       <c r="H9" s="94" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>221</v>
@@ -16152,19 +16131,19 @@
         <v>42</v>
       </c>
       <c r="C10" s="91" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E10" s="12">
         <v>1</v>
       </c>
       <c r="F10" s="92" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="G10" s="12">
         <v>1</v>
       </c>
       <c r="H10" s="92" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="11" spans="2:10" s="13" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -16172,7 +16151,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="93" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E11" s="13">
         <v>1</v>
@@ -16184,7 +16163,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="95" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="12" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -16192,7 +16171,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12">
@@ -16205,7 +16184,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="96" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>226</v>
@@ -16216,20 +16195,20 @@
         <v>45</v>
       </c>
       <c r="C13" s="92" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="91" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G13" s="12">
         <v>1</v>
       </c>
       <c r="H13" s="92" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
@@ -16250,7 +16229,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="92" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="15" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
@@ -16258,19 +16237,19 @@
         <v>47</v>
       </c>
       <c r="C15" s="92" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
       </c>
       <c r="F15" s="92" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="G15" s="12">
         <v>1</v>
       </c>
       <c r="H15" s="92" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="16" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
@@ -16278,7 +16257,7 @@
         <v>48</v>
       </c>
       <c r="C16" s="92" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -16290,7 +16269,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="92" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
@@ -16298,19 +16277,19 @@
         <v>49</v>
       </c>
       <c r="C17" s="92" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E17" s="12">
         <v>2</v>
       </c>
       <c r="F17" s="92" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="G17" s="12">
         <v>2</v>
       </c>
       <c r="H17" s="92" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>223</v>
@@ -16327,7 +16306,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="92" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="G18" s="12">
         <v>2</v>
@@ -16344,19 +16323,19 @@
         <v>51</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E19" s="13">
         <v>1</v>
       </c>
       <c r="F19" s="97" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="G19" s="13">
         <v>3</v>
       </c>
       <c r="H19" s="93" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>220</v>
@@ -18314,13 +18293,13 @@
     </row>
     <row r="162" spans="3:6" s="77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C162" s="77" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D162" s="16" t="s">
         <v>1317</v>
       </c>
-      <c r="D162" s="16" t="s">
-        <v>1318</v>
-      </c>
       <c r="E162" s="77" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="163" spans="3:6" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -18336,7 +18315,7 @@
         <v>64</v>
       </c>
       <c r="E164" s="77" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="165" spans="3:6" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -18344,7 +18323,7 @@
         <v>66</v>
       </c>
       <c r="E165" s="77" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="166" spans="3:6" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -18352,7 +18331,7 @@
         <v>68</v>
       </c>
       <c r="E166" s="77" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="167" spans="3:6" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -18363,7 +18342,7 @@
         <v>108</v>
       </c>
       <c r="E168" s="77" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="169" spans="3:6" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -18371,7 +18350,7 @@
         <v>72</v>
       </c>
       <c r="E169" s="77" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="170" spans="3:6" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -18387,7 +18366,7 @@
         <v>77</v>
       </c>
       <c r="E171" s="77" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="172" spans="3:6" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -18395,16 +18374,16 @@
         <v>80</v>
       </c>
       <c r="E172" s="77" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="173" spans="3:6" s="77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C173" s="56"/>
       <c r="D173" s="98" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E173" s="99" t="s">
         <v>1326</v>
-      </c>
-      <c r="E173" s="99" t="s">
-        <v>1327</v>
       </c>
       <c r="F173" s="99"/>
     </row>
@@ -18412,20 +18391,20 @@
       <c r="C174" s="56"/>
       <c r="D174" s="99"/>
       <c r="E174" s="99" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F174" s="99"/>
     </row>
     <row r="175" spans="3:6" s="77" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="176" spans="3:6" s="77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C176" s="77" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D176" s="16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E176" s="77" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="177" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -18441,7 +18420,7 @@
         <v>64</v>
       </c>
       <c r="E178" s="77" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="179" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -18457,7 +18436,7 @@
         <v>68</v>
       </c>
       <c r="E180" s="77" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="181" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -18468,7 +18447,7 @@
         <v>108</v>
       </c>
       <c r="E182" s="77" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="183" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -18476,7 +18455,7 @@
         <v>72</v>
       </c>
       <c r="E183" s="77" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="184" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -18487,7 +18466,7 @@
         <v>82</v>
       </c>
       <c r="M184" s="77" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="185" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -18495,7 +18474,7 @@
         <v>77</v>
       </c>
       <c r="E185" s="77" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="186" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -18503,16 +18482,16 @@
         <v>80</v>
       </c>
       <c r="E186" s="77" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="187" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C187" s="56"/>
       <c r="D187" s="98" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E187" s="99" t="s">
         <v>1326</v>
-      </c>
-      <c r="E187" s="99" t="s">
-        <v>1327</v>
       </c>
       <c r="F187" s="99"/>
     </row>
@@ -18520,7 +18499,7 @@
       <c r="C188" s="56"/>
       <c r="D188" s="99"/>
       <c r="E188" s="99" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F188" s="99"/>
     </row>
@@ -19865,13 +19844,13 @@
     </row>
     <row r="343" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C343" s="77" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D343" s="16" t="s">
         <v>1338</v>
       </c>
-      <c r="D343" s="16" t="s">
+      <c r="E343" s="77" t="s">
         <v>1339</v>
-      </c>
-      <c r="E343" s="77" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="344" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -19887,7 +19866,7 @@
         <v>64</v>
       </c>
       <c r="E345" s="77" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="346" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -19903,7 +19882,7 @@
         <v>68</v>
       </c>
       <c r="E347" s="77" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="348" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -19914,7 +19893,7 @@
         <v>108</v>
       </c>
       <c r="E349" s="77" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="350" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -19922,7 +19901,7 @@
         <v>72</v>
       </c>
       <c r="E350" s="77" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="351" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -19938,7 +19917,7 @@
         <v>77</v>
       </c>
       <c r="E352" s="77" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="353" spans="3:6" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -19946,16 +19925,16 @@
         <v>80</v>
       </c>
       <c r="E353" s="77" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="354" spans="3:6" s="77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C354" s="56"/>
       <c r="D354" s="98" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E354" s="99" t="s">
         <v>1326</v>
-      </c>
-      <c r="E354" s="99" t="s">
-        <v>1327</v>
       </c>
       <c r="F354" s="99"/>
     </row>
@@ -19963,7 +19942,7 @@
       <c r="C355" s="56"/>
       <c r="D355" s="99"/>
       <c r="E355" s="99" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F355" s="99"/>
     </row>
@@ -19978,8 +19957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T842"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C491" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N492" sqref="N492"/>
+    <sheetView tabSelected="1" topLeftCell="D33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -20005,7 +19984,7 @@
         <v>486</v>
       </c>
       <c r="G2" s="76" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="3" spans="6:18" x14ac:dyDescent="0.15">
@@ -20568,8 +20547,8 @@
       </c>
       <c r="O36" s="65"/>
       <c r="P36" s="68"/>
-      <c r="Q36" s="1" t="s">
-        <v>1239</v>
+      <c r="Q36" s="76" t="s">
+        <v>1355</v>
       </c>
       <c r="R36" s="8"/>
     </row>
@@ -21250,7 +21229,7 @@
         <v>486</v>
       </c>
       <c r="G96" s="76" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="97" spans="6:18" x14ac:dyDescent="0.15">
@@ -23472,7 +23451,7 @@
         <v>486</v>
       </c>
       <c r="G231" s="76" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="232" spans="2:18" x14ac:dyDescent="0.15">
@@ -24086,7 +24065,7 @@
         <v>486</v>
       </c>
       <c r="G298" s="76" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="299" spans="3:10" x14ac:dyDescent="0.15">
@@ -24605,7 +24584,7 @@
         <v>486</v>
       </c>
       <c r="G346" s="76" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="347" spans="1:18" x14ac:dyDescent="0.15">
@@ -27109,8 +27088,8 @@
       <c r="K508" s="8"/>
       <c r="L508" s="8"/>
       <c r="M508" s="8"/>
-      <c r="N508" s="118" t="s">
-        <v>1353</v>
+      <c r="N508" s="100" t="s">
+        <v>1352</v>
       </c>
       <c r="O508" s="66" t="s">
         <v>1046</v>
@@ -27573,7 +27552,7 @@
       <c r="L553" s="8"/>
       <c r="M553" s="8"/>
       <c r="N553" s="76" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="O553" s="65" t="s">
         <v>1046</v>
@@ -27601,7 +27580,7 @@
       <c r="L554" s="8"/>
       <c r="M554" s="8"/>
       <c r="N554" s="76" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="O554" s="65" t="s">
         <v>1046</v>
@@ -29585,8 +29564,8 @@
       <c r="K689" s="8"/>
       <c r="L689" s="8"/>
       <c r="M689" s="8"/>
-      <c r="N689" s="118" t="s">
-        <v>1354</v>
+      <c r="N689" s="100" t="s">
+        <v>1353</v>
       </c>
       <c r="O689" s="66" t="s">
         <v>1055</v>
@@ -31740,8 +31719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T222"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J180" sqref="J180"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O69" sqref="O69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -31763,7 +31742,7 @@
         <v>486</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
@@ -32310,7 +32289,7 @@
     </row>
     <row r="64" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D64" s="76" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -32318,7 +32297,7 @@
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E65" s="76" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
@@ -32344,44 +32323,44 @@
       </c>
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="D71" s="1" t="s">
-        <v>1279</v>
+      <c r="D71" s="76" t="s">
+        <v>1354</v>
       </c>
     </row>
     <row r="72" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E72" s="76" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="73" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E73" s="76" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E74" s="76" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="75" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D75" s="76" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="76" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D76" s="76"/>
       <c r="E76" s="76" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="77" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E77" s="76" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="78" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E78" s="76" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="95" spans="2:4" s="45" customFormat="1" x14ac:dyDescent="0.15">
@@ -32584,7 +32563,7 @@
       <c r="J115" s="8"/>
     </row>
     <row r="116" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C116" s="101" t="s">
+      <c r="C116" s="102" t="s">
         <v>899</v>
       </c>
       <c r="D116" s="8" t="s">
@@ -32604,7 +32583,7 @@
       <c r="J116" s="8"/>
     </row>
     <row r="117" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C117" s="101"/>
+      <c r="C117" s="102"/>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8" t="s">
@@ -32618,7 +32597,7 @@
       <c r="J117" s="8"/>
     </row>
     <row r="118" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C118" s="101"/>
+      <c r="C118" s="102"/>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8" t="s">
@@ -32632,7 +32611,7 @@
       <c r="J118" s="8"/>
     </row>
     <row r="119" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C119" s="101"/>
+      <c r="C119" s="102"/>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8" t="s">
@@ -32646,7 +32625,7 @@
       <c r="J119" s="8"/>
     </row>
     <row r="120" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C120" s="101"/>
+      <c r="C120" s="102"/>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8" t="s">
@@ -32660,7 +32639,7 @@
       <c r="J120" s="8"/>
     </row>
     <row r="121" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C121" s="101"/>
+      <c r="C121" s="102"/>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8" t="s">
@@ -32672,7 +32651,7 @@
       <c r="J121" s="8"/>
     </row>
     <row r="122" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C122" s="101"/>
+      <c r="C122" s="102"/>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
@@ -32684,7 +32663,7 @@
       <c r="J122" s="8"/>
     </row>
     <row r="123" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C123" s="101"/>
+      <c r="C123" s="102"/>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8" t="s">
@@ -32698,7 +32677,7 @@
       <c r="J123" s="8"/>
     </row>
     <row r="124" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C124" s="101"/>
+      <c r="C124" s="102"/>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8" t="s">
@@ -32710,7 +32689,7 @@
       <c r="J124" s="8"/>
     </row>
     <row r="125" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C125" s="101"/>
+      <c r="C125" s="102"/>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
@@ -32724,7 +32703,7 @@
       <c r="J125" s="8"/>
     </row>
     <row r="126" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C126" s="101"/>
+      <c r="C126" s="102"/>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
@@ -32734,7 +32713,7 @@
       <c r="J126" s="8"/>
     </row>
     <row r="127" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C127" s="101"/>
+      <c r="C127" s="102"/>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
@@ -32744,7 +32723,7 @@
       <c r="J127" s="8"/>
     </row>
     <row r="128" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C128" s="101"/>
+      <c r="C128" s="102"/>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
@@ -32754,7 +32733,7 @@
       <c r="J128" s="8"/>
     </row>
     <row r="129" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C129" s="101"/>
+      <c r="C129" s="102"/>
       <c r="D129" s="8" t="s">
         <v>943</v>
       </c>
@@ -32772,7 +32751,7 @@
       <c r="J129" s="8"/>
     </row>
     <row r="130" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C130" s="101"/>
+      <c r="C130" s="102"/>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8" t="s">
@@ -32786,7 +32765,7 @@
       <c r="J130" s="8"/>
     </row>
     <row r="131" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C131" s="101"/>
+      <c r="C131" s="102"/>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8" t="s">
@@ -32800,7 +32779,7 @@
       <c r="J131" s="8"/>
     </row>
     <row r="132" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C132" s="101"/>
+      <c r="C132" s="102"/>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8" t="s">
@@ -32814,7 +32793,7 @@
       <c r="J132" s="8"/>
     </row>
     <row r="133" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C133" s="101"/>
+      <c r="C133" s="102"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8" t="s">
@@ -32828,7 +32807,7 @@
       <c r="J133" s="8"/>
     </row>
     <row r="134" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C134" s="101"/>
+      <c r="C134" s="102"/>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8" t="s">
@@ -32840,7 +32819,7 @@
       <c r="J134" s="8"/>
     </row>
     <row r="135" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C135" s="101"/>
+      <c r="C135" s="102"/>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
@@ -32852,7 +32831,7 @@
       <c r="J135" s="8"/>
     </row>
     <row r="136" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C136" s="101"/>
+      <c r="C136" s="102"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8" t="s">
@@ -32866,7 +32845,7 @@
       <c r="J136" s="8"/>
     </row>
     <row r="137" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C137" s="101"/>
+      <c r="C137" s="102"/>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8" t="s">
@@ -32878,7 +32857,7 @@
       <c r="J137" s="8"/>
     </row>
     <row r="138" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C138" s="101"/>
+      <c r="C138" s="102"/>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
@@ -32892,7 +32871,7 @@
       <c r="J138" s="8"/>
     </row>
     <row r="139" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C139" s="101"/>
+      <c r="C139" s="102"/>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
@@ -32902,7 +32881,7 @@
       <c r="J139" s="8"/>
     </row>
     <row r="140" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C140" s="101"/>
+      <c r="C140" s="102"/>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
@@ -32912,7 +32891,7 @@
       <c r="J140" s="8"/>
     </row>
     <row r="141" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C141" s="101"/>
+      <c r="C141" s="102"/>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
@@ -32922,7 +32901,7 @@
       <c r="J141" s="8"/>
     </row>
     <row r="142" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C142" s="101"/>
+      <c r="C142" s="102"/>
       <c r="D142" s="8" t="s">
         <v>944</v>
       </c>
@@ -32940,7 +32919,7 @@
       <c r="J142" s="8"/>
     </row>
     <row r="143" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C143" s="101"/>
+      <c r="C143" s="102"/>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8" t="s">
@@ -32954,7 +32933,7 @@
       <c r="J143" s="8"/>
     </row>
     <row r="144" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C144" s="101"/>
+      <c r="C144" s="102"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8" t="s">
@@ -32968,7 +32947,7 @@
       <c r="J144" s="8"/>
     </row>
     <row r="145" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C145" s="101"/>
+      <c r="C145" s="102"/>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8" t="s">
@@ -32982,7 +32961,7 @@
       <c r="J145" s="8"/>
     </row>
     <row r="146" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C146" s="101"/>
+      <c r="C146" s="102"/>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8" t="s">
@@ -32996,7 +32975,7 @@
       <c r="J146" s="8"/>
     </row>
     <row r="147" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C147" s="101"/>
+      <c r="C147" s="102"/>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8" t="s">
@@ -33008,7 +32987,7 @@
       <c r="J147" s="8"/>
     </row>
     <row r="148" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C148" s="101"/>
+      <c r="C148" s="102"/>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
@@ -33020,7 +32999,7 @@
       <c r="J148" s="8"/>
     </row>
     <row r="149" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C149" s="101"/>
+      <c r="C149" s="102"/>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
       <c r="F149" s="8" t="s">
@@ -33034,7 +33013,7 @@
       <c r="J149" s="8"/>
     </row>
     <row r="150" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C150" s="101"/>
+      <c r="C150" s="102"/>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
       <c r="F150" s="8" t="s">
@@ -33046,7 +33025,7 @@
       <c r="J150" s="8"/>
     </row>
     <row r="151" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C151" s="101"/>
+      <c r="C151" s="102"/>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
@@ -36293,10 +36272,10 @@
       <c r="J1" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="K1" s="102" t="s">
+      <c r="K1" s="103" t="s">
         <v>257</v>
       </c>
-      <c r="L1" s="102"/>
+      <c r="L1" s="103"/>
       <c r="M1" s="3" t="s">
         <v>258</v>
       </c>
@@ -36326,31 +36305,31 @@
       <c r="B2" s="104" t="s">
         <v>311</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="102" t="s">
         <v>310</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="101" t="s">
+      <c r="E2" s="115"/>
+      <c r="F2" s="102" t="s">
         <v>309</v>
       </c>
-      <c r="G2" s="101" t="s">
+      <c r="G2" s="102" t="s">
         <v>306</v>
       </c>
-      <c r="H2" s="108"/>
-      <c r="I2" s="107" t="s">
+      <c r="H2" s="118"/>
+      <c r="I2" s="117" t="s">
         <v>314</v>
       </c>
-      <c r="J2" s="101"/>
+      <c r="J2" s="102"/>
       <c r="K2" s="25" t="s">
         <v>265</v>
       </c>
       <c r="L2" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="M2" s="106" t="s">
+      <c r="M2" s="116" t="s">
         <v>267</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -36368,21 +36347,21 @@
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B3" s="104"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="101"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="102"/>
       <c r="K3" s="25" t="s">
         <v>272</v>
       </c>
       <c r="L3" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="M3" s="106"/>
+      <c r="M3" s="116"/>
       <c r="N3" s="3" t="s">
         <v>70</v>
       </c>
@@ -36404,21 +36383,21 @@
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="104"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="102"/>
       <c r="K4" s="25" t="s">
         <v>278</v>
       </c>
       <c r="L4" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="M4" s="106"/>
+      <c r="M4" s="116"/>
       <c r="N4" s="3" t="s">
         <v>72</v>
       </c>
@@ -36440,17 +36419,17 @@
     </row>
     <row r="5" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B5" s="104"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="101"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="102"/>
       <c r="K5" s="28"/>
       <c r="L5" s="26"/>
-      <c r="M5" s="106"/>
+      <c r="M5" s="116"/>
       <c r="N5" s="3" t="s">
         <v>281</v>
       </c>
@@ -36466,17 +36445,17 @@
     </row>
     <row r="6" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B6" s="104"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="101"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="102"/>
       <c r="K6" s="28"/>
       <c r="L6" s="26"/>
-      <c r="M6" s="106"/>
+      <c r="M6" s="116"/>
       <c r="N6" s="3" t="s">
         <v>284</v>
       </c>
@@ -36492,17 +36471,17 @@
     </row>
     <row r="7" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="104"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="101"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="102"/>
       <c r="K7" s="28"/>
       <c r="L7" s="26"/>
-      <c r="M7" s="106"/>
+      <c r="M7" s="116"/>
       <c r="N7" s="3" t="s">
         <v>287</v>
       </c>
@@ -36518,17 +36497,17 @@
     </row>
     <row r="8" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="104"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="102"/>
       <c r="K8" s="28"/>
       <c r="L8" s="26"/>
-      <c r="M8" s="106"/>
+      <c r="M8" s="116"/>
       <c r="N8" s="3" t="s">
         <v>290</v>
       </c>
@@ -36544,17 +36523,17 @@
     </row>
     <row r="9" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="104"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="102"/>
       <c r="K9" s="28"/>
       <c r="L9" s="26"/>
-      <c r="M9" s="106"/>
+      <c r="M9" s="116"/>
       <c r="N9" s="3" t="s">
         <v>293</v>
       </c>
@@ -36573,17 +36552,17 @@
         <v>435</v>
       </c>
       <c r="B10" s="104"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="101"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="102"/>
       <c r="K10" s="28"/>
       <c r="L10" s="26"/>
-      <c r="M10" s="106"/>
+      <c r="M10" s="116"/>
       <c r="N10" s="3" t="s">
         <v>295</v>
       </c>
@@ -36599,17 +36578,17 @@
     </row>
     <row r="11" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="104"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="101"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="102"/>
       <c r="K11" s="28"/>
       <c r="L11" s="26"/>
-      <c r="M11" s="106"/>
+      <c r="M11" s="116"/>
       <c r="N11" s="3" t="s">
         <v>297</v>
       </c>
@@ -36625,14 +36604,14 @@
     </row>
     <row r="12" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B12" s="104"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="101"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="102"/>
       <c r="K12" s="28"/>
       <c r="L12" s="26"/>
       <c r="M12" s="29" t="s">
@@ -36693,10 +36672,10 @@
       <c r="J14" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="K14" s="105" t="s">
+      <c r="K14" s="109" t="s">
         <v>257</v>
       </c>
-      <c r="L14" s="105"/>
+      <c r="L14" s="109"/>
       <c r="M14" s="42" t="s">
         <v>258</v>
       </c>
@@ -36726,20 +36705,20 @@
       <c r="B15" s="110" t="s">
         <v>312</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="111" t="s">
         <v>310</v>
       </c>
-      <c r="D15" s="109" t="s">
+      <c r="D15" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="111"/>
-      <c r="F15" s="109" t="s">
+      <c r="E15" s="112"/>
+      <c r="F15" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="109" t="s">
+      <c r="G15" s="111" t="s">
         <v>306</v>
       </c>
-      <c r="H15" s="112"/>
+      <c r="H15" s="114"/>
       <c r="I15" s="110" t="s">
         <v>140</v>
       </c>
@@ -36750,7 +36729,7 @@
       <c r="L15" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="M15" s="105" t="s">
+      <c r="M15" s="109" t="s">
         <v>267</v>
       </c>
       <c r="N15" s="42" t="s">
@@ -36774,12 +36753,12 @@
     </row>
     <row r="16" spans="1:20" s="45" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B16" s="110"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="112"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="114"/>
       <c r="I16" s="110"/>
       <c r="J16" s="46"/>
       <c r="K16" s="47" t="s">
@@ -36788,7 +36767,7 @@
       <c r="L16" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="M16" s="105"/>
+      <c r="M16" s="109"/>
       <c r="N16" s="42" t="s">
         <v>72</v>
       </c>
@@ -36810,12 +36789,12 @@
     </row>
     <row r="17" spans="2:20" s="45" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="110"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="112"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="114"/>
       <c r="I17" s="110"/>
       <c r="J17" s="46"/>
       <c r="K17" s="47" t="s">
@@ -36869,10 +36848,10 @@
       <c r="J19" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="K19" s="102" t="s">
+      <c r="K19" s="103" t="s">
         <v>257</v>
       </c>
-      <c r="L19" s="102"/>
+      <c r="L19" s="103"/>
       <c r="M19" s="16" t="s">
         <v>258</v>
       </c>
@@ -36902,20 +36881,20 @@
       <c r="B20" s="104" t="s">
         <v>422</v>
       </c>
-      <c r="C20" s="114" t="s">
+      <c r="C20" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="114" t="s">
+      <c r="D20" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="115"/>
-      <c r="F20" s="114" t="s">
+      <c r="E20" s="106"/>
+      <c r="F20" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="G20" s="114" t="s">
+      <c r="G20" s="105" t="s">
         <v>306</v>
       </c>
-      <c r="H20" s="113"/>
+      <c r="H20" s="108"/>
       <c r="I20" s="104" t="s">
         <v>140</v>
       </c>
@@ -36926,7 +36905,7 @@
       <c r="L20" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="M20" s="102" t="s">
+      <c r="M20" s="103" t="s">
         <v>267</v>
       </c>
       <c r="N20" s="16" t="s">
@@ -36951,12 +36930,12 @@
     </row>
     <row r="21" spans="2:20" s="37" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="104"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="113"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="108"/>
       <c r="I21" s="104"/>
       <c r="J21" s="30"/>
       <c r="K21" s="38" t="s">
@@ -36965,7 +36944,7 @@
       <c r="L21" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="M21" s="102"/>
+      <c r="M21" s="103"/>
       <c r="N21" s="16" t="s">
         <v>72</v>
       </c>
@@ -36988,12 +36967,12 @@
     </row>
     <row r="22" spans="2:20" s="37" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="104"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="113"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="108"/>
       <c r="I22" s="104"/>
       <c r="J22" s="30"/>
       <c r="K22" s="38" t="s">
@@ -37050,10 +37029,10 @@
       <c r="J24" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="K24" s="105" t="s">
+      <c r="K24" s="109" t="s">
         <v>257</v>
       </c>
-      <c r="L24" s="105"/>
+      <c r="L24" s="109"/>
       <c r="M24" s="42" t="s">
         <v>258</v>
       </c>
@@ -37083,21 +37062,21 @@
       <c r="B25" s="110" t="s">
         <v>799</v>
       </c>
-      <c r="C25" s="109" t="s">
+      <c r="C25" s="111" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="109" t="s">
+      <c r="D25" s="111" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="111"/>
-      <c r="F25" s="109" t="s">
+      <c r="E25" s="112"/>
+      <c r="F25" s="111" t="s">
         <v>308</v>
       </c>
-      <c r="G25" s="109" t="s">
+      <c r="G25" s="111" t="s">
         <v>306</v>
       </c>
-      <c r="H25" s="112"/>
-      <c r="I25" s="109" t="s">
+      <c r="H25" s="114"/>
+      <c r="I25" s="111" t="s">
         <v>315</v>
       </c>
       <c r="J25" s="46"/>
@@ -37107,7 +37086,7 @@
       <c r="L25" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="M25" s="105" t="s">
+      <c r="M25" s="109" t="s">
         <v>267</v>
       </c>
       <c r="N25" s="42" t="s">
@@ -37132,13 +37111,13 @@
     </row>
     <row r="26" spans="2:20" s="54" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="110"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="109"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="111"/>
       <c r="J26" s="46"/>
       <c r="K26" s="47" t="s">
         <v>272</v>
@@ -37146,7 +37125,7 @@
       <c r="L26" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="M26" s="105"/>
+      <c r="M26" s="109"/>
       <c r="N26" s="42" t="s">
         <v>72</v>
       </c>
@@ -37169,13 +37148,13 @@
     </row>
     <row r="27" spans="2:20" s="54" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="110"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="109"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="111"/>
       <c r="J27" s="46"/>
       <c r="K27" s="47" t="s">
         <v>278</v>
@@ -37231,10 +37210,10 @@
       <c r="J29" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="K29" s="102" t="s">
+      <c r="K29" s="103" t="s">
         <v>257</v>
       </c>
-      <c r="L29" s="102"/>
+      <c r="L29" s="103"/>
       <c r="M29" s="16" t="s">
         <v>258</v>
       </c>
@@ -37264,21 +37243,21 @@
       <c r="B30" s="104" t="s">
         <v>317</v>
       </c>
-      <c r="C30" s="114" t="s">
+      <c r="C30" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="114" t="s">
+      <c r="D30" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="115"/>
-      <c r="F30" s="114" t="s">
+      <c r="E30" s="106"/>
+      <c r="F30" s="105" t="s">
         <v>316</v>
       </c>
-      <c r="G30" s="114" t="s">
+      <c r="G30" s="105" t="s">
         <v>306</v>
       </c>
-      <c r="H30" s="113"/>
-      <c r="I30" s="114" t="s">
+      <c r="H30" s="108"/>
+      <c r="I30" s="105" t="s">
         <v>315</v>
       </c>
       <c r="J30" s="30"/>
@@ -37288,7 +37267,7 @@
       <c r="L30" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="M30" s="102" t="s">
+      <c r="M30" s="103" t="s">
         <v>267</v>
       </c>
       <c r="N30" s="16" t="s">
@@ -37313,13 +37292,13 @@
     </row>
     <row r="31" spans="2:20" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="104"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="114"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="105"/>
       <c r="J31" s="30"/>
       <c r="K31" s="38" t="s">
         <v>272</v>
@@ -37327,7 +37306,7 @@
       <c r="L31" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="M31" s="102"/>
+      <c r="M31" s="103"/>
       <c r="N31" s="16" t="s">
         <v>72</v>
       </c>
@@ -37350,13 +37329,13 @@
     </row>
     <row r="32" spans="2:20" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="104"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="114"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="105"/>
       <c r="J32" s="30"/>
       <c r="K32" s="38" t="s">
         <v>278</v>
@@ -37412,10 +37391,10 @@
       <c r="J34" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="K34" s="105" t="s">
+      <c r="K34" s="109" t="s">
         <v>257</v>
       </c>
-      <c r="L34" s="105"/>
+      <c r="L34" s="109"/>
       <c r="M34" s="42" t="s">
         <v>318</v>
       </c>
@@ -37445,21 +37424,21 @@
       <c r="B35" s="110" t="s">
         <v>798</v>
       </c>
-      <c r="C35" s="109" t="s">
+      <c r="C35" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="109" t="s">
+      <c r="D35" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="111"/>
-      <c r="F35" s="109" t="s">
+      <c r="E35" s="112"/>
+      <c r="F35" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="109" t="s">
+      <c r="G35" s="111" t="s">
         <v>306</v>
       </c>
-      <c r="H35" s="112"/>
-      <c r="I35" s="109" t="s">
+      <c r="H35" s="114"/>
+      <c r="I35" s="111" t="s">
         <v>315</v>
       </c>
       <c r="J35" s="46"/>
@@ -37469,7 +37448,7 @@
       <c r="L35" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="M35" s="105" t="s">
+      <c r="M35" s="109" t="s">
         <v>267</v>
       </c>
       <c r="N35" s="42" t="s">
@@ -37494,13 +37473,13 @@
     </row>
     <row r="36" spans="2:20" s="54" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="110"/>
-      <c r="C36" s="109"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="109"/>
-      <c r="H36" s="112"/>
-      <c r="I36" s="109"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="111"/>
       <c r="J36" s="46"/>
       <c r="K36" s="47" t="s">
         <v>272</v>
@@ -37508,7 +37487,7 @@
       <c r="L36" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="M36" s="105"/>
+      <c r="M36" s="109"/>
       <c r="N36" s="42" t="s">
         <v>72</v>
       </c>
@@ -37531,13 +37510,13 @@
     </row>
     <row r="37" spans="2:20" s="54" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="110"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="109"/>
-      <c r="H37" s="112"/>
-      <c r="I37" s="109"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="111"/>
       <c r="J37" s="46"/>
       <c r="K37" s="47" t="s">
         <v>278</v>
@@ -37593,10 +37572,10 @@
       <c r="J39" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="K39" s="102" t="s">
+      <c r="K39" s="103" t="s">
         <v>257</v>
       </c>
-      <c r="L39" s="102"/>
+      <c r="L39" s="103"/>
       <c r="M39" s="16" t="s">
         <v>318</v>
       </c>
@@ -37626,21 +37605,21 @@
       <c r="B40" s="104" t="s">
         <v>443</v>
       </c>
-      <c r="C40" s="114" t="s">
+      <c r="C40" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="114" t="s">
+      <c r="D40" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="115"/>
-      <c r="F40" s="114" t="s">
+      <c r="E40" s="106"/>
+      <c r="F40" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="G40" s="116" t="s">
+      <c r="G40" s="107" t="s">
         <v>374</v>
       </c>
-      <c r="H40" s="113"/>
-      <c r="I40" s="114" t="s">
+      <c r="H40" s="108"/>
+      <c r="I40" s="105" t="s">
         <v>315</v>
       </c>
       <c r="J40" s="30"/>
@@ -37650,7 +37629,7 @@
       <c r="L40" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="M40" s="102" t="s">
+      <c r="M40" s="103" t="s">
         <v>267</v>
       </c>
       <c r="N40" s="16" t="s">
@@ -37675,13 +37654,13 @@
     </row>
     <row r="41" spans="2:20" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="104"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="115"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="114"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="108"/>
+      <c r="I41" s="105"/>
       <c r="J41" s="30"/>
       <c r="K41" s="38" t="s">
         <v>272</v>
@@ -37689,7 +37668,7 @@
       <c r="L41" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="M41" s="102"/>
+      <c r="M41" s="103"/>
       <c r="N41" s="16" t="s">
         <v>72</v>
       </c>
@@ -37712,13 +37691,13 @@
     </row>
     <row r="42" spans="2:20" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="104"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="114"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="106"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="105"/>
       <c r="J42" s="30"/>
       <c r="K42" s="38" t="s">
         <v>278</v>
@@ -37774,10 +37753,10 @@
       <c r="J44" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="K44" s="102" t="s">
+      <c r="K44" s="103" t="s">
         <v>257</v>
       </c>
-      <c r="L44" s="102"/>
+      <c r="L44" s="103"/>
       <c r="M44" s="16" t="s">
         <v>318</v>
       </c>
@@ -37807,21 +37786,21 @@
       <c r="B45" s="104" t="s">
         <v>446</v>
       </c>
-      <c r="C45" s="114" t="s">
+      <c r="C45" s="105" t="s">
         <v>321</v>
       </c>
-      <c r="D45" s="114" t="s">
+      <c r="D45" s="105" t="s">
         <v>321</v>
       </c>
-      <c r="E45" s="115"/>
-      <c r="F45" s="114" t="s">
+      <c r="E45" s="106"/>
+      <c r="F45" s="105" t="s">
         <v>322</v>
       </c>
-      <c r="G45" s="116" t="s">
+      <c r="G45" s="107" t="s">
         <v>306</v>
       </c>
-      <c r="H45" s="113"/>
-      <c r="I45" s="114" t="s">
+      <c r="H45" s="108"/>
+      <c r="I45" s="105" t="s">
         <v>315</v>
       </c>
       <c r="J45" s="30"/>
@@ -37831,7 +37810,7 @@
       <c r="L45" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="M45" s="102" t="s">
+      <c r="M45" s="103" t="s">
         <v>267</v>
       </c>
       <c r="N45" s="16" t="s">
@@ -37856,13 +37835,13 @@
     </row>
     <row r="46" spans="2:20" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="104"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="113"/>
-      <c r="I46" s="114"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="107"/>
+      <c r="H46" s="108"/>
+      <c r="I46" s="105"/>
       <c r="J46" s="30"/>
       <c r="K46" s="38" t="s">
         <v>272</v>
@@ -37870,7 +37849,7 @@
       <c r="L46" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="M46" s="102"/>
+      <c r="M46" s="103"/>
       <c r="N46" s="16" t="s">
         <v>72</v>
       </c>
@@ -37893,13 +37872,13 @@
     </row>
     <row r="47" spans="2:20" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="104"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="114"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="107"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="105"/>
       <c r="J47" s="30"/>
       <c r="K47" s="38" t="s">
         <v>278</v>
@@ -37955,10 +37934,10 @@
       <c r="J49" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="K49" s="102" t="s">
+      <c r="K49" s="103" t="s">
         <v>257</v>
       </c>
-      <c r="L49" s="102"/>
+      <c r="L49" s="103"/>
       <c r="M49" s="16" t="s">
         <v>318</v>
       </c>
@@ -37988,21 +37967,21 @@
       <c r="B50" s="104" t="s">
         <v>325</v>
       </c>
-      <c r="C50" s="114" t="s">
+      <c r="C50" s="105" t="s">
         <v>324</v>
       </c>
-      <c r="D50" s="114" t="s">
+      <c r="D50" s="105" t="s">
         <v>324</v>
       </c>
-      <c r="E50" s="115"/>
-      <c r="F50" s="114" t="s">
+      <c r="E50" s="106"/>
+      <c r="F50" s="105" t="s">
         <v>308</v>
       </c>
-      <c r="G50" s="116" t="s">
+      <c r="G50" s="107" t="s">
         <v>374</v>
       </c>
-      <c r="H50" s="113"/>
-      <c r="I50" s="114" t="s">
+      <c r="H50" s="108"/>
+      <c r="I50" s="105" t="s">
         <v>315</v>
       </c>
       <c r="J50" s="30"/>
@@ -38012,7 +37991,7 @@
       <c r="L50" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="M50" s="102" t="s">
+      <c r="M50" s="103" t="s">
         <v>267</v>
       </c>
       <c r="N50" s="16" t="s">
@@ -38037,13 +38016,13 @@
     </row>
     <row r="51" spans="2:20" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="104"/>
-      <c r="C51" s="114"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="115"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="115"/>
-      <c r="H51" s="113"/>
-      <c r="I51" s="114"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="106"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="105"/>
       <c r="J51" s="30"/>
       <c r="K51" s="38" t="s">
         <v>272</v>
@@ -38051,7 +38030,7 @@
       <c r="L51" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="M51" s="102"/>
+      <c r="M51" s="103"/>
       <c r="N51" s="16" t="s">
         <v>72</v>
       </c>
@@ -38074,13 +38053,13 @@
     </row>
     <row r="52" spans="2:20" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="104"/>
-      <c r="C52" s="114"/>
-      <c r="D52" s="114"/>
-      <c r="E52" s="115"/>
-      <c r="F52" s="114"/>
-      <c r="G52" s="115"/>
-      <c r="H52" s="113"/>
-      <c r="I52" s="114"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="106"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="106"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="105"/>
       <c r="J52" s="30"/>
       <c r="K52" s="38" t="s">
         <v>278</v>
@@ -38136,10 +38115,10 @@
       <c r="J54" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="K54" s="102" t="s">
+      <c r="K54" s="103" t="s">
         <v>257</v>
       </c>
-      <c r="L54" s="102"/>
+      <c r="L54" s="103"/>
       <c r="M54" s="16" t="s">
         <v>318</v>
       </c>
@@ -38169,21 +38148,21 @@
       <c r="B55" s="104" t="s">
         <v>478</v>
       </c>
-      <c r="C55" s="114" t="s">
+      <c r="C55" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="114" t="s">
+      <c r="D55" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="115"/>
-      <c r="F55" s="114" t="s">
+      <c r="E55" s="106"/>
+      <c r="F55" s="105" t="s">
         <v>328</v>
       </c>
-      <c r="G55" s="116" t="s">
+      <c r="G55" s="107" t="s">
         <v>331</v>
       </c>
-      <c r="H55" s="113"/>
-      <c r="I55" s="114" t="s">
+      <c r="H55" s="108"/>
+      <c r="I55" s="105" t="s">
         <v>315</v>
       </c>
       <c r="J55" s="30"/>
@@ -38193,7 +38172,7 @@
       <c r="L55" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="M55" s="102" t="s">
+      <c r="M55" s="103" t="s">
         <v>267</v>
       </c>
       <c r="N55" s="16" t="s">
@@ -38218,13 +38197,13 @@
     </row>
     <row r="56" spans="2:20" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="104"/>
-      <c r="C56" s="114"/>
-      <c r="D56" s="114"/>
-      <c r="E56" s="115"/>
-      <c r="F56" s="114"/>
-      <c r="G56" s="116"/>
-      <c r="H56" s="113"/>
-      <c r="I56" s="114"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="105"/>
+      <c r="G56" s="107"/>
+      <c r="H56" s="108"/>
+      <c r="I56" s="105"/>
       <c r="J56" s="30"/>
       <c r="K56" s="38" t="s">
         <v>272</v>
@@ -38232,7 +38211,7 @@
       <c r="L56" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="M56" s="102"/>
+      <c r="M56" s="103"/>
       <c r="N56" s="16" t="s">
         <v>72</v>
       </c>
@@ -38255,13 +38234,13 @@
     </row>
     <row r="57" spans="2:20" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="104"/>
-      <c r="C57" s="114"/>
-      <c r="D57" s="114"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="114"/>
-      <c r="G57" s="116"/>
-      <c r="H57" s="113"/>
-      <c r="I57" s="114"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="106"/>
+      <c r="F57" s="105"/>
+      <c r="G57" s="107"/>
+      <c r="H57" s="108"/>
+      <c r="I57" s="105"/>
       <c r="J57" s="30"/>
       <c r="K57" s="38" t="s">
         <v>278</v>
@@ -38317,10 +38296,10 @@
       <c r="J59" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="K59" s="102" t="s">
+      <c r="K59" s="103" t="s">
         <v>257</v>
       </c>
-      <c r="L59" s="102"/>
+      <c r="L59" s="103"/>
       <c r="M59" s="16" t="s">
         <v>318</v>
       </c>
@@ -38350,21 +38329,21 @@
       <c r="B60" s="104" t="s">
         <v>329</v>
       </c>
-      <c r="C60" s="114" t="s">
+      <c r="C60" s="105" t="s">
         <v>330</v>
       </c>
-      <c r="D60" s="114" t="s">
+      <c r="D60" s="105" t="s">
         <v>330</v>
       </c>
-      <c r="E60" s="115"/>
-      <c r="F60" s="114" t="s">
+      <c r="E60" s="106"/>
+      <c r="F60" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="G60" s="116" t="s">
+      <c r="G60" s="107" t="s">
         <v>374</v>
       </c>
-      <c r="H60" s="113"/>
-      <c r="I60" s="114" t="s">
+      <c r="H60" s="108"/>
+      <c r="I60" s="105" t="s">
         <v>315</v>
       </c>
       <c r="J60" s="30"/>
@@ -38374,7 +38353,7 @@
       <c r="L60" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="M60" s="102" t="s">
+      <c r="M60" s="103" t="s">
         <v>267</v>
       </c>
       <c r="N60" s="16" t="s">
@@ -38399,13 +38378,13 @@
     </row>
     <row r="61" spans="2:20" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="104"/>
-      <c r="C61" s="114"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="115"/>
-      <c r="F61" s="114"/>
-      <c r="G61" s="115"/>
-      <c r="H61" s="113"/>
-      <c r="I61" s="114"/>
+      <c r="C61" s="105"/>
+      <c r="D61" s="105"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="105"/>
+      <c r="G61" s="106"/>
+      <c r="H61" s="108"/>
+      <c r="I61" s="105"/>
       <c r="J61" s="30"/>
       <c r="K61" s="38" t="s">
         <v>272</v>
@@ -38413,7 +38392,7 @@
       <c r="L61" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="M61" s="102"/>
+      <c r="M61" s="103"/>
       <c r="N61" s="16" t="s">
         <v>72</v>
       </c>
@@ -38436,13 +38415,13 @@
     </row>
     <row r="62" spans="2:20" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="104"/>
-      <c r="C62" s="114"/>
-      <c r="D62" s="114"/>
-      <c r="E62" s="115"/>
-      <c r="F62" s="114"/>
-      <c r="G62" s="115"/>
-      <c r="H62" s="113"/>
-      <c r="I62" s="114"/>
+      <c r="C62" s="105"/>
+      <c r="D62" s="105"/>
+      <c r="E62" s="106"/>
+      <c r="F62" s="105"/>
+      <c r="G62" s="106"/>
+      <c r="H62" s="108"/>
+      <c r="I62" s="105"/>
       <c r="J62" s="30"/>
       <c r="K62" s="38" t="s">
         <v>278</v>
@@ -38498,10 +38477,10 @@
       <c r="J64" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="K64" s="105" t="s">
+      <c r="K64" s="109" t="s">
         <v>257</v>
       </c>
-      <c r="L64" s="105"/>
+      <c r="L64" s="109"/>
       <c r="M64" s="42" t="s">
         <v>318</v>
       </c>
@@ -38531,21 +38510,21 @@
       <c r="B65" s="110" t="s">
         <v>332</v>
       </c>
-      <c r="C65" s="109" t="s">
+      <c r="C65" s="111" t="s">
         <v>330</v>
       </c>
-      <c r="D65" s="109" t="s">
+      <c r="D65" s="111" t="s">
         <v>330</v>
       </c>
-      <c r="E65" s="111"/>
-      <c r="F65" s="109" t="s">
+      <c r="E65" s="112"/>
+      <c r="F65" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="G65" s="117" t="s">
+      <c r="G65" s="113" t="s">
         <v>374</v>
       </c>
-      <c r="H65" s="112"/>
-      <c r="I65" s="109" t="s">
+      <c r="H65" s="114"/>
+      <c r="I65" s="111" t="s">
         <v>315</v>
       </c>
       <c r="J65" s="46"/>
@@ -38555,7 +38534,7 @@
       <c r="L65" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="M65" s="105" t="s">
+      <c r="M65" s="109" t="s">
         <v>267</v>
       </c>
       <c r="N65" s="42" t="s">
@@ -38580,13 +38559,13 @@
     </row>
     <row r="66" spans="2:20" s="54" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="110"/>
-      <c r="C66" s="109"/>
-      <c r="D66" s="109"/>
-      <c r="E66" s="111"/>
-      <c r="F66" s="109"/>
-      <c r="G66" s="111"/>
-      <c r="H66" s="112"/>
-      <c r="I66" s="109"/>
+      <c r="C66" s="111"/>
+      <c r="D66" s="111"/>
+      <c r="E66" s="112"/>
+      <c r="F66" s="111"/>
+      <c r="G66" s="112"/>
+      <c r="H66" s="114"/>
+      <c r="I66" s="111"/>
       <c r="J66" s="46"/>
       <c r="K66" s="47" t="s">
         <v>272</v>
@@ -38594,7 +38573,7 @@
       <c r="L66" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="M66" s="105"/>
+      <c r="M66" s="109"/>
       <c r="N66" s="42" t="s">
         <v>72</v>
       </c>
@@ -38617,13 +38596,13 @@
     </row>
     <row r="67" spans="2:20" s="54" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="110"/>
-      <c r="C67" s="109"/>
-      <c r="D67" s="109"/>
-      <c r="E67" s="111"/>
-      <c r="F67" s="109"/>
-      <c r="G67" s="111"/>
-      <c r="H67" s="112"/>
-      <c r="I67" s="109"/>
+      <c r="C67" s="111"/>
+      <c r="D67" s="111"/>
+      <c r="E67" s="112"/>
+      <c r="F67" s="111"/>
+      <c r="G67" s="112"/>
+      <c r="H67" s="114"/>
+      <c r="I67" s="111"/>
       <c r="J67" s="46"/>
       <c r="K67" s="47" t="s">
         <v>278</v>
@@ -38679,10 +38658,10 @@
       <c r="J69" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="K69" s="102" t="s">
+      <c r="K69" s="103" t="s">
         <v>257</v>
       </c>
-      <c r="L69" s="102"/>
+      <c r="L69" s="103"/>
       <c r="M69" s="16" t="s">
         <v>318</v>
       </c>
@@ -38712,21 +38691,21 @@
       <c r="B70" s="104" t="s">
         <v>333</v>
       </c>
-      <c r="C70" s="114" t="s">
+      <c r="C70" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="D70" s="114" t="s">
+      <c r="D70" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="E70" s="115"/>
-      <c r="F70" s="114" t="s">
+      <c r="E70" s="106"/>
+      <c r="F70" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="G70" s="116" t="s">
+      <c r="G70" s="107" t="s">
         <v>306</v>
       </c>
-      <c r="H70" s="113"/>
-      <c r="I70" s="114" t="s">
+      <c r="H70" s="108"/>
+      <c r="I70" s="105" t="s">
         <v>315</v>
       </c>
       <c r="J70" s="30"/>
@@ -38736,7 +38715,7 @@
       <c r="L70" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="M70" s="102" t="s">
+      <c r="M70" s="103" t="s">
         <v>267</v>
       </c>
       <c r="N70" s="16" t="s">
@@ -38761,13 +38740,13 @@
     </row>
     <row r="71" spans="2:20" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="104"/>
-      <c r="C71" s="114"/>
-      <c r="D71" s="114"/>
-      <c r="E71" s="115"/>
-      <c r="F71" s="114"/>
-      <c r="G71" s="116"/>
-      <c r="H71" s="113"/>
-      <c r="I71" s="114"/>
+      <c r="C71" s="105"/>
+      <c r="D71" s="105"/>
+      <c r="E71" s="106"/>
+      <c r="F71" s="105"/>
+      <c r="G71" s="107"/>
+      <c r="H71" s="108"/>
+      <c r="I71" s="105"/>
       <c r="J71" s="30"/>
       <c r="K71" s="38" t="s">
         <v>272</v>
@@ -38775,7 +38754,7 @@
       <c r="L71" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="M71" s="102"/>
+      <c r="M71" s="103"/>
       <c r="N71" s="16" t="s">
         <v>72</v>
       </c>
@@ -38798,13 +38777,13 @@
     </row>
     <row r="72" spans="2:20" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="104"/>
-      <c r="C72" s="114"/>
-      <c r="D72" s="114"/>
-      <c r="E72" s="115"/>
-      <c r="F72" s="114"/>
-      <c r="G72" s="116"/>
-      <c r="H72" s="113"/>
-      <c r="I72" s="114"/>
+      <c r="C72" s="105"/>
+      <c r="D72" s="105"/>
+      <c r="E72" s="106"/>
+      <c r="F72" s="105"/>
+      <c r="G72" s="107"/>
+      <c r="H72" s="108"/>
+      <c r="I72" s="105"/>
       <c r="J72" s="30"/>
       <c r="K72" s="38" t="s">
         <v>278</v>
@@ -38860,10 +38839,10 @@
       <c r="J74" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="K74" s="105" t="s">
+      <c r="K74" s="109" t="s">
         <v>257</v>
       </c>
-      <c r="L74" s="105"/>
+      <c r="L74" s="109"/>
       <c r="M74" s="42" t="s">
         <v>318</v>
       </c>
@@ -38893,21 +38872,21 @@
       <c r="B75" s="110" t="s">
         <v>334</v>
       </c>
-      <c r="C75" s="109" t="s">
+      <c r="C75" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="D75" s="109" t="s">
+      <c r="D75" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="E75" s="111"/>
-      <c r="F75" s="109" t="s">
+      <c r="E75" s="112"/>
+      <c r="F75" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="G75" s="117" t="s">
+      <c r="G75" s="113" t="s">
         <v>306</v>
       </c>
-      <c r="H75" s="112"/>
-      <c r="I75" s="109" t="s">
+      <c r="H75" s="114"/>
+      <c r="I75" s="111" t="s">
         <v>315</v>
       </c>
       <c r="J75" s="46"/>
@@ -38917,7 +38896,7 @@
       <c r="L75" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="M75" s="105" t="s">
+      <c r="M75" s="109" t="s">
         <v>267</v>
       </c>
       <c r="N75" s="42" t="s">
@@ -38942,13 +38921,13 @@
     </row>
     <row r="76" spans="2:20" s="54" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="110"/>
-      <c r="C76" s="109"/>
-      <c r="D76" s="109"/>
-      <c r="E76" s="111"/>
-      <c r="F76" s="109"/>
-      <c r="G76" s="117"/>
-      <c r="H76" s="112"/>
-      <c r="I76" s="109"/>
+      <c r="C76" s="111"/>
+      <c r="D76" s="111"/>
+      <c r="E76" s="112"/>
+      <c r="F76" s="111"/>
+      <c r="G76" s="113"/>
+      <c r="H76" s="114"/>
+      <c r="I76" s="111"/>
       <c r="J76" s="46"/>
       <c r="K76" s="47" t="s">
         <v>272</v>
@@ -38956,7 +38935,7 @@
       <c r="L76" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="M76" s="105"/>
+      <c r="M76" s="109"/>
       <c r="N76" s="42" t="s">
         <v>72</v>
       </c>
@@ -38979,13 +38958,13 @@
     </row>
     <row r="77" spans="2:20" s="54" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="110"/>
-      <c r="C77" s="109"/>
-      <c r="D77" s="109"/>
-      <c r="E77" s="111"/>
-      <c r="F77" s="109"/>
-      <c r="G77" s="117"/>
-      <c r="H77" s="112"/>
-      <c r="I77" s="109"/>
+      <c r="C77" s="111"/>
+      <c r="D77" s="111"/>
+      <c r="E77" s="112"/>
+      <c r="F77" s="111"/>
+      <c r="G77" s="113"/>
+      <c r="H77" s="114"/>
+      <c r="I77" s="111"/>
       <c r="J77" s="46"/>
       <c r="K77" s="47" t="s">
         <v>278</v>
@@ -39041,10 +39020,10 @@
       <c r="J79" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="K79" s="102" t="s">
+      <c r="K79" s="103" t="s">
         <v>257</v>
       </c>
-      <c r="L79" s="102"/>
+      <c r="L79" s="103"/>
       <c r="M79" s="16" t="s">
         <v>318</v>
       </c>
@@ -39074,21 +39053,21 @@
       <c r="B80" s="104" t="s">
         <v>479</v>
       </c>
-      <c r="C80" s="114" t="s">
+      <c r="C80" s="105" t="s">
         <v>119</v>
       </c>
-      <c r="D80" s="114" t="s">
+      <c r="D80" s="105" t="s">
         <v>119</v>
       </c>
-      <c r="E80" s="115"/>
-      <c r="F80" s="114" t="s">
+      <c r="E80" s="106"/>
+      <c r="F80" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="G80" s="116" t="s">
+      <c r="G80" s="107" t="s">
         <v>375</v>
       </c>
-      <c r="H80" s="113"/>
-      <c r="I80" s="114" t="s">
+      <c r="H80" s="108"/>
+      <c r="I80" s="105" t="s">
         <v>315</v>
       </c>
       <c r="J80" s="30"/>
@@ -39098,7 +39077,7 @@
       <c r="L80" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="M80" s="102" t="s">
+      <c r="M80" s="103" t="s">
         <v>267</v>
       </c>
       <c r="N80" s="16" t="s">
@@ -39123,13 +39102,13 @@
     </row>
     <row r="81" spans="2:20" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="104"/>
-      <c r="C81" s="114"/>
-      <c r="D81" s="114"/>
-      <c r="E81" s="115"/>
-      <c r="F81" s="114"/>
-      <c r="G81" s="116"/>
-      <c r="H81" s="113"/>
-      <c r="I81" s="114"/>
+      <c r="C81" s="105"/>
+      <c r="D81" s="105"/>
+      <c r="E81" s="106"/>
+      <c r="F81" s="105"/>
+      <c r="G81" s="107"/>
+      <c r="H81" s="108"/>
+      <c r="I81" s="105"/>
       <c r="J81" s="30"/>
       <c r="K81" s="38" t="s">
         <v>272</v>
@@ -39137,7 +39116,7 @@
       <c r="L81" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="M81" s="102"/>
+      <c r="M81" s="103"/>
       <c r="N81" s="16" t="s">
         <v>72</v>
       </c>
@@ -39160,13 +39139,13 @@
     </row>
     <row r="82" spans="2:20" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="104"/>
-      <c r="C82" s="114"/>
-      <c r="D82" s="114"/>
-      <c r="E82" s="115"/>
-      <c r="F82" s="114"/>
-      <c r="G82" s="116"/>
-      <c r="H82" s="113"/>
-      <c r="I82" s="114"/>
+      <c r="C82" s="105"/>
+      <c r="D82" s="105"/>
+      <c r="E82" s="106"/>
+      <c r="F82" s="105"/>
+      <c r="G82" s="107"/>
+      <c r="H82" s="108"/>
+      <c r="I82" s="105"/>
       <c r="J82" s="30"/>
       <c r="K82" s="38" t="s">
         <v>278</v>
@@ -39222,10 +39201,10 @@
       <c r="J84" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="K84" s="102" t="s">
+      <c r="K84" s="103" t="s">
         <v>257</v>
       </c>
-      <c r="L84" s="102"/>
+      <c r="L84" s="103"/>
       <c r="M84" s="16" t="s">
         <v>318</v>
       </c>
@@ -39255,21 +39234,21 @@
       <c r="B85" s="104" t="s">
         <v>480</v>
       </c>
-      <c r="C85" s="114" t="s">
+      <c r="C85" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="D85" s="114" t="s">
+      <c r="D85" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="E85" s="115"/>
-      <c r="F85" s="114" t="s">
+      <c r="E85" s="106"/>
+      <c r="F85" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="G85" s="116" t="s">
+      <c r="G85" s="107" t="s">
         <v>306</v>
       </c>
-      <c r="H85" s="113"/>
-      <c r="I85" s="114" t="s">
+      <c r="H85" s="108"/>
+      <c r="I85" s="105" t="s">
         <v>315</v>
       </c>
       <c r="J85" s="30"/>
@@ -39279,7 +39258,7 @@
       <c r="L85" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="M85" s="102" t="s">
+      <c r="M85" s="103" t="s">
         <v>267</v>
       </c>
       <c r="N85" s="16" t="s">
@@ -39304,13 +39283,13 @@
     </row>
     <row r="86" spans="2:20" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="104"/>
-      <c r="C86" s="114"/>
-      <c r="D86" s="114"/>
-      <c r="E86" s="115"/>
-      <c r="F86" s="114"/>
-      <c r="G86" s="116"/>
-      <c r="H86" s="113"/>
-      <c r="I86" s="114"/>
+      <c r="C86" s="105"/>
+      <c r="D86" s="105"/>
+      <c r="E86" s="106"/>
+      <c r="F86" s="105"/>
+      <c r="G86" s="107"/>
+      <c r="H86" s="108"/>
+      <c r="I86" s="105"/>
       <c r="J86" s="30"/>
       <c r="K86" s="38" t="s">
         <v>272</v>
@@ -39318,7 +39297,7 @@
       <c r="L86" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="M86" s="102"/>
+      <c r="M86" s="103"/>
       <c r="N86" s="16" t="s">
         <v>72</v>
       </c>
@@ -39341,13 +39320,13 @@
     </row>
     <row r="87" spans="2:20" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="104"/>
-      <c r="C87" s="114"/>
-      <c r="D87" s="114"/>
-      <c r="E87" s="115"/>
-      <c r="F87" s="114"/>
-      <c r="G87" s="116"/>
-      <c r="H87" s="113"/>
-      <c r="I87" s="114"/>
+      <c r="C87" s="105"/>
+      <c r="D87" s="105"/>
+      <c r="E87" s="106"/>
+      <c r="F87" s="105"/>
+      <c r="G87" s="107"/>
+      <c r="H87" s="108"/>
+      <c r="I87" s="105"/>
       <c r="J87" s="30"/>
       <c r="K87" s="38" t="s">
         <v>278</v>
@@ -39403,10 +39382,10 @@
       <c r="J89" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="K89" s="102" t="s">
+      <c r="K89" s="103" t="s">
         <v>257</v>
       </c>
-      <c r="L89" s="102"/>
+      <c r="L89" s="103"/>
       <c r="M89" s="16" t="s">
         <v>318</v>
       </c>
@@ -39436,21 +39415,21 @@
       <c r="B90" s="104" t="s">
         <v>414</v>
       </c>
-      <c r="C90" s="114" t="s">
+      <c r="C90" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="D90" s="114" t="s">
+      <c r="D90" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="E90" s="115"/>
-      <c r="F90" s="114" t="s">
+      <c r="E90" s="106"/>
+      <c r="F90" s="105" t="s">
         <v>335</v>
       </c>
-      <c r="G90" s="116" t="s">
+      <c r="G90" s="107" t="s">
         <v>306</v>
       </c>
-      <c r="H90" s="113"/>
-      <c r="I90" s="114" t="s">
+      <c r="H90" s="108"/>
+      <c r="I90" s="105" t="s">
         <v>315</v>
       </c>
       <c r="J90" s="30"/>
@@ -39460,7 +39439,7 @@
       <c r="L90" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="M90" s="102" t="s">
+      <c r="M90" s="103" t="s">
         <v>267</v>
       </c>
       <c r="N90" s="16" t="s">
@@ -39485,13 +39464,13 @@
     </row>
     <row r="91" spans="2:20" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="104"/>
-      <c r="C91" s="114"/>
-      <c r="D91" s="114"/>
-      <c r="E91" s="115"/>
-      <c r="F91" s="114"/>
-      <c r="G91" s="116"/>
-      <c r="H91" s="113"/>
-      <c r="I91" s="114"/>
+      <c r="C91" s="105"/>
+      <c r="D91" s="105"/>
+      <c r="E91" s="106"/>
+      <c r="F91" s="105"/>
+      <c r="G91" s="107"/>
+      <c r="H91" s="108"/>
+      <c r="I91" s="105"/>
       <c r="J91" s="30"/>
       <c r="K91" s="38" t="s">
         <v>272</v>
@@ -39499,7 +39478,7 @@
       <c r="L91" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="M91" s="102"/>
+      <c r="M91" s="103"/>
       <c r="N91" s="16" t="s">
         <v>72</v>
       </c>
@@ -39522,13 +39501,13 @@
     </row>
     <row r="92" spans="2:20" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="104"/>
-      <c r="C92" s="114"/>
-      <c r="D92" s="114"/>
-      <c r="E92" s="115"/>
-      <c r="F92" s="114"/>
-      <c r="G92" s="116"/>
-      <c r="H92" s="113"/>
-      <c r="I92" s="114"/>
+      <c r="C92" s="105"/>
+      <c r="D92" s="105"/>
+      <c r="E92" s="106"/>
+      <c r="F92" s="105"/>
+      <c r="G92" s="107"/>
+      <c r="H92" s="108"/>
+      <c r="I92" s="105"/>
       <c r="J92" s="30"/>
       <c r="K92" s="38" t="s">
         <v>278</v>
@@ -39584,10 +39563,10 @@
       <c r="J94" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="K94" s="105" t="s">
+      <c r="K94" s="109" t="s">
         <v>257</v>
       </c>
-      <c r="L94" s="105"/>
+      <c r="L94" s="109"/>
       <c r="M94" s="42" t="s">
         <v>318</v>
       </c>
@@ -39617,21 +39596,21 @@
       <c r="B95" s="110" t="s">
         <v>801</v>
       </c>
-      <c r="C95" s="109" t="s">
+      <c r="C95" s="111" t="s">
         <v>413</v>
       </c>
-      <c r="D95" s="109" t="s">
+      <c r="D95" s="111" t="s">
         <v>413</v>
       </c>
-      <c r="E95" s="111"/>
-      <c r="F95" s="109" t="s">
+      <c r="E95" s="112"/>
+      <c r="F95" s="111" t="s">
         <v>326</v>
       </c>
-      <c r="G95" s="117" t="s">
+      <c r="G95" s="113" t="s">
         <v>306</v>
       </c>
-      <c r="H95" s="112"/>
-      <c r="I95" s="109" t="s">
+      <c r="H95" s="114"/>
+      <c r="I95" s="111" t="s">
         <v>315</v>
       </c>
       <c r="J95" s="46"/>
@@ -39641,7 +39620,7 @@
       <c r="L95" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="M95" s="105" t="s">
+      <c r="M95" s="109" t="s">
         <v>267</v>
       </c>
       <c r="N95" s="42" t="s">
@@ -39666,13 +39645,13 @@
     </row>
     <row r="96" spans="2:20" s="54" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="110"/>
-      <c r="C96" s="109"/>
-      <c r="D96" s="109"/>
-      <c r="E96" s="111"/>
-      <c r="F96" s="109"/>
-      <c r="G96" s="117"/>
-      <c r="H96" s="112"/>
-      <c r="I96" s="109"/>
+      <c r="C96" s="111"/>
+      <c r="D96" s="111"/>
+      <c r="E96" s="112"/>
+      <c r="F96" s="111"/>
+      <c r="G96" s="113"/>
+      <c r="H96" s="114"/>
+      <c r="I96" s="111"/>
       <c r="J96" s="46"/>
       <c r="K96" s="47" t="s">
         <v>272</v>
@@ -39680,7 +39659,7 @@
       <c r="L96" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="M96" s="105"/>
+      <c r="M96" s="109"/>
       <c r="N96" s="42" t="s">
         <v>72</v>
       </c>
@@ -39703,13 +39682,13 @@
     </row>
     <row r="97" spans="2:20" s="54" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="110"/>
-      <c r="C97" s="109"/>
-      <c r="D97" s="109"/>
-      <c r="E97" s="111"/>
-      <c r="F97" s="109"/>
-      <c r="G97" s="117"/>
-      <c r="H97" s="112"/>
-      <c r="I97" s="109"/>
+      <c r="C97" s="111"/>
+      <c r="D97" s="111"/>
+      <c r="E97" s="112"/>
+      <c r="F97" s="111"/>
+      <c r="G97" s="113"/>
+      <c r="H97" s="114"/>
+      <c r="I97" s="111"/>
       <c r="J97" s="46"/>
       <c r="K97" s="47" t="s">
         <v>278</v>
@@ -39765,10 +39744,10 @@
       <c r="J99" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="K99" s="102" t="s">
+      <c r="K99" s="103" t="s">
         <v>257</v>
       </c>
-      <c r="L99" s="102"/>
+      <c r="L99" s="103"/>
       <c r="M99" s="16" t="s">
         <v>318</v>
       </c>
@@ -39798,21 +39777,21 @@
       <c r="B100" s="104" t="s">
         <v>481</v>
       </c>
-      <c r="C100" s="114" t="s">
+      <c r="C100" s="105" t="s">
         <v>162</v>
       </c>
-      <c r="D100" s="114" t="s">
+      <c r="D100" s="105" t="s">
         <v>162</v>
       </c>
-      <c r="E100" s="115"/>
-      <c r="F100" s="114" t="s">
+      <c r="E100" s="106"/>
+      <c r="F100" s="105" t="s">
         <v>335</v>
       </c>
-      <c r="G100" s="116" t="s">
+      <c r="G100" s="107" t="s">
         <v>306</v>
       </c>
-      <c r="H100" s="113"/>
-      <c r="I100" s="114" t="s">
+      <c r="H100" s="108"/>
+      <c r="I100" s="105" t="s">
         <v>315</v>
       </c>
       <c r="J100" s="30"/>
@@ -39822,7 +39801,7 @@
       <c r="L100" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="M100" s="102" t="s">
+      <c r="M100" s="103" t="s">
         <v>267</v>
       </c>
       <c r="N100" s="16" t="s">
@@ -39847,13 +39826,13 @@
     </row>
     <row r="101" spans="2:20" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="104"/>
-      <c r="C101" s="114"/>
-      <c r="D101" s="114"/>
-      <c r="E101" s="115"/>
-      <c r="F101" s="114"/>
-      <c r="G101" s="116"/>
-      <c r="H101" s="113"/>
-      <c r="I101" s="114"/>
+      <c r="C101" s="105"/>
+      <c r="D101" s="105"/>
+      <c r="E101" s="106"/>
+      <c r="F101" s="105"/>
+      <c r="G101" s="107"/>
+      <c r="H101" s="108"/>
+      <c r="I101" s="105"/>
       <c r="J101" s="30"/>
       <c r="K101" s="38" t="s">
         <v>272</v>
@@ -39861,7 +39840,7 @@
       <c r="L101" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="M101" s="102"/>
+      <c r="M101" s="103"/>
       <c r="N101" s="16" t="s">
         <v>72</v>
       </c>
@@ -39884,13 +39863,13 @@
     </row>
     <row r="102" spans="2:20" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="104"/>
-      <c r="C102" s="114"/>
-      <c r="D102" s="114"/>
-      <c r="E102" s="115"/>
-      <c r="F102" s="114"/>
-      <c r="G102" s="116"/>
-      <c r="H102" s="113"/>
-      <c r="I102" s="114"/>
+      <c r="C102" s="105"/>
+      <c r="D102" s="105"/>
+      <c r="E102" s="106"/>
+      <c r="F102" s="105"/>
+      <c r="G102" s="107"/>
+      <c r="H102" s="108"/>
+      <c r="I102" s="105"/>
       <c r="J102" s="30"/>
       <c r="K102" s="38" t="s">
         <v>278</v>
@@ -39946,10 +39925,10 @@
       <c r="J104" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="K104" s="102" t="s">
+      <c r="K104" s="103" t="s">
         <v>257</v>
       </c>
-      <c r="L104" s="102"/>
+      <c r="L104" s="103"/>
       <c r="M104" s="16" t="s">
         <v>318</v>
       </c>
@@ -39979,21 +39958,21 @@
       <c r="B105" s="104" t="s">
         <v>471</v>
       </c>
-      <c r="C105" s="114" t="s">
+      <c r="C105" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="D105" s="114" t="s">
+      <c r="D105" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="E105" s="115"/>
-      <c r="F105" s="114" t="s">
+      <c r="E105" s="106"/>
+      <c r="F105" s="105" t="s">
         <v>158</v>
       </c>
-      <c r="G105" s="116" t="s">
+      <c r="G105" s="107" t="s">
         <v>306</v>
       </c>
-      <c r="H105" s="113"/>
-      <c r="I105" s="114" t="s">
+      <c r="H105" s="108"/>
+      <c r="I105" s="105" t="s">
         <v>315</v>
       </c>
       <c r="J105" s="30"/>
@@ -40003,7 +39982,7 @@
       <c r="L105" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="M105" s="102" t="s">
+      <c r="M105" s="103" t="s">
         <v>267</v>
       </c>
       <c r="N105" s="16" t="s">
@@ -40028,13 +40007,13 @@
     </row>
     <row r="106" spans="2:20" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="104"/>
-      <c r="C106" s="114"/>
-      <c r="D106" s="114"/>
-      <c r="E106" s="115"/>
-      <c r="F106" s="114"/>
-      <c r="G106" s="116"/>
-      <c r="H106" s="113"/>
-      <c r="I106" s="114"/>
+      <c r="C106" s="105"/>
+      <c r="D106" s="105"/>
+      <c r="E106" s="106"/>
+      <c r="F106" s="105"/>
+      <c r="G106" s="107"/>
+      <c r="H106" s="108"/>
+      <c r="I106" s="105"/>
       <c r="J106" s="30"/>
       <c r="K106" s="38" t="s">
         <v>272</v>
@@ -40042,7 +40021,7 @@
       <c r="L106" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="M106" s="102"/>
+      <c r="M106" s="103"/>
       <c r="N106" s="16" t="s">
         <v>72</v>
       </c>
@@ -40065,13 +40044,13 @@
     </row>
     <row r="107" spans="2:20" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B107" s="104"/>
-      <c r="C107" s="114"/>
-      <c r="D107" s="114"/>
-      <c r="E107" s="115"/>
-      <c r="F107" s="114"/>
-      <c r="G107" s="116"/>
-      <c r="H107" s="113"/>
-      <c r="I107" s="114"/>
+      <c r="C107" s="105"/>
+      <c r="D107" s="105"/>
+      <c r="E107" s="106"/>
+      <c r="F107" s="105"/>
+      <c r="G107" s="107"/>
+      <c r="H107" s="108"/>
+      <c r="I107" s="105"/>
       <c r="J107" s="30"/>
       <c r="K107" s="38" t="s">
         <v>278</v>
@@ -40127,10 +40106,10 @@
       <c r="J109" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="K109" s="102" t="s">
+      <c r="K109" s="103" t="s">
         <v>257</v>
       </c>
-      <c r="L109" s="102"/>
+      <c r="L109" s="103"/>
       <c r="M109" s="16" t="s">
         <v>318</v>
       </c>
@@ -40160,21 +40139,21 @@
       <c r="B110" s="104" t="s">
         <v>472</v>
       </c>
-      <c r="C110" s="114" t="s">
+      <c r="C110" s="105" t="s">
         <v>336</v>
       </c>
-      <c r="D110" s="114" t="s">
+      <c r="D110" s="105" t="s">
         <v>336</v>
       </c>
-      <c r="E110" s="115"/>
-      <c r="F110" s="114" t="s">
+      <c r="E110" s="106"/>
+      <c r="F110" s="105" t="s">
         <v>335</v>
       </c>
-      <c r="G110" s="116" t="s">
+      <c r="G110" s="107" t="s">
         <v>306</v>
       </c>
-      <c r="H110" s="113"/>
-      <c r="I110" s="114" t="s">
+      <c r="H110" s="108"/>
+      <c r="I110" s="105" t="s">
         <v>315</v>
       </c>
       <c r="J110" s="30"/>
@@ -40184,7 +40163,7 @@
       <c r="L110" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="M110" s="102" t="s">
+      <c r="M110" s="103" t="s">
         <v>267</v>
       </c>
       <c r="N110" s="16" t="s">
@@ -40209,13 +40188,13 @@
     </row>
     <row r="111" spans="2:20" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B111" s="104"/>
-      <c r="C111" s="114"/>
-      <c r="D111" s="114"/>
-      <c r="E111" s="115"/>
-      <c r="F111" s="114"/>
-      <c r="G111" s="116"/>
-      <c r="H111" s="113"/>
-      <c r="I111" s="114"/>
+      <c r="C111" s="105"/>
+      <c r="D111" s="105"/>
+      <c r="E111" s="106"/>
+      <c r="F111" s="105"/>
+      <c r="G111" s="107"/>
+      <c r="H111" s="108"/>
+      <c r="I111" s="105"/>
       <c r="J111" s="30"/>
       <c r="K111" s="38" t="s">
         <v>272</v>
@@ -40223,7 +40202,7 @@
       <c r="L111" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="M111" s="102"/>
+      <c r="M111" s="103"/>
       <c r="N111" s="16" t="s">
         <v>72</v>
       </c>
@@ -40246,13 +40225,13 @@
     </row>
     <row r="112" spans="2:20" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B112" s="104"/>
-      <c r="C112" s="114"/>
-      <c r="D112" s="114"/>
-      <c r="E112" s="115"/>
-      <c r="F112" s="114"/>
-      <c r="G112" s="116"/>
-      <c r="H112" s="113"/>
-      <c r="I112" s="114"/>
+      <c r="C112" s="105"/>
+      <c r="D112" s="105"/>
+      <c r="E112" s="106"/>
+      <c r="F112" s="105"/>
+      <c r="G112" s="107"/>
+      <c r="H112" s="108"/>
+      <c r="I112" s="105"/>
       <c r="J112" s="30"/>
       <c r="K112" s="38" t="s">
         <v>278</v>
@@ -40308,10 +40287,10 @@
       <c r="J114" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="K114" s="102" t="s">
+      <c r="K114" s="103" t="s">
         <v>257</v>
       </c>
-      <c r="L114" s="102"/>
+      <c r="L114" s="103"/>
       <c r="M114" s="16" t="s">
         <v>318</v>
       </c>
@@ -40341,21 +40320,21 @@
       <c r="B115" s="104" t="s">
         <v>482</v>
       </c>
-      <c r="C115" s="114" t="s">
+      <c r="C115" s="105" t="s">
         <v>337</v>
       </c>
-      <c r="D115" s="114" t="s">
+      <c r="D115" s="105" t="s">
         <v>337</v>
       </c>
-      <c r="E115" s="115"/>
-      <c r="F115" s="114" t="s">
+      <c r="E115" s="106"/>
+      <c r="F115" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="G115" s="116" t="s">
+      <c r="G115" s="107" t="s">
         <v>306</v>
       </c>
-      <c r="H115" s="113"/>
-      <c r="I115" s="114" t="s">
+      <c r="H115" s="108"/>
+      <c r="I115" s="105" t="s">
         <v>315</v>
       </c>
       <c r="J115" s="30"/>
@@ -40365,7 +40344,7 @@
       <c r="L115" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="M115" s="102" t="s">
+      <c r="M115" s="103" t="s">
         <v>267</v>
       </c>
       <c r="N115" s="16" t="s">
@@ -40390,13 +40369,13 @@
     </row>
     <row r="116" spans="2:20" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B116" s="104"/>
-      <c r="C116" s="114"/>
-      <c r="D116" s="114"/>
-      <c r="E116" s="115"/>
-      <c r="F116" s="114"/>
-      <c r="G116" s="116"/>
-      <c r="H116" s="113"/>
-      <c r="I116" s="114"/>
+      <c r="C116" s="105"/>
+      <c r="D116" s="105"/>
+      <c r="E116" s="106"/>
+      <c r="F116" s="105"/>
+      <c r="G116" s="107"/>
+      <c r="H116" s="108"/>
+      <c r="I116" s="105"/>
       <c r="J116" s="30"/>
       <c r="K116" s="38" t="s">
         <v>272</v>
@@ -40404,7 +40383,7 @@
       <c r="L116" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="M116" s="102"/>
+      <c r="M116" s="103"/>
       <c r="N116" s="16" t="s">
         <v>72</v>
       </c>
@@ -40427,13 +40406,13 @@
     </row>
     <row r="117" spans="2:20" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B117" s="104"/>
-      <c r="C117" s="114"/>
-      <c r="D117" s="114"/>
-      <c r="E117" s="115"/>
-      <c r="F117" s="114"/>
-      <c r="G117" s="116"/>
-      <c r="H117" s="113"/>
-      <c r="I117" s="114"/>
+      <c r="C117" s="105"/>
+      <c r="D117" s="105"/>
+      <c r="E117" s="106"/>
+      <c r="F117" s="105"/>
+      <c r="G117" s="107"/>
+      <c r="H117" s="108"/>
+      <c r="I117" s="105"/>
       <c r="J117" s="30"/>
       <c r="K117" s="38" t="s">
         <v>278</v>
@@ -40585,113 +40564,96 @@
     <row r="179" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="221">
-    <mergeCell ref="M105:M106"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="F110:F112"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="H115:H117"/>
-    <mergeCell ref="I115:I117"/>
-    <mergeCell ref="M115:M116"/>
-    <mergeCell ref="H110:H112"/>
-    <mergeCell ref="I110:I112"/>
-    <mergeCell ref="M110:M111"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="C115:C117"/>
-    <mergeCell ref="D115:D117"/>
-    <mergeCell ref="E115:E117"/>
-    <mergeCell ref="F115:F117"/>
-    <mergeCell ref="G115:G117"/>
-    <mergeCell ref="K104:L104"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="F105:F107"/>
-    <mergeCell ref="G105:G107"/>
-    <mergeCell ref="H105:H107"/>
-    <mergeCell ref="I105:I107"/>
-    <mergeCell ref="M90:M91"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="F100:F102"/>
-    <mergeCell ref="G100:G102"/>
-    <mergeCell ref="H100:H102"/>
-    <mergeCell ref="I100:I102"/>
-    <mergeCell ref="M100:M101"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="H90:H92"/>
-    <mergeCell ref="I90:I92"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="G80:G82"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="F70:F72"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="H70:H72"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="F2:F12"/>
+    <mergeCell ref="E2:E12"/>
+    <mergeCell ref="D2:D12"/>
+    <mergeCell ref="C2:C12"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M2:M11"/>
+    <mergeCell ref="J2:J12"/>
+    <mergeCell ref="I2:I12"/>
+    <mergeCell ref="H2:H12"/>
+    <mergeCell ref="G2:G12"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
     <mergeCell ref="M50:M51"/>
     <mergeCell ref="K94:L94"/>
     <mergeCell ref="B95:B97"/>
@@ -40716,96 +40678,113 @@
     <mergeCell ref="K59:L59"/>
     <mergeCell ref="B60:B62"/>
     <mergeCell ref="C60:C62"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="F2:F12"/>
-    <mergeCell ref="E2:E12"/>
-    <mergeCell ref="D2:D12"/>
-    <mergeCell ref="C2:C12"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M2:M11"/>
-    <mergeCell ref="J2:J12"/>
-    <mergeCell ref="I2:I12"/>
-    <mergeCell ref="H2:H12"/>
-    <mergeCell ref="G2:G12"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="G80:G82"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="H90:H92"/>
+    <mergeCell ref="I90:I92"/>
+    <mergeCell ref="M90:M91"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="F100:F102"/>
+    <mergeCell ref="G100:G102"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="I100:I102"/>
+    <mergeCell ref="M100:M101"/>
+    <mergeCell ref="K104:L104"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="F105:F107"/>
+    <mergeCell ref="G105:G107"/>
+    <mergeCell ref="H105:H107"/>
+    <mergeCell ref="I105:I107"/>
+    <mergeCell ref="M105:M106"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="F110:F112"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="H115:H117"/>
+    <mergeCell ref="I115:I117"/>
+    <mergeCell ref="M115:M116"/>
+    <mergeCell ref="H110:H112"/>
+    <mergeCell ref="I110:I112"/>
+    <mergeCell ref="M110:M111"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="C115:C117"/>
+    <mergeCell ref="D115:D117"/>
+    <mergeCell ref="E115:E117"/>
+    <mergeCell ref="F115:F117"/>
+    <mergeCell ref="G115:G117"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gd/副本内容设计/第一、二章怪物分布.xlsx
+++ b/gd/副本内容设计/第一、二章怪物分布.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="布怪" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4190" uniqueCount="1356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4177" uniqueCount="1352">
   <si>
     <t>红</t>
     <phoneticPr fontId="10" type="noConversion"/>
@@ -5617,47 +5617,11 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>弱点4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>关着壳的金苹果</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>开着壳的金苹果</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>冻结（不显示mesh）</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>冻结（显示mesh）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点4切换为冻结（不显示mesh）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>buff结束事件挂</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>弱点3切换为冻结（显示mesh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -5934,82 +5898,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>弱点3切换为冻结（不显示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>mesh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>弱点4切换为正常状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（显示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>mesh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先使用技能3，眩晕结束后由状态2变回状态1，重置弱点2血量，弱点3变为冻结状态</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>弱点2切换为冻结（显示mesh）</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -6059,6 +5947,26 @@
   </si>
   <si>
     <t>attackFireCut(理解为气浪切割与小怪法攻命中不同)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先使用技能3，眩晕结束后由状态2变回状态1，重置弱点2血量，弱点3变为冻结状态</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点3切换为正常状态1（显示mesh）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss置换状态机（为了换受击动作）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点3切换为冻结（显示mesh）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>开着壳的金苹果</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -6634,7 +6542,37 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6646,38 +6584,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12536,13 +12444,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -12552,7 +12460,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8305800" y="20078700"/>
+          <a:off x="8305800" y="18821400"/>
           <a:ext cx="3752850" cy="5495924"/>
           <a:chOff x="807720" y="0"/>
           <a:chExt cx="5097780" cy="6961717"/>
@@ -13290,15 +13198,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>399720</xdr:colOff>
+      <xdr:colOff>428295</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>18620</xdr:rowOff>
+      <xdr:rowOff>9095</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13315,7 +13223,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6219825" y="352425"/>
+          <a:off x="6734175" y="342900"/>
           <a:ext cx="2638095" cy="3438095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13697,134 +13605,6 @@
                 </a:solidFill>
               </a:rPr>
               <a:t>2</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>55750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>36654</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="36" name="组合 35"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="7267575" y="2914650"/>
-          <a:ext cx="360550" cy="474804"/>
-          <a:chOff x="9829800" y="2933700"/>
-          <a:chExt cx="360550" cy="474804"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="37" name="椭圆 36"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9829800" y="2933700"/>
-            <a:ext cx="360550" cy="474804"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="文本框 37"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9877425" y="2981325"/>
-            <a:ext cx="235528" cy="414556"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>4</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
               <a:solidFill>
@@ -15999,19 +15779,19 @@
         <v>36</v>
       </c>
       <c r="C4" s="91" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
       </c>
       <c r="F4" s="92" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="G4" s="12">
         <v>3</v>
       </c>
       <c r="H4" s="91" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>53</v>
@@ -16022,13 +15802,13 @@
         <v>37</v>
       </c>
       <c r="C5" s="92" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="E5" s="12">
         <v>3</v>
       </c>
       <c r="F5" s="92" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="G5" s="12">
         <v>1</v>
@@ -16045,19 +15825,19 @@
         <v>38</v>
       </c>
       <c r="C6" s="92" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="E6" s="12">
         <v>1</v>
       </c>
       <c r="F6" s="91" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="G6" s="12">
         <v>1</v>
       </c>
       <c r="H6" s="91" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="7" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
@@ -16065,19 +15845,19 @@
         <v>39</v>
       </c>
       <c r="C7" s="91" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="E7" s="12">
         <v>1</v>
       </c>
       <c r="F7" s="92" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="G7" s="12">
         <v>1</v>
       </c>
       <c r="H7" s="92" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="8" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
@@ -16085,19 +15865,19 @@
         <v>40</v>
       </c>
       <c r="C8" s="92" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="E8" s="12">
         <v>1</v>
       </c>
       <c r="F8" s="92" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="G8" s="12">
         <v>1</v>
       </c>
       <c r="H8" s="92" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>222</v>
@@ -16108,19 +15888,19 @@
         <v>41</v>
       </c>
       <c r="C9" s="92" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="E9" s="12">
         <v>2</v>
       </c>
       <c r="F9" s="92" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="G9" s="12">
         <v>1</v>
       </c>
       <c r="H9" s="94" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>221</v>
@@ -16131,19 +15911,19 @@
         <v>42</v>
       </c>
       <c r="C10" s="91" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="E10" s="12">
         <v>1</v>
       </c>
       <c r="F10" s="92" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="G10" s="12">
         <v>1</v>
       </c>
       <c r="H10" s="92" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="11" spans="2:10" s="13" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -16151,7 +15931,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="93" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="E11" s="13">
         <v>1</v>
@@ -16163,7 +15943,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="95" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="12" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -16171,7 +15951,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12">
@@ -16184,7 +15964,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="96" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>226</v>
@@ -16195,20 +15975,20 @@
         <v>45</v>
       </c>
       <c r="C13" s="92" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="91" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="G13" s="12">
         <v>1</v>
       </c>
       <c r="H13" s="92" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
@@ -16229,7 +16009,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="92" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="15" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
@@ -16237,19 +16017,19 @@
         <v>47</v>
       </c>
       <c r="C15" s="92" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
       </c>
       <c r="F15" s="92" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="G15" s="12">
         <v>1</v>
       </c>
       <c r="H15" s="92" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="16" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
@@ -16257,7 +16037,7 @@
         <v>48</v>
       </c>
       <c r="C16" s="92" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -16269,7 +16049,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="92" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
@@ -16277,19 +16057,19 @@
         <v>49</v>
       </c>
       <c r="C17" s="92" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="E17" s="12">
         <v>2</v>
       </c>
       <c r="F17" s="92" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="G17" s="12">
         <v>2</v>
       </c>
       <c r="H17" s="92" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>223</v>
@@ -16306,7 +16086,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="92" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="G18" s="12">
         <v>2</v>
@@ -16323,19 +16103,19 @@
         <v>51</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="E19" s="13">
         <v>1</v>
       </c>
       <c r="F19" s="97" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="G19" s="13">
         <v>3</v>
       </c>
       <c r="H19" s="93" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>220</v>
@@ -18293,13 +18073,13 @@
     </row>
     <row r="162" spans="3:6" s="77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C162" s="77" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="E162" s="77" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="163" spans="3:6" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -18315,7 +18095,7 @@
         <v>64</v>
       </c>
       <c r="E164" s="77" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="165" spans="3:6" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -18323,7 +18103,7 @@
         <v>66</v>
       </c>
       <c r="E165" s="77" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="166" spans="3:6" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -18331,7 +18111,7 @@
         <v>68</v>
       </c>
       <c r="E166" s="77" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="167" spans="3:6" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -18342,7 +18122,7 @@
         <v>108</v>
       </c>
       <c r="E168" s="77" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="169" spans="3:6" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -18350,7 +18130,7 @@
         <v>72</v>
       </c>
       <c r="E169" s="77" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="170" spans="3:6" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -18366,7 +18146,7 @@
         <v>77</v>
       </c>
       <c r="E171" s="77" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="172" spans="3:6" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -18374,16 +18154,16 @@
         <v>80</v>
       </c>
       <c r="E172" s="77" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="173" spans="3:6" s="77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C173" s="56"/>
       <c r="D173" s="98" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="E173" s="99" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="F173" s="99"/>
     </row>
@@ -18391,20 +18171,20 @@
       <c r="C174" s="56"/>
       <c r="D174" s="99"/>
       <c r="E174" s="99" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="F174" s="99"/>
     </row>
     <row r="175" spans="3:6" s="77" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="176" spans="3:6" s="77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C176" s="77" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="D176" s="16" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E176" s="77" t="s">
         <v>1330</v>
-      </c>
-      <c r="E176" s="77" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="177" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -18420,7 +18200,7 @@
         <v>64</v>
       </c>
       <c r="E178" s="77" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="179" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -18436,7 +18216,7 @@
         <v>68</v>
       </c>
       <c r="E180" s="77" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="181" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -18447,7 +18227,7 @@
         <v>108</v>
       </c>
       <c r="E182" s="77" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="183" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -18455,7 +18235,7 @@
         <v>72</v>
       </c>
       <c r="E183" s="77" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="184" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -18466,7 +18246,7 @@
         <v>82</v>
       </c>
       <c r="M184" s="77" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="185" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -18474,7 +18254,7 @@
         <v>77</v>
       </c>
       <c r="E185" s="77" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="186" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -18482,16 +18262,16 @@
         <v>80</v>
       </c>
       <c r="E186" s="77" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="187" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C187" s="56"/>
       <c r="D187" s="98" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="E187" s="99" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="F187" s="99"/>
     </row>
@@ -18499,7 +18279,7 @@
       <c r="C188" s="56"/>
       <c r="D188" s="99"/>
       <c r="E188" s="99" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="F188" s="99"/>
     </row>
@@ -19844,13 +19624,13 @@
     </row>
     <row r="343" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C343" s="77" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="D343" s="16" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="E343" s="77" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="344" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -19866,7 +19646,7 @@
         <v>64</v>
       </c>
       <c r="E345" s="77" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="346" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -19882,7 +19662,7 @@
         <v>68</v>
       </c>
       <c r="E347" s="77" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="348" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -19893,7 +19673,7 @@
         <v>108</v>
       </c>
       <c r="E349" s="77" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="350" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -19901,7 +19681,7 @@
         <v>72</v>
       </c>
       <c r="E350" s="77" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="351" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -19917,7 +19697,7 @@
         <v>77</v>
       </c>
       <c r="E352" s="77" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="353" spans="3:6" s="77" customFormat="1" x14ac:dyDescent="0.15">
@@ -19925,16 +19705,16 @@
         <v>80</v>
       </c>
       <c r="E353" s="77" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="354" spans="3:6" s="77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C354" s="56"/>
       <c r="D354" s="98" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="E354" s="99" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="F354" s="99"/>
     </row>
@@ -19942,7 +19722,7 @@
       <c r="C355" s="56"/>
       <c r="D355" s="99"/>
       <c r="E355" s="99" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="F355" s="99"/>
     </row>
@@ -19957,8 +19737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T842"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView topLeftCell="D33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -19984,7 +19764,7 @@
         <v>486</v>
       </c>
       <c r="G2" s="76" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="3" spans="6:18" x14ac:dyDescent="0.15">
@@ -20548,7 +20328,7 @@
       <c r="O36" s="65"/>
       <c r="P36" s="68"/>
       <c r="Q36" s="76" t="s">
-        <v>1355</v>
+        <v>1346</v>
       </c>
       <c r="R36" s="8"/>
     </row>
@@ -21229,7 +21009,7 @@
         <v>486</v>
       </c>
       <c r="G96" s="76" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="97" spans="6:18" x14ac:dyDescent="0.15">
@@ -23451,7 +23231,7 @@
         <v>486</v>
       </c>
       <c r="G231" s="76" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="232" spans="2:18" x14ac:dyDescent="0.15">
@@ -24065,7 +23845,7 @@
         <v>486</v>
       </c>
       <c r="G298" s="76" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="299" spans="3:10" x14ac:dyDescent="0.15">
@@ -24584,7 +24364,7 @@
         <v>486</v>
       </c>
       <c r="G346" s="76" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="347" spans="1:18" x14ac:dyDescent="0.15">
@@ -27089,7 +26869,7 @@
       <c r="L508" s="8"/>
       <c r="M508" s="8"/>
       <c r="N508" s="100" t="s">
-        <v>1352</v>
+        <v>1343</v>
       </c>
       <c r="O508" s="66" t="s">
         <v>1046</v>
@@ -27552,7 +27332,7 @@
       <c r="L553" s="8"/>
       <c r="M553" s="8"/>
       <c r="N553" s="76" t="s">
-        <v>1351</v>
+        <v>1342</v>
       </c>
       <c r="O553" s="65" t="s">
         <v>1046</v>
@@ -27580,7 +27360,7 @@
       <c r="L554" s="8"/>
       <c r="M554" s="8"/>
       <c r="N554" s="76" t="s">
-        <v>1351</v>
+        <v>1342</v>
       </c>
       <c r="O554" s="65" t="s">
         <v>1046</v>
@@ -29565,7 +29345,7 @@
       <c r="L689" s="8"/>
       <c r="M689" s="8"/>
       <c r="N689" s="100" t="s">
-        <v>1353</v>
+        <v>1344</v>
       </c>
       <c r="O689" s="66" t="s">
         <v>1055</v>
@@ -31717,10 +31497,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T222"/>
+  <dimension ref="B1:T216"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O69" sqref="O69"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -31742,7 +31522,7 @@
         <v>486</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.15">
@@ -32012,571 +31792,581 @@
       <c r="H32" s="80"/>
       <c r="I32" s="8"/>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D34" s="77" t="s">
-        <v>547</v>
-      </c>
-      <c r="E34" s="77" t="s">
-        <v>1275</v>
-      </c>
-      <c r="F34" s="8" t="s">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D35" s="77" t="s">
+        <v>646</v>
+      </c>
+      <c r="E35" s="77" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G35" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="H35" s="77"/>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.15">
+        <v>495</v>
+      </c>
+      <c r="H36" s="77"/>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="G37" s="61">
-        <v>2</v>
-      </c>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.15">
+        <v>496</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="H37" s="77"/>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G38" s="77" t="s">
-        <v>507</v>
-      </c>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.15">
+        <v>498</v>
+      </c>
+      <c r="G38" s="61">
+        <v>2</v>
+      </c>
+      <c r="H38" s="77"/>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
-        <v>916</v>
+        <v>1176</v>
       </c>
       <c r="G39" s="77" t="s">
-        <v>1278</v>
-      </c>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.15">
+        <v>507</v>
+      </c>
+      <c r="H39" s="77"/>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D41" s="77" t="s">
+      <c r="F40" s="8" t="s">
+        <v>916</v>
+      </c>
+      <c r="G40" s="77" t="s">
         <v>1274</v>
       </c>
-      <c r="E41" s="77" t="s">
-        <v>1276</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>493</v>
-      </c>
+      <c r="H40" s="77"/>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="77" t="s">
+        <v>915</v>
+      </c>
+      <c r="G41" s="8"/>
       <c r="H41" s="77"/>
     </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="H42" s="77"/>
-    </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="H43" s="77"/>
-    </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="G44" s="61">
-        <v>2</v>
-      </c>
-      <c r="H44" s="77"/>
-    </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G45" s="77" t="s">
-        <v>507</v>
-      </c>
-      <c r="H45" s="77"/>
-    </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8" t="s">
-        <v>916</v>
-      </c>
-      <c r="G46" s="77" t="s">
-        <v>1277</v>
-      </c>
-      <c r="H46" s="77"/>
-    </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="77" t="s">
-        <v>915</v>
-      </c>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="F42" s="8"/>
+      <c r="G42" s="80" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H42" s="80" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="J44" s="3" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C45" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D45" s="76" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E45" s="77" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="1" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C46" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="D46" s="76" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E46" s="77" t="s">
+        <v>843</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C47" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D47" s="76" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E47" s="77" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="77"/>
-    </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C48" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="D48" s="76" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E48" s="77" t="s">
+        <v>1190</v>
+      </c>
       <c r="F48" s="8"/>
-      <c r="G48" s="80" t="s">
-        <v>1141</v>
-      </c>
-      <c r="H48" s="80" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="J50" s="3" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C51" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="D51" s="76" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E51" s="77" t="s">
-        <v>1188</v>
-      </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="1" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C52" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="D52" s="76" t="s">
-        <v>1185</v>
-      </c>
-      <c r="E52" s="77" t="s">
-        <v>843</v>
-      </c>
-      <c r="F52" s="8"/>
+        <v>513</v>
+      </c>
+      <c r="D51" s="76"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D52" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C53" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="D53" s="76" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E53" s="77" t="s">
-        <v>1189</v>
-      </c>
-      <c r="F53" s="8"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E53" s="76" t="s">
+        <v>1192</v>
+      </c>
       <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-    </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C54" s="3" t="s">
-        <v>937</v>
-      </c>
-      <c r="D54" s="76" t="s">
-        <v>1183</v>
-      </c>
-      <c r="E54" s="77" t="s">
-        <v>1190</v>
-      </c>
-      <c r="F54" s="8"/>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E54" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-    </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C57" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="D57" s="76"/>
-    </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D58" s="1" t="s">
-        <v>606</v>
-      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E55" s="76" t="s">
+        <v>536</v>
+      </c>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="E56" s="76" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D58" s="76" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E59" s="76" t="s">
-        <v>1192</v>
-      </c>
+        <v>1347</v>
+      </c>
+      <c r="F59" s="8"/>
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E60" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="G60" s="8"/>
-    </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E61" s="76" t="s">
         <v>536</v>
       </c>
-      <c r="G61" s="8"/>
-    </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E62" s="76" t="s">
         <v>1193</v>
       </c>
-      <c r="G62" s="8"/>
-    </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="G63" s="8"/>
-    </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D64" s="76" t="s">
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C64" s="3" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D65" s="76" t="s">
         <v>1345</v>
       </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-    </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="E65" s="76" t="s">
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E66" s="76" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E67" s="76" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E68" s="76" t="s">
         <v>1348</v>
       </c>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-    </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="E66" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="E67" s="76" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="E68" s="76" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C70" s="3" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="D71" s="76" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D69" s="76" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D70" s="76"/>
+      <c r="E70" s="76" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="E71" s="76" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E72" s="76" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="E73" s="76" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="E74" s="76" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="D75" s="76" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="D76" s="76"/>
-      <c r="E76" s="76" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="E77" s="76" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="E78" s="76" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="95" spans="2:4" s="45" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="45" t="s">
+    <row r="89" spans="2:20" s="45" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="45" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C96" s="3" t="s">
+    <row r="90" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C90" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="D96" s="76" t="s">
+      <c r="D90" s="76" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C97" s="16" t="s">
+    <row r="91" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C91" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C98" s="16" t="s">
+    <row r="92" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C92" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="R98" s="3"/>
-      <c r="T98" s="3" t="s">
+      <c r="R92" s="3"/>
+      <c r="T92" s="3" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="R99" s="3"/>
-      <c r="T99" s="3" t="s">
+    <row r="93" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="R93" s="3"/>
+      <c r="T93" s="3" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C100" s="3" t="s">
+    <row r="94" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C94" s="3" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C101" s="3"/>
-      <c r="D101" s="1" t="s">
+    <row r="95" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C95" s="3"/>
+      <c r="D95" s="1" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="104" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C104" s="3" t="s">
+    <row r="98" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C98" s="3" t="s">
         <v>489</v>
       </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+    </row>
+    <row r="99" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D99" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+    </row>
+    <row r="100" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+    </row>
+    <row r="101" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+    </row>
+    <row r="102" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="G102" s="86">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+    </row>
+    <row r="103" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+    </row>
+    <row r="104" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
+      <c r="F104" s="8" t="s">
+        <v>746</v>
+      </c>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
     </row>
-    <row r="105" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="D105" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>492</v>
-      </c>
+    <row r="105" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
       <c r="G105" s="8" t="s">
-        <v>499</v>
+        <v>922</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
     </row>
-    <row r="106" spans="3:20" x14ac:dyDescent="0.15">
+    <row r="106" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8" t="s">
-        <v>502</v>
+        <v>916</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>495</v>
+        <v>917</v>
       </c>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
     </row>
-    <row r="107" spans="3:20" x14ac:dyDescent="0.15">
+    <row r="107" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>497</v>
-      </c>
+        <v>915</v>
+      </c>
+      <c r="G107" s="8"/>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
     </row>
-    <row r="108" spans="3:20" x14ac:dyDescent="0.15">
+    <row r="108" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
-      <c r="F108" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="G108" s="86">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="H108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="80" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H108" s="80" t="s">
+        <v>1138</v>
+      </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
     </row>
-    <row r="109" spans="3:20" x14ac:dyDescent="0.15">
+    <row r="109" spans="3:10" x14ac:dyDescent="0.15">
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
-      <c r="F109" s="8" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>507</v>
-      </c>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
     </row>
-    <row r="110" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
+    <row r="110" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C110" s="102" t="s">
+        <v>899</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>928</v>
+      </c>
       <c r="F110" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="G110" s="8"/>
+        <v>492</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>493</v>
+      </c>
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
     </row>
-    <row r="111" spans="3:20" x14ac:dyDescent="0.15">
+    <row r="111" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C111" s="102"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
+      <c r="F111" s="8" t="s">
+        <v>494</v>
+      </c>
       <c r="G111" s="8" t="s">
-        <v>922</v>
+        <v>495</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
     </row>
-    <row r="112" spans="3:20" x14ac:dyDescent="0.15">
+    <row r="112" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C112" s="102"/>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8" t="s">
-        <v>916</v>
+        <v>496</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>917</v>
+        <v>497</v>
       </c>
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
     </row>
     <row r="113" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C113" s="102"/>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8" t="s">
-        <v>915</v>
-      </c>
-      <c r="G113" s="8"/>
+        <v>498</v>
+      </c>
+      <c r="G113" s="61">
+        <v>1</v>
+      </c>
       <c r="H113" s="8"/>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
     </row>
     <row r="114" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C114" s="102"/>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="80" t="s">
-        <v>1167</v>
-      </c>
-      <c r="H114" s="80" t="s">
-        <v>1138</v>
-      </c>
+      <c r="F114" s="8" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="H114" s="8"/>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
     </row>
     <row r="115" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C115" s="102"/>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
+      <c r="F115" s="8" t="s">
+        <v>746</v>
+      </c>
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
     </row>
     <row r="116" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C116" s="102" t="s">
-        <v>899</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>928</v>
-      </c>
-      <c r="F116" s="8" t="s">
-        <v>492</v>
-      </c>
+      <c r="C116" s="102"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
       <c r="G116" s="8" t="s">
-        <v>493</v>
+        <v>748</v>
       </c>
       <c r="H116" s="8"/>
       <c r="I116" s="8"/>
@@ -32587,10 +32377,10 @@
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8" t="s">
-        <v>494</v>
+        <v>916</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>495</v>
+        <v>919</v>
       </c>
       <c r="H117" s="8"/>
       <c r="I117" s="8"/>
@@ -32601,11 +32391,9 @@
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>497</v>
-      </c>
+        <v>915</v>
+      </c>
+      <c r="G118" s="8"/>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
@@ -32614,13 +32402,13 @@
       <c r="C119" s="102"/>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
-      <c r="F119" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="G119" s="61">
-        <v>1</v>
-      </c>
-      <c r="H119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="80" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H119" s="80" t="s">
+        <v>1142</v>
+      </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
     </row>
@@ -32628,12 +32416,8 @@
       <c r="C120" s="102"/>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
-      <c r="F120" s="8" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>506</v>
-      </c>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
@@ -32642,9 +32426,7 @@
       <c r="C121" s="102"/>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
-      <c r="F121" s="8" t="s">
-        <v>746</v>
-      </c>
+      <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
       <c r="I121" s="8"/>
@@ -32655,22 +32437,24 @@
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
-      <c r="G122" s="8" t="s">
-        <v>748</v>
-      </c>
+      <c r="G122" s="8"/>
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
     </row>
     <row r="123" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C123" s="102"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
+      <c r="D123" s="8" t="s">
+        <v>943</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>929</v>
+      </c>
       <c r="F123" s="8" t="s">
-        <v>916</v>
+        <v>492</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>919</v>
+        <v>493</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
@@ -32681,9 +32465,11 @@
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8" t="s">
-        <v>915</v>
-      </c>
-      <c r="G124" s="8"/>
+        <v>494</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>495</v>
+      </c>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
@@ -32692,13 +32478,13 @@
       <c r="C125" s="102"/>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="80" t="s">
-        <v>1168</v>
-      </c>
-      <c r="H125" s="80" t="s">
-        <v>1142</v>
-      </c>
+      <c r="F125" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="H125" s="8"/>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
     </row>
@@ -32706,8 +32492,12 @@
       <c r="C126" s="102"/>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
+      <c r="F126" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="G126" s="61">
+        <v>1</v>
+      </c>
       <c r="H126" s="8"/>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
@@ -32716,8 +32506,12 @@
       <c r="C127" s="102"/>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
+      <c r="F127" s="8" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>506</v>
+      </c>
       <c r="H127" s="8"/>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
@@ -32726,7 +32520,9 @@
       <c r="C128" s="102"/>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
+      <c r="F128" s="8" t="s">
+        <v>746</v>
+      </c>
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
       <c r="I128" s="8"/>
@@ -32734,17 +32530,11 @@
     </row>
     <row r="129" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C129" s="102"/>
-      <c r="D129" s="8" t="s">
-        <v>943</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>929</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>492</v>
-      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
       <c r="G129" s="8" t="s">
-        <v>493</v>
+        <v>748</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
@@ -32755,10 +32545,10 @@
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8" t="s">
-        <v>494</v>
+        <v>916</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>495</v>
+        <v>919</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
@@ -32769,11 +32559,9 @@
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="G131" s="8" t="s">
-        <v>497</v>
-      </c>
+        <v>915</v>
+      </c>
+      <c r="G131" s="8"/>
       <c r="H131" s="8"/>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
@@ -32782,13 +32570,13 @@
       <c r="C132" s="102"/>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
-      <c r="F132" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="G132" s="61">
-        <v>1</v>
-      </c>
-      <c r="H132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="80" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H132" s="80" t="s">
+        <v>1142</v>
+      </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
     </row>
@@ -32796,12 +32584,8 @@
       <c r="C133" s="102"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
-      <c r="F133" s="8" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G133" s="8" t="s">
-        <v>506</v>
-      </c>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
       <c r="H133" s="8"/>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
@@ -32810,9 +32594,7 @@
       <c r="C134" s="102"/>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
-      <c r="F134" s="8" t="s">
-        <v>746</v>
-      </c>
+      <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
@@ -32823,22 +32605,24 @@
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
-      <c r="G135" s="8" t="s">
-        <v>748</v>
-      </c>
+      <c r="G135" s="8"/>
       <c r="H135" s="8"/>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
     </row>
     <row r="136" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C136" s="102"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
+      <c r="D136" s="8" t="s">
+        <v>944</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>930</v>
+      </c>
       <c r="F136" s="8" t="s">
-        <v>916</v>
+        <v>492</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>919</v>
+        <v>493</v>
       </c>
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
@@ -32849,9 +32633,11 @@
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8" t="s">
-        <v>915</v>
-      </c>
-      <c r="G137" s="8"/>
+        <v>494</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>495</v>
+      </c>
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
@@ -32860,13 +32646,13 @@
       <c r="C138" s="102"/>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="80" t="s">
-        <v>1169</v>
-      </c>
-      <c r="H138" s="80" t="s">
-        <v>1142</v>
-      </c>
+      <c r="F138" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="H138" s="8"/>
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
     </row>
@@ -32874,8 +32660,12 @@
       <c r="C139" s="102"/>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
+      <c r="F139" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="G139" s="61">
+        <v>1</v>
+      </c>
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
@@ -32884,8 +32674,12 @@
       <c r="C140" s="102"/>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
+      <c r="F140" s="8" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>506</v>
+      </c>
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
@@ -32894,7 +32688,9 @@
       <c r="C141" s="102"/>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
+      <c r="F141" s="8" t="s">
+        <v>746</v>
+      </c>
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
       <c r="I141" s="8"/>
@@ -32902,17 +32698,11 @@
     </row>
     <row r="142" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C142" s="102"/>
-      <c r="D142" s="8" t="s">
-        <v>944</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>930</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>492</v>
-      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
       <c r="G142" s="8" t="s">
-        <v>493</v>
+        <v>748</v>
       </c>
       <c r="H142" s="8"/>
       <c r="I142" s="8"/>
@@ -32923,10 +32713,10 @@
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8" t="s">
-        <v>494</v>
+        <v>916</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>495</v>
+        <v>919</v>
       </c>
       <c r="H143" s="8"/>
       <c r="I143" s="8"/>
@@ -32937,11 +32727,9 @@
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="G144" s="8" t="s">
-        <v>497</v>
-      </c>
+        <v>915</v>
+      </c>
+      <c r="G144" s="8"/>
       <c r="H144" s="8"/>
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
@@ -32950,91 +32738,89 @@
       <c r="C145" s="102"/>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
-      <c r="F145" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="G145" s="61">
-        <v>1</v>
-      </c>
-      <c r="H145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="80" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H145" s="80" t="s">
+        <v>1142</v>
+      </c>
       <c r="I145" s="8"/>
       <c r="J145" s="8"/>
     </row>
     <row r="146" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C146" s="102"/>
+      <c r="C146" s="64"/>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
-      <c r="F146" s="8" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G146" s="8" t="s">
-        <v>506</v>
-      </c>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
       <c r="H146" s="8"/>
       <c r="I146" s="8"/>
       <c r="J146" s="8"/>
     </row>
     <row r="147" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C147" s="102"/>
+      <c r="C147" s="64"/>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
-      <c r="F147" s="8" t="s">
-        <v>746</v>
-      </c>
+      <c r="F147" s="8"/>
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
       <c r="I147" s="8"/>
       <c r="J147" s="8"/>
     </row>
     <row r="148" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C148" s="102"/>
+      <c r="C148" s="64"/>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
-      <c r="G148" s="8" t="s">
-        <v>748</v>
-      </c>
+      <c r="G148" s="8"/>
       <c r="H148" s="8"/>
       <c r="I148" s="8"/>
       <c r="J148" s="8"/>
     </row>
     <row r="149" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C149" s="102"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
+      <c r="C149" s="64"/>
+      <c r="D149" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>931</v>
+      </c>
       <c r="F149" s="8" t="s">
-        <v>916</v>
+        <v>492</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>919</v>
+        <v>493</v>
       </c>
       <c r="H149" s="8"/>
       <c r="I149" s="8"/>
       <c r="J149" s="8"/>
     </row>
     <row r="150" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C150" s="102"/>
+      <c r="C150" s="64"/>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
       <c r="F150" s="8" t="s">
-        <v>915</v>
-      </c>
-      <c r="G150" s="8"/>
+        <v>494</v>
+      </c>
+      <c r="G150" s="8" t="s">
+        <v>495</v>
+      </c>
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
       <c r="J150" s="8"/>
     </row>
     <row r="151" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C151" s="102"/>
+      <c r="C151" s="64"/>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="80" t="s">
-        <v>1170</v>
-      </c>
-      <c r="H151" s="80" t="s">
-        <v>1142</v>
-      </c>
+      <c r="F151" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="H151" s="8"/>
       <c r="I151" s="8"/>
       <c r="J151" s="8"/>
     </row>
@@ -33042,8 +32828,12 @@
       <c r="C152" s="64"/>
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
-      <c r="F152" s="8"/>
-      <c r="G152" s="8"/>
+      <c r="F152" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="G152" s="61">
+        <v>1</v>
+      </c>
       <c r="H152" s="8"/>
       <c r="I152" s="8"/>
       <c r="J152" s="8"/>
@@ -33052,8 +32842,12 @@
       <c r="C153" s="64"/>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="8"/>
+      <c r="F153" s="8" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G153" s="77" t="s">
+        <v>1133</v>
+      </c>
       <c r="H153" s="8"/>
       <c r="I153" s="8"/>
       <c r="J153" s="8"/>
@@ -33062,7 +32856,9 @@
       <c r="C154" s="64"/>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
-      <c r="F154" s="8"/>
+      <c r="F154" s="8" t="s">
+        <v>746</v>
+      </c>
       <c r="G154" s="8"/>
       <c r="H154" s="8"/>
       <c r="I154" s="8"/>
@@ -33070,17 +32866,11 @@
     </row>
     <row r="155" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C155" s="64"/>
-      <c r="D155" s="8" t="s">
-        <v>902</v>
-      </c>
-      <c r="E155" s="8" t="s">
-        <v>931</v>
-      </c>
-      <c r="F155" s="8" t="s">
-        <v>492</v>
-      </c>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
       <c r="G155" s="8" t="s">
-        <v>493</v>
+        <v>901</v>
       </c>
       <c r="H155" s="8"/>
       <c r="I155" s="8"/>
@@ -33091,10 +32881,10 @@
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
       <c r="F156" s="8" t="s">
-        <v>494</v>
+        <v>916</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>495</v>
+        <v>927</v>
       </c>
       <c r="H156" s="8"/>
       <c r="I156" s="8"/>
@@ -33104,13 +32894,11 @@
       <c r="C157" s="64"/>
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
-      <c r="F157" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="G157" s="8" t="s">
-        <v>900</v>
-      </c>
-      <c r="H157" s="8"/>
+      <c r="F157" s="80" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
       <c r="I157" s="8"/>
       <c r="J157" s="8"/>
     </row>
@@ -33118,13 +32906,13 @@
       <c r="C158" s="64"/>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
-      <c r="F158" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="G158" s="61">
-        <v>1</v>
-      </c>
-      <c r="H158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="80" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H158" s="80" t="s">
+        <v>1140</v>
+      </c>
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
     </row>
@@ -33133,11 +32921,9 @@
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
       <c r="F159" s="8" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G159" s="77" t="s">
-        <v>1133</v>
-      </c>
+        <v>915</v>
+      </c>
+      <c r="G159" s="8"/>
       <c r="H159" s="8"/>
       <c r="I159" s="8"/>
       <c r="J159" s="8"/>
@@ -33146,11 +32932,13 @@
       <c r="C160" s="64"/>
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
-      <c r="F160" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="80" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H160" s="80" t="s">
+        <v>1158</v>
+      </c>
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
     </row>
@@ -33159,22 +32947,24 @@
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
       <c r="F161" s="8"/>
-      <c r="G161" s="8" t="s">
-        <v>901</v>
-      </c>
+      <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="I161" s="8"/>
       <c r="J161" s="8"/>
     </row>
     <row r="162" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C162" s="64"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
+      <c r="D162" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>932</v>
+      </c>
       <c r="F162" s="8" t="s">
-        <v>916</v>
+        <v>492</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>927</v>
+        <v>493</v>
       </c>
       <c r="H162" s="8"/>
       <c r="I162" s="8"/>
@@ -33184,11 +32974,13 @@
       <c r="C163" s="64"/>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
-      <c r="F163" s="80" t="s">
-        <v>1160</v>
-      </c>
-      <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
+      <c r="F163" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G163" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="H163" s="8"/>
       <c r="I163" s="8"/>
       <c r="J163" s="8"/>
     </row>
@@ -33196,13 +32988,13 @@
       <c r="C164" s="64"/>
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="80" t="s">
-        <v>1171</v>
-      </c>
-      <c r="H164" s="80" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F164" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="G164" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="H164" s="8"/>
       <c r="I164" s="8"/>
       <c r="J164" s="8"/>
     </row>
@@ -33211,9 +33003,11 @@
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
       <c r="F165" s="8" t="s">
-        <v>915</v>
-      </c>
-      <c r="G165" s="8"/>
+        <v>498</v>
+      </c>
+      <c r="G165" s="61">
+        <v>1</v>
+      </c>
       <c r="H165" s="8"/>
       <c r="I165" s="8"/>
       <c r="J165" s="8"/>
@@ -33222,13 +33016,13 @@
       <c r="C166" s="64"/>
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
-      <c r="F166" s="8"/>
-      <c r="G166" s="80" t="s">
-        <v>1157</v>
-      </c>
-      <c r="H166" s="80" t="s">
-        <v>1158</v>
-      </c>
+      <c r="F166" s="8" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G166" s="77" t="s">
+        <v>507</v>
+      </c>
+      <c r="H166" s="8"/>
       <c r="I166" s="8"/>
       <c r="J166" s="8"/>
     </row>
@@ -33236,7 +33030,9 @@
       <c r="C167" s="64"/>
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
-      <c r="F167" s="8"/>
+      <c r="F167" s="8" t="s">
+        <v>746</v>
+      </c>
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
       <c r="I167" s="8"/>
@@ -33244,17 +33040,11 @@
     </row>
     <row r="168" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C168" s="64"/>
-      <c r="D168" s="8" t="s">
-        <v>945</v>
-      </c>
-      <c r="E168" s="8" t="s">
-        <v>932</v>
-      </c>
-      <c r="F168" s="8" t="s">
-        <v>492</v>
-      </c>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
       <c r="G168" s="8" t="s">
-        <v>493</v>
+        <v>901</v>
       </c>
       <c r="H168" s="8"/>
       <c r="I168" s="8"/>
@@ -33265,10 +33055,10 @@
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
       <c r="F169" s="8" t="s">
-        <v>494</v>
+        <v>916</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>495</v>
+        <v>927</v>
       </c>
       <c r="H169" s="8"/>
       <c r="I169" s="8"/>
@@ -33278,13 +33068,11 @@
       <c r="C170" s="64"/>
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
-      <c r="F170" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="G170" s="8" t="s">
-        <v>900</v>
-      </c>
-      <c r="H170" s="8"/>
+      <c r="F170" s="80" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
       <c r="I170" s="8"/>
       <c r="J170" s="8"/>
     </row>
@@ -33292,13 +33080,13 @@
       <c r="C171" s="64"/>
       <c r="D171" s="8"/>
       <c r="E171" s="8"/>
-      <c r="F171" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="G171" s="61">
-        <v>1</v>
-      </c>
-      <c r="H171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="80" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H171" s="80" t="s">
+        <v>1140</v>
+      </c>
       <c r="I171" s="8"/>
       <c r="J171" s="8"/>
     </row>
@@ -33307,11 +33095,9 @@
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
       <c r="F172" s="8" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G172" s="77" t="s">
-        <v>507</v>
-      </c>
+        <v>915</v>
+      </c>
+      <c r="G172" s="8"/>
       <c r="H172" s="8"/>
       <c r="I172" s="8"/>
       <c r="J172" s="8"/>
@@ -33320,11 +33106,13 @@
       <c r="C173" s="64"/>
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
-      <c r="F173" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="G173" s="8"/>
-      <c r="H173" s="8"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="80" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H173" s="80" t="s">
+        <v>1158</v>
+      </c>
       <c r="I173" s="8"/>
       <c r="J173" s="8"/>
     </row>
@@ -33333,250 +33121,299 @@
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
-      <c r="G174" s="8" t="s">
-        <v>901</v>
-      </c>
+      <c r="G174" s="8"/>
       <c r="H174" s="8"/>
       <c r="I174" s="8"/>
       <c r="J174" s="8"/>
     </row>
     <row r="175" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C175" s="64"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
+      <c r="D175" s="8" t="s">
+        <v>946</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>933</v>
+      </c>
       <c r="F175" s="8" t="s">
-        <v>916</v>
+        <v>492</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>927</v>
+        <v>493</v>
       </c>
       <c r="H175" s="8"/>
       <c r="I175" s="8"/>
       <c r="J175" s="8"/>
     </row>
     <row r="176" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C176" s="64"/>
       <c r="D176" s="8"/>
       <c r="E176" s="8"/>
-      <c r="F176" s="80" t="s">
-        <v>1160</v>
-      </c>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
+      <c r="F176" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G176" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="H176" s="8"/>
       <c r="I176" s="8"/>
       <c r="J176" s="8"/>
     </row>
-    <row r="177" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C177" s="64"/>
+    <row r="177" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
-      <c r="F177" s="8"/>
-      <c r="G177" s="80" t="s">
-        <v>1171</v>
-      </c>
-      <c r="H177" s="80" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F177" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="G177" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="H177" s="8"/>
       <c r="I177" s="8"/>
       <c r="J177" s="8"/>
     </row>
-    <row r="178" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C178" s="64"/>
+    <row r="178" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D178" s="8"/>
       <c r="E178" s="8"/>
       <c r="F178" s="8" t="s">
-        <v>915</v>
-      </c>
-      <c r="G178" s="8"/>
+        <v>498</v>
+      </c>
+      <c r="G178" s="61">
+        <v>1</v>
+      </c>
       <c r="H178" s="8"/>
       <c r="I178" s="8"/>
       <c r="J178" s="8"/>
     </row>
-    <row r="179" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C179" s="64"/>
+    <row r="179" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
-      <c r="F179" s="8"/>
-      <c r="G179" s="80" t="s">
-        <v>1157</v>
-      </c>
-      <c r="H179" s="80" t="s">
-        <v>1158</v>
-      </c>
+      <c r="F179" s="8" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G179" s="77" t="s">
+        <v>507</v>
+      </c>
+      <c r="H179" s="8"/>
       <c r="I179" s="8"/>
       <c r="J179" s="8"/>
     </row>
-    <row r="180" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C180" s="64"/>
+    <row r="180" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
-      <c r="F180" s="8"/>
+      <c r="F180" s="8" t="s">
+        <v>746</v>
+      </c>
       <c r="G180" s="8"/>
       <c r="H180" s="8"/>
       <c r="I180" s="8"/>
       <c r="J180" s="8"/>
     </row>
-    <row r="181" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C181" s="64"/>
-      <c r="D181" s="8" t="s">
-        <v>946</v>
-      </c>
-      <c r="E181" s="8" t="s">
-        <v>933</v>
-      </c>
-      <c r="F181" s="8" t="s">
-        <v>492</v>
-      </c>
+    <row r="181" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="D181" s="8"/>
+      <c r="E181" s="8"/>
+      <c r="F181" s="8"/>
       <c r="G181" s="8" t="s">
-        <v>493</v>
+        <v>901</v>
       </c>
       <c r="H181" s="8"/>
       <c r="I181" s="8"/>
       <c r="J181" s="8"/>
     </row>
-    <row r="182" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="182" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
       <c r="F182" s="8" t="s">
-        <v>494</v>
+        <v>916</v>
       </c>
       <c r="G182" s="8" t="s">
-        <v>495</v>
+        <v>927</v>
       </c>
       <c r="H182" s="8"/>
       <c r="I182" s="8"/>
       <c r="J182" s="8"/>
     </row>
-    <row r="183" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="183" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
-      <c r="F183" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="G183" s="8" t="s">
-        <v>900</v>
-      </c>
-      <c r="H183" s="8"/>
+      <c r="F183" s="80" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
       <c r="I183" s="8"/>
       <c r="J183" s="8"/>
     </row>
-    <row r="184" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="184" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
-      <c r="F184" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="G184" s="61">
-        <v>1</v>
-      </c>
-      <c r="H184" s="8"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="80" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H184" s="80" t="s">
+        <v>1140</v>
+      </c>
       <c r="I184" s="8"/>
       <c r="J184" s="8"/>
     </row>
-    <row r="185" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="185" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
       <c r="F185" s="8" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G185" s="77" t="s">
-        <v>507</v>
-      </c>
+        <v>915</v>
+      </c>
+      <c r="G185" s="8"/>
       <c r="H185" s="8"/>
       <c r="I185" s="8"/>
       <c r="J185" s="8"/>
     </row>
-    <row r="186" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="186" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D186" s="8"/>
       <c r="E186" s="8"/>
-      <c r="F186" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="G186" s="8"/>
-      <c r="H186" s="8"/>
+      <c r="F186" s="8"/>
+      <c r="G186" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>1158</v>
+      </c>
       <c r="I186" s="8"/>
       <c r="J186" s="8"/>
     </row>
-    <row r="187" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="187" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D187" s="8"/>
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
-      <c r="G187" s="8" t="s">
-        <v>901</v>
-      </c>
+      <c r="G187" s="8"/>
       <c r="H187" s="8"/>
       <c r="I187" s="8"/>
       <c r="J187" s="8"/>
     </row>
-    <row r="188" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="188" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D188" s="8"/>
       <c r="E188" s="8"/>
-      <c r="F188" s="8" t="s">
-        <v>916</v>
-      </c>
-      <c r="G188" s="8" t="s">
-        <v>927</v>
-      </c>
+      <c r="F188" s="8"/>
+      <c r="G188" s="8"/>
       <c r="H188" s="8"/>
       <c r="I188" s="8"/>
       <c r="J188" s="8"/>
     </row>
-    <row r="189" spans="3:10" x14ac:dyDescent="0.15">
+    <row r="189" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D189" s="8"/>
       <c r="E189" s="8"/>
-      <c r="F189" s="80" t="s">
-        <v>1160</v>
-      </c>
-      <c r="G189" s="2"/>
-      <c r="H189" s="2"/>
+      <c r="F189" s="8"/>
+      <c r="G189" s="8"/>
+      <c r="H189" s="8"/>
       <c r="I189" s="8"/>
       <c r="J189" s="8"/>
-    </row>
-    <row r="190" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D190" s="8"/>
-      <c r="E190" s="8"/>
+      <c r="K189" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="L189" s="69" t="s">
+        <v>1094</v>
+      </c>
+      <c r="M189" s="76" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="190" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C190" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>938</v>
+      </c>
+      <c r="E190" s="8" t="s">
+        <v>906</v>
+      </c>
       <c r="F190" s="8"/>
-      <c r="G190" s="80" t="s">
-        <v>1171</v>
-      </c>
-      <c r="H190" s="80" t="s">
-        <v>1140</v>
-      </c>
+      <c r="G190" s="8"/>
+      <c r="H190" s="8"/>
       <c r="I190" s="8"/>
       <c r="J190" s="8"/>
-    </row>
-    <row r="191" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D191" s="8"/>
-      <c r="E191" s="8"/>
-      <c r="F191" s="8" t="s">
-        <v>915</v>
-      </c>
+      <c r="K190" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="L190" s="69" t="s">
+        <v>1095</v>
+      </c>
+      <c r="M190" s="1" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="191" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C191" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>908</v>
+      </c>
+      <c r="F191" s="8"/>
       <c r="G191" s="8"/>
       <c r="H191" s="8"/>
       <c r="I191" s="8"/>
       <c r="J191" s="8"/>
-    </row>
-    <row r="192" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D192" s="8"/>
-      <c r="E192" s="8"/>
+      <c r="K191" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="L191" s="69" t="s">
+        <v>1096</v>
+      </c>
+      <c r="M191" s="1" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="192" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C192" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>907</v>
+      </c>
       <c r="F192" s="8"/>
-      <c r="G192" s="2" t="s">
-        <v>1157</v>
-      </c>
-      <c r="H192" s="2" t="s">
-        <v>1158</v>
-      </c>
+      <c r="G192" s="8"/>
+      <c r="H192" s="8"/>
       <c r="I192" s="8"/>
       <c r="J192" s="8"/>
+      <c r="K192" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="L192" s="69" t="s">
+        <v>1097</v>
+      </c>
+      <c r="M192" s="1" t="s">
+        <v>1241</v>
+      </c>
     </row>
     <row r="193" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="D193" s="8"/>
-      <c r="E193" s="8"/>
+      <c r="C193" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>942</v>
+      </c>
       <c r="F193" s="8"/>
       <c r="G193" s="8"/>
       <c r="H193" s="8"/>
       <c r="I193" s="8"/>
       <c r="J193" s="8"/>
+      <c r="K193" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="L193" s="69" t="s">
+        <v>1098</v>
+      </c>
+      <c r="M193" s="1" t="s">
+        <v>1241</v>
+      </c>
     </row>
     <row r="194" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D194" s="8"/>
@@ -33588,6 +33425,9 @@
       <c r="J194" s="8"/>
     </row>
     <row r="195" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C195" s="3" t="s">
+        <v>912</v>
+      </c>
       <c r="D195" s="8"/>
       <c r="E195" s="8"/>
       <c r="F195" s="8"/>
@@ -33595,131 +33435,67 @@
       <c r="H195" s="8"/>
       <c r="I195" s="8"/>
       <c r="J195" s="8"/>
-      <c r="K195" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="L195" s="69" t="s">
-        <v>1094</v>
-      </c>
-      <c r="M195" s="76" t="s">
-        <v>1268</v>
-      </c>
     </row>
     <row r="196" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C196" s="3" t="s">
-        <v>511</v>
-      </c>
       <c r="D196" s="8" t="s">
-        <v>938</v>
-      </c>
-      <c r="E196" s="8" t="s">
-        <v>906</v>
-      </c>
+        <v>923</v>
+      </c>
+      <c r="E196" s="8"/>
       <c r="F196" s="8"/>
       <c r="G196" s="8"/>
       <c r="H196" s="8"/>
       <c r="I196" s="8"/>
       <c r="J196" s="8"/>
-      <c r="K196" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="L196" s="69" t="s">
-        <v>1095</v>
-      </c>
-      <c r="M196" s="1" t="s">
-        <v>1240</v>
-      </c>
     </row>
     <row r="197" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C197" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>935</v>
-      </c>
+      <c r="D197" s="8"/>
       <c r="E197" s="8" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F197" s="8"/>
       <c r="G197" s="8"/>
       <c r="H197" s="8"/>
       <c r="I197" s="8"/>
       <c r="J197" s="8"/>
-      <c r="K197" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="L197" s="69" t="s">
-        <v>1096</v>
-      </c>
-      <c r="M197" s="1" t="s">
-        <v>1241</v>
-      </c>
     </row>
     <row r="198" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C198" s="3" t="s">
-        <v>940</v>
-      </c>
-      <c r="D198" s="8" t="s">
-        <v>905</v>
-      </c>
-      <c r="E198" s="8" t="s">
-        <v>907</v>
-      </c>
-      <c r="F198" s="8"/>
+      <c r="D198" s="8"/>
+      <c r="E198" s="8"/>
+      <c r="F198" s="8" t="s">
+        <v>947</v>
+      </c>
       <c r="G198" s="8"/>
       <c r="H198" s="8"/>
       <c r="I198" s="8"/>
       <c r="J198" s="8"/>
-      <c r="K198" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="L198" s="69" t="s">
-        <v>1097</v>
-      </c>
-      <c r="M198" s="1" t="s">
-        <v>1241</v>
-      </c>
     </row>
     <row r="199" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C199" s="3" t="s">
-        <v>937</v>
-      </c>
-      <c r="D199" s="8" t="s">
-        <v>936</v>
-      </c>
-      <c r="E199" s="8" t="s">
-        <v>942</v>
-      </c>
-      <c r="F199" s="8"/>
+      <c r="D199" s="8"/>
+      <c r="E199" s="8"/>
+      <c r="F199" s="8" t="s">
+        <v>948</v>
+      </c>
       <c r="G199" s="8"/>
       <c r="H199" s="8"/>
       <c r="I199" s="8"/>
       <c r="J199" s="8"/>
-      <c r="K199" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="L199" s="69" t="s">
-        <v>1098</v>
-      </c>
-      <c r="M199" s="1" t="s">
-        <v>1241</v>
-      </c>
     </row>
     <row r="200" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D200" s="8"/>
       <c r="E200" s="8"/>
-      <c r="F200" s="8"/>
+      <c r="F200" s="8" t="s">
+        <v>924</v>
+      </c>
       <c r="G200" s="8"/>
       <c r="H200" s="8"/>
       <c r="I200" s="8"/>
       <c r="J200" s="8"/>
     </row>
     <row r="201" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C201" s="3" t="s">
-        <v>912</v>
-      </c>
       <c r="D201" s="8"/>
-      <c r="E201" s="8"/>
+      <c r="E201" s="8" t="s">
+        <v>910</v>
+      </c>
       <c r="F201" s="8"/>
       <c r="G201" s="8"/>
       <c r="H201" s="8"/>
@@ -33727,11 +33503,11 @@
       <c r="J201" s="8"/>
     </row>
     <row r="202" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="D202" s="8" t="s">
-        <v>923</v>
-      </c>
+      <c r="D202" s="8"/>
       <c r="E202" s="8"/>
-      <c r="F202" s="8"/>
+      <c r="F202" s="8" t="s">
+        <v>950</v>
+      </c>
       <c r="G202" s="8"/>
       <c r="H202" s="8"/>
       <c r="I202" s="8"/>
@@ -33739,10 +33515,10 @@
     </row>
     <row r="203" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D203" s="8"/>
-      <c r="E203" s="8" t="s">
-        <v>909</v>
-      </c>
-      <c r="F203" s="8"/>
+      <c r="E203" s="8"/>
+      <c r="F203" s="8" t="s">
+        <v>951</v>
+      </c>
       <c r="G203" s="8"/>
       <c r="H203" s="8"/>
       <c r="I203" s="8"/>
@@ -33752,7 +33528,7 @@
       <c r="D204" s="8"/>
       <c r="E204" s="8"/>
       <c r="F204" s="8" t="s">
-        <v>947</v>
+        <v>924</v>
       </c>
       <c r="G204" s="8"/>
       <c r="H204" s="8"/>
@@ -33761,10 +33537,10 @@
     </row>
     <row r="205" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D205" s="8"/>
-      <c r="E205" s="8"/>
-      <c r="F205" s="8" t="s">
-        <v>948</v>
-      </c>
+      <c r="E205" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="F205" s="8"/>
       <c r="G205" s="8"/>
       <c r="H205" s="8"/>
       <c r="I205" s="8"/>
@@ -33774,7 +33550,7 @@
       <c r="D206" s="8"/>
       <c r="E206" s="8"/>
       <c r="F206" s="8" t="s">
-        <v>924</v>
+        <v>949</v>
       </c>
       <c r="G206" s="8"/>
       <c r="H206" s="8"/>
@@ -33783,10 +33559,10 @@
     </row>
     <row r="207" spans="3:13" x14ac:dyDescent="0.15">
       <c r="D207" s="8"/>
-      <c r="E207" s="8" t="s">
-        <v>910</v>
-      </c>
-      <c r="F207" s="8"/>
+      <c r="E207" s="8"/>
+      <c r="F207" s="8" t="s">
+        <v>952</v>
+      </c>
       <c r="G207" s="8"/>
       <c r="H207" s="8"/>
       <c r="I207" s="8"/>
@@ -33796,7 +33572,7 @@
       <c r="D208" s="8"/>
       <c r="E208" s="8"/>
       <c r="F208" s="8" t="s">
-        <v>950</v>
+        <v>925</v>
       </c>
       <c r="G208" s="8"/>
       <c r="H208" s="8"/>
@@ -33804,32 +33580,33 @@
       <c r="J208" s="8"/>
     </row>
     <row r="209" spans="3:10" x14ac:dyDescent="0.15">
+      <c r="C209" s="3" t="s">
+        <v>513</v>
+      </c>
       <c r="D209" s="8"/>
       <c r="E209" s="8"/>
-      <c r="F209" s="8" t="s">
-        <v>951</v>
-      </c>
+      <c r="F209" s="8"/>
       <c r="G209" s="8"/>
       <c r="H209" s="8"/>
       <c r="I209" s="8"/>
       <c r="J209" s="8"/>
     </row>
     <row r="210" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D210" s="8"/>
+      <c r="D210" s="8" t="s">
+        <v>535</v>
+      </c>
       <c r="E210" s="8"/>
-      <c r="F210" s="8" t="s">
-        <v>924</v>
-      </c>
+      <c r="F210" s="8"/>
       <c r="G210" s="8"/>
       <c r="H210" s="8"/>
       <c r="I210" s="8"/>
       <c r="J210" s="8"/>
     </row>
     <row r="211" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D211" s="8"/>
-      <c r="E211" s="8" t="s">
-        <v>911</v>
-      </c>
+      <c r="D211" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="E211" s="8"/>
       <c r="F211" s="8"/>
       <c r="G211" s="8"/>
       <c r="H211" s="8"/>
@@ -33837,42 +33614,39 @@
       <c r="J211" s="8"/>
     </row>
     <row r="212" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D212" s="8"/>
+      <c r="D212" s="8" t="s">
+        <v>521</v>
+      </c>
       <c r="E212" s="8"/>
-      <c r="F212" s="8" t="s">
-        <v>949</v>
-      </c>
+      <c r="F212" s="8"/>
       <c r="G212" s="8"/>
       <c r="H212" s="8"/>
       <c r="I212" s="8"/>
       <c r="J212" s="8"/>
     </row>
     <row r="213" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D213" s="8"/>
+      <c r="D213" s="8" t="s">
+        <v>654</v>
+      </c>
       <c r="E213" s="8"/>
-      <c r="F213" s="8" t="s">
-        <v>952</v>
-      </c>
+      <c r="F213" s="8"/>
       <c r="G213" s="8"/>
       <c r="H213" s="8"/>
       <c r="I213" s="8"/>
       <c r="J213" s="8"/>
     </row>
     <row r="214" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D214" s="8"/>
+      <c r="D214" s="8" t="s">
+        <v>941</v>
+      </c>
       <c r="E214" s="8"/>
-      <c r="F214" s="8" t="s">
-        <v>925</v>
-      </c>
+      <c r="F214" s="8"/>
       <c r="G214" s="8"/>
       <c r="H214" s="8"/>
       <c r="I214" s="8"/>
       <c r="J214" s="8"/>
     </row>
     <row r="215" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="C215" s="3" t="s">
-        <v>513</v>
-      </c>
       <c r="D215" s="8"/>
       <c r="E215" s="8"/>
       <c r="F215" s="8"/>
@@ -33882,9 +33656,7 @@
       <c r="J215" s="8"/>
     </row>
     <row r="216" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D216" s="8" t="s">
-        <v>535</v>
-      </c>
+      <c r="D216" s="8"/>
       <c r="E216" s="8"/>
       <c r="F216" s="8"/>
       <c r="G216" s="8"/>
@@ -33892,71 +33664,9 @@
       <c r="I216" s="8"/>
       <c r="J216" s="8"/>
     </row>
-    <row r="217" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D217" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="E217" s="8"/>
-      <c r="F217" s="8"/>
-      <c r="G217" s="8"/>
-      <c r="H217" s="8"/>
-      <c r="I217" s="8"/>
-      <c r="J217" s="8"/>
-    </row>
-    <row r="218" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D218" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="E218" s="8"/>
-      <c r="F218" s="8"/>
-      <c r="G218" s="8"/>
-      <c r="H218" s="8"/>
-      <c r="I218" s="8"/>
-      <c r="J218" s="8"/>
-    </row>
-    <row r="219" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D219" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="E219" s="8"/>
-      <c r="F219" s="8"/>
-      <c r="G219" s="8"/>
-      <c r="H219" s="8"/>
-      <c r="I219" s="8"/>
-      <c r="J219" s="8"/>
-    </row>
-    <row r="220" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D220" s="8" t="s">
-        <v>941</v>
-      </c>
-      <c r="E220" s="8"/>
-      <c r="F220" s="8"/>
-      <c r="G220" s="8"/>
-      <c r="H220" s="8"/>
-      <c r="I220" s="8"/>
-      <c r="J220" s="8"/>
-    </row>
-    <row r="221" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D221" s="8"/>
-      <c r="E221" s="8"/>
-      <c r="F221" s="8"/>
-      <c r="G221" s="8"/>
-      <c r="H221" s="8"/>
-      <c r="I221" s="8"/>
-      <c r="J221" s="8"/>
-    </row>
-    <row r="222" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="D222" s="8"/>
-      <c r="E222" s="8"/>
-      <c r="F222" s="8"/>
-      <c r="G222" s="8"/>
-      <c r="H222" s="8"/>
-      <c r="I222" s="8"/>
-      <c r="J222" s="8"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C116:C151"/>
+    <mergeCell ref="C110:C145"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36302,7 +36012,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="105" t="s">
         <v>311</v>
       </c>
       <c r="C2" s="102" t="s">
@@ -36311,15 +36021,15 @@
       <c r="D2" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="115"/>
+      <c r="E2" s="104"/>
       <c r="F2" s="102" t="s">
         <v>309</v>
       </c>
       <c r="G2" s="102" t="s">
         <v>306</v>
       </c>
-      <c r="H2" s="118"/>
-      <c r="I2" s="117" t="s">
+      <c r="H2" s="109"/>
+      <c r="I2" s="108" t="s">
         <v>314</v>
       </c>
       <c r="J2" s="102"/>
@@ -36329,7 +36039,7 @@
       <c r="L2" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="M2" s="116" t="s">
+      <c r="M2" s="107" t="s">
         <v>267</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -36346,14 +36056,14 @@
       </c>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="104"/>
+      <c r="B3" s="105"/>
       <c r="C3" s="102"/>
       <c r="D3" s="102"/>
-      <c r="E3" s="115"/>
+      <c r="E3" s="104"/>
       <c r="F3" s="102"/>
       <c r="G3" s="102"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="117"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="108"/>
       <c r="J3" s="102"/>
       <c r="K3" s="25" t="s">
         <v>272</v>
@@ -36361,7 +36071,7 @@
       <c r="L3" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="M3" s="116"/>
+      <c r="M3" s="107"/>
       <c r="N3" s="3" t="s">
         <v>70</v>
       </c>
@@ -36382,14 +36092,14 @@
       </c>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="104"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="102"/>
       <c r="D4" s="102"/>
-      <c r="E4" s="115"/>
+      <c r="E4" s="104"/>
       <c r="F4" s="102"/>
       <c r="G4" s="102"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="117"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="108"/>
       <c r="J4" s="102"/>
       <c r="K4" s="25" t="s">
         <v>278</v>
@@ -36397,7 +36107,7 @@
       <c r="L4" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="M4" s="116"/>
+      <c r="M4" s="107"/>
       <c r="N4" s="3" t="s">
         <v>72</v>
       </c>
@@ -36418,18 +36128,18 @@
       </c>
     </row>
     <row r="5" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="104"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="102"/>
       <c r="D5" s="102"/>
-      <c r="E5" s="115"/>
+      <c r="E5" s="104"/>
       <c r="F5" s="102"/>
       <c r="G5" s="102"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="117"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="108"/>
       <c r="J5" s="102"/>
       <c r="K5" s="28"/>
       <c r="L5" s="26"/>
-      <c r="M5" s="116"/>
+      <c r="M5" s="107"/>
       <c r="N5" s="3" t="s">
         <v>281</v>
       </c>
@@ -36444,18 +36154,18 @@
       </c>
     </row>
     <row r="6" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="104"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="102"/>
       <c r="D6" s="102"/>
-      <c r="E6" s="115"/>
+      <c r="E6" s="104"/>
       <c r="F6" s="102"/>
       <c r="G6" s="102"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="117"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="108"/>
       <c r="J6" s="102"/>
       <c r="K6" s="28"/>
       <c r="L6" s="26"/>
-      <c r="M6" s="116"/>
+      <c r="M6" s="107"/>
       <c r="N6" s="3" t="s">
         <v>284</v>
       </c>
@@ -36470,18 +36180,18 @@
       </c>
     </row>
     <row r="7" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="104"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="102"/>
       <c r="D7" s="102"/>
-      <c r="E7" s="115"/>
+      <c r="E7" s="104"/>
       <c r="F7" s="102"/>
       <c r="G7" s="102"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="117"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="108"/>
       <c r="J7" s="102"/>
       <c r="K7" s="28"/>
       <c r="L7" s="26"/>
-      <c r="M7" s="116"/>
+      <c r="M7" s="107"/>
       <c r="N7" s="3" t="s">
         <v>287</v>
       </c>
@@ -36496,18 +36206,18 @@
       </c>
     </row>
     <row r="8" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="104"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="102"/>
       <c r="D8" s="102"/>
-      <c r="E8" s="115"/>
+      <c r="E8" s="104"/>
       <c r="F8" s="102"/>
       <c r="G8" s="102"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="117"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="108"/>
       <c r="J8" s="102"/>
       <c r="K8" s="28"/>
       <c r="L8" s="26"/>
-      <c r="M8" s="116"/>
+      <c r="M8" s="107"/>
       <c r="N8" s="3" t="s">
         <v>290</v>
       </c>
@@ -36522,18 +36232,18 @@
       </c>
     </row>
     <row r="9" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="104"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="102"/>
       <c r="D9" s="102"/>
-      <c r="E9" s="115"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="102"/>
       <c r="G9" s="102"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="117"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="108"/>
       <c r="J9" s="102"/>
       <c r="K9" s="28"/>
       <c r="L9" s="26"/>
-      <c r="M9" s="116"/>
+      <c r="M9" s="107"/>
       <c r="N9" s="3" t="s">
         <v>293</v>
       </c>
@@ -36551,18 +36261,18 @@
       <c r="A10" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B10" s="104"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="102"/>
       <c r="D10" s="102"/>
-      <c r="E10" s="115"/>
+      <c r="E10" s="104"/>
       <c r="F10" s="102"/>
       <c r="G10" s="102"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="117"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="108"/>
       <c r="J10" s="102"/>
       <c r="K10" s="28"/>
       <c r="L10" s="26"/>
-      <c r="M10" s="116"/>
+      <c r="M10" s="107"/>
       <c r="N10" s="3" t="s">
         <v>295</v>
       </c>
@@ -36577,18 +36287,18 @@
       </c>
     </row>
     <row r="11" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="104"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="102"/>
       <c r="D11" s="102"/>
-      <c r="E11" s="115"/>
+      <c r="E11" s="104"/>
       <c r="F11" s="102"/>
       <c r="G11" s="102"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="117"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="108"/>
       <c r="J11" s="102"/>
       <c r="K11" s="28"/>
       <c r="L11" s="26"/>
-      <c r="M11" s="116"/>
+      <c r="M11" s="107"/>
       <c r="N11" s="3" t="s">
         <v>297</v>
       </c>
@@ -36603,14 +36313,14 @@
       </c>
     </row>
     <row r="12" spans="1:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="104"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="102"/>
       <c r="D12" s="102"/>
-      <c r="E12" s="115"/>
+      <c r="E12" s="104"/>
       <c r="F12" s="102"/>
       <c r="G12" s="102"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="117"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="108"/>
       <c r="J12" s="102"/>
       <c r="K12" s="28"/>
       <c r="L12" s="26"/>
@@ -36672,10 +36382,10 @@
       <c r="J14" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="K14" s="109" t="s">
+      <c r="K14" s="106" t="s">
         <v>257</v>
       </c>
-      <c r="L14" s="109"/>
+      <c r="L14" s="106"/>
       <c r="M14" s="42" t="s">
         <v>258</v>
       </c>
@@ -36702,24 +36412,24 @@
       </c>
     </row>
     <row r="15" spans="1:20" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="111" t="s">
         <v>312</v>
       </c>
-      <c r="C15" s="111" t="s">
+      <c r="C15" s="110" t="s">
         <v>310</v>
       </c>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="110" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="112"/>
-      <c r="F15" s="111" t="s">
+      <c r="F15" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="111" t="s">
+      <c r="G15" s="110" t="s">
         <v>306</v>
       </c>
-      <c r="H15" s="114"/>
-      <c r="I15" s="110" t="s">
+      <c r="H15" s="113"/>
+      <c r="I15" s="111" t="s">
         <v>140</v>
       </c>
       <c r="J15" s="46"/>
@@ -36729,7 +36439,7 @@
       <c r="L15" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="M15" s="109" t="s">
+      <c r="M15" s="106" t="s">
         <v>267</v>
       </c>
       <c r="N15" s="42" t="s">
@@ -36752,14 +36462,14 @@
       </c>
     </row>
     <row r="16" spans="1:20" s="45" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="110"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
       <c r="E16" s="112"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="111"/>
       <c r="J16" s="46"/>
       <c r="K16" s="47" t="s">
         <v>272</v>
@@ -36767,7 +36477,7 @@
       <c r="L16" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="M16" s="109"/>
+      <c r="M16" s="106"/>
       <c r="N16" s="42" t="s">
         <v>72</v>
       </c>
@@ -36788,14 +36498,14 @@
       </c>
     </row>
     <row r="17" spans="2:20" s="45" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="110"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
       <c r="E17" s="112"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="111"/>
       <c r="J17" s="46"/>
       <c r="K17" s="47" t="s">
         <v>278</v>
@@ -36878,24 +36588,24 @@
       </c>
     </row>
     <row r="20" spans="2:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="105" t="s">
         <v>422</v>
       </c>
-      <c r="C20" s="105" t="s">
+      <c r="C20" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="105" t="s">
+      <c r="D20" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="106"/>
-      <c r="F20" s="105" t="s">
+      <c r="E20" s="116"/>
+      <c r="F20" s="115" t="s">
         <v>154</v>
       </c>
-      <c r="G20" s="105" t="s">
+      <c r="G20" s="115" t="s">
         <v>306</v>
       </c>
-      <c r="H20" s="108"/>
-      <c r="I20" s="104" t="s">
+      <c r="H20" s="114"/>
+      <c r="I20" s="105" t="s">
         <v>140</v>
       </c>
       <c r="J20" s="30"/>
@@ -36929,14 +36639,14 @@
       </c>
     </row>
     <row r="21" spans="2:20" s="37" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="104"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="104"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="105"/>
       <c r="J21" s="30"/>
       <c r="K21" s="38" t="s">
         <v>272</v>
@@ -36966,14 +36676,14 @@
       </c>
     </row>
     <row r="22" spans="2:20" s="37" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="104"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="104"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="105"/>
       <c r="J22" s="30"/>
       <c r="K22" s="38" t="s">
         <v>278</v>
@@ -37029,10 +36739,10 @@
       <c r="J24" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="K24" s="109" t="s">
+      <c r="K24" s="106" t="s">
         <v>257</v>
       </c>
-      <c r="L24" s="109"/>
+      <c r="L24" s="106"/>
       <c r="M24" s="42" t="s">
         <v>258</v>
       </c>
@@ -37059,24 +36769,24 @@
       </c>
     </row>
     <row r="25" spans="2:20" s="54" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="111" t="s">
         <v>799</v>
       </c>
-      <c r="C25" s="111" t="s">
+      <c r="C25" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="111" t="s">
+      <c r="D25" s="110" t="s">
         <v>81</v>
       </c>
       <c r="E25" s="112"/>
-      <c r="F25" s="111" t="s">
+      <c r="F25" s="110" t="s">
         <v>308</v>
       </c>
-      <c r="G25" s="111" t="s">
+      <c r="G25" s="110" t="s">
         <v>306</v>
       </c>
-      <c r="H25" s="114"/>
-      <c r="I25" s="111" t="s">
+      <c r="H25" s="113"/>
+      <c r="I25" s="110" t="s">
         <v>315</v>
       </c>
       <c r="J25" s="46"/>
@@ -37086,7 +36796,7 @@
       <c r="L25" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="M25" s="109" t="s">
+      <c r="M25" s="106" t="s">
         <v>267</v>
       </c>
       <c r="N25" s="42" t="s">
@@ -37110,14 +36820,14 @@
       </c>
     </row>
     <row r="26" spans="2:20" s="54" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="110"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
       <c r="E26" s="112"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="111"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="110"/>
       <c r="J26" s="46"/>
       <c r="K26" s="47" t="s">
         <v>272</v>
@@ -37125,7 +36835,7 @@
       <c r="L26" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="M26" s="109"/>
+      <c r="M26" s="106"/>
       <c r="N26" s="42" t="s">
         <v>72</v>
       </c>
@@ -37147,14 +36857,14 @@
       </c>
     </row>
     <row r="27" spans="2:20" s="54" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="110"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
       <c r="E27" s="112"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="111"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="110"/>
       <c r="J27" s="46"/>
       <c r="K27" s="47" t="s">
         <v>278</v>
@@ -37240,24 +36950,24 @@
       </c>
     </row>
     <row r="30" spans="2:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B30" s="104" t="s">
+      <c r="B30" s="105" t="s">
         <v>317</v>
       </c>
-      <c r="C30" s="105" t="s">
+      <c r="C30" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="105" t="s">
+      <c r="D30" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="106"/>
-      <c r="F30" s="105" t="s">
+      <c r="E30" s="116"/>
+      <c r="F30" s="115" t="s">
         <v>316</v>
       </c>
-      <c r="G30" s="105" t="s">
+      <c r="G30" s="115" t="s">
         <v>306</v>
       </c>
-      <c r="H30" s="108"/>
-      <c r="I30" s="105" t="s">
+      <c r="H30" s="114"/>
+      <c r="I30" s="115" t="s">
         <v>315</v>
       </c>
       <c r="J30" s="30"/>
@@ -37291,14 +37001,14 @@
       </c>
     </row>
     <row r="31" spans="2:20" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="104"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="105"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="115"/>
       <c r="J31" s="30"/>
       <c r="K31" s="38" t="s">
         <v>272</v>
@@ -37328,14 +37038,14 @@
       </c>
     </row>
     <row r="32" spans="2:20" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="104"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="105"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="115"/>
       <c r="J32" s="30"/>
       <c r="K32" s="38" t="s">
         <v>278</v>
@@ -37391,10 +37101,10 @@
       <c r="J34" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="K34" s="109" t="s">
+      <c r="K34" s="106" t="s">
         <v>257</v>
       </c>
-      <c r="L34" s="109"/>
+      <c r="L34" s="106"/>
       <c r="M34" s="42" t="s">
         <v>318</v>
       </c>
@@ -37421,24 +37131,24 @@
       </c>
     </row>
     <row r="35" spans="2:20" s="54" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="111" t="s">
         <v>798</v>
       </c>
-      <c r="C35" s="111" t="s">
+      <c r="C35" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="111" t="s">
+      <c r="D35" s="110" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="112"/>
-      <c r="F35" s="111" t="s">
+      <c r="F35" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="111" t="s">
+      <c r="G35" s="110" t="s">
         <v>306</v>
       </c>
-      <c r="H35" s="114"/>
-      <c r="I35" s="111" t="s">
+      <c r="H35" s="113"/>
+      <c r="I35" s="110" t="s">
         <v>315</v>
       </c>
       <c r="J35" s="46"/>
@@ -37448,7 +37158,7 @@
       <c r="L35" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="M35" s="109" t="s">
+      <c r="M35" s="106" t="s">
         <v>267</v>
       </c>
       <c r="N35" s="42" t="s">
@@ -37472,14 +37182,14 @@
       </c>
     </row>
     <row r="36" spans="2:20" s="54" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="110"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="111"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
       <c r="E36" s="112"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="111"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="110"/>
       <c r="J36" s="46"/>
       <c r="K36" s="47" t="s">
         <v>272</v>
@@ -37487,7 +37197,7 @@
       <c r="L36" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="M36" s="109"/>
+      <c r="M36" s="106"/>
       <c r="N36" s="42" t="s">
         <v>72</v>
       </c>
@@ -37509,14 +37219,14 @@
       </c>
     </row>
     <row r="37" spans="2:20" s="54" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="110"/>
-      <c r="C37" s="111"/>
-      <c r="D37" s="111"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="110"/>
       <c r="E37" s="112"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="111"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="110"/>
       <c r="J37" s="46"/>
       <c r="K37" s="47" t="s">
         <v>278</v>
@@ -37602,24 +37312,24 @@
       </c>
     </row>
     <row r="40" spans="2:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B40" s="104" t="s">
+      <c r="B40" s="105" t="s">
         <v>443</v>
       </c>
-      <c r="C40" s="105" t="s">
+      <c r="C40" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="105" t="s">
+      <c r="D40" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="106"/>
-      <c r="F40" s="105" t="s">
+      <c r="E40" s="116"/>
+      <c r="F40" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="G40" s="107" t="s">
+      <c r="G40" s="117" t="s">
         <v>374</v>
       </c>
-      <c r="H40" s="108"/>
-      <c r="I40" s="105" t="s">
+      <c r="H40" s="114"/>
+      <c r="I40" s="115" t="s">
         <v>315</v>
       </c>
       <c r="J40" s="30"/>
@@ -37653,14 +37363,14 @@
       </c>
     </row>
     <row r="41" spans="2:20" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="104"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="108"/>
-      <c r="I41" s="105"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="115"/>
       <c r="J41" s="30"/>
       <c r="K41" s="38" t="s">
         <v>272</v>
@@ -37690,14 +37400,14 @@
       </c>
     </row>
     <row r="42" spans="2:20" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="104"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="106"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="106"/>
-      <c r="H42" s="108"/>
-      <c r="I42" s="105"/>
+      <c r="B42" s="105"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="116"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="115"/>
       <c r="J42" s="30"/>
       <c r="K42" s="38" t="s">
         <v>278</v>
@@ -37783,24 +37493,24 @@
       </c>
     </row>
     <row r="45" spans="2:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B45" s="104" t="s">
+      <c r="B45" s="105" t="s">
         <v>446</v>
       </c>
-      <c r="C45" s="105" t="s">
+      <c r="C45" s="115" t="s">
         <v>321</v>
       </c>
-      <c r="D45" s="105" t="s">
+      <c r="D45" s="115" t="s">
         <v>321</v>
       </c>
-      <c r="E45" s="106"/>
-      <c r="F45" s="105" t="s">
+      <c r="E45" s="116"/>
+      <c r="F45" s="115" t="s">
         <v>322</v>
       </c>
-      <c r="G45" s="107" t="s">
+      <c r="G45" s="117" t="s">
         <v>306</v>
       </c>
-      <c r="H45" s="108"/>
-      <c r="I45" s="105" t="s">
+      <c r="H45" s="114"/>
+      <c r="I45" s="115" t="s">
         <v>315</v>
       </c>
       <c r="J45" s="30"/>
@@ -37834,14 +37544,14 @@
       </c>
     </row>
     <row r="46" spans="2:20" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="104"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="106"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="108"/>
-      <c r="I46" s="105"/>
+      <c r="B46" s="105"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="115"/>
       <c r="J46" s="30"/>
       <c r="K46" s="38" t="s">
         <v>272</v>
@@ -37871,14 +37581,14 @@
       </c>
     </row>
     <row r="47" spans="2:20" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="104"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="108"/>
-      <c r="I47" s="105"/>
+      <c r="B47" s="105"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="115"/>
       <c r="J47" s="30"/>
       <c r="K47" s="38" t="s">
         <v>278</v>
@@ -37964,24 +37674,24 @@
       </c>
     </row>
     <row r="50" spans="2:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B50" s="104" t="s">
+      <c r="B50" s="105" t="s">
         <v>325</v>
       </c>
-      <c r="C50" s="105" t="s">
+      <c r="C50" s="115" t="s">
         <v>324</v>
       </c>
-      <c r="D50" s="105" t="s">
+      <c r="D50" s="115" t="s">
         <v>324</v>
       </c>
-      <c r="E50" s="106"/>
-      <c r="F50" s="105" t="s">
+      <c r="E50" s="116"/>
+      <c r="F50" s="115" t="s">
         <v>308</v>
       </c>
-      <c r="G50" s="107" t="s">
+      <c r="G50" s="117" t="s">
         <v>374</v>
       </c>
-      <c r="H50" s="108"/>
-      <c r="I50" s="105" t="s">
+      <c r="H50" s="114"/>
+      <c r="I50" s="115" t="s">
         <v>315</v>
       </c>
       <c r="J50" s="30"/>
@@ -38015,14 +37725,14 @@
       </c>
     </row>
     <row r="51" spans="2:20" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="104"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="106"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="106"/>
-      <c r="H51" s="108"/>
-      <c r="I51" s="105"/>
+      <c r="B51" s="105"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="115"/>
+      <c r="E51" s="116"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="115"/>
       <c r="J51" s="30"/>
       <c r="K51" s="38" t="s">
         <v>272</v>
@@ -38052,14 +37762,14 @@
       </c>
     </row>
     <row r="52" spans="2:20" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="104"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="105"/>
-      <c r="E52" s="106"/>
-      <c r="F52" s="105"/>
-      <c r="G52" s="106"/>
-      <c r="H52" s="108"/>
-      <c r="I52" s="105"/>
+      <c r="B52" s="105"/>
+      <c r="C52" s="115"/>
+      <c r="D52" s="115"/>
+      <c r="E52" s="116"/>
+      <c r="F52" s="115"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="115"/>
       <c r="J52" s="30"/>
       <c r="K52" s="38" t="s">
         <v>278</v>
@@ -38145,24 +37855,24 @@
       </c>
     </row>
     <row r="55" spans="2:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B55" s="104" t="s">
+      <c r="B55" s="105" t="s">
         <v>478</v>
       </c>
-      <c r="C55" s="105" t="s">
+      <c r="C55" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="105" t="s">
+      <c r="D55" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="106"/>
-      <c r="F55" s="105" t="s">
+      <c r="E55" s="116"/>
+      <c r="F55" s="115" t="s">
         <v>328</v>
       </c>
-      <c r="G55" s="107" t="s">
+      <c r="G55" s="117" t="s">
         <v>331</v>
       </c>
-      <c r="H55" s="108"/>
-      <c r="I55" s="105" t="s">
+      <c r="H55" s="114"/>
+      <c r="I55" s="115" t="s">
         <v>315</v>
       </c>
       <c r="J55" s="30"/>
@@ -38196,14 +37906,14 @@
       </c>
     </row>
     <row r="56" spans="2:20" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="104"/>
-      <c r="C56" s="105"/>
-      <c r="D56" s="105"/>
-      <c r="E56" s="106"/>
-      <c r="F56" s="105"/>
-      <c r="G56" s="107"/>
-      <c r="H56" s="108"/>
-      <c r="I56" s="105"/>
+      <c r="B56" s="105"/>
+      <c r="C56" s="115"/>
+      <c r="D56" s="115"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="115"/>
+      <c r="G56" s="117"/>
+      <c r="H56" s="114"/>
+      <c r="I56" s="115"/>
       <c r="J56" s="30"/>
       <c r="K56" s="38" t="s">
         <v>272</v>
@@ -38233,14 +37943,14 @@
       </c>
     </row>
     <row r="57" spans="2:20" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="104"/>
-      <c r="C57" s="105"/>
-      <c r="D57" s="105"/>
-      <c r="E57" s="106"/>
-      <c r="F57" s="105"/>
-      <c r="G57" s="107"/>
-      <c r="H57" s="108"/>
-      <c r="I57" s="105"/>
+      <c r="B57" s="105"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="115"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="115"/>
+      <c r="G57" s="117"/>
+      <c r="H57" s="114"/>
+      <c r="I57" s="115"/>
       <c r="J57" s="30"/>
       <c r="K57" s="38" t="s">
         <v>278</v>
@@ -38326,24 +38036,24 @@
       </c>
     </row>
     <row r="60" spans="2:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B60" s="104" t="s">
+      <c r="B60" s="105" t="s">
         <v>329</v>
       </c>
-      <c r="C60" s="105" t="s">
+      <c r="C60" s="115" t="s">
         <v>330</v>
       </c>
-      <c r="D60" s="105" t="s">
+      <c r="D60" s="115" t="s">
         <v>330</v>
       </c>
-      <c r="E60" s="106"/>
-      <c r="F60" s="105" t="s">
+      <c r="E60" s="116"/>
+      <c r="F60" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="G60" s="107" t="s">
+      <c r="G60" s="117" t="s">
         <v>374</v>
       </c>
-      <c r="H60" s="108"/>
-      <c r="I60" s="105" t="s">
+      <c r="H60" s="114"/>
+      <c r="I60" s="115" t="s">
         <v>315</v>
       </c>
       <c r="J60" s="30"/>
@@ -38377,14 +38087,14 @@
       </c>
     </row>
     <row r="61" spans="2:20" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="104"/>
-      <c r="C61" s="105"/>
-      <c r="D61" s="105"/>
-      <c r="E61" s="106"/>
-      <c r="F61" s="105"/>
-      <c r="G61" s="106"/>
-      <c r="H61" s="108"/>
-      <c r="I61" s="105"/>
+      <c r="B61" s="105"/>
+      <c r="C61" s="115"/>
+      <c r="D61" s="115"/>
+      <c r="E61" s="116"/>
+      <c r="F61" s="115"/>
+      <c r="G61" s="116"/>
+      <c r="H61" s="114"/>
+      <c r="I61" s="115"/>
       <c r="J61" s="30"/>
       <c r="K61" s="38" t="s">
         <v>272</v>
@@ -38414,14 +38124,14 @@
       </c>
     </row>
     <row r="62" spans="2:20" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="104"/>
-      <c r="C62" s="105"/>
-      <c r="D62" s="105"/>
-      <c r="E62" s="106"/>
-      <c r="F62" s="105"/>
-      <c r="G62" s="106"/>
-      <c r="H62" s="108"/>
-      <c r="I62" s="105"/>
+      <c r="B62" s="105"/>
+      <c r="C62" s="115"/>
+      <c r="D62" s="115"/>
+      <c r="E62" s="116"/>
+      <c r="F62" s="115"/>
+      <c r="G62" s="116"/>
+      <c r="H62" s="114"/>
+      <c r="I62" s="115"/>
       <c r="J62" s="30"/>
       <c r="K62" s="38" t="s">
         <v>278</v>
@@ -38477,10 +38187,10 @@
       <c r="J64" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="K64" s="109" t="s">
+      <c r="K64" s="106" t="s">
         <v>257</v>
       </c>
-      <c r="L64" s="109"/>
+      <c r="L64" s="106"/>
       <c r="M64" s="42" t="s">
         <v>318</v>
       </c>
@@ -38507,24 +38217,24 @@
       </c>
     </row>
     <row r="65" spans="2:20" s="54" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B65" s="110" t="s">
+      <c r="B65" s="111" t="s">
         <v>332</v>
       </c>
-      <c r="C65" s="111" t="s">
+      <c r="C65" s="110" t="s">
         <v>330</v>
       </c>
-      <c r="D65" s="111" t="s">
+      <c r="D65" s="110" t="s">
         <v>330</v>
       </c>
       <c r="E65" s="112"/>
-      <c r="F65" s="111" t="s">
+      <c r="F65" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="G65" s="113" t="s">
+      <c r="G65" s="118" t="s">
         <v>374</v>
       </c>
-      <c r="H65" s="114"/>
-      <c r="I65" s="111" t="s">
+      <c r="H65" s="113"/>
+      <c r="I65" s="110" t="s">
         <v>315</v>
       </c>
       <c r="J65" s="46"/>
@@ -38534,7 +38244,7 @@
       <c r="L65" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="M65" s="109" t="s">
+      <c r="M65" s="106" t="s">
         <v>267</v>
       </c>
       <c r="N65" s="42" t="s">
@@ -38558,14 +38268,14 @@
       </c>
     </row>
     <row r="66" spans="2:20" s="54" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="110"/>
-      <c r="C66" s="111"/>
-      <c r="D66" s="111"/>
+      <c r="B66" s="111"/>
+      <c r="C66" s="110"/>
+      <c r="D66" s="110"/>
       <c r="E66" s="112"/>
-      <c r="F66" s="111"/>
+      <c r="F66" s="110"/>
       <c r="G66" s="112"/>
-      <c r="H66" s="114"/>
-      <c r="I66" s="111"/>
+      <c r="H66" s="113"/>
+      <c r="I66" s="110"/>
       <c r="J66" s="46"/>
       <c r="K66" s="47" t="s">
         <v>272</v>
@@ -38573,7 +38283,7 @@
       <c r="L66" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="M66" s="109"/>
+      <c r="M66" s="106"/>
       <c r="N66" s="42" t="s">
         <v>72</v>
       </c>
@@ -38595,14 +38305,14 @@
       </c>
     </row>
     <row r="67" spans="2:20" s="54" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="110"/>
-      <c r="C67" s="111"/>
-      <c r="D67" s="111"/>
+      <c r="B67" s="111"/>
+      <c r="C67" s="110"/>
+      <c r="D67" s="110"/>
       <c r="E67" s="112"/>
-      <c r="F67" s="111"/>
+      <c r="F67" s="110"/>
       <c r="G67" s="112"/>
-      <c r="H67" s="114"/>
-      <c r="I67" s="111"/>
+      <c r="H67" s="113"/>
+      <c r="I67" s="110"/>
       <c r="J67" s="46"/>
       <c r="K67" s="47" t="s">
         <v>278</v>
@@ -38688,24 +38398,24 @@
       </c>
     </row>
     <row r="70" spans="2:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B70" s="104" t="s">
+      <c r="B70" s="105" t="s">
         <v>333</v>
       </c>
-      <c r="C70" s="105" t="s">
+      <c r="C70" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="D70" s="105" t="s">
+      <c r="D70" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="E70" s="106"/>
-      <c r="F70" s="105" t="s">
+      <c r="E70" s="116"/>
+      <c r="F70" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="G70" s="107" t="s">
+      <c r="G70" s="117" t="s">
         <v>306</v>
       </c>
-      <c r="H70" s="108"/>
-      <c r="I70" s="105" t="s">
+      <c r="H70" s="114"/>
+      <c r="I70" s="115" t="s">
         <v>315</v>
       </c>
       <c r="J70" s="30"/>
@@ -38739,14 +38449,14 @@
       </c>
     </row>
     <row r="71" spans="2:20" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="104"/>
-      <c r="C71" s="105"/>
-      <c r="D71" s="105"/>
-      <c r="E71" s="106"/>
-      <c r="F71" s="105"/>
-      <c r="G71" s="107"/>
-      <c r="H71" s="108"/>
-      <c r="I71" s="105"/>
+      <c r="B71" s="105"/>
+      <c r="C71" s="115"/>
+      <c r="D71" s="115"/>
+      <c r="E71" s="116"/>
+      <c r="F71" s="115"/>
+      <c r="G71" s="117"/>
+      <c r="H71" s="114"/>
+      <c r="I71" s="115"/>
       <c r="J71" s="30"/>
       <c r="K71" s="38" t="s">
         <v>272</v>
@@ -38776,14 +38486,14 @@
       </c>
     </row>
     <row r="72" spans="2:20" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="104"/>
-      <c r="C72" s="105"/>
-      <c r="D72" s="105"/>
-      <c r="E72" s="106"/>
-      <c r="F72" s="105"/>
-      <c r="G72" s="107"/>
-      <c r="H72" s="108"/>
-      <c r="I72" s="105"/>
+      <c r="B72" s="105"/>
+      <c r="C72" s="115"/>
+      <c r="D72" s="115"/>
+      <c r="E72" s="116"/>
+      <c r="F72" s="115"/>
+      <c r="G72" s="117"/>
+      <c r="H72" s="114"/>
+      <c r="I72" s="115"/>
       <c r="J72" s="30"/>
       <c r="K72" s="38" t="s">
         <v>278</v>
@@ -38839,10 +38549,10 @@
       <c r="J74" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="K74" s="109" t="s">
+      <c r="K74" s="106" t="s">
         <v>257</v>
       </c>
-      <c r="L74" s="109"/>
+      <c r="L74" s="106"/>
       <c r="M74" s="42" t="s">
         <v>318</v>
       </c>
@@ -38869,24 +38579,24 @@
       </c>
     </row>
     <row r="75" spans="2:20" s="54" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B75" s="110" t="s">
+      <c r="B75" s="111" t="s">
         <v>334</v>
       </c>
-      <c r="C75" s="111" t="s">
+      <c r="C75" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="D75" s="111" t="s">
+      <c r="D75" s="110" t="s">
         <v>132</v>
       </c>
       <c r="E75" s="112"/>
-      <c r="F75" s="111" t="s">
+      <c r="F75" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="G75" s="113" t="s">
+      <c r="G75" s="118" t="s">
         <v>306</v>
       </c>
-      <c r="H75" s="114"/>
-      <c r="I75" s="111" t="s">
+      <c r="H75" s="113"/>
+      <c r="I75" s="110" t="s">
         <v>315</v>
       </c>
       <c r="J75" s="46"/>
@@ -38896,7 +38606,7 @@
       <c r="L75" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="M75" s="109" t="s">
+      <c r="M75" s="106" t="s">
         <v>267</v>
       </c>
       <c r="N75" s="42" t="s">
@@ -38920,14 +38630,14 @@
       </c>
     </row>
     <row r="76" spans="2:20" s="54" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="110"/>
-      <c r="C76" s="111"/>
-      <c r="D76" s="111"/>
+      <c r="B76" s="111"/>
+      <c r="C76" s="110"/>
+      <c r="D76" s="110"/>
       <c r="E76" s="112"/>
-      <c r="F76" s="111"/>
-      <c r="G76" s="113"/>
-      <c r="H76" s="114"/>
-      <c r="I76" s="111"/>
+      <c r="F76" s="110"/>
+      <c r="G76" s="118"/>
+      <c r="H76" s="113"/>
+      <c r="I76" s="110"/>
       <c r="J76" s="46"/>
       <c r="K76" s="47" t="s">
         <v>272</v>
@@ -38935,7 +38645,7 @@
       <c r="L76" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="M76" s="109"/>
+      <c r="M76" s="106"/>
       <c r="N76" s="42" t="s">
         <v>72</v>
       </c>
@@ -38957,14 +38667,14 @@
       </c>
     </row>
     <row r="77" spans="2:20" s="54" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="110"/>
-      <c r="C77" s="111"/>
-      <c r="D77" s="111"/>
+      <c r="B77" s="111"/>
+      <c r="C77" s="110"/>
+      <c r="D77" s="110"/>
       <c r="E77" s="112"/>
-      <c r="F77" s="111"/>
-      <c r="G77" s="113"/>
-      <c r="H77" s="114"/>
-      <c r="I77" s="111"/>
+      <c r="F77" s="110"/>
+      <c r="G77" s="118"/>
+      <c r="H77" s="113"/>
+      <c r="I77" s="110"/>
       <c r="J77" s="46"/>
       <c r="K77" s="47" t="s">
         <v>278</v>
@@ -39050,24 +38760,24 @@
       </c>
     </row>
     <row r="80" spans="2:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B80" s="104" t="s">
+      <c r="B80" s="105" t="s">
         <v>479</v>
       </c>
-      <c r="C80" s="105" t="s">
+      <c r="C80" s="115" t="s">
         <v>119</v>
       </c>
-      <c r="D80" s="105" t="s">
+      <c r="D80" s="115" t="s">
         <v>119</v>
       </c>
-      <c r="E80" s="106"/>
-      <c r="F80" s="105" t="s">
+      <c r="E80" s="116"/>
+      <c r="F80" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="G80" s="107" t="s">
+      <c r="G80" s="117" t="s">
         <v>375</v>
       </c>
-      <c r="H80" s="108"/>
-      <c r="I80" s="105" t="s">
+      <c r="H80" s="114"/>
+      <c r="I80" s="115" t="s">
         <v>315</v>
       </c>
       <c r="J80" s="30"/>
@@ -39101,14 +38811,14 @@
       </c>
     </row>
     <row r="81" spans="2:20" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="104"/>
-      <c r="C81" s="105"/>
-      <c r="D81" s="105"/>
-      <c r="E81" s="106"/>
-      <c r="F81" s="105"/>
-      <c r="G81" s="107"/>
-      <c r="H81" s="108"/>
-      <c r="I81" s="105"/>
+      <c r="B81" s="105"/>
+      <c r="C81" s="115"/>
+      <c r="D81" s="115"/>
+      <c r="E81" s="116"/>
+      <c r="F81" s="115"/>
+      <c r="G81" s="117"/>
+      <c r="H81" s="114"/>
+      <c r="I81" s="115"/>
       <c r="J81" s="30"/>
       <c r="K81" s="38" t="s">
         <v>272</v>
@@ -39138,14 +38848,14 @@
       </c>
     </row>
     <row r="82" spans="2:20" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="104"/>
-      <c r="C82" s="105"/>
-      <c r="D82" s="105"/>
-      <c r="E82" s="106"/>
-      <c r="F82" s="105"/>
-      <c r="G82" s="107"/>
-      <c r="H82" s="108"/>
-      <c r="I82" s="105"/>
+      <c r="B82" s="105"/>
+      <c r="C82" s="115"/>
+      <c r="D82" s="115"/>
+      <c r="E82" s="116"/>
+      <c r="F82" s="115"/>
+      <c r="G82" s="117"/>
+      <c r="H82" s="114"/>
+      <c r="I82" s="115"/>
       <c r="J82" s="30"/>
       <c r="K82" s="38" t="s">
         <v>278</v>
@@ -39231,24 +38941,24 @@
       </c>
     </row>
     <row r="85" spans="2:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B85" s="104" t="s">
+      <c r="B85" s="105" t="s">
         <v>480</v>
       </c>
-      <c r="C85" s="105" t="s">
+      <c r="C85" s="115" t="s">
         <v>124</v>
       </c>
-      <c r="D85" s="105" t="s">
+      <c r="D85" s="115" t="s">
         <v>124</v>
       </c>
-      <c r="E85" s="106"/>
-      <c r="F85" s="105" t="s">
+      <c r="E85" s="116"/>
+      <c r="F85" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="G85" s="107" t="s">
+      <c r="G85" s="117" t="s">
         <v>306</v>
       </c>
-      <c r="H85" s="108"/>
-      <c r="I85" s="105" t="s">
+      <c r="H85" s="114"/>
+      <c r="I85" s="115" t="s">
         <v>315</v>
       </c>
       <c r="J85" s="30"/>
@@ -39282,14 +38992,14 @@
       </c>
     </row>
     <row r="86" spans="2:20" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="104"/>
-      <c r="C86" s="105"/>
-      <c r="D86" s="105"/>
-      <c r="E86" s="106"/>
-      <c r="F86" s="105"/>
-      <c r="G86" s="107"/>
-      <c r="H86" s="108"/>
-      <c r="I86" s="105"/>
+      <c r="B86" s="105"/>
+      <c r="C86" s="115"/>
+      <c r="D86" s="115"/>
+      <c r="E86" s="116"/>
+      <c r="F86" s="115"/>
+      <c r="G86" s="117"/>
+      <c r="H86" s="114"/>
+      <c r="I86" s="115"/>
       <c r="J86" s="30"/>
       <c r="K86" s="38" t="s">
         <v>272</v>
@@ -39319,14 +39029,14 @@
       </c>
     </row>
     <row r="87" spans="2:20" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="104"/>
-      <c r="C87" s="105"/>
-      <c r="D87" s="105"/>
-      <c r="E87" s="106"/>
-      <c r="F87" s="105"/>
-      <c r="G87" s="107"/>
-      <c r="H87" s="108"/>
-      <c r="I87" s="105"/>
+      <c r="B87" s="105"/>
+      <c r="C87" s="115"/>
+      <c r="D87" s="115"/>
+      <c r="E87" s="116"/>
+      <c r="F87" s="115"/>
+      <c r="G87" s="117"/>
+      <c r="H87" s="114"/>
+      <c r="I87" s="115"/>
       <c r="J87" s="30"/>
       <c r="K87" s="38" t="s">
         <v>278</v>
@@ -39412,24 +39122,24 @@
       </c>
     </row>
     <row r="90" spans="2:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B90" s="104" t="s">
+      <c r="B90" s="105" t="s">
         <v>414</v>
       </c>
-      <c r="C90" s="105" t="s">
+      <c r="C90" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="D90" s="105" t="s">
+      <c r="D90" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="E90" s="106"/>
-      <c r="F90" s="105" t="s">
+      <c r="E90" s="116"/>
+      <c r="F90" s="115" t="s">
         <v>335</v>
       </c>
-      <c r="G90" s="107" t="s">
+      <c r="G90" s="117" t="s">
         <v>306</v>
       </c>
-      <c r="H90" s="108"/>
-      <c r="I90" s="105" t="s">
+      <c r="H90" s="114"/>
+      <c r="I90" s="115" t="s">
         <v>315</v>
       </c>
       <c r="J90" s="30"/>
@@ -39463,14 +39173,14 @@
       </c>
     </row>
     <row r="91" spans="2:20" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="104"/>
-      <c r="C91" s="105"/>
-      <c r="D91" s="105"/>
-      <c r="E91" s="106"/>
-      <c r="F91" s="105"/>
-      <c r="G91" s="107"/>
-      <c r="H91" s="108"/>
-      <c r="I91" s="105"/>
+      <c r="B91" s="105"/>
+      <c r="C91" s="115"/>
+      <c r="D91" s="115"/>
+      <c r="E91" s="116"/>
+      <c r="F91" s="115"/>
+      <c r="G91" s="117"/>
+      <c r="H91" s="114"/>
+      <c r="I91" s="115"/>
       <c r="J91" s="30"/>
       <c r="K91" s="38" t="s">
         <v>272</v>
@@ -39500,14 +39210,14 @@
       </c>
     </row>
     <row r="92" spans="2:20" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="104"/>
-      <c r="C92" s="105"/>
-      <c r="D92" s="105"/>
-      <c r="E92" s="106"/>
-      <c r="F92" s="105"/>
-      <c r="G92" s="107"/>
-      <c r="H92" s="108"/>
-      <c r="I92" s="105"/>
+      <c r="B92" s="105"/>
+      <c r="C92" s="115"/>
+      <c r="D92" s="115"/>
+      <c r="E92" s="116"/>
+      <c r="F92" s="115"/>
+      <c r="G92" s="117"/>
+      <c r="H92" s="114"/>
+      <c r="I92" s="115"/>
       <c r="J92" s="30"/>
       <c r="K92" s="38" t="s">
         <v>278</v>
@@ -39563,10 +39273,10 @@
       <c r="J94" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="K94" s="109" t="s">
+      <c r="K94" s="106" t="s">
         <v>257</v>
       </c>
-      <c r="L94" s="109"/>
+      <c r="L94" s="106"/>
       <c r="M94" s="42" t="s">
         <v>318</v>
       </c>
@@ -39593,24 +39303,24 @@
       </c>
     </row>
     <row r="95" spans="2:20" s="54" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B95" s="110" t="s">
+      <c r="B95" s="111" t="s">
         <v>801</v>
       </c>
-      <c r="C95" s="111" t="s">
+      <c r="C95" s="110" t="s">
         <v>413</v>
       </c>
-      <c r="D95" s="111" t="s">
+      <c r="D95" s="110" t="s">
         <v>413</v>
       </c>
       <c r="E95" s="112"/>
-      <c r="F95" s="111" t="s">
+      <c r="F95" s="110" t="s">
         <v>326</v>
       </c>
-      <c r="G95" s="113" t="s">
+      <c r="G95" s="118" t="s">
         <v>306</v>
       </c>
-      <c r="H95" s="114"/>
-      <c r="I95" s="111" t="s">
+      <c r="H95" s="113"/>
+      <c r="I95" s="110" t="s">
         <v>315</v>
       </c>
       <c r="J95" s="46"/>
@@ -39620,7 +39330,7 @@
       <c r="L95" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="M95" s="109" t="s">
+      <c r="M95" s="106" t="s">
         <v>267</v>
       </c>
       <c r="N95" s="42" t="s">
@@ -39644,14 +39354,14 @@
       </c>
     </row>
     <row r="96" spans="2:20" s="54" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="110"/>
-      <c r="C96" s="111"/>
-      <c r="D96" s="111"/>
+      <c r="B96" s="111"/>
+      <c r="C96" s="110"/>
+      <c r="D96" s="110"/>
       <c r="E96" s="112"/>
-      <c r="F96" s="111"/>
-      <c r="G96" s="113"/>
-      <c r="H96" s="114"/>
-      <c r="I96" s="111"/>
+      <c r="F96" s="110"/>
+      <c r="G96" s="118"/>
+      <c r="H96" s="113"/>
+      <c r="I96" s="110"/>
       <c r="J96" s="46"/>
       <c r="K96" s="47" t="s">
         <v>272</v>
@@ -39659,7 +39369,7 @@
       <c r="L96" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="M96" s="109"/>
+      <c r="M96" s="106"/>
       <c r="N96" s="42" t="s">
         <v>72</v>
       </c>
@@ -39681,14 +39391,14 @@
       </c>
     </row>
     <row r="97" spans="2:20" s="54" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="110"/>
-      <c r="C97" s="111"/>
-      <c r="D97" s="111"/>
+      <c r="B97" s="111"/>
+      <c r="C97" s="110"/>
+      <c r="D97" s="110"/>
       <c r="E97" s="112"/>
-      <c r="F97" s="111"/>
-      <c r="G97" s="113"/>
-      <c r="H97" s="114"/>
-      <c r="I97" s="111"/>
+      <c r="F97" s="110"/>
+      <c r="G97" s="118"/>
+      <c r="H97" s="113"/>
+      <c r="I97" s="110"/>
       <c r="J97" s="46"/>
       <c r="K97" s="47" t="s">
         <v>278</v>
@@ -39774,24 +39484,24 @@
       </c>
     </row>
     <row r="100" spans="2:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B100" s="104" t="s">
+      <c r="B100" s="105" t="s">
         <v>481</v>
       </c>
-      <c r="C100" s="105" t="s">
+      <c r="C100" s="115" t="s">
         <v>162</v>
       </c>
-      <c r="D100" s="105" t="s">
+      <c r="D100" s="115" t="s">
         <v>162</v>
       </c>
-      <c r="E100" s="106"/>
-      <c r="F100" s="105" t="s">
+      <c r="E100" s="116"/>
+      <c r="F100" s="115" t="s">
         <v>335</v>
       </c>
-      <c r="G100" s="107" t="s">
+      <c r="G100" s="117" t="s">
         <v>306</v>
       </c>
-      <c r="H100" s="108"/>
-      <c r="I100" s="105" t="s">
+      <c r="H100" s="114"/>
+      <c r="I100" s="115" t="s">
         <v>315</v>
       </c>
       <c r="J100" s="30"/>
@@ -39825,14 +39535,14 @@
       </c>
     </row>
     <row r="101" spans="2:20" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="104"/>
-      <c r="C101" s="105"/>
-      <c r="D101" s="105"/>
-      <c r="E101" s="106"/>
-      <c r="F101" s="105"/>
-      <c r="G101" s="107"/>
-      <c r="H101" s="108"/>
-      <c r="I101" s="105"/>
+      <c r="B101" s="105"/>
+      <c r="C101" s="115"/>
+      <c r="D101" s="115"/>
+      <c r="E101" s="116"/>
+      <c r="F101" s="115"/>
+      <c r="G101" s="117"/>
+      <c r="H101" s="114"/>
+      <c r="I101" s="115"/>
       <c r="J101" s="30"/>
       <c r="K101" s="38" t="s">
         <v>272</v>
@@ -39862,14 +39572,14 @@
       </c>
     </row>
     <row r="102" spans="2:20" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="104"/>
-      <c r="C102" s="105"/>
-      <c r="D102" s="105"/>
-      <c r="E102" s="106"/>
-      <c r="F102" s="105"/>
-      <c r="G102" s="107"/>
-      <c r="H102" s="108"/>
-      <c r="I102" s="105"/>
+      <c r="B102" s="105"/>
+      <c r="C102" s="115"/>
+      <c r="D102" s="115"/>
+      <c r="E102" s="116"/>
+      <c r="F102" s="115"/>
+      <c r="G102" s="117"/>
+      <c r="H102" s="114"/>
+      <c r="I102" s="115"/>
       <c r="J102" s="30"/>
       <c r="K102" s="38" t="s">
         <v>278</v>
@@ -39955,24 +39665,24 @@
       </c>
     </row>
     <row r="105" spans="2:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B105" s="104" t="s">
+      <c r="B105" s="105" t="s">
         <v>471</v>
       </c>
-      <c r="C105" s="105" t="s">
+      <c r="C105" s="115" t="s">
         <v>167</v>
       </c>
-      <c r="D105" s="105" t="s">
+      <c r="D105" s="115" t="s">
         <v>167</v>
       </c>
-      <c r="E105" s="106"/>
-      <c r="F105" s="105" t="s">
+      <c r="E105" s="116"/>
+      <c r="F105" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="G105" s="107" t="s">
+      <c r="G105" s="117" t="s">
         <v>306</v>
       </c>
-      <c r="H105" s="108"/>
-      <c r="I105" s="105" t="s">
+      <c r="H105" s="114"/>
+      <c r="I105" s="115" t="s">
         <v>315</v>
       </c>
       <c r="J105" s="30"/>
@@ -40006,14 +39716,14 @@
       </c>
     </row>
     <row r="106" spans="2:20" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="104"/>
-      <c r="C106" s="105"/>
-      <c r="D106" s="105"/>
-      <c r="E106" s="106"/>
-      <c r="F106" s="105"/>
-      <c r="G106" s="107"/>
-      <c r="H106" s="108"/>
-      <c r="I106" s="105"/>
+      <c r="B106" s="105"/>
+      <c r="C106" s="115"/>
+      <c r="D106" s="115"/>
+      <c r="E106" s="116"/>
+      <c r="F106" s="115"/>
+      <c r="G106" s="117"/>
+      <c r="H106" s="114"/>
+      <c r="I106" s="115"/>
       <c r="J106" s="30"/>
       <c r="K106" s="38" t="s">
         <v>272</v>
@@ -40043,14 +39753,14 @@
       </c>
     </row>
     <row r="107" spans="2:20" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="104"/>
-      <c r="C107" s="105"/>
-      <c r="D107" s="105"/>
-      <c r="E107" s="106"/>
-      <c r="F107" s="105"/>
-      <c r="G107" s="107"/>
-      <c r="H107" s="108"/>
-      <c r="I107" s="105"/>
+      <c r="B107" s="105"/>
+      <c r="C107" s="115"/>
+      <c r="D107" s="115"/>
+      <c r="E107" s="116"/>
+      <c r="F107" s="115"/>
+      <c r="G107" s="117"/>
+      <c r="H107" s="114"/>
+      <c r="I107" s="115"/>
       <c r="J107" s="30"/>
       <c r="K107" s="38" t="s">
         <v>278</v>
@@ -40136,24 +39846,24 @@
       </c>
     </row>
     <row r="110" spans="2:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B110" s="104" t="s">
+      <c r="B110" s="105" t="s">
         <v>472</v>
       </c>
-      <c r="C110" s="105" t="s">
+      <c r="C110" s="115" t="s">
         <v>336</v>
       </c>
-      <c r="D110" s="105" t="s">
+      <c r="D110" s="115" t="s">
         <v>336</v>
       </c>
-      <c r="E110" s="106"/>
-      <c r="F110" s="105" t="s">
+      <c r="E110" s="116"/>
+      <c r="F110" s="115" t="s">
         <v>335</v>
       </c>
-      <c r="G110" s="107" t="s">
+      <c r="G110" s="117" t="s">
         <v>306</v>
       </c>
-      <c r="H110" s="108"/>
-      <c r="I110" s="105" t="s">
+      <c r="H110" s="114"/>
+      <c r="I110" s="115" t="s">
         <v>315</v>
       </c>
       <c r="J110" s="30"/>
@@ -40187,14 +39897,14 @@
       </c>
     </row>
     <row r="111" spans="2:20" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="104"/>
-      <c r="C111" s="105"/>
-      <c r="D111" s="105"/>
-      <c r="E111" s="106"/>
-      <c r="F111" s="105"/>
-      <c r="G111" s="107"/>
-      <c r="H111" s="108"/>
-      <c r="I111" s="105"/>
+      <c r="B111" s="105"/>
+      <c r="C111" s="115"/>
+      <c r="D111" s="115"/>
+      <c r="E111" s="116"/>
+      <c r="F111" s="115"/>
+      <c r="G111" s="117"/>
+      <c r="H111" s="114"/>
+      <c r="I111" s="115"/>
       <c r="J111" s="30"/>
       <c r="K111" s="38" t="s">
         <v>272</v>
@@ -40224,14 +39934,14 @@
       </c>
     </row>
     <row r="112" spans="2:20" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="104"/>
-      <c r="C112" s="105"/>
-      <c r="D112" s="105"/>
-      <c r="E112" s="106"/>
-      <c r="F112" s="105"/>
-      <c r="G112" s="107"/>
-      <c r="H112" s="108"/>
-      <c r="I112" s="105"/>
+      <c r="B112" s="105"/>
+      <c r="C112" s="115"/>
+      <c r="D112" s="115"/>
+      <c r="E112" s="116"/>
+      <c r="F112" s="115"/>
+      <c r="G112" s="117"/>
+      <c r="H112" s="114"/>
+      <c r="I112" s="115"/>
       <c r="J112" s="30"/>
       <c r="K112" s="38" t="s">
         <v>278</v>
@@ -40317,24 +40027,24 @@
       </c>
     </row>
     <row r="115" spans="2:20" s="37" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B115" s="104" t="s">
+      <c r="B115" s="105" t="s">
         <v>482</v>
       </c>
-      <c r="C115" s="105" t="s">
+      <c r="C115" s="115" t="s">
         <v>337</v>
       </c>
-      <c r="D115" s="105" t="s">
+      <c r="D115" s="115" t="s">
         <v>337</v>
       </c>
-      <c r="E115" s="106"/>
-      <c r="F115" s="105" t="s">
+      <c r="E115" s="116"/>
+      <c r="F115" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="G115" s="107" t="s">
+      <c r="G115" s="117" t="s">
         <v>306</v>
       </c>
-      <c r="H115" s="108"/>
-      <c r="I115" s="105" t="s">
+      <c r="H115" s="114"/>
+      <c r="I115" s="115" t="s">
         <v>315</v>
       </c>
       <c r="J115" s="30"/>
@@ -40368,14 +40078,14 @@
       </c>
     </row>
     <row r="116" spans="2:20" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="104"/>
-      <c r="C116" s="105"/>
-      <c r="D116" s="105"/>
-      <c r="E116" s="106"/>
-      <c r="F116" s="105"/>
-      <c r="G116" s="107"/>
-      <c r="H116" s="108"/>
-      <c r="I116" s="105"/>
+      <c r="B116" s="105"/>
+      <c r="C116" s="115"/>
+      <c r="D116" s="115"/>
+      <c r="E116" s="116"/>
+      <c r="F116" s="115"/>
+      <c r="G116" s="117"/>
+      <c r="H116" s="114"/>
+      <c r="I116" s="115"/>
       <c r="J116" s="30"/>
       <c r="K116" s="38" t="s">
         <v>272</v>
@@ -40405,14 +40115,14 @@
       </c>
     </row>
     <row r="117" spans="2:20" s="37" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="104"/>
-      <c r="C117" s="105"/>
-      <c r="D117" s="105"/>
-      <c r="E117" s="106"/>
-      <c r="F117" s="105"/>
-      <c r="G117" s="107"/>
-      <c r="H117" s="108"/>
-      <c r="I117" s="105"/>
+      <c r="B117" s="105"/>
+      <c r="C117" s="115"/>
+      <c r="D117" s="115"/>
+      <c r="E117" s="116"/>
+      <c r="F117" s="115"/>
+      <c r="G117" s="117"/>
+      <c r="H117" s="114"/>
+      <c r="I117" s="115"/>
       <c r="J117" s="30"/>
       <c r="K117" s="38" t="s">
         <v>278</v>
@@ -40564,96 +40274,113 @@
     <row r="179" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="221">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="F2:F12"/>
-    <mergeCell ref="E2:E12"/>
-    <mergeCell ref="D2:D12"/>
-    <mergeCell ref="C2:C12"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M2:M11"/>
-    <mergeCell ref="J2:J12"/>
-    <mergeCell ref="I2:I12"/>
-    <mergeCell ref="H2:H12"/>
-    <mergeCell ref="G2:G12"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="M105:M106"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="F110:F112"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="H115:H117"/>
+    <mergeCell ref="I115:I117"/>
+    <mergeCell ref="M115:M116"/>
+    <mergeCell ref="H110:H112"/>
+    <mergeCell ref="I110:I112"/>
+    <mergeCell ref="M110:M111"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="C115:C117"/>
+    <mergeCell ref="D115:D117"/>
+    <mergeCell ref="E115:E117"/>
+    <mergeCell ref="F115:F117"/>
+    <mergeCell ref="G115:G117"/>
+    <mergeCell ref="K104:L104"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="F105:F107"/>
+    <mergeCell ref="G105:G107"/>
+    <mergeCell ref="H105:H107"/>
+    <mergeCell ref="I105:I107"/>
+    <mergeCell ref="M90:M91"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="F100:F102"/>
+    <mergeCell ref="G100:G102"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="I100:I102"/>
+    <mergeCell ref="M100:M101"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="H90:H92"/>
+    <mergeCell ref="I90:I92"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="G80:G82"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="M65:M66"/>
     <mergeCell ref="M50:M51"/>
     <mergeCell ref="K94:L94"/>
     <mergeCell ref="B95:B97"/>
@@ -40678,113 +40405,96 @@
     <mergeCell ref="K59:L59"/>
     <mergeCell ref="B60:B62"/>
     <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="F70:F72"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="H70:H72"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="G80:G82"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="G85:G87"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="H90:H92"/>
-    <mergeCell ref="I90:I92"/>
-    <mergeCell ref="M90:M91"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="F100:F102"/>
-    <mergeCell ref="G100:G102"/>
-    <mergeCell ref="H100:H102"/>
-    <mergeCell ref="I100:I102"/>
-    <mergeCell ref="M100:M101"/>
-    <mergeCell ref="K104:L104"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="F105:F107"/>
-    <mergeCell ref="G105:G107"/>
-    <mergeCell ref="H105:H107"/>
-    <mergeCell ref="I105:I107"/>
-    <mergeCell ref="M105:M106"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="F110:F112"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="H115:H117"/>
-    <mergeCell ref="I115:I117"/>
-    <mergeCell ref="M115:M116"/>
-    <mergeCell ref="H110:H112"/>
-    <mergeCell ref="I110:I112"/>
-    <mergeCell ref="M110:M111"/>
-    <mergeCell ref="K114:L114"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="C115:C117"/>
-    <mergeCell ref="D115:D117"/>
-    <mergeCell ref="E115:E117"/>
-    <mergeCell ref="F115:F117"/>
-    <mergeCell ref="G115:G117"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="F2:F12"/>
+    <mergeCell ref="E2:E12"/>
+    <mergeCell ref="D2:D12"/>
+    <mergeCell ref="C2:C12"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M2:M11"/>
+    <mergeCell ref="J2:J12"/>
+    <mergeCell ref="I2:I12"/>
+    <mergeCell ref="H2:H12"/>
+    <mergeCell ref="G2:G12"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
